--- a/New_StarChallenge/NewStarChallenge.xlsx
+++ b/New_StarChallenge/NewStarChallenge.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/fotoable/Gamedev_Tools/New_StarChallenge/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4B931015-40A1-AF49-8127-928B9E2CB0AC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FDA50649-ADA4-8A43-AE23-FED2F2C0AD84}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-1960" yWindow="-20160" windowWidth="35300" windowHeight="18840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="53">
   <si>
     <t>Easy</t>
   </si>
@@ -44,9 +44,6 @@
     <t>礼包档位</t>
   </si>
   <si>
-    <t>奖励内容</t>
-  </si>
-  <si>
     <t>解锁星数</t>
   </si>
   <si>
@@ -119,9 +116,6 @@
     <t>指针速度</t>
   </si>
   <si>
-    <t>假设移风偏差</t>
-  </si>
-  <si>
     <t>每天投放次数</t>
   </si>
   <si>
@@ -165,21 +159,51 @@
   </si>
   <si>
     <t>最高第三</t>
+  </si>
+  <si>
+    <t>values</t>
+  </si>
+  <si>
+    <t>3 to 7</t>
+  </si>
+  <si>
+    <t>6 to 9</t>
+  </si>
+  <si>
+    <t>8 to 12</t>
+  </si>
+  <si>
+    <t>12 to 20</t>
+  </si>
+  <si>
+    <t>星星半径 = (击打距离*0.1*允许移风偏差/风环最外环大小) + (击打距离*0.2*允许偏差/0.5)</t>
+  </si>
+  <si>
+    <t>允许移风偏差</t>
+  </si>
+  <si>
+    <t>允许击球偏差</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1">
+  <fonts count="2">
     <font>
       <sz val="12"/>
       <color theme="1"/>
       <name val="苹方-简"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="6">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -207,6 +231,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="5" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -238,13 +268,15 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -560,10 +592,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:P58"/>
+  <dimension ref="A1:R58"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N19" sqref="N19"/>
+    <sheetView tabSelected="1" zoomScale="112" workbookViewId="0">
+      <selection activeCell="G11" sqref="G11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="19"/>
@@ -571,7 +603,7 @@
     <col min="1" max="1" width="12.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16">
+    <row r="1" spans="1:18">
       <c r="B1" t="s">
         <v>0</v>
       </c>
@@ -587,16 +619,25 @@
       <c r="H1" t="s">
         <v>4</v>
       </c>
-      <c r="N1" t="s">
+      <c r="N1" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="P1" t="s">
+      <c r="O1" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="P1" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="Q1" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="R1" s="6" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="2" spans="1:18">
+      <c r="A2" t="s">
         <v>6</v>
-      </c>
-    </row>
-    <row r="2" spans="1:16">
-      <c r="A2" t="s">
-        <v>7</v>
       </c>
       <c r="B2">
         <v>0</v>
@@ -611,18 +652,19 @@
         <v>30</v>
       </c>
       <c r="H2" t="s">
-        <v>8</v>
-      </c>
-      <c r="N2">
+        <v>7</v>
+      </c>
+      <c r="N2" s="6">
         <v>3.99</v>
       </c>
-      <c r="P2" t="s">
+      <c r="O2" s="6"/>
+      <c r="P2" s="6"/>
+      <c r="Q2" s="6"/>
+      <c r="R2" s="6"/>
+    </row>
+    <row r="3" spans="1:18">
+      <c r="A3" t="s">
         <v>9</v>
-      </c>
-    </row>
-    <row r="3" spans="1:16">
-      <c r="A3" t="s">
-        <v>10</v>
       </c>
       <c r="B3">
         <v>1</v>
@@ -637,44 +679,46 @@
         <v>4</v>
       </c>
       <c r="H3" t="s">
-        <v>11</v>
-      </c>
-      <c r="N3">
+        <v>10</v>
+      </c>
+      <c r="N3" s="6">
         <v>7.99</v>
       </c>
-      <c r="P3" t="s">
+      <c r="O3" s="6"/>
+      <c r="P3" s="6"/>
+      <c r="Q3" s="6"/>
+      <c r="R3" s="6"/>
+    </row>
+    <row r="4" spans="1:18">
+      <c r="A4" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="4" spans="1:16">
-      <c r="A4" t="s">
+      <c r="B4" t="s">
         <v>13</v>
       </c>
-      <c r="B4" t="s">
+      <c r="C4" t="s">
         <v>14</v>
       </c>
-      <c r="C4" t="s">
+      <c r="D4" t="s">
         <v>15</v>
       </c>
-      <c r="D4" t="s">
+      <c r="E4" t="s">
         <v>16</v>
       </c>
-      <c r="E4" t="s">
+      <c r="H4" t="s">
         <v>17</v>
       </c>
-      <c r="H4" t="s">
-        <v>18</v>
-      </c>
-      <c r="N4">
+      <c r="N4" s="6">
         <v>16.989999999999998</v>
       </c>
-      <c r="P4" t="s">
+      <c r="O4" s="6"/>
+      <c r="P4" s="6"/>
+      <c r="Q4" s="6"/>
+      <c r="R4" s="6"/>
+    </row>
+    <row r="5" spans="1:18">
+      <c r="A5" t="s">
         <v>19</v>
-      </c>
-    </row>
-    <row r="5" spans="1:16">
-      <c r="A5" t="s">
-        <v>20</v>
       </c>
       <c r="B5">
         <v>2</v>
@@ -689,15 +733,19 @@
         <v>6</v>
       </c>
       <c r="H5" t="s">
+        <v>20</v>
+      </c>
+      <c r="N5" s="6">
+        <v>34.99</v>
+      </c>
+      <c r="O5" s="6"/>
+      <c r="P5" s="6"/>
+      <c r="Q5" s="6"/>
+      <c r="R5" s="6"/>
+    </row>
+    <row r="6" spans="1:18">
+      <c r="A6" t="s">
         <v>21</v>
-      </c>
-      <c r="N5">
-        <v>34.99</v>
-      </c>
-    </row>
-    <row r="6" spans="1:16">
-      <c r="A6" t="s">
-        <v>22</v>
       </c>
       <c r="B6">
         <v>3</v>
@@ -711,13 +759,17 @@
       <c r="E6">
         <v>3</v>
       </c>
-      <c r="N6">
+      <c r="N6" s="6">
         <v>54.99</v>
       </c>
-    </row>
-    <row r="7" spans="1:16">
+      <c r="O6" s="6"/>
+      <c r="P6" s="6"/>
+      <c r="Q6" s="6"/>
+      <c r="R6" s="6"/>
+    </row>
+    <row r="7" spans="1:18">
       <c r="A7" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B7">
         <v>2</v>
@@ -731,13 +783,17 @@
       <c r="E7">
         <v>0</v>
       </c>
-      <c r="N7">
+      <c r="N7" s="6">
         <v>79.989999999999995</v>
       </c>
-    </row>
-    <row r="8" spans="1:16">
+      <c r="O7" s="6"/>
+      <c r="P7" s="6"/>
+      <c r="Q7" s="6"/>
+      <c r="R7" s="6"/>
+    </row>
+    <row r="8" spans="1:18">
       <c r="A8" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B8" s="1">
         <v>5</v>
@@ -752,9 +808,9 @@
         <v>5</v>
       </c>
     </row>
-    <row r="9" spans="1:16">
+    <row r="9" spans="1:18">
       <c r="A9" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B9" s="1">
         <v>2</v>
@@ -769,9 +825,9 @@
         <v>10</v>
       </c>
     </row>
-    <row r="10" spans="1:16">
+    <row r="10" spans="1:18">
       <c r="A10" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B10">
         <v>7</v>
@@ -786,9 +842,9 @@
         <v>7</v>
       </c>
     </row>
-    <row r="12" spans="1:16">
+    <row r="12" spans="1:18">
       <c r="A12" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B12">
         <v>6</v>
@@ -803,9 +859,9 @@
         <v>16</v>
       </c>
     </row>
-    <row r="13" spans="1:16">
+    <row r="13" spans="1:18">
       <c r="A13" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B13">
         <v>5</v>
@@ -820,24 +876,80 @@
         <v>22</v>
       </c>
     </row>
-    <row r="15" spans="1:16">
+    <row r="15" spans="1:18">
       <c r="A15" t="s">
+        <v>28</v>
+      </c>
+      <c r="B15" t="s">
+        <v>46</v>
+      </c>
+      <c r="C15" t="s">
+        <v>47</v>
+      </c>
+      <c r="D15" t="s">
+        <v>48</v>
+      </c>
+      <c r="E15" t="s">
+        <v>49</v>
+      </c>
+      <c r="H15" s="7" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18">
+      <c r="A16" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="16" spans="1:16">
-      <c r="A16" t="s">
-        <v>30</v>
+      <c r="B16">
+        <v>1</v>
+      </c>
+      <c r="C16">
+        <v>1</v>
+      </c>
+      <c r="D16">
+        <v>1.1499999999999999</v>
+      </c>
+      <c r="E16">
+        <v>1.3</v>
       </c>
     </row>
     <row r="17" spans="1:9">
       <c r="A17" t="s">
-        <v>31</v>
+        <v>51</v>
+      </c>
+      <c r="B17">
+        <v>2</v>
+      </c>
+      <c r="C17">
+        <v>1.5</v>
+      </c>
+      <c r="D17">
+        <v>1</v>
+      </c>
+      <c r="E17">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9">
+      <c r="A18" t="s">
+        <v>52</v>
+      </c>
+      <c r="B18">
+        <v>0.1</v>
+      </c>
+      <c r="C18">
+        <v>7.4999999999999997E-2</v>
+      </c>
+      <c r="D18">
+        <v>0.5</v>
+      </c>
+      <c r="E18">
+        <v>2.5000000000000001E-2</v>
       </c>
     </row>
     <row r="22" spans="1:9">
       <c r="A22" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="B22">
         <v>8</v>
@@ -845,29 +957,29 @@
     </row>
     <row r="24" spans="1:9">
       <c r="A24" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="B24" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="C24" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="B24" s="2" t="s">
+      <c r="D24" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="C24" s="2" t="s">
+      <c r="E24" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="D24" s="2" t="s">
+      <c r="F24" s="2" t="s">
         <v>36</v>
-      </c>
-      <c r="E24" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="F24" s="2" t="s">
-        <v>38</v>
       </c>
       <c r="G24" s="2"/>
       <c r="H24" s="2" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="I24" s="2" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
     </row>
     <row r="25" spans="1:9">
@@ -878,22 +990,24 @@
         <v>123.5</v>
       </c>
       <c r="C25" s="2">
-        <v>213</v>
+        <v>167.5</v>
       </c>
       <c r="D25" s="2">
-        <v>257</v>
+        <v>211.5</v>
       </c>
       <c r="E25" s="2">
-        <v>301</v>
+        <v>255.5</v>
       </c>
       <c r="F25" s="2">
-        <v>345</v>
+        <v>299.5</v>
       </c>
       <c r="G25" s="2"/>
       <c r="H25" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="I25" s="2"/>
+        <v>39</v>
+      </c>
+      <c r="I25" s="2">
+        <v>1</v>
+      </c>
     </row>
     <row r="26" spans="1:9">
       <c r="A26" s="2">
@@ -903,22 +1017,24 @@
         <v>299.5</v>
       </c>
       <c r="C26" s="2">
-        <v>433</v>
+        <v>387.5</v>
       </c>
       <c r="D26" s="2">
-        <v>521</v>
+        <v>475.5</v>
       </c>
       <c r="E26" s="2">
-        <v>609</v>
+        <v>563.5</v>
       </c>
       <c r="F26" s="2">
-        <v>697</v>
+        <v>651.5</v>
       </c>
       <c r="G26" s="2"/>
       <c r="H26" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="I26" s="2"/>
+        <v>40</v>
+      </c>
+      <c r="I26" s="2">
+        <v>1</v>
+      </c>
     </row>
     <row r="27" spans="1:9">
       <c r="A27" s="2">
@@ -928,22 +1044,24 @@
         <v>475.5</v>
       </c>
       <c r="C27" s="2">
-        <v>653</v>
+        <v>607.5</v>
       </c>
       <c r="D27" s="2">
-        <v>785</v>
+        <v>739.5</v>
       </c>
       <c r="E27" s="2">
-        <v>917</v>
+        <v>871.5</v>
       </c>
       <c r="F27" s="2">
-        <v>1049</v>
+        <v>1003.5</v>
       </c>
       <c r="G27" s="2"/>
       <c r="H27" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="I27" s="2"/>
+        <v>41</v>
+      </c>
+      <c r="I27" s="2">
+        <v>1</v>
+      </c>
     </row>
     <row r="28" spans="1:9">
       <c r="A28" s="2">
@@ -953,16 +1071,16 @@
         <v>651.5</v>
       </c>
       <c r="C28" s="2">
-        <v>873</v>
+        <v>827.5</v>
       </c>
       <c r="D28" s="2">
-        <v>1049</v>
+        <v>1003.5</v>
       </c>
       <c r="E28" s="2">
-        <v>1225</v>
+        <v>1179.5</v>
       </c>
       <c r="F28" s="2">
-        <v>1401</v>
+        <v>1355.5</v>
       </c>
       <c r="G28" s="2"/>
       <c r="H28" s="2"/>
@@ -976,16 +1094,16 @@
         <v>827.5</v>
       </c>
       <c r="C29" s="2">
-        <v>1093</v>
+        <v>1047.5</v>
       </c>
       <c r="D29" s="2">
-        <v>1313</v>
+        <v>1267.5</v>
       </c>
       <c r="E29" s="2">
-        <v>1533</v>
+        <v>1487.5</v>
       </c>
       <c r="F29" s="2">
-        <v>1753</v>
+        <v>1707.5</v>
       </c>
       <c r="G29" s="2"/>
       <c r="H29" s="2"/>
@@ -999,16 +1117,16 @@
         <v>1003.5</v>
       </c>
       <c r="C30" s="2">
-        <v>1313</v>
+        <v>1267.5</v>
       </c>
       <c r="D30" s="2">
-        <v>1577</v>
+        <v>1531.5</v>
       </c>
       <c r="E30" s="2">
-        <v>1841</v>
+        <v>1795.5</v>
       </c>
       <c r="F30" s="2">
-        <v>2105</v>
+        <v>2059.5</v>
       </c>
       <c r="G30" s="2"/>
       <c r="H30" s="2"/>
@@ -1022,16 +1140,16 @@
         <v>1179.5</v>
       </c>
       <c r="C31" s="2">
-        <v>1533</v>
+        <v>1487.5</v>
       </c>
       <c r="D31" s="2">
-        <v>1841</v>
+        <v>1795.5</v>
       </c>
       <c r="E31" s="2">
-        <v>2149</v>
+        <v>2103.5</v>
       </c>
       <c r="F31" s="2">
-        <v>2457</v>
+        <v>2411.5</v>
       </c>
       <c r="G31" s="2"/>
       <c r="H31" s="2"/>
@@ -1039,43 +1157,53 @@
     </row>
     <row r="33" spans="1:9">
       <c r="A33" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="B33" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="C33" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="B33" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="C33" s="3" t="s">
+      <c r="D33" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="E33" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="D33" s="3" t="s">
+      <c r="F33" s="3" t="s">
         <v>36</v>
-      </c>
-      <c r="E33" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="F33" s="3" t="s">
-        <v>38</v>
       </c>
       <c r="G33" s="3"/>
       <c r="H33" s="3" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="I33" s="3" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
     </row>
     <row r="34" spans="1:9">
       <c r="A34" s="3">
         <v>1</v>
       </c>
-      <c r="B34" s="3"/>
-      <c r="C34" s="3"/>
-      <c r="D34" s="3"/>
-      <c r="E34" s="3"/>
-      <c r="F34" s="3"/>
+      <c r="B34" s="3">
+        <v>40</v>
+      </c>
+      <c r="C34" s="3">
+        <v>50</v>
+      </c>
+      <c r="D34" s="3">
+        <v>60</v>
+      </c>
+      <c r="E34" s="3">
+        <v>70</v>
+      </c>
+      <c r="F34" s="3">
+        <v>80</v>
+      </c>
       <c r="G34" s="3"/>
       <c r="H34" s="3" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="I34" s="3"/>
     </row>
@@ -1083,14 +1211,24 @@
       <c r="A35" s="3">
         <v>2</v>
       </c>
-      <c r="B35" s="3"/>
-      <c r="C35" s="3"/>
-      <c r="D35" s="3"/>
-      <c r="E35" s="3"/>
-      <c r="F35" s="3"/>
+      <c r="B35" s="3">
+        <v>80</v>
+      </c>
+      <c r="C35" s="3">
+        <v>100</v>
+      </c>
+      <c r="D35" s="3">
+        <v>120</v>
+      </c>
+      <c r="E35" s="3">
+        <v>140</v>
+      </c>
+      <c r="F35" s="3">
+        <v>160</v>
+      </c>
       <c r="G35" s="3"/>
       <c r="H35" s="3" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="I35" s="3"/>
     </row>
@@ -1098,14 +1236,24 @@
       <c r="A36" s="3">
         <v>3</v>
       </c>
-      <c r="B36" s="3"/>
-      <c r="C36" s="3"/>
-      <c r="D36" s="3"/>
-      <c r="E36" s="3"/>
-      <c r="F36" s="3"/>
+      <c r="B36" s="3">
+        <v>120</v>
+      </c>
+      <c r="C36" s="3">
+        <v>150</v>
+      </c>
+      <c r="D36" s="3">
+        <v>180</v>
+      </c>
+      <c r="E36" s="3">
+        <v>210</v>
+      </c>
+      <c r="F36" s="3">
+        <v>240</v>
+      </c>
       <c r="G36" s="3"/>
       <c r="H36" s="3" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="I36" s="3"/>
     </row>
@@ -1113,11 +1261,21 @@
       <c r="A37" s="3">
         <v>4</v>
       </c>
-      <c r="B37" s="3"/>
-      <c r="C37" s="3"/>
-      <c r="D37" s="3"/>
-      <c r="E37" s="3"/>
-      <c r="F37" s="3"/>
+      <c r="B37" s="3">
+        <v>160</v>
+      </c>
+      <c r="C37" s="3">
+        <v>200</v>
+      </c>
+      <c r="D37" s="3">
+        <v>240</v>
+      </c>
+      <c r="E37" s="3">
+        <v>280</v>
+      </c>
+      <c r="F37" s="3">
+        <v>320</v>
+      </c>
       <c r="G37" s="3"/>
       <c r="H37" s="3"/>
       <c r="I37" s="3"/>
@@ -1126,11 +1284,21 @@
       <c r="A38" s="3">
         <v>5</v>
       </c>
-      <c r="B38" s="3"/>
-      <c r="C38" s="3"/>
-      <c r="D38" s="3"/>
-      <c r="E38" s="3"/>
-      <c r="F38" s="3"/>
+      <c r="B38" s="3">
+        <v>200</v>
+      </c>
+      <c r="C38" s="3">
+        <v>250</v>
+      </c>
+      <c r="D38" s="3">
+        <v>300</v>
+      </c>
+      <c r="E38" s="3">
+        <v>350</v>
+      </c>
+      <c r="F38" s="3">
+        <v>400</v>
+      </c>
       <c r="G38" s="3"/>
       <c r="H38" s="3"/>
       <c r="I38" s="3"/>
@@ -1139,11 +1307,21 @@
       <c r="A39" s="3">
         <v>6</v>
       </c>
-      <c r="B39" s="3"/>
-      <c r="C39" s="3"/>
-      <c r="D39" s="3"/>
-      <c r="E39" s="3"/>
-      <c r="F39" s="3"/>
+      <c r="B39" s="3">
+        <v>240</v>
+      </c>
+      <c r="C39" s="3">
+        <v>300</v>
+      </c>
+      <c r="D39" s="3">
+        <v>360</v>
+      </c>
+      <c r="E39" s="3">
+        <v>420</v>
+      </c>
+      <c r="F39" s="3">
+        <v>480</v>
+      </c>
       <c r="G39" s="3"/>
       <c r="H39" s="3"/>
       <c r="I39" s="3"/>
@@ -1152,69 +1330,101 @@
       <c r="A40" s="3">
         <v>7</v>
       </c>
-      <c r="B40" s="3"/>
-      <c r="C40" s="3"/>
-      <c r="D40" s="3"/>
-      <c r="E40" s="3"/>
-      <c r="F40" s="3"/>
+      <c r="B40" s="3">
+        <v>280</v>
+      </c>
+      <c r="C40" s="3">
+        <v>350</v>
+      </c>
+      <c r="D40" s="3">
+        <v>420</v>
+      </c>
+      <c r="E40" s="3">
+        <v>490</v>
+      </c>
+      <c r="F40" s="3">
+        <v>560</v>
+      </c>
       <c r="G40" s="3"/>
       <c r="H40" s="3"/>
       <c r="I40" s="3"/>
     </row>
     <row r="42" spans="1:9">
       <c r="A42" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="B42" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="C42" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="B42" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="C42" s="4" t="s">
+      <c r="D42" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="E42" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="D42" s="4" t="s">
+      <c r="F42" s="4" t="s">
         <v>36</v>
-      </c>
-      <c r="E42" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="F42" s="4" t="s">
-        <v>38</v>
       </c>
       <c r="G42" s="4"/>
       <c r="H42" s="4" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="I42" s="4" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
     </row>
     <row r="43" spans="1:9">
       <c r="A43" s="4">
         <v>1</v>
       </c>
-      <c r="B43" s="4"/>
-      <c r="C43" s="4"/>
-      <c r="D43" s="4"/>
-      <c r="E43" s="4"/>
-      <c r="F43" s="4"/>
+      <c r="B43" s="4">
+        <v>73</v>
+      </c>
+      <c r="C43" s="4">
+        <v>83.5</v>
+      </c>
+      <c r="D43" s="4">
+        <v>104.5</v>
+      </c>
+      <c r="E43" s="4">
+        <v>125.5</v>
+      </c>
+      <c r="F43" s="4">
+        <v>146.5</v>
+      </c>
       <c r="G43" s="4"/>
       <c r="H43" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="I43" s="4"/>
+        <v>39</v>
+      </c>
+      <c r="I43" s="4">
+        <v>1</v>
+      </c>
     </row>
     <row r="44" spans="1:9">
       <c r="A44" s="4">
         <v>2</v>
       </c>
-      <c r="B44" s="4"/>
-      <c r="C44" s="4"/>
-      <c r="D44" s="4"/>
-      <c r="E44" s="4"/>
-      <c r="F44" s="4"/>
+      <c r="B44" s="4">
+        <v>157</v>
+      </c>
+      <c r="C44" s="4">
+        <v>188.5</v>
+      </c>
+      <c r="D44" s="4">
+        <v>230.5</v>
+      </c>
+      <c r="E44" s="4">
+        <v>272.5</v>
+      </c>
+      <c r="F44" s="4">
+        <v>314.5</v>
+      </c>
       <c r="G44" s="4"/>
       <c r="H44" s="4" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="I44" s="4"/>
     </row>
@@ -1222,14 +1432,24 @@
       <c r="A45" s="4">
         <v>3</v>
       </c>
-      <c r="B45" s="4"/>
-      <c r="C45" s="4"/>
-      <c r="D45" s="4"/>
-      <c r="E45" s="4"/>
-      <c r="F45" s="4"/>
+      <c r="B45" s="4">
+        <v>241</v>
+      </c>
+      <c r="C45" s="4">
+        <v>293.5</v>
+      </c>
+      <c r="D45" s="4">
+        <v>356.5</v>
+      </c>
+      <c r="E45" s="4">
+        <v>419.5</v>
+      </c>
+      <c r="F45" s="4">
+        <v>482.5</v>
+      </c>
       <c r="G45" s="4"/>
       <c r="H45" s="4" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="I45" s="4"/>
     </row>
@@ -1237,11 +1457,21 @@
       <c r="A46" s="4">
         <v>4</v>
       </c>
-      <c r="B46" s="4"/>
-      <c r="C46" s="4"/>
-      <c r="D46" s="4"/>
-      <c r="E46" s="4"/>
-      <c r="F46" s="4"/>
+      <c r="B46" s="4">
+        <v>325</v>
+      </c>
+      <c r="C46" s="4">
+        <v>398.5</v>
+      </c>
+      <c r="D46" s="4">
+        <v>482.5</v>
+      </c>
+      <c r="E46" s="4">
+        <v>566.5</v>
+      </c>
+      <c r="F46" s="4">
+        <v>650.5</v>
+      </c>
       <c r="G46" s="4"/>
       <c r="H46" s="4"/>
       <c r="I46" s="4"/>
@@ -1250,11 +1480,21 @@
       <c r="A47" s="4">
         <v>5</v>
       </c>
-      <c r="B47" s="4"/>
-      <c r="C47" s="4"/>
-      <c r="D47" s="4"/>
-      <c r="E47" s="4"/>
-      <c r="F47" s="4"/>
+      <c r="B47" s="4">
+        <v>409</v>
+      </c>
+      <c r="C47" s="4">
+        <v>503.5</v>
+      </c>
+      <c r="D47" s="4">
+        <v>608.5</v>
+      </c>
+      <c r="E47" s="4">
+        <v>713.5</v>
+      </c>
+      <c r="F47" s="4">
+        <v>818.5</v>
+      </c>
       <c r="G47" s="4"/>
       <c r="H47" s="4"/>
       <c r="I47" s="4"/>
@@ -1263,11 +1503,21 @@
       <c r="A48" s="4">
         <v>6</v>
       </c>
-      <c r="B48" s="4"/>
-      <c r="C48" s="4"/>
-      <c r="D48" s="4"/>
-      <c r="E48" s="4"/>
-      <c r="F48" s="4"/>
+      <c r="B48" s="4">
+        <v>493</v>
+      </c>
+      <c r="C48" s="4">
+        <v>608.5</v>
+      </c>
+      <c r="D48" s="4">
+        <v>734.5</v>
+      </c>
+      <c r="E48" s="4">
+        <v>860.5</v>
+      </c>
+      <c r="F48" s="4">
+        <v>986.5</v>
+      </c>
       <c r="G48" s="4"/>
       <c r="H48" s="4"/>
       <c r="I48" s="4"/>
@@ -1276,84 +1526,128 @@
       <c r="A49" s="4">
         <v>7</v>
       </c>
-      <c r="B49" s="4"/>
-      <c r="C49" s="4"/>
-      <c r="D49" s="4"/>
-      <c r="E49" s="4"/>
-      <c r="F49" s="4"/>
+      <c r="B49" s="4">
+        <v>577</v>
+      </c>
+      <c r="C49" s="4">
+        <v>713.5</v>
+      </c>
+      <c r="D49" s="4">
+        <v>860.5</v>
+      </c>
+      <c r="E49" s="4">
+        <v>1007.5</v>
+      </c>
+      <c r="F49" s="4">
+        <v>1154.5</v>
+      </c>
       <c r="G49" s="4"/>
       <c r="H49" s="4"/>
       <c r="I49" s="4"/>
     </row>
     <row r="51" spans="1:9">
       <c r="A51" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="B51" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="C51" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="B51" s="5" t="s">
-        <v>46</v>
-      </c>
-      <c r="C51" s="5" t="s">
+      <c r="D51" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="E51" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="D51" s="5" t="s">
+      <c r="F51" s="5" t="s">
         <v>36</v>
-      </c>
-      <c r="E51" s="5" t="s">
-        <v>37</v>
-      </c>
-      <c r="F51" s="5" t="s">
-        <v>38</v>
       </c>
       <c r="G51" s="5"/>
       <c r="H51" s="5" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="I51" s="5" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
     </row>
     <row r="52" spans="1:9">
       <c r="A52" s="5">
         <v>1</v>
       </c>
-      <c r="B52" s="5"/>
-      <c r="C52" s="5"/>
-      <c r="D52" s="5"/>
-      <c r="E52" s="5"/>
-      <c r="F52" s="5"/>
+      <c r="B52" s="5">
+        <v>95.5</v>
+      </c>
+      <c r="C52" s="5">
+        <v>145.5</v>
+      </c>
+      <c r="D52" s="5">
+        <v>175.5</v>
+      </c>
+      <c r="E52" s="5">
+        <v>205.5</v>
+      </c>
+      <c r="F52" s="5">
+        <v>235.5</v>
+      </c>
       <c r="G52" s="5"/>
       <c r="H52" s="5" t="s">
-        <v>41</v>
-      </c>
-      <c r="I52" s="5"/>
+        <v>39</v>
+      </c>
+      <c r="I52" s="5">
+        <v>1</v>
+      </c>
     </row>
     <row r="53" spans="1:9">
       <c r="A53" s="5">
         <v>2</v>
       </c>
-      <c r="B53" s="5"/>
-      <c r="C53" s="5"/>
-      <c r="D53" s="5"/>
-      <c r="E53" s="5"/>
-      <c r="F53" s="5"/>
+      <c r="B53" s="5">
+        <v>215.5</v>
+      </c>
+      <c r="C53" s="5">
+        <v>295.5</v>
+      </c>
+      <c r="D53" s="5">
+        <v>355.5</v>
+      </c>
+      <c r="E53" s="5">
+        <v>415.5</v>
+      </c>
+      <c r="F53" s="5">
+        <v>475.5</v>
+      </c>
       <c r="G53" s="5"/>
       <c r="H53" s="5" t="s">
-        <v>42</v>
-      </c>
-      <c r="I53" s="5"/>
+        <v>40</v>
+      </c>
+      <c r="I53" s="5">
+        <v>1</v>
+      </c>
     </row>
     <row r="54" spans="1:9">
       <c r="A54" s="5">
         <v>3</v>
       </c>
-      <c r="B54" s="5"/>
-      <c r="C54" s="5"/>
-      <c r="D54" s="5"/>
-      <c r="E54" s="5"/>
-      <c r="F54" s="5"/>
+      <c r="B54" s="5">
+        <v>335.5</v>
+      </c>
+      <c r="C54" s="5">
+        <v>445.5</v>
+      </c>
+      <c r="D54" s="5">
+        <v>535.5</v>
+      </c>
+      <c r="E54" s="5">
+        <v>625.5</v>
+      </c>
+      <c r="F54" s="5">
+        <v>715.5</v>
+      </c>
       <c r="G54" s="5"/>
       <c r="H54" s="5" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="I54" s="5"/>
     </row>
@@ -1361,11 +1655,21 @@
       <c r="A55" s="5">
         <v>4</v>
       </c>
-      <c r="B55" s="5"/>
-      <c r="C55" s="5"/>
-      <c r="D55" s="5"/>
-      <c r="E55" s="5"/>
-      <c r="F55" s="5"/>
+      <c r="B55" s="5">
+        <v>455.5</v>
+      </c>
+      <c r="C55" s="5">
+        <v>595.5</v>
+      </c>
+      <c r="D55" s="5">
+        <v>715.5</v>
+      </c>
+      <c r="E55" s="5">
+        <v>835.5</v>
+      </c>
+      <c r="F55" s="5">
+        <v>955.5</v>
+      </c>
       <c r="G55" s="5"/>
       <c r="H55" s="5"/>
       <c r="I55" s="5"/>
@@ -1374,11 +1678,21 @@
       <c r="A56" s="5">
         <v>5</v>
       </c>
-      <c r="B56" s="5"/>
-      <c r="C56" s="5"/>
-      <c r="D56" s="5"/>
-      <c r="E56" s="5"/>
-      <c r="F56" s="5"/>
+      <c r="B56" s="5">
+        <v>575.5</v>
+      </c>
+      <c r="C56" s="5">
+        <v>745.5</v>
+      </c>
+      <c r="D56" s="5">
+        <v>895.5</v>
+      </c>
+      <c r="E56" s="5">
+        <v>1045.5</v>
+      </c>
+      <c r="F56" s="5">
+        <v>1195.5</v>
+      </c>
       <c r="G56" s="5"/>
       <c r="H56" s="5"/>
       <c r="I56" s="5"/>
@@ -1387,11 +1701,21 @@
       <c r="A57" s="5">
         <v>6</v>
       </c>
-      <c r="B57" s="5"/>
-      <c r="C57" s="5"/>
-      <c r="D57" s="5"/>
-      <c r="E57" s="5"/>
-      <c r="F57" s="5"/>
+      <c r="B57" s="5">
+        <v>695.5</v>
+      </c>
+      <c r="C57" s="5">
+        <v>895.5</v>
+      </c>
+      <c r="D57" s="5">
+        <v>1075.5</v>
+      </c>
+      <c r="E57" s="5">
+        <v>1255.5</v>
+      </c>
+      <c r="F57" s="5">
+        <v>1435.5</v>
+      </c>
       <c r="G57" s="5"/>
       <c r="H57" s="5"/>
       <c r="I57" s="5"/>
@@ -1400,11 +1724,21 @@
       <c r="A58" s="5">
         <v>7</v>
       </c>
-      <c r="B58" s="5"/>
-      <c r="C58" s="5"/>
-      <c r="D58" s="5"/>
-      <c r="E58" s="5"/>
-      <c r="F58" s="5"/>
+      <c r="B58" s="5">
+        <v>815.5</v>
+      </c>
+      <c r="C58" s="5">
+        <v>1045.5</v>
+      </c>
+      <c r="D58" s="5">
+        <v>1255.5</v>
+      </c>
+      <c r="E58" s="5">
+        <v>1465.5</v>
+      </c>
+      <c r="F58" s="5">
+        <v>1675.5</v>
+      </c>
       <c r="G58" s="5"/>
       <c r="H58" s="5"/>
       <c r="I58" s="5"/>

--- a/New_StarChallenge/NewStarChallenge.xlsx
+++ b/New_StarChallenge/NewStarChallenge.xlsx
@@ -8,13 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/fotoable/Gamedev_Tools/New_StarChallenge/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{84210A44-E463-784C-88E3-DAF4D1490CD0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2D56E88A-68AF-584F-8221-1B880D552DE9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-2500" yWindow="-21600" windowWidth="19060" windowHeight="21600" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="33600" windowHeight="18780" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="礼包" sheetId="2" r:id="rId2"/>
+    <sheet name="数据" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -32,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="262" uniqueCount="131">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="303" uniqueCount="143">
   <si>
     <t>Easy</t>
   </si>
@@ -280,21 +281,12 @@
     <t>货币价值</t>
   </si>
   <si>
-    <t>打了多少局</t>
-  </si>
-  <si>
-    <t>打多少局得了奖励</t>
-  </si>
-  <si>
     <t>壁虎</t>
   </si>
   <si>
     <t>items*1</t>
   </si>
   <si>
-    <t>紫卡宝箱</t>
-  </si>
-  <si>
     <t>能量风暴</t>
   </si>
   <si>
@@ -418,20 +410,65 @@
     <t>ticket*5</t>
   </si>
   <si>
-    <t>传奇卡宝箱</t>
-  </si>
-  <si>
     <t>紫金宝箱</t>
   </si>
   <si>
     <t>特殊球*2</t>
+  </si>
+  <si>
+    <t>传奇钻石宝箱</t>
+  </si>
+  <si>
+    <t>第一天中途解锁Medium难度</t>
+  </si>
+  <si>
+    <t>第一天结束差一点解锁Hard难度</t>
+  </si>
+  <si>
+    <t>第二天结束差一点解锁NightMare难度</t>
+  </si>
+  <si>
+    <t>一般玩家★</t>
+  </si>
+  <si>
+    <t>tour_id</t>
+  </si>
+  <si>
+    <t>scene_id</t>
+  </si>
+  <si>
+    <t>par</t>
+  </si>
+  <si>
+    <t>max_stars</t>
+  </si>
+  <si>
+    <t>extra_star</t>
+  </si>
+  <si>
+    <t>star</t>
+  </si>
+  <si>
+    <t>Star数量</t>
+  </si>
+  <si>
+    <t>实际获得</t>
+  </si>
+  <si>
+    <t>获得比例</t>
+  </si>
+  <si>
+    <t>平均比例</t>
+  </si>
+  <si>
+    <t>一般玩家正常升级点数与进度</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7">
+  <fonts count="10">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -476,6 +513,26 @@
       <sz val="12"/>
       <color theme="1"/>
       <name val="苹方-简"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="苹方-简"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial"/>
       <family val="2"/>
     </font>
   </fonts>
@@ -524,13 +581,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor theme="3" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="3" tint="0.79998168889431442"/>
+        <fgColor theme="4" tint="0.39997558519241921"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -608,7 +665,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
@@ -624,16 +681,21 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="9" fontId="2" fillId="6" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="10" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -949,23 +1011,23 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:T58"/>
+  <dimension ref="A1:T68"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A34" zoomScale="107" workbookViewId="0">
-      <selection activeCell="C22" sqref="C22"/>
+    <sheetView tabSelected="1" topLeftCell="A45" zoomScale="107" workbookViewId="0">
+      <selection activeCell="L69" sqref="L69"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="19"/>
   <cols>
-    <col min="1" max="1" width="12.85546875" style="23" customWidth="1"/>
-    <col min="13" max="13" width="14.85546875" style="23" customWidth="1"/>
-    <col min="14" max="14" width="20.7109375" style="23" customWidth="1"/>
-    <col min="15" max="15" width="17.42578125" style="23" customWidth="1"/>
-    <col min="16" max="16" width="20.28515625" style="23" customWidth="1"/>
-    <col min="17" max="17" width="18.7109375" style="23" customWidth="1"/>
-    <col min="18" max="18" width="22" style="23" customWidth="1"/>
-    <col min="19" max="19" width="22.85546875" style="23" customWidth="1"/>
-    <col min="20" max="20" width="22.140625" style="23" customWidth="1"/>
+    <col min="1" max="1" width="12.85546875" style="22" customWidth="1"/>
+    <col min="13" max="13" width="14.85546875" style="22" customWidth="1"/>
+    <col min="14" max="14" width="20.7109375" style="22" customWidth="1"/>
+    <col min="15" max="15" width="17.42578125" style="22" customWidth="1"/>
+    <col min="16" max="16" width="20.28515625" style="22" customWidth="1"/>
+    <col min="17" max="17" width="18.7109375" style="22" customWidth="1"/>
+    <col min="18" max="18" width="22" style="22" customWidth="1"/>
+    <col min="19" max="19" width="22.85546875" style="22" customWidth="1"/>
+    <col min="20" max="20" width="22.140625" style="22" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:13">
@@ -982,14 +1044,14 @@
       <c r="E1" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="H1" s="22" t="s">
+      <c r="H1" s="21" t="s">
         <v>4</v>
       </c>
-      <c r="I1" s="22"/>
-      <c r="J1" s="22"/>
-      <c r="K1" s="22"/>
-      <c r="L1" s="22"/>
-      <c r="M1" s="22"/>
+      <c r="I1" s="21"/>
+      <c r="J1" s="21"/>
+      <c r="K1" s="21"/>
+      <c r="L1" s="21"/>
+      <c r="M1" s="21"/>
     </row>
     <row r="2" spans="1:13">
       <c r="A2" s="9" t="s">
@@ -1002,19 +1064,19 @@
         <v>80</v>
       </c>
       <c r="D2" s="9">
-        <v>230</v>
+        <v>180</v>
       </c>
       <c r="E2" s="9">
-        <v>430</v>
-      </c>
-      <c r="H2" s="22" t="s">
+        <v>440</v>
+      </c>
+      <c r="H2" s="21" t="s">
         <v>6</v>
       </c>
-      <c r="I2" s="22"/>
-      <c r="J2" s="22"/>
-      <c r="K2" s="22"/>
-      <c r="L2" s="22"/>
-      <c r="M2" s="22"/>
+      <c r="I2" s="21"/>
+      <c r="J2" s="21"/>
+      <c r="K2" s="21"/>
+      <c r="L2" s="21"/>
+      <c r="M2" s="21"/>
     </row>
     <row r="3" spans="1:13">
       <c r="A3" s="9" t="s">
@@ -1032,14 +1094,14 @@
       <c r="E3" s="9">
         <v>8</v>
       </c>
-      <c r="H3" s="22" t="s">
+      <c r="H3" s="21" t="s">
         <v>8</v>
       </c>
-      <c r="I3" s="22"/>
-      <c r="J3" s="22"/>
-      <c r="K3" s="22"/>
-      <c r="L3" s="22"/>
-      <c r="M3" s="22"/>
+      <c r="I3" s="21"/>
+      <c r="J3" s="21"/>
+      <c r="K3" s="21"/>
+      <c r="L3" s="21"/>
+      <c r="M3" s="21"/>
     </row>
     <row r="4" spans="1:13">
       <c r="A4" s="9" t="s">
@@ -1057,14 +1119,14 @@
       <c r="E4" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="H4" s="22" t="s">
+      <c r="H4" s="21" t="s">
         <v>14</v>
       </c>
-      <c r="I4" s="22"/>
-      <c r="J4" s="22"/>
-      <c r="K4" s="22"/>
-      <c r="L4" s="22"/>
-      <c r="M4" s="22"/>
+      <c r="I4" s="21"/>
+      <c r="J4" s="21"/>
+      <c r="K4" s="21"/>
+      <c r="L4" s="21"/>
+      <c r="M4" s="21"/>
     </row>
     <row r="5" spans="1:13">
       <c r="A5" s="9" t="s">
@@ -1082,14 +1144,14 @@
       <c r="E5" s="9">
         <v>4</v>
       </c>
-      <c r="H5" s="22" t="s">
+      <c r="H5" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="I5" s="22"/>
-      <c r="J5" s="22"/>
-      <c r="K5" s="22"/>
-      <c r="L5" s="22"/>
-      <c r="M5" s="22"/>
+      <c r="I5" s="21"/>
+      <c r="J5" s="21"/>
+      <c r="K5" s="21"/>
+      <c r="L5" s="21"/>
+      <c r="M5" s="21"/>
     </row>
     <row r="6" spans="1:13">
       <c r="A6" s="9" t="s">
@@ -1107,12 +1169,12 @@
       <c r="E6" s="9">
         <v>3</v>
       </c>
-      <c r="H6" s="22"/>
-      <c r="I6" s="22"/>
-      <c r="J6" s="22"/>
-      <c r="K6" s="22"/>
-      <c r="L6" s="22"/>
-      <c r="M6" s="22"/>
+      <c r="H6" s="21"/>
+      <c r="I6" s="21"/>
+      <c r="J6" s="21"/>
+      <c r="K6" s="21"/>
+      <c r="L6" s="21"/>
+      <c r="M6" s="21"/>
     </row>
     <row r="7" spans="1:13">
       <c r="A7" s="9" t="s">
@@ -1130,12 +1192,12 @@
       <c r="E7" s="9">
         <v>3</v>
       </c>
-      <c r="H7" s="22"/>
-      <c r="I7" s="22"/>
-      <c r="J7" s="22"/>
-      <c r="K7" s="22"/>
-      <c r="L7" s="22"/>
-      <c r="M7" s="22"/>
+      <c r="H7" s="21"/>
+      <c r="I7" s="21"/>
+      <c r="J7" s="21"/>
+      <c r="K7" s="21"/>
+      <c r="L7" s="21"/>
+      <c r="M7" s="21"/>
     </row>
     <row r="8" spans="1:13">
       <c r="A8" s="9" t="s">
@@ -1153,12 +1215,12 @@
       <c r="E8" s="10">
         <v>5</v>
       </c>
-      <c r="H8" s="22"/>
-      <c r="I8" s="22"/>
-      <c r="J8" s="22"/>
-      <c r="K8" s="22"/>
-      <c r="L8" s="22"/>
-      <c r="M8" s="22"/>
+      <c r="H8" s="21"/>
+      <c r="I8" s="21"/>
+      <c r="J8" s="21"/>
+      <c r="K8" s="21"/>
+      <c r="L8" s="21"/>
+      <c r="M8" s="21"/>
     </row>
     <row r="9" spans="1:13">
       <c r="A9" s="9" t="s">
@@ -1176,14 +1238,14 @@
       <c r="E9" s="10">
         <v>6</v>
       </c>
-      <c r="H9" s="21" t="s">
+      <c r="H9" s="20" t="s">
         <v>21</v>
       </c>
-      <c r="I9" s="22"/>
-      <c r="J9" s="22"/>
-      <c r="K9" s="22"/>
-      <c r="L9" s="22"/>
-      <c r="M9" s="22"/>
+      <c r="I9" s="21"/>
+      <c r="J9" s="21"/>
+      <c r="K9" s="21"/>
+      <c r="L9" s="21"/>
+      <c r="M9" s="21"/>
     </row>
     <row r="10" spans="1:13">
       <c r="A10" s="9" t="s">
@@ -1236,33 +1298,47 @@
       </c>
       <c r="B13" s="9">
         <f>(B5*(B6+$J$14)+B7*(B8+$J$15)+B9*(B10+$J$15))/(B5+B7+B9)*B3</f>
-        <v>6.666666666666667</v>
+        <v>9.3333333333333339</v>
       </c>
       <c r="C13" s="9">
-        <f t="shared" ref="C13:E13" si="1">(C5*(C6+$J$14)+C7*(C8+$J$15)+C9*(C10+$J$15))/(C5+C7+C9)*C3</f>
-        <v>14</v>
+        <f>(C5*(C6+$J$14)+C7*(C8+$J$15)+C9*(C10+$J$15))/(C5+C7+C9)*C3</f>
+        <v>19.5</v>
       </c>
       <c r="D13" s="9">
-        <f t="shared" si="1"/>
-        <v>33.333333333333336</v>
+        <f t="shared" ref="C13:E13" si="1">(D5*(D6+$J$14)+D7*(D8+$J$15)+D9*(D10+$J$15))/(D5+D7+D9)*D3</f>
+        <v>46.666666666666671</v>
       </c>
       <c r="E13" s="9">
         <f t="shared" si="1"/>
-        <v>56</v>
+        <v>77.538461538461533</v>
       </c>
     </row>
     <row r="14" spans="1:13">
-      <c r="A14" s="9"/>
-      <c r="B14" s="9"/>
-      <c r="C14" s="9"/>
-      <c r="D14" s="9"/>
-      <c r="E14" s="9"/>
-      <c r="H14" s="20" t="s">
+      <c r="A14" s="9" t="s">
+        <v>131</v>
+      </c>
+      <c r="B14" s="9">
+        <f>(B5*(B6)*数据!$L$3+B7*(B8)*数据!$L$4+B9*(B10)*数据!$L$5)/(B5+B7+B9)*B3</f>
+        <v>2.8096899999999998</v>
+      </c>
+      <c r="C14" s="9">
+        <f>(C5*(C6)*数据!$L$3+C7*(C8)*数据!$L$4+C9*(C10)*数据!$L$5)/(C5+C7+C9)*C3</f>
+        <v>5.8624899999999993</v>
+      </c>
+      <c r="D14" s="9">
+        <f>(D5*(D6)*数据!$L$3+D7*(D8)*数据!$L$4+D9*(D10)*数据!$L$5)/(D5+D7+D9)*D3</f>
+        <v>14.048449999999999</v>
+      </c>
+      <c r="E14" s="9">
+        <f>(E5*(E6)*数据!$L$3+E7*(E8)*数据!$L$4+E9*(E10)*数据!$L$5)/(E5+E7+E9)*E3</f>
+        <v>23.271027692307694</v>
+      </c>
+      <c r="H14" s="19" t="s">
         <v>25</v>
       </c>
-      <c r="I14" s="20"/>
-      <c r="J14" s="20">
-        <v>1</v>
+      <c r="I14" s="19"/>
+      <c r="J14" s="19">
+        <v>3</v>
       </c>
     </row>
     <row r="15" spans="1:13">
@@ -1281,12 +1357,12 @@
       <c r="E15" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="H15" s="20" t="s">
+      <c r="H15" s="19" t="s">
         <v>31</v>
       </c>
-      <c r="I15" s="20"/>
-      <c r="J15" s="20">
-        <v>2</v>
+      <c r="I15" s="19"/>
+      <c r="J15" s="19">
+        <v>5</v>
       </c>
     </row>
     <row r="16" spans="1:13">
@@ -1306,7 +1382,7 @@
         <v>1.3</v>
       </c>
     </row>
-    <row r="17" spans="1:10">
+    <row r="17" spans="1:11">
       <c r="A17" s="9" t="s">
         <v>33</v>
       </c>
@@ -1323,7 +1399,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="18" spans="1:10">
+    <row r="18" spans="1:11">
       <c r="A18" s="9" t="s">
         <v>34</v>
       </c>
@@ -1340,7 +1416,7 @@
         <v>2.5000000000000001E-2</v>
       </c>
     </row>
-    <row r="19" spans="1:10">
+    <row r="19" spans="1:11">
       <c r="A19" s="9" t="s">
         <v>35</v>
       </c>
@@ -1357,7 +1433,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="20" spans="1:10">
+    <row r="20" spans="1:11">
       <c r="A20" s="9" t="s">
         <v>36</v>
       </c>
@@ -1378,15 +1454,15 @@
         <v>2.6666666666666665</v>
       </c>
     </row>
-    <row r="22" spans="1:10">
-      <c r="A22" s="22" t="s">
+    <row r="22" spans="1:11">
+      <c r="A22" s="21" t="s">
         <v>37</v>
       </c>
-      <c r="B22" s="22">
+      <c r="B22" s="21">
         <v>12</v>
       </c>
     </row>
-    <row r="24" spans="1:10">
+    <row r="24" spans="1:11">
       <c r="A24" s="1" t="s">
         <v>38</v>
       </c>
@@ -1416,20 +1492,20 @@
         <v>44</v>
       </c>
     </row>
-    <row r="25" spans="1:10">
+    <row r="25" spans="1:11">
       <c r="A25" s="1">
         <v>1</v>
       </c>
       <c r="B25" s="1">
-        <v>80</v>
+        <v>142.5</v>
       </c>
       <c r="C25" s="1"/>
       <c r="D25" s="1">
-        <v>164</v>
+        <v>274.83333333333337</v>
       </c>
       <c r="E25" s="1"/>
       <c r="F25" s="1">
-        <v>234</v>
+        <v>414.83333333333343</v>
       </c>
       <c r="G25" s="1"/>
       <c r="H25" s="1"/>
@@ -1439,21 +1515,24 @@
       <c r="J25" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="26" spans="1:10">
+      <c r="K25" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11">
       <c r="A26" s="1">
         <v>2</v>
       </c>
       <c r="B26" s="1">
-        <v>234</v>
+        <v>414.83333333333343</v>
       </c>
       <c r="C26" s="1"/>
       <c r="D26" s="1">
-        <v>433.99999999999989</v>
+        <v>694.11538461538476</v>
       </c>
       <c r="E26" s="1"/>
       <c r="F26" s="1">
-        <v>234</v>
+        <v>1004.2692307692309</v>
       </c>
       <c r="G26" s="1"/>
       <c r="H26" s="1"/>
@@ -1463,21 +1542,24 @@
       <c r="J26" s="1">
         <v>2</v>
       </c>
-    </row>
-    <row r="27" spans="1:10">
+      <c r="K26" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11">
       <c r="A27" s="1">
         <v>3</v>
       </c>
       <c r="B27" s="1">
-        <v>433.99999999999989</v>
+        <v>694.11538461538476</v>
       </c>
       <c r="C27" s="1"/>
       <c r="D27" s="1">
-        <v>769.99999999999989</v>
+        <v>1159.3461538461538</v>
       </c>
       <c r="E27" s="1"/>
       <c r="F27" s="1">
-        <v>234</v>
+        <v>1624.5769230769224</v>
       </c>
       <c r="G27" s="1"/>
       <c r="H27" s="1"/>
@@ -1487,81 +1569,84 @@
       <c r="J27" s="1">
         <v>3</v>
       </c>
-    </row>
-    <row r="28" spans="1:10">
+      <c r="K27" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11">
       <c r="A28" s="1">
         <v>4</v>
       </c>
       <c r="B28" s="1">
-        <v>657.99999999999989</v>
+        <v>1004.2692307692309</v>
       </c>
       <c r="C28" s="1"/>
       <c r="D28" s="1">
-        <v>1106</v>
+        <v>1624.5769230769224</v>
       </c>
       <c r="E28" s="1"/>
       <c r="F28" s="1">
-        <v>234</v>
+        <v>2244.8846153846139</v>
       </c>
       <c r="G28" s="1"/>
       <c r="H28" s="1"/>
       <c r="I28" s="1"/>
       <c r="J28" s="1"/>
     </row>
-    <row r="29" spans="1:10">
+    <row r="29" spans="1:11">
       <c r="A29" s="1">
         <v>5</v>
       </c>
       <c r="B29" s="1">
-        <v>881.99999999999989</v>
+        <v>1314.4230769230767</v>
       </c>
       <c r="C29" s="1"/>
       <c r="D29" s="1">
-        <v>1442</v>
+        <v>2089.807692307691</v>
       </c>
       <c r="E29" s="1"/>
       <c r="F29" s="1">
-        <v>234</v>
+        <v>2865.1923076923053</v>
       </c>
       <c r="G29" s="1"/>
       <c r="H29" s="1"/>
       <c r="I29" s="1"/>
       <c r="J29" s="1"/>
     </row>
-    <row r="30" spans="1:10">
+    <row r="30" spans="1:11">
       <c r="A30" s="1">
         <v>6</v>
       </c>
       <c r="B30" s="1">
-        <v>1106</v>
+        <v>1624.5769230769224</v>
       </c>
       <c r="C30" s="1"/>
       <c r="D30" s="1">
-        <v>1778</v>
+        <v>2555.0384615384596</v>
       </c>
       <c r="E30" s="1"/>
       <c r="F30" s="1">
-        <v>234</v>
+        <v>3485.4999999999968</v>
       </c>
       <c r="G30" s="1"/>
       <c r="H30" s="1"/>
       <c r="I30" s="1"/>
       <c r="J30" s="1"/>
     </row>
-    <row r="31" spans="1:10">
+    <row r="31" spans="1:11">
       <c r="A31" s="1">
         <v>7</v>
       </c>
       <c r="B31" s="1">
-        <v>1330</v>
+        <v>1934.7307692307681</v>
       </c>
       <c r="C31" s="1"/>
       <c r="D31" s="1">
-        <v>2114</v>
+        <v>3020.2692307692282</v>
       </c>
       <c r="E31" s="1"/>
       <c r="F31" s="1">
-        <v>234</v>
+        <v>4105.8076923076887</v>
       </c>
       <c r="G31" s="1"/>
       <c r="H31" s="1"/>
@@ -1603,15 +1688,15 @@
         <v>1</v>
       </c>
       <c r="B34" s="2">
-        <v>80</v>
+        <v>111.99999999999999</v>
       </c>
       <c r="C34" s="2"/>
       <c r="D34" s="2">
-        <v>120.00000000000003</v>
+        <v>168.00000000000003</v>
       </c>
       <c r="E34" s="2"/>
       <c r="F34" s="2">
-        <v>160</v>
+        <v>224.00000000000009</v>
       </c>
       <c r="G34" s="2"/>
       <c r="H34" s="2"/>
@@ -1625,15 +1710,15 @@
         <v>2</v>
       </c>
       <c r="B35" s="2">
-        <v>160</v>
+        <v>224.00000000000009</v>
       </c>
       <c r="C35" s="2"/>
       <c r="D35" s="2">
-        <v>239.99999999999989</v>
+        <v>335.99999999999994</v>
       </c>
       <c r="E35" s="2"/>
       <c r="F35" s="2">
-        <v>320.00000000000006</v>
+        <v>447.99999999999972</v>
       </c>
       <c r="G35" s="2"/>
       <c r="H35" s="2"/>
@@ -1647,15 +1732,15 @@
         <v>3</v>
       </c>
       <c r="B36" s="2">
-        <v>239.99999999999989</v>
+        <v>335.99999999999994</v>
       </c>
       <c r="C36" s="2"/>
       <c r="D36" s="2">
-        <v>360.00000000000017</v>
+        <v>503.9999999999996</v>
       </c>
       <c r="E36" s="2"/>
       <c r="F36" s="2">
-        <v>480.00000000000051</v>
+        <v>672.00000000000023</v>
       </c>
       <c r="G36" s="2"/>
       <c r="H36" s="2"/>
@@ -1669,15 +1754,15 @@
         <v>4</v>
       </c>
       <c r="B37" s="2">
-        <v>320.00000000000006</v>
+        <v>447.99999999999972</v>
       </c>
       <c r="C37" s="2"/>
       <c r="D37" s="2">
-        <v>480.00000000000051</v>
+        <v>672.00000000000023</v>
       </c>
       <c r="E37" s="2"/>
       <c r="F37" s="2">
-        <v>639.99999999999989</v>
+        <v>896.00000000000114</v>
       </c>
       <c r="G37" s="2"/>
       <c r="H37" s="2"/>
@@ -1689,15 +1774,15 @@
         <v>5</v>
       </c>
       <c r="B38" s="2">
-        <v>400.00000000000028</v>
+        <v>559.99999999999977</v>
       </c>
       <c r="C38" s="2"/>
       <c r="D38" s="2">
-        <v>600.00000000000011</v>
+        <v>840.00000000000091</v>
       </c>
       <c r="E38" s="2"/>
       <c r="F38" s="2">
-        <v>799.99999999999898</v>
+        <v>1120.0000000000009</v>
       </c>
       <c r="G38" s="2"/>
       <c r="H38" s="2"/>
@@ -1709,15 +1794,15 @@
         <v>6</v>
       </c>
       <c r="B39" s="2">
-        <v>480.00000000000051</v>
+        <v>672.00000000000023</v>
       </c>
       <c r="C39" s="2"/>
       <c r="D39" s="2">
-        <v>719.99999999999943</v>
+        <v>1008.0000000000016</v>
       </c>
       <c r="E39" s="2"/>
       <c r="F39" s="2">
-        <v>959.99999999999807</v>
+        <v>1343.9999999999991</v>
       </c>
       <c r="G39" s="2"/>
       <c r="H39" s="2"/>
@@ -1729,15 +1814,15 @@
         <v>7</v>
       </c>
       <c r="B40" s="2">
-        <v>560.00000000000034</v>
+        <v>784.00000000000068</v>
       </c>
       <c r="C40" s="2"/>
       <c r="D40" s="2">
-        <v>839.99999999999875</v>
+        <v>1176.0000000000005</v>
       </c>
       <c r="E40" s="2"/>
       <c r="F40" s="2">
-        <v>1119.9999999999989</v>
+        <v>1567.9999999999973</v>
       </c>
       <c r="G40" s="2"/>
       <c r="H40" s="2"/>
@@ -1779,15 +1864,15 @@
         <v>1</v>
       </c>
       <c r="B43" s="3">
-        <v>80</v>
+        <v>142.5</v>
       </c>
       <c r="C43" s="3"/>
       <c r="D43" s="3">
-        <v>150</v>
+        <v>259.5</v>
       </c>
       <c r="E43" s="3"/>
       <c r="F43" s="3">
-        <v>234</v>
+        <v>376.5</v>
       </c>
       <c r="G43" s="3"/>
       <c r="H43" s="3"/>
@@ -1803,15 +1888,15 @@
         <v>2</v>
       </c>
       <c r="B44" s="3">
-        <v>248</v>
+        <v>376.5</v>
       </c>
       <c r="C44" s="3"/>
       <c r="D44" s="3">
-        <v>402</v>
+        <v>610.5</v>
       </c>
       <c r="E44" s="3"/>
       <c r="F44" s="3">
-        <v>570</v>
+        <v>844.5</v>
       </c>
       <c r="G44" s="3"/>
       <c r="H44" s="3"/>
@@ -1825,15 +1910,15 @@
         <v>3</v>
       </c>
       <c r="B45" s="3">
-        <v>416</v>
+        <v>610.5</v>
       </c>
       <c r="C45" s="3"/>
       <c r="D45" s="3">
-        <v>654</v>
+        <v>961.5</v>
       </c>
       <c r="E45" s="3"/>
       <c r="F45" s="3">
-        <v>906</v>
+        <v>1312.5</v>
       </c>
       <c r="G45" s="3"/>
       <c r="H45" s="3"/>
@@ -1847,15 +1932,15 @@
         <v>4</v>
       </c>
       <c r="B46" s="3">
-        <v>584</v>
+        <v>844.5</v>
       </c>
       <c r="C46" s="3"/>
       <c r="D46" s="3">
-        <v>906</v>
+        <v>1312.5</v>
       </c>
       <c r="E46" s="3"/>
       <c r="F46" s="3">
-        <v>1242</v>
+        <v>1780.5</v>
       </c>
       <c r="G46" s="3"/>
       <c r="H46" s="3"/>
@@ -1867,15 +1952,15 @@
         <v>5</v>
       </c>
       <c r="B47" s="3">
-        <v>752</v>
+        <v>1078.5</v>
       </c>
       <c r="C47" s="3"/>
       <c r="D47" s="3">
-        <v>1158</v>
+        <v>1663.5</v>
       </c>
       <c r="E47" s="3"/>
       <c r="F47" s="3">
-        <v>1578</v>
+        <v>2248.5</v>
       </c>
       <c r="G47" s="3"/>
       <c r="H47" s="3"/>
@@ -1887,15 +1972,15 @@
         <v>6</v>
       </c>
       <c r="B48" s="3">
-        <v>920</v>
+        <v>1312.5</v>
       </c>
       <c r="C48" s="3"/>
       <c r="D48" s="3">
-        <v>1410</v>
+        <v>2014.5</v>
       </c>
       <c r="E48" s="3"/>
       <c r="F48" s="3">
-        <v>1914</v>
+        <v>2716.5</v>
       </c>
       <c r="G48" s="3"/>
       <c r="H48" s="3"/>
@@ -1907,15 +1992,15 @@
         <v>7</v>
       </c>
       <c r="B49" s="3">
-        <v>1088</v>
+        <v>1546.5</v>
       </c>
       <c r="C49" s="3"/>
       <c r="D49" s="3">
-        <v>1662</v>
+        <v>2365.5</v>
       </c>
       <c r="E49" s="3"/>
       <c r="F49" s="3">
-        <v>2250</v>
+        <v>3184.5</v>
       </c>
       <c r="G49" s="3"/>
       <c r="H49" s="3"/>
@@ -1957,15 +2042,15 @@
         <v>1</v>
       </c>
       <c r="B52" s="4">
-        <v>80</v>
+        <v>142.5</v>
       </c>
       <c r="C52" s="4"/>
       <c r="D52" s="4">
-        <v>150</v>
+        <v>274.83333333333337</v>
       </c>
       <c r="E52" s="4"/>
       <c r="F52" s="4">
-        <v>234</v>
+        <v>414.83333333333343</v>
       </c>
       <c r="G52" s="4"/>
       <c r="H52" s="4"/>
@@ -1981,15 +2066,15 @@
         <v>2</v>
       </c>
       <c r="B53" s="4">
-        <v>234</v>
+        <v>414.83333333333343</v>
       </c>
       <c r="C53" s="4"/>
       <c r="D53" s="4">
-        <v>234</v>
+        <v>694.83333333333337</v>
       </c>
       <c r="E53" s="4"/>
       <c r="F53" s="4">
-        <v>234</v>
+        <v>974.83333333333314</v>
       </c>
       <c r="G53" s="4"/>
       <c r="H53" s="4"/>
@@ -2005,15 +2090,15 @@
         <v>3</v>
       </c>
       <c r="B54" s="4">
-        <v>234</v>
+        <v>694.83333333333337</v>
       </c>
       <c r="C54" s="4"/>
       <c r="D54" s="4">
-        <v>234</v>
+        <v>1114.8333333333333</v>
       </c>
       <c r="E54" s="4"/>
       <c r="F54" s="4">
-        <v>234</v>
+        <v>1534.8333333333339</v>
       </c>
       <c r="G54" s="4"/>
       <c r="H54" s="4"/>
@@ -2027,15 +2112,15 @@
         <v>4</v>
       </c>
       <c r="B55" s="4">
-        <v>234</v>
+        <v>974.83333333333314</v>
       </c>
       <c r="C55" s="4"/>
       <c r="D55" s="4">
-        <v>234</v>
+        <v>1534.8333333333339</v>
       </c>
       <c r="E55" s="4"/>
       <c r="F55" s="4">
-        <v>234</v>
+        <v>2094.8333333333344</v>
       </c>
       <c r="G55" s="4"/>
       <c r="H55" s="4"/>
@@ -2047,15 +2132,15 @@
         <v>5</v>
       </c>
       <c r="B56" s="4">
-        <v>234</v>
+        <v>1254.8333333333335</v>
       </c>
       <c r="C56" s="4"/>
       <c r="D56" s="4">
-        <v>234</v>
+        <v>1954.8333333333346</v>
       </c>
       <c r="E56" s="4"/>
       <c r="F56" s="4">
-        <v>234</v>
+        <v>2654.8333333333326</v>
       </c>
       <c r="G56" s="4"/>
       <c r="H56" s="4"/>
@@ -2067,15 +2152,15 @@
         <v>6</v>
       </c>
       <c r="B57" s="4">
-        <v>234</v>
+        <v>1534.8333333333339</v>
       </c>
       <c r="C57" s="4"/>
       <c r="D57" s="4">
-        <v>234</v>
+        <v>2374.8333333333335</v>
       </c>
       <c r="E57" s="4"/>
       <c r="F57" s="4">
-        <v>234</v>
+        <v>3214.8333333333308</v>
       </c>
       <c r="G57" s="4"/>
       <c r="H57" s="4"/>
@@ -2087,20 +2172,216 @@
         <v>7</v>
       </c>
       <c r="B58" s="4">
-        <v>234</v>
+        <v>1814.8333333333344</v>
       </c>
       <c r="C58" s="4"/>
       <c r="D58" s="4">
-        <v>234</v>
+        <v>2794.8333333333321</v>
       </c>
       <c r="E58" s="4"/>
       <c r="F58" s="4">
-        <v>234</v>
+        <v>3774.8333333333289</v>
       </c>
       <c r="G58" s="4"/>
       <c r="H58" s="4"/>
       <c r="I58" s="4"/>
       <c r="J58" s="4"/>
+    </row>
+    <row r="60" spans="1:10">
+      <c r="A60" s="26"/>
+      <c r="B60" s="26"/>
+      <c r="C60" s="26"/>
+      <c r="D60" s="26" t="s">
+        <v>142</v>
+      </c>
+      <c r="E60" s="26"/>
+      <c r="F60" s="26"/>
+      <c r="G60" s="26"/>
+      <c r="H60" s="26"/>
+      <c r="I60" s="26"/>
+      <c r="J60" s="26"/>
+    </row>
+    <row r="61" spans="1:10">
+      <c r="A61" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B61" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="C61" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="D61" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="E61" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="F61" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="G61" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="H61" s="1"/>
+      <c r="I61" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="J61" s="1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="62" spans="1:10">
+      <c r="A62" s="1">
+        <v>1</v>
+      </c>
+      <c r="B62" s="1">
+        <v>33.716279999999998</v>
+      </c>
+      <c r="C62" s="1"/>
+      <c r="D62" s="1">
+        <v>50.574420000000018</v>
+      </c>
+      <c r="E62" s="1"/>
+      <c r="F62" s="1">
+        <v>67.432560000000038</v>
+      </c>
+      <c r="G62" s="1"/>
+      <c r="H62" s="1"/>
+      <c r="I62" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="J62" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="63" spans="1:10">
+      <c r="A63" s="1">
+        <v>2</v>
+      </c>
+      <c r="B63" s="1">
+        <v>67.432560000000038</v>
+      </c>
+      <c r="C63" s="1"/>
+      <c r="D63" s="1">
+        <v>122.51844000000001</v>
+      </c>
+      <c r="E63" s="1"/>
+      <c r="F63" s="1">
+        <v>195.19179000000008</v>
+      </c>
+      <c r="G63" s="1"/>
+      <c r="H63" s="1"/>
+      <c r="I63" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="J63" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="64" spans="1:10">
+      <c r="A64" s="1">
+        <v>3</v>
+      </c>
+      <c r="B64" s="1">
+        <v>122.51844000000001</v>
+      </c>
+      <c r="C64" s="1"/>
+      <c r="D64" s="1">
+        <v>237.33714000000009</v>
+      </c>
+      <c r="E64" s="1"/>
+      <c r="F64" s="1">
+        <v>363.77319000000011</v>
+      </c>
+      <c r="G64" s="1"/>
+      <c r="H64" s="1"/>
+      <c r="I64" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="J64" s="1">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="65" spans="1:10">
+      <c r="A65" s="1">
+        <v>4</v>
+      </c>
+      <c r="B65" s="1">
+        <v>195.19179000000008</v>
+      </c>
+      <c r="C65" s="1"/>
+      <c r="D65" s="1">
+        <v>363.77319000000011</v>
+      </c>
+      <c r="E65" s="1"/>
+      <c r="F65" s="1">
+        <v>541.14800076923098</v>
+      </c>
+      <c r="G65" s="1"/>
+      <c r="H65" s="1"/>
+      <c r="I65" s="1"/>
+      <c r="J65" s="1"/>
+    </row>
+    <row r="66" spans="1:10">
+      <c r="A66" s="1">
+        <v>5</v>
+      </c>
+      <c r="B66" s="1">
+        <v>279.4824900000001</v>
+      </c>
+      <c r="C66" s="1"/>
+      <c r="D66" s="1">
+        <v>494.60594538461555</v>
+      </c>
+      <c r="E66" s="1"/>
+      <c r="F66" s="1">
+        <v>727.31622230769267</v>
+      </c>
+      <c r="G66" s="1"/>
+      <c r="H66" s="1"/>
+      <c r="I66" s="1"/>
+      <c r="J66" s="1"/>
+    </row>
+    <row r="67" spans="1:10">
+      <c r="A67" s="1">
+        <v>6</v>
+      </c>
+      <c r="B67" s="1">
+        <v>363.77319000000011</v>
+      </c>
+      <c r="C67" s="1"/>
+      <c r="D67" s="1">
+        <v>634.23211153846182</v>
+      </c>
+      <c r="E67" s="1"/>
+      <c r="F67" s="1">
+        <v>913.48444384615436</v>
+      </c>
+      <c r="G67" s="1"/>
+      <c r="H67" s="1"/>
+      <c r="I67" s="1"/>
+      <c r="J67" s="1"/>
+    </row>
+    <row r="68" spans="1:10">
+      <c r="A68" s="1">
+        <v>7</v>
+      </c>
+      <c r="B68" s="1">
+        <v>448.06389000000013</v>
+      </c>
+      <c r="C68" s="1"/>
+      <c r="D68" s="1">
+        <v>773.85827769230809</v>
+      </c>
+      <c r="E68" s="1"/>
+      <c r="F68" s="1">
+        <v>1099.6526653846156</v>
+      </c>
+      <c r="G68" s="1"/>
+      <c r="H68" s="1"/>
+      <c r="I68" s="1"/>
+      <c r="J68" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2110,16 +2391,16 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:Z138"/>
+  <dimension ref="A1:Z158"/>
   <sheetViews>
-    <sheetView topLeftCell="A35" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="R46" sqref="R46"/>
+    <sheetView topLeftCell="A30" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="M51" sqref="M51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="19"/>
   <cols>
-    <col min="4" max="4" width="16.140625" style="23" customWidth="1"/>
-    <col min="5" max="5" width="15.7109375" style="23" customWidth="1"/>
+    <col min="4" max="4" width="16.140625" style="22" customWidth="1"/>
+    <col min="5" max="5" width="15.7109375" style="22" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:26">
@@ -2178,7 +2459,7 @@
       <c r="D2" s="8">
         <v>320</v>
       </c>
-      <c r="E2" s="18">
+      <c r="E2" s="17">
         <v>0.2</v>
       </c>
       <c r="F2" s="8">
@@ -2202,7 +2483,7 @@
       <c r="O2">
         <v>4.99</v>
       </c>
-      <c r="P2" s="17">
+      <c r="P2" s="16">
         <v>0.25</v>
       </c>
       <c r="Q2">
@@ -2231,7 +2512,7 @@
       <c r="D3" s="8">
         <v>720</v>
       </c>
-      <c r="E3" s="18">
+      <c r="E3" s="17">
         <v>0.4</v>
       </c>
       <c r="F3" s="8">
@@ -2255,7 +2536,7 @@
       <c r="O3">
         <v>9.99</v>
       </c>
-      <c r="P3" s="17">
+      <c r="P3" s="16">
         <v>0.5</v>
       </c>
       <c r="Q3">
@@ -2282,7 +2563,7 @@
       <c r="D4" s="8">
         <v>1520</v>
       </c>
-      <c r="E4" s="18">
+      <c r="E4" s="17">
         <v>0.53</v>
       </c>
       <c r="F4" s="8">
@@ -2300,7 +2581,7 @@
       <c r="O4">
         <v>29.99</v>
       </c>
-      <c r="P4" s="17">
+      <c r="P4" s="16">
         <v>0.56000000000000005</v>
       </c>
       <c r="Q4">
@@ -2327,7 +2608,7 @@
       <c r="D5" s="8">
         <v>3600</v>
       </c>
-      <c r="E5" s="18">
+      <c r="E5" s="17">
         <v>0.6</v>
       </c>
       <c r="F5" s="8">
@@ -2345,7 +2626,7 @@
       <c r="O5">
         <v>49.99</v>
       </c>
-      <c r="P5" s="17">
+      <c r="P5" s="16">
         <v>0.63</v>
       </c>
       <c r="Q5">
@@ -2372,7 +2653,7 @@
       <c r="D6" s="8">
         <v>5920</v>
       </c>
-      <c r="E6" s="18">
+      <c r="E6" s="17">
         <v>0.68</v>
       </c>
       <c r="F6" s="8">
@@ -2390,7 +2671,7 @@
       <c r="O6">
         <v>99.99</v>
       </c>
-      <c r="P6" s="17">
+      <c r="P6" s="16">
         <v>0.75</v>
       </c>
       <c r="Q6">
@@ -2417,7 +2698,7 @@
       <c r="D7" s="8">
         <v>8800</v>
       </c>
-      <c r="E7" s="18">
+      <c r="E7" s="17">
         <v>0.72</v>
       </c>
       <c r="F7" s="8">
@@ -2438,7 +2719,7 @@
       </c>
     </row>
     <row r="8" spans="1:26">
-      <c r="B8" s="24"/>
+      <c r="B8" s="23"/>
       <c r="X8" s="12"/>
       <c r="Y8" s="12"/>
       <c r="Z8" s="12"/>
@@ -2524,15 +2805,9 @@
       <c r="I15" t="s">
         <v>81</v>
       </c>
-      <c r="J15" t="s">
-        <v>82</v>
-      </c>
-      <c r="K15" t="s">
-        <v>83</v>
-      </c>
       <c r="X15" s="12"/>
       <c r="Y15" s="12" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="Z15" s="12">
         <v>20</v>
@@ -2543,15 +2818,17 @@
         <v>0</v>
       </c>
       <c r="E16" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="F16">
         <v>40</v>
       </c>
       <c r="G16">
+        <f>SUM($F$16:F16)</f>
         <v>40</v>
       </c>
       <c r="I16">
+        <f>G16/$Z$2/6.66</f>
         <v>0.45045045157657659</v>
       </c>
       <c r="X16" s="12"/>
@@ -2566,23 +2843,26 @@
         <v>5</v>
       </c>
       <c r="C17">
+        <f>SUM($B$17:B17)</f>
         <v>5</v>
       </c>
-      <c r="E17" s="15" t="s">
-        <v>86</v>
+      <c r="E17" s="26" t="s">
+        <v>127</v>
       </c>
       <c r="F17">
         <v>720</v>
       </c>
-      <c r="G17">
+      <c r="G17" s="22">
+        <f>SUM($F$16:F17)</f>
         <v>760</v>
       </c>
-      <c r="I17">
+      <c r="I17" s="22">
+        <f t="shared" ref="I17:I80" si="0">G17/$Z$2/6.66</f>
         <v>8.5585585799549548</v>
       </c>
       <c r="X17" s="12"/>
       <c r="Y17" s="12" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="Z17" s="12">
         <v>70</v>
@@ -2595,27 +2875,30 @@
       <c r="B18">
         <v>5</v>
       </c>
-      <c r="C18">
+      <c r="C18" s="22">
+        <f>SUM($B$17:B18)</f>
         <v>10</v>
       </c>
       <c r="E18" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="F18">
         <v>50</v>
       </c>
-      <c r="G18">
+      <c r="G18" s="22">
+        <f>SUM($F$16:F18)</f>
         <v>810</v>
       </c>
-      <c r="I18">
+      <c r="I18" s="22">
+        <f t="shared" si="0"/>
         <v>9.1216216444256748</v>
       </c>
       <c r="X18" s="12"/>
       <c r="Y18" s="12" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="Z18" s="12" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
     </row>
     <row r="19" spans="1:26">
@@ -2625,19 +2908,22 @@
       <c r="B19">
         <v>5</v>
       </c>
-      <c r="C19">
+      <c r="C19" s="22">
+        <f>SUM($B$17:B19)</f>
         <v>15</v>
       </c>
       <c r="E19" t="s">
-        <v>85</v>
-      </c>
-      <c r="F19" s="24">
+        <v>83</v>
+      </c>
+      <c r="F19" s="23">
         <v>40</v>
       </c>
-      <c r="G19">
+      <c r="G19" s="22">
+        <f>SUM($F$16:F19)</f>
         <v>850</v>
       </c>
-      <c r="I19">
+      <c r="I19" s="22">
+        <f t="shared" si="0"/>
         <v>9.5720720960022536</v>
       </c>
       <c r="X19" s="12"/>
@@ -2651,23 +2937,26 @@
       <c r="B20">
         <v>5</v>
       </c>
-      <c r="C20">
+      <c r="C20" s="22">
+        <f>SUM($B$17:B20)</f>
         <v>20</v>
       </c>
       <c r="E20" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="F20">
         <v>30</v>
       </c>
-      <c r="G20">
+      <c r="G20" s="22">
+        <f>SUM($F$16:F20)</f>
         <v>880</v>
       </c>
-      <c r="I20">
+      <c r="I20" s="22">
+        <f t="shared" si="0"/>
         <v>9.9099099346846842</v>
       </c>
       <c r="X20" s="12" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="Y20" s="12"/>
       <c r="Z20" s="12"/>
@@ -2679,26 +2968,29 @@
       <c r="B21">
         <v>10</v>
       </c>
-      <c r="C21">
+      <c r="C21" s="22">
+        <f>SUM($B$17:B21)</f>
         <v>30</v>
       </c>
       <c r="E21" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="F21">
         <v>60</v>
       </c>
-      <c r="G21">
+      <c r="G21" s="22">
+        <f>SUM($F$16:F21)</f>
         <v>940</v>
       </c>
-      <c r="I21">
-        <v>10.585585612049551</v>
+      <c r="I21" s="22">
+        <f t="shared" si="0"/>
+        <v>10.585585612049549</v>
       </c>
       <c r="X21" s="12" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="Y21" s="12" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="Z21" s="12" t="s">
         <v>57</v>
@@ -2711,19 +3003,22 @@
       <c r="B22">
         <v>10</v>
       </c>
-      <c r="C22">
+      <c r="C22" s="22">
+        <f>SUM($B$17:B22)</f>
         <v>40</v>
       </c>
       <c r="E22" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="F22">
         <v>50</v>
       </c>
-      <c r="G22">
+      <c r="G22" s="22">
+        <f>SUM($F$16:F22)</f>
         <v>990</v>
       </c>
-      <c r="I22">
+      <c r="I22" s="22">
+        <f t="shared" si="0"/>
         <v>11.148648676520271</v>
       </c>
       <c r="X22" s="12"/>
@@ -2737,20 +3032,23 @@
       <c r="B23">
         <v>10</v>
       </c>
-      <c r="C23">
+      <c r="C23" s="22">
+        <f>SUM($B$17:B23)</f>
         <v>50</v>
       </c>
       <c r="E23" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="F23">
         <v>40</v>
       </c>
-      <c r="G23">
+      <c r="G23" s="22">
+        <f>SUM($F$16:F23)</f>
         <v>1030</v>
       </c>
-      <c r="I23">
-        <v>11.599099128096849</v>
+      <c r="I23" s="22">
+        <f t="shared" si="0"/>
+        <v>11.599099128096848</v>
       </c>
       <c r="X23" s="12"/>
       <c r="Y23" s="12"/>
@@ -2763,19 +3061,22 @@
       <c r="B24">
         <v>10</v>
       </c>
-      <c r="C24">
+      <c r="C24" s="22">
+        <f>SUM($B$17:B24)</f>
         <v>60</v>
       </c>
       <c r="E24" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="F24">
         <v>30</v>
       </c>
-      <c r="G24">
+      <c r="G24" s="22">
+        <f>SUM($F$16:F24)</f>
         <v>1060</v>
       </c>
-      <c r="I24">
+      <c r="I24" s="22">
+        <f t="shared" si="0"/>
         <v>11.93693696677928</v>
       </c>
       <c r="X24" s="12"/>
@@ -2789,20 +3090,23 @@
       <c r="B25">
         <v>10</v>
       </c>
-      <c r="C25">
+      <c r="C25" s="22">
+        <f>SUM($B$17:B25)</f>
         <v>70</v>
       </c>
       <c r="E25" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="F25">
         <v>60</v>
       </c>
-      <c r="G25">
+      <c r="G25" s="22">
+        <f>SUM($F$16:F25)</f>
         <v>1120</v>
       </c>
-      <c r="I25">
-        <v>12.612612644144139</v>
+      <c r="I25" s="22">
+        <f t="shared" si="0"/>
+        <v>12.612612644144143</v>
       </c>
       <c r="X25" s="12"/>
       <c r="Y25" s="12"/>
@@ -2815,22 +3119,25 @@
       <c r="B26">
         <v>10</v>
       </c>
-      <c r="C26">
+      <c r="C26" s="22">
+        <f>SUM($B$17:B26)</f>
         <v>80</v>
       </c>
       <c r="D26" t="s">
-        <v>96</v>
-      </c>
-      <c r="E26" s="16" t="s">
-        <v>97</v>
+        <v>93</v>
+      </c>
+      <c r="E26" s="15" t="s">
+        <v>94</v>
       </c>
       <c r="F26">
         <v>750</v>
       </c>
-      <c r="G26">
+      <c r="G26" s="22">
+        <f>SUM($F$16:F26)</f>
         <v>1870</v>
       </c>
-      <c r="I26">
+      <c r="I26" s="22">
+        <f t="shared" si="0"/>
         <v>21.058558611204958</v>
       </c>
       <c r="X26" s="12"/>
@@ -2842,21 +3149,24 @@
         <v>11</v>
       </c>
       <c r="B27">
-        <v>15</v>
-      </c>
-      <c r="C27">
+        <v>10</v>
+      </c>
+      <c r="C27" s="22">
+        <f>SUM($B$17:B27)</f>
+        <v>90</v>
+      </c>
+      <c r="E27" t="s">
         <v>95</v>
-      </c>
-      <c r="E27" t="s">
-        <v>98</v>
       </c>
       <c r="F27">
         <v>100</v>
       </c>
-      <c r="G27">
+      <c r="G27" s="22">
+        <f>SUM($F$16:F27)</f>
         <v>1970</v>
       </c>
-      <c r="I27">
+      <c r="I27" s="22">
+        <f t="shared" si="0"/>
         <v>22.184684740146398</v>
       </c>
       <c r="X27" s="12"/>
@@ -2868,21 +3178,24 @@
         <v>12</v>
       </c>
       <c r="B28">
-        <v>15</v>
-      </c>
-      <c r="C28">
-        <v>110</v>
+        <v>10</v>
+      </c>
+      <c r="C28" s="22">
+        <f>SUM($B$17:B28)</f>
+        <v>100</v>
       </c>
       <c r="E28" t="s">
-        <v>99</v>
-      </c>
-      <c r="F28" s="24">
+        <v>96</v>
+      </c>
+      <c r="F28" s="23">
         <v>80</v>
       </c>
-      <c r="G28">
+      <c r="G28" s="22">
+        <f>SUM($F$16:F28)</f>
         <v>2050</v>
       </c>
-      <c r="I28">
+      <c r="I28" s="22">
+        <f t="shared" si="0"/>
         <v>23.085585643299549</v>
       </c>
       <c r="X28" s="12"/>
@@ -2894,22 +3207,25 @@
         <v>13</v>
       </c>
       <c r="B29">
-        <v>15</v>
-      </c>
-      <c r="C29">
-        <v>125</v>
+        <v>10</v>
+      </c>
+      <c r="C29" s="22">
+        <f>SUM($B$17:B29)</f>
+        <v>110</v>
       </c>
       <c r="E29" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="F29">
         <v>60</v>
       </c>
-      <c r="G29">
+      <c r="G29" s="22">
+        <f>SUM($F$16:F29)</f>
         <v>2110</v>
       </c>
-      <c r="I29">
-        <v>23.76126132066441</v>
+      <c r="I29" s="22">
+        <f t="shared" si="0"/>
+        <v>23.761261320664413</v>
       </c>
       <c r="X29" s="12"/>
       <c r="Y29" s="12"/>
@@ -2920,22 +3236,25 @@
         <v>14</v>
       </c>
       <c r="B30">
-        <v>15</v>
-      </c>
-      <c r="C30">
-        <v>140</v>
+        <v>10</v>
+      </c>
+      <c r="C30" s="22">
+        <f>SUM($B$17:B30)</f>
+        <v>120</v>
       </c>
       <c r="E30" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="F30">
         <v>120</v>
       </c>
-      <c r="G30">
+      <c r="G30" s="22">
+        <f>SUM($F$16:F30)</f>
         <v>2230</v>
       </c>
-      <c r="I30">
-        <v>25.11261267539415</v>
+      <c r="I30" s="22">
+        <f t="shared" si="0"/>
+        <v>25.112612675394146</v>
       </c>
       <c r="X30" s="12"/>
       <c r="Y30" s="12"/>
@@ -2946,22 +3265,25 @@
         <v>15</v>
       </c>
       <c r="B31">
-        <v>15</v>
-      </c>
-      <c r="C31">
-        <v>155</v>
+        <v>10</v>
+      </c>
+      <c r="C31" s="22">
+        <f>SUM($B$17:B31)</f>
+        <v>130</v>
       </c>
       <c r="E31" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="F31">
         <v>120</v>
       </c>
-      <c r="G31">
+      <c r="G31" s="22">
+        <f>SUM($F$16:F31)</f>
         <v>2350</v>
       </c>
-      <c r="I31">
-        <v>26.463964030123869</v>
+      <c r="I31" s="22">
+        <f t="shared" si="0"/>
+        <v>26.463964030123872</v>
       </c>
       <c r="X31" s="12"/>
       <c r="Y31" s="12"/>
@@ -2972,25 +3294,28 @@
         <v>16</v>
       </c>
       <c r="B32">
-        <v>15</v>
-      </c>
-      <c r="C32">
-        <v>170</v>
+        <v>10</v>
+      </c>
+      <c r="C32" s="22">
+        <f>SUM($B$17:B32)</f>
+        <v>140</v>
       </c>
       <c r="E32" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="F32">
         <v>100</v>
       </c>
-      <c r="G32">
+      <c r="G32" s="22">
+        <f>SUM($F$16:F32)</f>
         <v>2450</v>
       </c>
-      <c r="I32">
-        <v>27.590090159065319</v>
+      <c r="I32" s="22">
+        <f t="shared" si="0"/>
+        <v>27.590090159065316</v>
       </c>
       <c r="X32" s="12" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="Y32" s="12">
         <v>50</v>
@@ -3004,25 +3329,28 @@
         <v>17</v>
       </c>
       <c r="B33">
-        <v>15</v>
-      </c>
-      <c r="C33">
-        <v>185</v>
+        <v>10</v>
+      </c>
+      <c r="C33" s="22">
+        <f>SUM($B$17:B33)</f>
+        <v>150</v>
       </c>
       <c r="E33" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="F33">
         <v>80</v>
       </c>
-      <c r="G33">
+      <c r="G33" s="22">
+        <f>SUM($F$16:F33)</f>
         <v>2530</v>
       </c>
-      <c r="I33">
+      <c r="I33" s="22">
+        <f t="shared" si="0"/>
         <v>28.49099106221847</v>
       </c>
       <c r="X33" s="12" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="Y33" s="12">
         <v>250</v>
@@ -3036,25 +3364,28 @@
         <v>18</v>
       </c>
       <c r="B34">
-        <v>15</v>
-      </c>
-      <c r="C34">
-        <v>200</v>
+        <v>10</v>
+      </c>
+      <c r="C34" s="22">
+        <f>SUM($B$17:B34)</f>
+        <v>160</v>
       </c>
       <c r="E34" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="F34">
         <v>120</v>
       </c>
-      <c r="G34">
+      <c r="G34" s="22">
+        <f>SUM($F$16:F34)</f>
         <v>2650</v>
       </c>
-      <c r="I34">
+      <c r="I34" s="22">
+        <f t="shared" si="0"/>
         <v>29.842342416948199</v>
       </c>
       <c r="X34" s="12" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="Y34" s="12">
         <v>750</v>
@@ -3068,25 +3399,28 @@
         <v>19</v>
       </c>
       <c r="B35">
-        <v>15</v>
-      </c>
-      <c r="C35">
-        <v>215</v>
+        <v>10</v>
+      </c>
+      <c r="C35" s="22">
+        <f>SUM($B$17:B35)</f>
+        <v>170</v>
       </c>
       <c r="E35" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="F35">
         <v>120</v>
       </c>
-      <c r="G35">
+      <c r="G35" s="22">
+        <f>SUM($F$16:F35)</f>
         <v>2770</v>
       </c>
-      <c r="I35">
-        <v>31.193693771677928</v>
+      <c r="I35" s="22">
+        <f t="shared" si="0"/>
+        <v>31.193693771677932</v>
       </c>
       <c r="X35" s="12" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="Y35" s="12">
         <v>2500</v>
@@ -3100,28 +3434,31 @@
         <v>20</v>
       </c>
       <c r="B36">
-        <v>15</v>
-      </c>
-      <c r="C36">
-        <v>230</v>
+        <v>10</v>
+      </c>
+      <c r="C36" s="22">
+        <f>SUM($B$17:B36)</f>
+        <v>180</v>
       </c>
       <c r="D36" t="s">
-        <v>107</v>
-      </c>
-      <c r="E36" s="16" t="s">
-        <v>108</v>
+        <v>104</v>
+      </c>
+      <c r="E36" s="15" t="s">
+        <v>105</v>
       </c>
       <c r="F36">
         <v>720</v>
       </c>
-      <c r="G36">
+      <c r="G36" s="22">
+        <f>SUM($F$16:F36)</f>
         <v>3490</v>
       </c>
-      <c r="I36">
-        <v>39.301801900056297</v>
+      <c r="I36" s="22">
+        <f t="shared" si="0"/>
+        <v>39.301801900056304</v>
       </c>
       <c r="X36" s="12" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="Y36" s="12">
         <v>720</v>
@@ -3137,20 +3474,23 @@
       <c r="B37">
         <v>20</v>
       </c>
-      <c r="C37">
-        <v>250</v>
+      <c r="C37" s="22">
+        <f>SUM($B$17:B37)</f>
+        <v>200</v>
       </c>
       <c r="E37" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="F37">
         <v>150</v>
       </c>
-      <c r="G37">
+      <c r="G37" s="22">
+        <f>SUM($F$16:F37)</f>
         <v>3640</v>
       </c>
-      <c r="I37">
-        <v>40.990991093468473</v>
+      <c r="I37" s="22">
+        <f t="shared" si="0"/>
+        <v>40.990991093468466</v>
       </c>
       <c r="X37" s="12"/>
       <c r="Y37" s="12"/>
@@ -3163,20 +3503,23 @@
       <c r="B38">
         <v>20</v>
       </c>
-      <c r="C38">
-        <v>270</v>
+      <c r="C38" s="22">
+        <f>SUM($B$17:B38)</f>
+        <v>220</v>
       </c>
       <c r="E38" t="s">
-        <v>111</v>
-      </c>
-      <c r="F38" s="24">
+        <v>108</v>
+      </c>
+      <c r="F38" s="23">
         <v>120</v>
       </c>
-      <c r="G38">
+      <c r="G38" s="22">
+        <f>SUM($F$16:F38)</f>
         <v>3760</v>
       </c>
-      <c r="I38">
-        <v>42.342342448198202</v>
+      <c r="I38" s="22">
+        <f t="shared" si="0"/>
+        <v>42.342342448198195</v>
       </c>
       <c r="X38" s="12"/>
       <c r="Y38" s="12"/>
@@ -3189,19 +3532,22 @@
       <c r="B39">
         <v>20</v>
       </c>
-      <c r="C39">
-        <v>290</v>
+      <c r="C39" s="22">
+        <f>SUM($B$17:B39)</f>
+        <v>240</v>
       </c>
       <c r="E39" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="F39">
         <v>90</v>
       </c>
-      <c r="G39">
+      <c r="G39" s="22">
+        <f>SUM($F$16:F39)</f>
         <v>3850</v>
       </c>
-      <c r="I39">
+      <c r="I39" s="22">
+        <f t="shared" si="0"/>
         <v>43.355855964245492</v>
       </c>
       <c r="X39" s="12"/>
@@ -3215,19 +3561,22 @@
       <c r="B40">
         <v>20</v>
       </c>
-      <c r="C40">
-        <v>310</v>
+      <c r="C40" s="22">
+        <f>SUM($B$17:B40)</f>
+        <v>260</v>
       </c>
       <c r="E40" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="F40">
         <v>240</v>
       </c>
-      <c r="G40">
+      <c r="G40" s="22">
+        <f>SUM($F$16:F40)</f>
         <v>4090</v>
       </c>
-      <c r="I40">
+      <c r="I40" s="22">
+        <f t="shared" si="0"/>
         <v>46.058558673704958</v>
       </c>
       <c r="X40" s="12"/>
@@ -3239,21 +3588,24 @@
         <v>25</v>
       </c>
       <c r="B41">
-        <v>20</v>
-      </c>
-      <c r="C41">
-        <v>330</v>
+        <v>30</v>
+      </c>
+      <c r="C41" s="22">
+        <f>SUM($B$17:B41)</f>
+        <v>290</v>
       </c>
       <c r="E41" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="F41">
         <v>180</v>
       </c>
-      <c r="G41">
+      <c r="G41" s="22">
+        <f>SUM($F$16:F41)</f>
         <v>4270</v>
       </c>
-      <c r="I41">
+      <c r="I41" s="22">
+        <f t="shared" si="0"/>
         <v>48.085585705799552</v>
       </c>
       <c r="X41" s="12"/>
@@ -3265,25 +3617,28 @@
         <v>26</v>
       </c>
       <c r="B42">
-        <v>20</v>
-      </c>
-      <c r="C42">
-        <v>350</v>
+        <v>30</v>
+      </c>
+      <c r="C42" s="22">
+        <f>SUM($B$17:B42)</f>
+        <v>320</v>
       </c>
       <c r="E42" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="F42">
         <v>150</v>
       </c>
-      <c r="G42">
+      <c r="G42" s="22">
+        <f>SUM($F$16:F42)</f>
         <v>4420</v>
       </c>
-      <c r="I42">
+      <c r="I42" s="22">
+        <f t="shared" si="0"/>
         <v>49.774774899211707</v>
       </c>
       <c r="X42" s="12" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="Y42" s="12">
         <v>1200</v>
@@ -3297,25 +3652,28 @@
         <v>27</v>
       </c>
       <c r="B43">
-        <v>20</v>
-      </c>
-      <c r="C43">
-        <v>370</v>
+        <v>30</v>
+      </c>
+      <c r="C43" s="22">
+        <f>SUM($B$17:B43)</f>
+        <v>350</v>
       </c>
       <c r="E43" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="F43">
         <v>120</v>
       </c>
-      <c r="G43">
+      <c r="G43" s="22">
+        <f>SUM($F$16:F43)</f>
         <v>4540</v>
       </c>
-      <c r="I43">
+      <c r="I43" s="22">
+        <f t="shared" si="0"/>
         <v>51.126126253941443</v>
       </c>
       <c r="X43" s="12" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="Y43" s="12">
         <v>2000</v>
@@ -3329,21 +3687,24 @@
         <v>28</v>
       </c>
       <c r="B44">
-        <v>20</v>
-      </c>
-      <c r="C44">
-        <v>390</v>
+        <v>30</v>
+      </c>
+      <c r="C44" s="22">
+        <f>SUM($B$17:B44)</f>
+        <v>380</v>
       </c>
       <c r="E44" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="F44">
         <v>240</v>
       </c>
-      <c r="G44">
+      <c r="G44" s="22">
+        <f>SUM($F$16:F44)</f>
         <v>4780</v>
       </c>
-      <c r="I44">
+      <c r="I44" s="22">
+        <f t="shared" si="0"/>
         <v>53.828828963400902</v>
       </c>
     </row>
@@ -3352,22 +3713,25 @@
         <v>29</v>
       </c>
       <c r="B45">
-        <v>20</v>
-      </c>
-      <c r="C45">
+        <v>30</v>
+      </c>
+      <c r="C45" s="22">
+        <f>SUM($B$17:B45)</f>
         <v>410</v>
       </c>
       <c r="E45" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="F45">
         <v>180</v>
       </c>
-      <c r="G45">
+      <c r="G45" s="22">
+        <f>SUM($F$16:F45)</f>
         <v>4960</v>
       </c>
-      <c r="I45">
-        <v>55.855855995495503</v>
+      <c r="I45" s="22">
+        <f t="shared" si="0"/>
+        <v>55.855855995495496</v>
       </c>
     </row>
     <row r="46" spans="1:26">
@@ -3375,24 +3739,27 @@
         <v>30</v>
       </c>
       <c r="B46">
-        <v>20</v>
-      </c>
-      <c r="C46">
-        <v>430</v>
+        <v>30</v>
+      </c>
+      <c r="C46" s="22">
+        <f>SUM($B$17:B46)</f>
+        <v>440</v>
       </c>
       <c r="D46" t="s">
-        <v>117</v>
-      </c>
-      <c r="E46" s="16" t="s">
-        <v>116</v>
+        <v>114</v>
+      </c>
+      <c r="E46" s="15" t="s">
+        <v>113</v>
       </c>
       <c r="F46">
         <v>1000</v>
       </c>
-      <c r="G46">
+      <c r="G46" s="22">
+        <f>SUM($F$16:F46)</f>
         <v>5960</v>
       </c>
-      <c r="I46">
+      <c r="I46" s="22">
+        <f t="shared" si="0"/>
         <v>67.117117284909909</v>
       </c>
     </row>
@@ -3401,21 +3768,24 @@
         <v>31</v>
       </c>
       <c r="B47">
-        <v>30</v>
-      </c>
-      <c r="C47">
-        <v>460</v>
+        <v>50</v>
+      </c>
+      <c r="C47" s="22">
+        <f>SUM($B$17:B47)</f>
+        <v>490</v>
       </c>
       <c r="E47" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="F47">
         <v>200</v>
       </c>
-      <c r="G47">
+      <c r="G47" s="22">
+        <f>SUM($F$16:F47)</f>
         <v>6160</v>
       </c>
-      <c r="I47">
+      <c r="I47" s="22">
+        <f t="shared" si="0"/>
         <v>69.369369542792796</v>
       </c>
     </row>
@@ -3424,21 +3794,24 @@
         <v>32</v>
       </c>
       <c r="B48">
-        <v>30</v>
-      </c>
-      <c r="C48">
-        <v>490</v>
+        <v>50</v>
+      </c>
+      <c r="C48" s="22">
+        <f>SUM($B$17:B48)</f>
+        <v>540</v>
       </c>
       <c r="E48" t="s">
-        <v>119</v>
-      </c>
-      <c r="F48" s="24">
-        <v>160</v>
-      </c>
-      <c r="G48">
+        <v>116</v>
+      </c>
+      <c r="F48" s="23">
+        <v>160</v>
+      </c>
+      <c r="G48" s="22">
+        <f>SUM($F$16:F48)</f>
         <v>6320</v>
       </c>
-      <c r="I48">
+      <c r="I48" s="22">
+        <f t="shared" si="0"/>
         <v>71.171171349099097</v>
       </c>
     </row>
@@ -3447,21 +3820,24 @@
         <v>33</v>
       </c>
       <c r="B49">
-        <v>30</v>
-      </c>
-      <c r="C49">
-        <v>520</v>
+        <v>50</v>
+      </c>
+      <c r="C49" s="22">
+        <f>SUM($B$17:B49)</f>
+        <v>590</v>
       </c>
       <c r="E49" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="F49">
         <v>120</v>
       </c>
-      <c r="G49">
+      <c r="G49" s="22">
+        <f>SUM($F$16:F49)</f>
         <v>6440</v>
       </c>
-      <c r="I49">
+      <c r="I49" s="22">
+        <f t="shared" si="0"/>
         <v>72.522522703828827</v>
       </c>
     </row>
@@ -3470,21 +3846,24 @@
         <v>34</v>
       </c>
       <c r="B50">
-        <v>30</v>
-      </c>
-      <c r="C50">
-        <v>550</v>
+        <v>60</v>
+      </c>
+      <c r="C50" s="22">
+        <f>SUM($B$17:B50)</f>
+        <v>650</v>
       </c>
       <c r="E50" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="F50">
         <v>360</v>
       </c>
-      <c r="G50">
+      <c r="G50" s="22">
+        <f>SUM($F$16:F50)</f>
         <v>6800</v>
       </c>
-      <c r="I50">
+      <c r="I50" s="22">
+        <f t="shared" si="0"/>
         <v>76.576576768018029</v>
       </c>
     </row>
@@ -3493,21 +3872,24 @@
         <v>35</v>
       </c>
       <c r="B51">
-        <v>30</v>
-      </c>
-      <c r="C51">
-        <v>580</v>
+        <v>60</v>
+      </c>
+      <c r="C51" s="22">
+        <f>SUM($B$17:B51)</f>
+        <v>710</v>
       </c>
       <c r="E51" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="F51">
         <v>240</v>
       </c>
-      <c r="G51">
+      <c r="G51" s="22">
+        <f>SUM($F$16:F51)</f>
         <v>7040</v>
       </c>
-      <c r="I51">
+      <c r="I51" s="22">
+        <f t="shared" si="0"/>
         <v>79.279279477477473</v>
       </c>
     </row>
@@ -3516,21 +3898,24 @@
         <v>36</v>
       </c>
       <c r="B52">
-        <v>40</v>
-      </c>
-      <c r="C52">
-        <v>620</v>
+        <v>60</v>
+      </c>
+      <c r="C52" s="22">
+        <f>SUM($B$17:B52)</f>
+        <v>770</v>
       </c>
       <c r="E52" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="F52">
         <v>200</v>
       </c>
-      <c r="G52">
+      <c r="G52" s="22">
+        <f>SUM($F$16:F52)</f>
         <v>7240</v>
       </c>
-      <c r="I52">
+      <c r="I52" s="22">
+        <f t="shared" si="0"/>
         <v>81.53153173536036</v>
       </c>
     </row>
@@ -3539,21 +3924,24 @@
         <v>37</v>
       </c>
       <c r="B53">
-        <v>40</v>
-      </c>
-      <c r="C53">
-        <v>660</v>
+        <v>70</v>
+      </c>
+      <c r="C53" s="22">
+        <f>SUM($B$17:B53)</f>
+        <v>840</v>
       </c>
       <c r="E53" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="F53">
         <v>160</v>
       </c>
-      <c r="G53">
+      <c r="G53" s="22">
+        <f>SUM($F$16:F53)</f>
         <v>7400</v>
       </c>
-      <c r="I53">
+      <c r="I53" s="22">
+        <f t="shared" si="0"/>
         <v>83.333333541666661</v>
       </c>
     </row>
@@ -3562,21 +3950,24 @@
         <v>38</v>
       </c>
       <c r="B54">
-        <v>40</v>
-      </c>
-      <c r="C54">
-        <v>700</v>
+        <v>70</v>
+      </c>
+      <c r="C54" s="22">
+        <f>SUM($B$17:B54)</f>
+        <v>910</v>
       </c>
       <c r="E54" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="F54">
         <v>360</v>
       </c>
-      <c r="G54">
+      <c r="G54" s="22">
+        <f>SUM($F$16:F54)</f>
         <v>7760</v>
       </c>
-      <c r="I54">
+      <c r="I54" s="22">
+        <f t="shared" si="0"/>
         <v>87.387387605855864</v>
       </c>
     </row>
@@ -3585,21 +3976,24 @@
         <v>39</v>
       </c>
       <c r="B55">
-        <v>40</v>
-      </c>
-      <c r="C55">
-        <v>740</v>
+        <v>70</v>
+      </c>
+      <c r="C55" s="22">
+        <f>SUM($B$17:B55)</f>
+        <v>980</v>
       </c>
       <c r="E55" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="F55">
         <v>240</v>
       </c>
-      <c r="G55">
+      <c r="G55" s="22">
+        <f>SUM($F$16:F55)</f>
         <v>8000</v>
       </c>
-      <c r="I55">
+      <c r="I55" s="22">
+        <f t="shared" si="0"/>
         <v>90.090090315315322</v>
       </c>
     </row>
@@ -3608,22 +4002,25 @@
         <v>40</v>
       </c>
       <c r="B56">
-        <v>50</v>
-      </c>
-      <c r="C56">
-        <v>790</v>
-      </c>
-      <c r="E56" s="16" t="s">
-        <v>116</v>
+        <v>70</v>
+      </c>
+      <c r="C56" s="22">
+        <f>SUM($B$17:B56)</f>
+        <v>1050</v>
+      </c>
+      <c r="E56" s="15" t="s">
+        <v>113</v>
       </c>
       <c r="F56">
         <v>1000</v>
       </c>
-      <c r="G56">
+      <c r="G56" s="22">
+        <f>SUM($F$16:F56)</f>
         <v>9000</v>
       </c>
-      <c r="I56">
-        <v>101.3513516047297</v>
+      <c r="I56" s="22">
+        <f t="shared" si="0"/>
+        <v>101.35135160472973</v>
       </c>
     </row>
     <row r="57" spans="1:9">
@@ -3631,22 +4028,25 @@
         <v>41</v>
       </c>
       <c r="B57">
-        <v>50</v>
-      </c>
-      <c r="C57">
-        <v>840</v>
+        <v>80</v>
+      </c>
+      <c r="C57" s="22">
+        <f>SUM($B$17:B57)</f>
+        <v>1130</v>
       </c>
       <c r="E57" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="F57">
         <v>250</v>
       </c>
-      <c r="G57">
+      <c r="G57" s="22">
+        <f>SUM($F$16:F57)</f>
         <v>9250</v>
       </c>
-      <c r="I57">
-        <v>104.1666669270833</v>
+      <c r="I57" s="22">
+        <f t="shared" si="0"/>
+        <v>104.16666692708334</v>
       </c>
     </row>
     <row r="58" spans="1:9">
@@ -3654,22 +4054,25 @@
         <v>42</v>
       </c>
       <c r="B58">
-        <v>50</v>
-      </c>
-      <c r="C58">
-        <v>890</v>
+        <v>80</v>
+      </c>
+      <c r="C58" s="22">
+        <f>SUM($B$17:B58)</f>
+        <v>1210</v>
       </c>
       <c r="E58" t="s">
-        <v>124</v>
-      </c>
-      <c r="F58" s="24">
+        <v>121</v>
+      </c>
+      <c r="F58" s="23">
         <v>200</v>
       </c>
-      <c r="G58">
+      <c r="G58" s="22">
+        <f>SUM($F$16:F58)</f>
         <v>9450</v>
       </c>
-      <c r="I58">
-        <v>106.4189191849662</v>
+      <c r="I58" s="22">
+        <f t="shared" si="0"/>
+        <v>106.41891918496623</v>
       </c>
     </row>
     <row r="59" spans="1:9">
@@ -3677,22 +4080,25 @@
         <v>43</v>
       </c>
       <c r="B59">
-        <v>50</v>
-      </c>
-      <c r="C59">
-        <v>940</v>
+        <v>80</v>
+      </c>
+      <c r="C59" s="22">
+        <f>SUM($B$17:B59)</f>
+        <v>1290</v>
       </c>
       <c r="E59" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="F59">
         <v>150</v>
       </c>
-      <c r="G59">
+      <c r="G59" s="22">
+        <f>SUM($F$16:F59)</f>
         <v>9600</v>
       </c>
-      <c r="I59">
-        <v>108.1081083783784</v>
+      <c r="I59" s="22">
+        <f t="shared" si="0"/>
+        <v>108.10810837837839</v>
       </c>
     </row>
     <row r="60" spans="1:9">
@@ -3700,22 +4106,25 @@
         <v>44</v>
       </c>
       <c r="B60">
-        <v>50</v>
-      </c>
-      <c r="C60">
-        <v>990</v>
+        <v>80</v>
+      </c>
+      <c r="C60" s="22">
+        <f>SUM($B$17:B60)</f>
+        <v>1370</v>
       </c>
       <c r="E60" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="F60">
         <v>480</v>
       </c>
-      <c r="G60">
+      <c r="G60" s="22">
+        <f>SUM($F$16:F60)</f>
         <v>10080</v>
       </c>
-      <c r="I60">
-        <v>113.51351379729731</v>
+      <c r="I60" s="22">
+        <f t="shared" si="0"/>
+        <v>113.51351379729729</v>
       </c>
     </row>
     <row r="61" spans="1:9">
@@ -3723,22 +4132,25 @@
         <v>45</v>
       </c>
       <c r="B61">
-        <v>50</v>
-      </c>
-      <c r="C61">
-        <v>1040</v>
+        <v>90</v>
+      </c>
+      <c r="C61" s="22">
+        <f>SUM($B$17:B61)</f>
+        <v>1460</v>
       </c>
       <c r="E61" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="F61">
         <v>300</v>
       </c>
-      <c r="G61">
+      <c r="G61" s="22">
+        <f>SUM($F$16:F61)</f>
         <v>10380</v>
       </c>
-      <c r="I61">
-        <v>116.8918921841216</v>
+      <c r="I61" s="22">
+        <f t="shared" si="0"/>
+        <v>116.89189218412162</v>
       </c>
     </row>
     <row r="62" spans="1:9">
@@ -3746,45 +4158,51 @@
         <v>46</v>
       </c>
       <c r="B62">
-        <v>60</v>
-      </c>
-      <c r="C62">
-        <v>1100</v>
+        <v>90</v>
+      </c>
+      <c r="C62" s="22">
+        <f>SUM($B$17:B62)</f>
+        <v>1550</v>
       </c>
       <c r="E62" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="F62">
         <v>250</v>
       </c>
-      <c r="G62">
+      <c r="G62" s="22">
+        <f>SUM($F$16:F62)</f>
         <v>10630</v>
       </c>
-      <c r="I62">
-        <v>119.7072075064752</v>
+      <c r="I62" s="22">
+        <f t="shared" si="0"/>
+        <v>119.70720750647523</v>
       </c>
     </row>
     <row r="63" spans="1:9">
       <c r="A63">
         <v>47</v>
       </c>
-      <c r="B63">
-        <v>60</v>
-      </c>
-      <c r="C63">
-        <v>1160</v>
+      <c r="B63" s="24">
+        <v>90</v>
+      </c>
+      <c r="C63" s="22">
+        <f>SUM($B$17:B63)</f>
+        <v>1640</v>
       </c>
       <c r="E63" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="F63">
         <v>200</v>
       </c>
-      <c r="G63">
+      <c r="G63" s="22">
+        <f>SUM($F$16:F63)</f>
         <v>10830</v>
       </c>
-      <c r="I63">
-        <v>121.9594597643581</v>
+      <c r="I63" s="22">
+        <f t="shared" si="0"/>
+        <v>121.95945976435812</v>
       </c>
     </row>
     <row r="64" spans="1:9">
@@ -3792,22 +4210,25 @@
         <v>48</v>
       </c>
       <c r="B64">
-        <v>60</v>
-      </c>
-      <c r="C64">
-        <v>1220</v>
+        <v>100</v>
+      </c>
+      <c r="C64" s="22">
+        <f>SUM($B$17:B64)</f>
+        <v>1740</v>
       </c>
       <c r="E64" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="F64">
         <v>480</v>
       </c>
-      <c r="G64">
+      <c r="G64" s="22">
+        <f>SUM($F$16:F64)</f>
         <v>11310</v>
       </c>
-      <c r="I64">
-        <v>127.364865183277</v>
+      <c r="I64" s="22">
+        <f t="shared" si="0"/>
+        <v>127.36486518327703</v>
       </c>
     </row>
     <row r="65" spans="1:9">
@@ -3815,22 +4236,25 @@
         <v>49</v>
       </c>
       <c r="B65">
-        <v>60</v>
-      </c>
-      <c r="C65">
-        <v>1280</v>
+        <v>100</v>
+      </c>
+      <c r="C65" s="22">
+        <f>SUM($B$17:B65)</f>
+        <v>1840</v>
       </c>
       <c r="E65" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="F65">
         <v>300</v>
       </c>
-      <c r="G65">
+      <c r="G65" s="22">
+        <f>SUM($F$16:F65)</f>
         <v>11610</v>
       </c>
-      <c r="I65">
-        <v>130.74324357010141</v>
+      <c r="I65" s="22">
+        <f t="shared" si="0"/>
+        <v>130.74324357010136</v>
       </c>
     </row>
     <row r="66" spans="1:9">
@@ -3838,261 +4262,294 @@
         <v>50</v>
       </c>
       <c r="B66">
-        <v>60</v>
-      </c>
-      <c r="C66">
-        <v>1340</v>
-      </c>
-      <c r="E66" s="16" t="s">
-        <v>128</v>
+        <v>100</v>
+      </c>
+      <c r="C66" s="22">
+        <f>SUM($B$17:B66)</f>
+        <v>1940</v>
+      </c>
+      <c r="E66" s="25" t="s">
+        <v>127</v>
       </c>
       <c r="F66">
         <v>1600</v>
       </c>
-      <c r="G66">
+      <c r="G66" s="22">
+        <f>SUM($F$16:F66)</f>
         <v>13210</v>
       </c>
-      <c r="I66">
-        <v>148.76126163316439</v>
+      <c r="I66" s="22">
+        <f t="shared" si="0"/>
+        <v>148.76126163316442</v>
       </c>
     </row>
     <row r="67" spans="1:9">
       <c r="A67">
         <v>54</v>
       </c>
-      <c r="B67" s="19">
-        <v>120</v>
-      </c>
-      <c r="C67">
-        <v>1340</v>
-      </c>
-      <c r="D67" s="19"/>
-      <c r="E67" s="19" t="s">
-        <v>129</v>
-      </c>
-      <c r="F67" s="19">
+      <c r="B67" s="18">
+        <v>160</v>
+      </c>
+      <c r="C67" s="22">
+        <f>SUM($B$17:B67)</f>
+        <v>2100</v>
+      </c>
+      <c r="D67" s="18"/>
+      <c r="E67" s="18" t="s">
+        <v>125</v>
+      </c>
+      <c r="F67" s="18">
         <v>250</v>
       </c>
-      <c r="G67">
+      <c r="G67" s="22">
+        <f>SUM($F$16:F67)</f>
         <v>13460</v>
       </c>
-      <c r="I67">
-        <v>151.57657695551799</v>
+      <c r="I67" s="22">
+        <f t="shared" si="0"/>
+        <v>151.57657695551802</v>
       </c>
     </row>
     <row r="68" spans="1:9">
       <c r="A68">
         <v>55</v>
       </c>
-      <c r="B68" s="19">
-        <v>120</v>
-      </c>
-      <c r="C68">
-        <v>1460</v>
-      </c>
-      <c r="D68" s="19"/>
-      <c r="E68" s="19" t="s">
-        <v>130</v>
-      </c>
-      <c r="F68" s="19">
+      <c r="B68" s="18">
+        <v>160</v>
+      </c>
+      <c r="C68" s="22">
+        <f>SUM($B$17:B68)</f>
+        <v>2260</v>
+      </c>
+      <c r="D68" s="18"/>
+      <c r="E68" s="18" t="s">
+        <v>126</v>
+      </c>
+      <c r="F68" s="18">
         <v>100</v>
       </c>
-      <c r="G68">
+      <c r="G68" s="22">
+        <f>SUM($F$16:F68)</f>
         <v>13560</v>
       </c>
-      <c r="I68">
-        <v>152.7027030844595</v>
+      <c r="I68" s="22">
+        <f t="shared" si="0"/>
+        <v>152.70270308445947</v>
       </c>
     </row>
     <row r="69" spans="1:9">
       <c r="A69">
         <v>56</v>
       </c>
-      <c r="B69" s="19">
-        <v>120</v>
-      </c>
-      <c r="C69">
-        <v>1580</v>
-      </c>
-      <c r="D69" s="19"/>
-      <c r="E69" s="19" t="s">
-        <v>112</v>
-      </c>
-      <c r="F69" s="19">
+      <c r="B69" s="18">
+        <v>160</v>
+      </c>
+      <c r="C69" s="22">
+        <f>SUM($B$17:B69)</f>
+        <v>2420</v>
+      </c>
+      <c r="D69" s="18"/>
+      <c r="E69" s="18" t="s">
+        <v>109</v>
+      </c>
+      <c r="F69" s="18">
         <v>90</v>
       </c>
-      <c r="G69">
+      <c r="G69" s="22">
+        <f>SUM($F$16:F69)</f>
         <v>13650</v>
       </c>
-      <c r="I69">
-        <v>153.71621660050681</v>
+      <c r="I69" s="22">
+        <f t="shared" si="0"/>
+        <v>153.71621660050675</v>
       </c>
     </row>
     <row r="70" spans="1:9">
       <c r="A70">
         <v>57</v>
       </c>
-      <c r="B70" s="19">
+      <c r="B70" s="18">
+        <v>160</v>
+      </c>
+      <c r="C70" s="22">
+        <f>SUM($B$17:B70)</f>
+        <v>2580</v>
+      </c>
+      <c r="D70" s="18"/>
+      <c r="E70" s="18" t="s">
+        <v>98</v>
+      </c>
+      <c r="F70" s="18">
         <v>120</v>
       </c>
-      <c r="C70">
-        <v>1700</v>
-      </c>
-      <c r="D70" s="19"/>
-      <c r="E70" s="19" t="s">
-        <v>101</v>
-      </c>
-      <c r="F70" s="19">
-        <v>120</v>
-      </c>
-      <c r="G70">
+      <c r="G70" s="22">
+        <f>SUM($F$16:F70)</f>
         <v>13770</v>
       </c>
-      <c r="I70">
-        <v>155.06756795523651</v>
+      <c r="I70" s="22">
+        <f t="shared" si="0"/>
+        <v>155.06756795523648</v>
       </c>
     </row>
     <row r="71" spans="1:9">
       <c r="A71">
         <v>58</v>
       </c>
-      <c r="B71" s="19">
-        <v>120</v>
-      </c>
-      <c r="C71">
-        <v>1820</v>
-      </c>
-      <c r="D71" s="19"/>
-      <c r="E71" s="19" t="s">
-        <v>129</v>
-      </c>
-      <c r="F71" s="19">
+      <c r="B71" s="18">
+        <v>160</v>
+      </c>
+      <c r="C71" s="22">
+        <f>SUM($B$17:B71)</f>
+        <v>2740</v>
+      </c>
+      <c r="D71" s="18"/>
+      <c r="E71" s="18" t="s">
+        <v>125</v>
+      </c>
+      <c r="F71" s="18">
         <v>250</v>
       </c>
-      <c r="G71">
+      <c r="G71" s="22">
+        <f>SUM($F$16:F71)</f>
         <v>14020</v>
       </c>
-      <c r="I71">
-        <v>157.88288327759011</v>
+      <c r="I71" s="22">
+        <f t="shared" si="0"/>
+        <v>157.88288327759008</v>
       </c>
     </row>
     <row r="72" spans="1:9">
       <c r="A72">
         <v>59</v>
       </c>
-      <c r="B72" s="19">
-        <v>120</v>
-      </c>
-      <c r="C72">
-        <v>1940</v>
-      </c>
-      <c r="D72" s="19"/>
-      <c r="E72" s="19" t="s">
-        <v>130</v>
-      </c>
-      <c r="F72" s="19">
+      <c r="B72" s="18">
+        <v>160</v>
+      </c>
+      <c r="C72" s="22">
+        <f>SUM($B$17:B72)</f>
+        <v>2900</v>
+      </c>
+      <c r="D72" s="18"/>
+      <c r="E72" s="18" t="s">
+        <v>126</v>
+      </c>
+      <c r="F72" s="18">
         <v>100</v>
       </c>
-      <c r="G72">
+      <c r="G72" s="22">
+        <f>SUM($F$16:F72)</f>
         <v>14120</v>
       </c>
-      <c r="I72">
-        <v>159.0090094065315</v>
+      <c r="I72" s="22">
+        <f t="shared" si="0"/>
+        <v>159.00900940653153</v>
       </c>
     </row>
     <row r="73" spans="1:9">
       <c r="A73">
         <v>60</v>
       </c>
-      <c r="B73" s="19">
-        <v>120</v>
-      </c>
-      <c r="C73">
-        <v>2060</v>
-      </c>
-      <c r="D73" s="19"/>
-      <c r="E73" s="19" t="s">
-        <v>112</v>
-      </c>
-      <c r="F73" s="19">
+      <c r="B73" s="18">
+        <v>160</v>
+      </c>
+      <c r="C73" s="22">
+        <f>SUM($B$17:B73)</f>
+        <v>3060</v>
+      </c>
+      <c r="D73" s="18"/>
+      <c r="E73" s="18" t="s">
+        <v>109</v>
+      </c>
+      <c r="F73" s="18">
         <v>90</v>
       </c>
-      <c r="G73">
+      <c r="G73" s="22">
+        <f>SUM($F$16:F73)</f>
         <v>14210</v>
       </c>
-      <c r="I73">
-        <v>160.02252292257879</v>
+      <c r="I73" s="22">
+        <f t="shared" si="0"/>
+        <v>160.02252292257882</v>
       </c>
     </row>
     <row r="74" spans="1:9">
       <c r="A74">
         <v>61</v>
       </c>
-      <c r="B74" s="19">
+      <c r="B74" s="18">
+        <v>160</v>
+      </c>
+      <c r="C74" s="22">
+        <f>SUM($B$17:B74)</f>
+        <v>3220</v>
+      </c>
+      <c r="D74" s="18"/>
+      <c r="E74" s="18" t="s">
+        <v>98</v>
+      </c>
+      <c r="F74" s="18">
         <v>120</v>
       </c>
-      <c r="C74">
-        <v>2180</v>
-      </c>
-      <c r="D74" s="19"/>
-      <c r="E74" s="19" t="s">
-        <v>101</v>
-      </c>
-      <c r="F74" s="19">
-        <v>120</v>
-      </c>
-      <c r="G74">
+      <c r="G74" s="22">
+        <f>SUM($F$16:F74)</f>
         <v>14330</v>
       </c>
-      <c r="I74">
-        <v>161.37387427730849</v>
+      <c r="I74" s="22">
+        <f t="shared" si="0"/>
+        <v>161.37387427730854</v>
       </c>
     </row>
     <row r="75" spans="1:9">
       <c r="A75">
         <v>62</v>
       </c>
-      <c r="B75" s="19">
-        <v>120</v>
-      </c>
-      <c r="C75">
-        <v>2300</v>
-      </c>
-      <c r="D75" s="19"/>
-      <c r="E75" s="19" t="s">
-        <v>129</v>
-      </c>
-      <c r="F75" s="19">
+      <c r="B75" s="18">
+        <v>160</v>
+      </c>
+      <c r="C75" s="22">
+        <f>SUM($B$17:B75)</f>
+        <v>3380</v>
+      </c>
+      <c r="D75" s="18"/>
+      <c r="E75" s="18" t="s">
+        <v>125</v>
+      </c>
+      <c r="F75" s="18">
         <v>250</v>
       </c>
-      <c r="G75">
+      <c r="G75" s="22">
+        <f>SUM($F$16:F75)</f>
         <v>14580</v>
       </c>
-      <c r="I75">
-        <v>164.1891895996622</v>
+      <c r="I75" s="22">
+        <f t="shared" si="0"/>
+        <v>164.18918959966217</v>
       </c>
     </row>
     <row r="76" spans="1:9">
       <c r="A76">
         <v>63</v>
       </c>
-      <c r="B76" s="19">
-        <v>120</v>
-      </c>
-      <c r="C76">
-        <v>2420</v>
-      </c>
-      <c r="D76" s="19"/>
-      <c r="E76" s="19" t="s">
-        <v>130</v>
-      </c>
-      <c r="F76" s="19">
+      <c r="B76" s="18">
+        <v>160</v>
+      </c>
+      <c r="C76" s="22">
+        <f>SUM($B$17:B76)</f>
+        <v>3540</v>
+      </c>
+      <c r="D76" s="18"/>
+      <c r="E76" s="18" t="s">
+        <v>126</v>
+      </c>
+      <c r="F76" s="18">
         <v>100</v>
       </c>
-      <c r="G76">
+      <c r="G76" s="22">
+        <f>SUM($F$16:F76)</f>
         <v>14680</v>
       </c>
-      <c r="I76">
+      <c r="I76" s="22">
+        <f t="shared" si="0"/>
         <v>165.31531572860359</v>
       </c>
     </row>
@@ -4100,23 +4557,26 @@
       <c r="A77">
         <v>64</v>
       </c>
-      <c r="B77" s="19">
-        <v>120</v>
-      </c>
-      <c r="C77">
-        <v>2540</v>
-      </c>
-      <c r="D77" s="19"/>
-      <c r="E77" s="19" t="s">
-        <v>112</v>
-      </c>
-      <c r="F77" s="19">
+      <c r="B77" s="18">
+        <v>160</v>
+      </c>
+      <c r="C77" s="22">
+        <f>SUM($B$17:B77)</f>
+        <v>3700</v>
+      </c>
+      <c r="D77" s="18"/>
+      <c r="E77" s="18" t="s">
+        <v>109</v>
+      </c>
+      <c r="F77" s="18">
         <v>90</v>
       </c>
-      <c r="G77">
+      <c r="G77" s="22">
+        <f>SUM($F$16:F77)</f>
         <v>14770</v>
       </c>
-      <c r="I77">
+      <c r="I77" s="22">
+        <f t="shared" si="0"/>
         <v>166.3288292446509</v>
       </c>
     </row>
@@ -4124,119 +4584,134 @@
       <c r="A78">
         <v>65</v>
       </c>
-      <c r="B78" s="19">
+      <c r="B78" s="18">
+        <v>160</v>
+      </c>
+      <c r="C78" s="22">
+        <f>SUM($B$17:B78)</f>
+        <v>3860</v>
+      </c>
+      <c r="D78" s="18"/>
+      <c r="E78" s="18" t="s">
+        <v>98</v>
+      </c>
+      <c r="F78" s="18">
         <v>120</v>
       </c>
-      <c r="C78">
-        <v>2660</v>
-      </c>
-      <c r="D78" s="19"/>
-      <c r="E78" s="19" t="s">
-        <v>101</v>
-      </c>
-      <c r="F78" s="19">
-        <v>120</v>
-      </c>
-      <c r="G78">
+      <c r="G78" s="22">
+        <f>SUM($F$16:F78)</f>
         <v>14890</v>
       </c>
-      <c r="I78">
-        <v>167.68018059938061</v>
+      <c r="I78" s="22">
+        <f t="shared" si="0"/>
+        <v>167.68018059938063</v>
       </c>
     </row>
     <row r="79" spans="1:9">
       <c r="A79">
         <v>66</v>
       </c>
-      <c r="B79" s="19">
-        <v>120</v>
-      </c>
-      <c r="C79">
-        <v>2780</v>
-      </c>
-      <c r="D79" s="19"/>
-      <c r="E79" s="19" t="s">
-        <v>129</v>
-      </c>
-      <c r="F79" s="19">
+      <c r="B79" s="18">
+        <v>160</v>
+      </c>
+      <c r="C79" s="22">
+        <f>SUM($B$17:B79)</f>
+        <v>4020</v>
+      </c>
+      <c r="D79" s="18"/>
+      <c r="E79" s="18" t="s">
+        <v>125</v>
+      </c>
+      <c r="F79" s="18">
         <v>250</v>
       </c>
-      <c r="G79">
+      <c r="G79" s="22">
+        <f>SUM($F$16:F79)</f>
         <v>15140</v>
       </c>
-      <c r="I79">
-        <v>170.49549592173429</v>
+      <c r="I79" s="22">
+        <f t="shared" si="0"/>
+        <v>170.49549592173426</v>
       </c>
     </row>
     <row r="80" spans="1:9">
       <c r="A80">
         <v>67</v>
       </c>
-      <c r="B80" s="19">
-        <v>120</v>
-      </c>
-      <c r="C80">
-        <v>2900</v>
-      </c>
-      <c r="D80" s="19"/>
-      <c r="E80" s="19" t="s">
-        <v>130</v>
-      </c>
-      <c r="F80" s="19">
+      <c r="B80" s="18">
+        <v>160</v>
+      </c>
+      <c r="C80" s="22">
+        <f>SUM($B$17:B80)</f>
+        <v>4180</v>
+      </c>
+      <c r="D80" s="18"/>
+      <c r="E80" s="18" t="s">
+        <v>126</v>
+      </c>
+      <c r="F80" s="18">
         <v>100</v>
       </c>
-      <c r="G80">
+      <c r="G80" s="22">
+        <f>SUM($F$16:F80)</f>
         <v>15240</v>
       </c>
-      <c r="I80">
-        <v>171.62162205067571</v>
+      <c r="I80" s="22">
+        <f t="shared" si="0"/>
+        <v>171.62162205067568</v>
       </c>
     </row>
     <row r="81" spans="1:9">
       <c r="A81">
         <v>68</v>
       </c>
-      <c r="B81" s="19">
-        <v>120</v>
-      </c>
-      <c r="C81">
-        <v>3020</v>
-      </c>
-      <c r="D81" s="19"/>
-      <c r="E81" s="19" t="s">
-        <v>112</v>
-      </c>
-      <c r="F81" s="19">
+      <c r="B81" s="18">
+        <v>160</v>
+      </c>
+      <c r="C81" s="22">
+        <f>SUM($B$17:B81)</f>
+        <v>4340</v>
+      </c>
+      <c r="D81" s="18"/>
+      <c r="E81" s="18" t="s">
+        <v>109</v>
+      </c>
+      <c r="F81" s="18">
         <v>90</v>
       </c>
-      <c r="G81">
+      <c r="G81" s="22">
+        <f>SUM($F$16:F81)</f>
         <v>15330</v>
       </c>
-      <c r="I81">
-        <v>172.63513556672299</v>
+      <c r="I81" s="22">
+        <f t="shared" ref="I81:I138" si="1">G81/$Z$2/6.66</f>
+        <v>172.63513556672297</v>
       </c>
     </row>
     <row r="82" spans="1:9">
       <c r="A82">
         <v>69</v>
       </c>
-      <c r="B82" s="19">
+      <c r="B82" s="18">
+        <v>160</v>
+      </c>
+      <c r="C82" s="22">
+        <f>SUM($B$17:B82)</f>
+        <v>4500</v>
+      </c>
+      <c r="D82" s="18"/>
+      <c r="E82" s="18" t="s">
+        <v>98</v>
+      </c>
+      <c r="F82" s="18">
         <v>120</v>
       </c>
-      <c r="C82">
-        <v>3140</v>
-      </c>
-      <c r="D82" s="19"/>
-      <c r="E82" s="19" t="s">
-        <v>101</v>
-      </c>
-      <c r="F82" s="19">
-        <v>120</v>
-      </c>
-      <c r="G82">
+      <c r="G82" s="22">
+        <f>SUM($F$16:F82)</f>
         <v>15450</v>
       </c>
-      <c r="I82">
+      <c r="I82" s="22">
+        <f t="shared" si="1"/>
         <v>173.98648692145269</v>
       </c>
     </row>
@@ -4244,239 +4719,269 @@
       <c r="A83">
         <v>70</v>
       </c>
-      <c r="B83" s="19">
-        <v>120</v>
-      </c>
-      <c r="C83">
-        <v>3260</v>
-      </c>
-      <c r="D83" s="19"/>
-      <c r="E83" s="19" t="s">
-        <v>129</v>
-      </c>
-      <c r="F83" s="19">
+      <c r="B83" s="18">
+        <v>160</v>
+      </c>
+      <c r="C83" s="22">
+        <f>SUM($B$17:B83)</f>
+        <v>4660</v>
+      </c>
+      <c r="D83" s="18"/>
+      <c r="E83" s="18" t="s">
+        <v>125</v>
+      </c>
+      <c r="F83" s="18">
         <v>250</v>
       </c>
-      <c r="G83">
+      <c r="G83" s="22">
+        <f>SUM($F$16:F83)</f>
         <v>15700</v>
       </c>
-      <c r="I83">
-        <v>176.80180224380629</v>
+      <c r="I83" s="22">
+        <f t="shared" si="1"/>
+        <v>176.80180224380632</v>
       </c>
     </row>
     <row r="84" spans="1:9">
       <c r="A84">
         <v>71</v>
       </c>
-      <c r="B84" s="19">
-        <v>120</v>
-      </c>
-      <c r="C84">
-        <v>3380</v>
-      </c>
-      <c r="D84" s="19"/>
-      <c r="E84" s="19" t="s">
-        <v>130</v>
-      </c>
-      <c r="F84" s="19">
+      <c r="B84" s="18">
+        <v>160</v>
+      </c>
+      <c r="C84" s="22">
+        <f>SUM($B$17:B84)</f>
+        <v>4820</v>
+      </c>
+      <c r="D84" s="18"/>
+      <c r="E84" s="18" t="s">
+        <v>126</v>
+      </c>
+      <c r="F84" s="18">
         <v>100</v>
       </c>
-      <c r="G84">
+      <c r="G84" s="22">
+        <f>SUM($F$16:F84)</f>
         <v>15800</v>
       </c>
-      <c r="I84">
-        <v>177.92792837274769</v>
+      <c r="I84" s="22">
+        <f t="shared" si="1"/>
+        <v>177.92792837274774</v>
       </c>
     </row>
     <row r="85" spans="1:9">
       <c r="A85">
         <v>72</v>
       </c>
-      <c r="B85" s="19">
-        <v>120</v>
-      </c>
-      <c r="C85">
-        <v>3500</v>
-      </c>
-      <c r="D85" s="19"/>
-      <c r="E85" s="19" t="s">
-        <v>112</v>
-      </c>
-      <c r="F85" s="19">
+      <c r="B85" s="18">
+        <v>160</v>
+      </c>
+      <c r="C85" s="22">
+        <f>SUM($B$17:B85)</f>
+        <v>4980</v>
+      </c>
+      <c r="D85" s="18"/>
+      <c r="E85" s="18" t="s">
+        <v>109</v>
+      </c>
+      <c r="F85" s="18">
         <v>90</v>
       </c>
-      <c r="G85">
+      <c r="G85" s="22">
+        <f>SUM($F$16:F85)</f>
         <v>15890</v>
       </c>
-      <c r="I85">
-        <v>178.94144188879511</v>
+      <c r="I85" s="22">
+        <f t="shared" si="1"/>
+        <v>178.94144188879505</v>
       </c>
     </row>
     <row r="86" spans="1:9">
       <c r="A86">
         <v>73</v>
       </c>
-      <c r="B86" s="19">
+      <c r="B86" s="18">
+        <v>160</v>
+      </c>
+      <c r="C86" s="22">
+        <f>SUM($B$17:B86)</f>
+        <v>5140</v>
+      </c>
+      <c r="D86" s="18"/>
+      <c r="E86" s="18" t="s">
+        <v>98</v>
+      </c>
+      <c r="F86" s="18">
         <v>120</v>
       </c>
-      <c r="C86">
-        <v>3620</v>
-      </c>
-      <c r="D86" s="19"/>
-      <c r="E86" s="19" t="s">
-        <v>101</v>
-      </c>
-      <c r="F86" s="19">
-        <v>120</v>
-      </c>
-      <c r="G86">
+      <c r="G86" s="22">
+        <f>SUM($F$16:F86)</f>
         <v>16010</v>
       </c>
-      <c r="I86">
-        <v>180.29279324352481</v>
+      <c r="I86" s="22">
+        <f t="shared" si="1"/>
+        <v>180.29279324352478</v>
       </c>
     </row>
     <row r="87" spans="1:9">
       <c r="A87">
         <v>74</v>
       </c>
-      <c r="B87" s="19">
-        <v>120</v>
-      </c>
-      <c r="C87">
-        <v>3740</v>
-      </c>
-      <c r="D87" s="19"/>
-      <c r="E87" s="19" t="s">
-        <v>129</v>
-      </c>
-      <c r="F87" s="19">
+      <c r="B87" s="18">
+        <v>160</v>
+      </c>
+      <c r="C87" s="22">
+        <f>SUM($B$17:B87)</f>
+        <v>5300</v>
+      </c>
+      <c r="D87" s="18"/>
+      <c r="E87" s="18" t="s">
+        <v>125</v>
+      </c>
+      <c r="F87" s="18">
         <v>250</v>
       </c>
-      <c r="G87">
+      <c r="G87" s="22">
+        <f>SUM($F$16:F87)</f>
         <v>16260</v>
       </c>
-      <c r="I87">
-        <v>183.10810856587841</v>
+      <c r="I87" s="22">
+        <f t="shared" si="1"/>
+        <v>183.10810856587835</v>
       </c>
     </row>
     <row r="88" spans="1:9">
       <c r="A88">
         <v>75</v>
       </c>
-      <c r="B88" s="19">
-        <v>120</v>
-      </c>
-      <c r="C88">
-        <v>3860</v>
-      </c>
-      <c r="D88" s="19"/>
-      <c r="E88" s="19" t="s">
-        <v>130</v>
-      </c>
-      <c r="F88" s="19">
+      <c r="B88" s="18">
+        <v>160</v>
+      </c>
+      <c r="C88" s="22">
+        <f>SUM($B$17:B88)</f>
+        <v>5460</v>
+      </c>
+      <c r="D88" s="18"/>
+      <c r="E88" s="18" t="s">
+        <v>126</v>
+      </c>
+      <c r="F88" s="18">
         <v>100</v>
       </c>
-      <c r="G88">
+      <c r="G88" s="22">
+        <f>SUM($F$16:F88)</f>
         <v>16360</v>
       </c>
-      <c r="I88">
-        <v>184.2342346948198</v>
+      <c r="I88" s="22">
+        <f t="shared" si="1"/>
+        <v>184.23423469481983</v>
       </c>
     </row>
     <row r="89" spans="1:9">
       <c r="A89">
         <v>76</v>
       </c>
-      <c r="B89" s="19">
-        <v>120</v>
-      </c>
-      <c r="C89">
-        <v>3980</v>
-      </c>
-      <c r="D89" s="19"/>
-      <c r="E89" s="19" t="s">
-        <v>112</v>
-      </c>
-      <c r="F89" s="19">
+      <c r="B89" s="18">
+        <v>160</v>
+      </c>
+      <c r="C89" s="22">
+        <f>SUM($B$17:B89)</f>
+        <v>5620</v>
+      </c>
+      <c r="D89" s="18"/>
+      <c r="E89" s="18" t="s">
+        <v>109</v>
+      </c>
+      <c r="F89" s="18">
         <v>90</v>
       </c>
-      <c r="G89">
+      <c r="G89" s="22">
+        <f>SUM($F$16:F89)</f>
         <v>16450</v>
       </c>
-      <c r="I89">
-        <v>185.24774821086709</v>
+      <c r="I89" s="22">
+        <f t="shared" si="1"/>
+        <v>185.24774821086712</v>
       </c>
     </row>
     <row r="90" spans="1:9">
       <c r="A90">
         <v>77</v>
       </c>
-      <c r="B90" s="19">
+      <c r="B90" s="18">
+        <v>160</v>
+      </c>
+      <c r="C90" s="22">
+        <f>SUM($B$17:B90)</f>
+        <v>5780</v>
+      </c>
+      <c r="D90" s="18"/>
+      <c r="E90" s="18" t="s">
+        <v>98</v>
+      </c>
+      <c r="F90" s="18">
         <v>120</v>
       </c>
-      <c r="C90">
-        <v>4100</v>
-      </c>
-      <c r="D90" s="19"/>
-      <c r="E90" s="19" t="s">
-        <v>101</v>
-      </c>
-      <c r="F90" s="19">
-        <v>120</v>
-      </c>
-      <c r="G90">
+      <c r="G90" s="22">
+        <f>SUM($F$16:F90)</f>
         <v>16570</v>
       </c>
-      <c r="I90">
-        <v>186.59909956559679</v>
+      <c r="I90" s="22">
+        <f t="shared" si="1"/>
+        <v>186.59909956559684</v>
       </c>
     </row>
     <row r="91" spans="1:9">
       <c r="A91">
         <v>78</v>
       </c>
-      <c r="B91" s="19">
-        <v>120</v>
-      </c>
-      <c r="C91">
-        <v>4220</v>
-      </c>
-      <c r="D91" s="19"/>
-      <c r="E91" s="19" t="s">
-        <v>129</v>
-      </c>
-      <c r="F91" s="19">
+      <c r="B91" s="18">
+        <v>160</v>
+      </c>
+      <c r="C91" s="22">
+        <f>SUM($B$17:B91)</f>
+        <v>5940</v>
+      </c>
+      <c r="D91" s="18"/>
+      <c r="E91" s="18" t="s">
+        <v>125</v>
+      </c>
+      <c r="F91" s="18">
         <v>250</v>
       </c>
-      <c r="G91">
+      <c r="G91" s="22">
+        <f>SUM($F$16:F91)</f>
         <v>16820</v>
       </c>
-      <c r="I91">
-        <v>189.41441488795039</v>
+      <c r="I91" s="22">
+        <f t="shared" si="1"/>
+        <v>189.41441488795044</v>
       </c>
     </row>
     <row r="92" spans="1:9">
       <c r="A92">
         <v>79</v>
       </c>
-      <c r="B92" s="19">
-        <v>120</v>
-      </c>
-      <c r="C92">
-        <v>4340</v>
-      </c>
-      <c r="D92" s="19"/>
-      <c r="E92" s="19" t="s">
-        <v>130</v>
-      </c>
-      <c r="F92" s="19">
+      <c r="B92" s="18">
+        <v>160</v>
+      </c>
+      <c r="C92" s="22">
+        <f>SUM($B$17:B92)</f>
+        <v>6100</v>
+      </c>
+      <c r="D92" s="18"/>
+      <c r="E92" s="18" t="s">
+        <v>126</v>
+      </c>
+      <c r="F92" s="18">
         <v>100</v>
       </c>
-      <c r="G92">
+      <c r="G92" s="22">
+        <f>SUM($F$16:F92)</f>
         <v>16920</v>
       </c>
-      <c r="I92">
+      <c r="I92" s="22">
+        <f t="shared" si="1"/>
         <v>190.54054101689189</v>
       </c>
     </row>
@@ -4484,23 +4989,26 @@
       <c r="A93">
         <v>80</v>
       </c>
-      <c r="B93" s="19">
-        <v>120</v>
-      </c>
-      <c r="C93">
-        <v>4460</v>
-      </c>
-      <c r="D93" s="19"/>
-      <c r="E93" s="19" t="s">
-        <v>112</v>
-      </c>
-      <c r="F93" s="19">
+      <c r="B93" s="18">
+        <v>160</v>
+      </c>
+      <c r="C93" s="22">
+        <f>SUM($B$17:B93)</f>
+        <v>6260</v>
+      </c>
+      <c r="D93" s="18"/>
+      <c r="E93" s="18" t="s">
+        <v>109</v>
+      </c>
+      <c r="F93" s="18">
         <v>90</v>
       </c>
-      <c r="G93">
+      <c r="G93" s="22">
+        <f>SUM($F$16:F93)</f>
         <v>17010</v>
       </c>
-      <c r="I93">
+      <c r="I93" s="22">
+        <f t="shared" si="1"/>
         <v>191.5540545329392</v>
       </c>
     </row>
@@ -4508,47 +5016,53 @@
       <c r="A94">
         <v>81</v>
       </c>
-      <c r="B94" s="19">
+      <c r="B94" s="18">
+        <v>160</v>
+      </c>
+      <c r="C94" s="22">
+        <f>SUM($B$17:B94)</f>
+        <v>6420</v>
+      </c>
+      <c r="D94" s="18"/>
+      <c r="E94" s="18" t="s">
+        <v>98</v>
+      </c>
+      <c r="F94" s="18">
         <v>120</v>
       </c>
-      <c r="C94">
-        <v>4580</v>
-      </c>
-      <c r="D94" s="19"/>
-      <c r="E94" s="19" t="s">
-        <v>101</v>
-      </c>
-      <c r="F94" s="19">
-        <v>120</v>
-      </c>
-      <c r="G94">
+      <c r="G94" s="22">
+        <f>SUM($F$16:F94)</f>
         <v>17130</v>
       </c>
-      <c r="I94">
-        <v>192.90540588766891</v>
+      <c r="I94" s="22">
+        <f t="shared" si="1"/>
+        <v>192.90540588766893</v>
       </c>
     </row>
     <row r="95" spans="1:9">
       <c r="A95">
         <v>82</v>
       </c>
-      <c r="B95" s="19">
-        <v>120</v>
-      </c>
-      <c r="C95">
-        <v>4700</v>
-      </c>
-      <c r="D95" s="19"/>
-      <c r="E95" s="19" t="s">
-        <v>129</v>
-      </c>
-      <c r="F95" s="19">
+      <c r="B95" s="18">
+        <v>160</v>
+      </c>
+      <c r="C95" s="22">
+        <f>SUM($B$17:B95)</f>
+        <v>6580</v>
+      </c>
+      <c r="D95" s="18"/>
+      <c r="E95" s="18" t="s">
+        <v>125</v>
+      </c>
+      <c r="F95" s="18">
         <v>250</v>
       </c>
-      <c r="G95">
+      <c r="G95" s="22">
+        <f>SUM($F$16:F95)</f>
         <v>17380</v>
       </c>
-      <c r="I95">
+      <c r="I95" s="22">
+        <f t="shared" si="1"/>
         <v>195.7207212100225</v>
       </c>
     </row>
@@ -4556,71 +5070,80 @@
       <c r="A96">
         <v>83</v>
       </c>
-      <c r="B96" s="19">
-        <v>120</v>
-      </c>
-      <c r="C96">
-        <v>4820</v>
-      </c>
-      <c r="D96" s="19"/>
-      <c r="E96" s="19" t="s">
-        <v>130</v>
-      </c>
-      <c r="F96" s="19">
+      <c r="B96" s="18">
+        <v>160</v>
+      </c>
+      <c r="C96" s="22">
+        <f>SUM($B$17:B96)</f>
+        <v>6740</v>
+      </c>
+      <c r="D96" s="18"/>
+      <c r="E96" s="18" t="s">
+        <v>126</v>
+      </c>
+      <c r="F96" s="18">
         <v>100</v>
       </c>
-      <c r="G96">
+      <c r="G96" s="22">
+        <f>SUM($F$16:F96)</f>
         <v>17480</v>
       </c>
-      <c r="I96">
-        <v>196.84684733896401</v>
+      <c r="I96" s="22">
+        <f t="shared" si="1"/>
+        <v>196.84684733896398</v>
       </c>
     </row>
     <row r="97" spans="1:9">
       <c r="A97">
         <v>84</v>
       </c>
-      <c r="B97" s="19">
-        <v>120</v>
-      </c>
-      <c r="C97">
-        <v>4940</v>
-      </c>
-      <c r="D97" s="19"/>
-      <c r="E97" s="19" t="s">
-        <v>112</v>
-      </c>
-      <c r="F97" s="19">
+      <c r="B97" s="18">
+        <v>160</v>
+      </c>
+      <c r="C97" s="22">
+        <f>SUM($B$17:B97)</f>
+        <v>6900</v>
+      </c>
+      <c r="D97" s="18"/>
+      <c r="E97" s="18" t="s">
+        <v>109</v>
+      </c>
+      <c r="F97" s="18">
         <v>90</v>
       </c>
-      <c r="G97">
+      <c r="G97" s="22">
+        <f>SUM($F$16:F97)</f>
         <v>17570</v>
       </c>
-      <c r="I97">
-        <v>197.86036085501129</v>
+      <c r="I97" s="22">
+        <f t="shared" si="1"/>
+        <v>197.86036085501127</v>
       </c>
     </row>
     <row r="98" spans="1:9">
       <c r="A98">
         <v>85</v>
       </c>
-      <c r="B98" s="19">
+      <c r="B98" s="18">
+        <v>160</v>
+      </c>
+      <c r="C98" s="22">
+        <f>SUM($B$17:B98)</f>
+        <v>7060</v>
+      </c>
+      <c r="D98" s="18"/>
+      <c r="E98" s="18" t="s">
+        <v>98</v>
+      </c>
+      <c r="F98" s="18">
         <v>120</v>
       </c>
-      <c r="C98">
-        <v>5060</v>
-      </c>
-      <c r="D98" s="19"/>
-      <c r="E98" s="19" t="s">
-        <v>101</v>
-      </c>
-      <c r="F98" s="19">
-        <v>120</v>
-      </c>
-      <c r="G98">
+      <c r="G98" s="22">
+        <f>SUM($F$16:F98)</f>
         <v>17690</v>
       </c>
-      <c r="I98">
+      <c r="I98" s="22">
+        <f t="shared" si="1"/>
         <v>199.21171220974099</v>
       </c>
     </row>
@@ -4628,23 +5151,26 @@
       <c r="A99">
         <v>86</v>
       </c>
-      <c r="B99" s="19">
-        <v>120</v>
-      </c>
-      <c r="C99">
-        <v>5180</v>
-      </c>
-      <c r="D99" s="19"/>
-      <c r="E99" s="19" t="s">
-        <v>129</v>
-      </c>
-      <c r="F99" s="19">
+      <c r="B99" s="18">
+        <v>160</v>
+      </c>
+      <c r="C99" s="22">
+        <f>SUM($B$17:B99)</f>
+        <v>7220</v>
+      </c>
+      <c r="D99" s="18"/>
+      <c r="E99" s="18" t="s">
+        <v>125</v>
+      </c>
+      <c r="F99" s="18">
         <v>250</v>
       </c>
-      <c r="G99">
+      <c r="G99" s="22">
+        <f>SUM($F$16:F99)</f>
         <v>17940</v>
       </c>
-      <c r="I99">
+      <c r="I99" s="22">
+        <f t="shared" si="1"/>
         <v>202.02702753209459</v>
       </c>
     </row>
@@ -4652,119 +5178,134 @@
       <c r="A100">
         <v>87</v>
       </c>
-      <c r="B100" s="19">
-        <v>120</v>
-      </c>
-      <c r="C100">
-        <v>5300</v>
-      </c>
-      <c r="D100" s="19"/>
-      <c r="E100" s="19" t="s">
-        <v>130</v>
-      </c>
-      <c r="F100" s="19">
+      <c r="B100" s="18">
+        <v>160</v>
+      </c>
+      <c r="C100" s="22">
+        <f>SUM($B$17:B100)</f>
+        <v>7380</v>
+      </c>
+      <c r="D100" s="18"/>
+      <c r="E100" s="18" t="s">
+        <v>126</v>
+      </c>
+      <c r="F100" s="18">
         <v>100</v>
       </c>
-      <c r="G100">
+      <c r="G100" s="22">
+        <f>SUM($F$16:F100)</f>
         <v>18040</v>
       </c>
-      <c r="I100">
-        <v>203.15315366103599</v>
+      <c r="I100" s="22">
+        <f t="shared" si="1"/>
+        <v>203.15315366103604</v>
       </c>
     </row>
     <row r="101" spans="1:9">
       <c r="A101">
         <v>88</v>
       </c>
-      <c r="B101" s="19">
-        <v>120</v>
-      </c>
-      <c r="C101">
-        <v>5420</v>
-      </c>
-      <c r="D101" s="19"/>
-      <c r="E101" s="19" t="s">
-        <v>112</v>
-      </c>
-      <c r="F101" s="19">
+      <c r="B101" s="18">
+        <v>160</v>
+      </c>
+      <c r="C101" s="22">
+        <f>SUM($B$17:B101)</f>
+        <v>7540</v>
+      </c>
+      <c r="D101" s="18"/>
+      <c r="E101" s="18" t="s">
+        <v>109</v>
+      </c>
+      <c r="F101" s="18">
         <v>90</v>
       </c>
-      <c r="G101">
+      <c r="G101" s="22">
+        <f>SUM($F$16:F101)</f>
         <v>18130</v>
       </c>
-      <c r="I101">
-        <v>204.16666717708341</v>
+      <c r="I101" s="22">
+        <f t="shared" si="1"/>
+        <v>204.16666717708335</v>
       </c>
     </row>
     <row r="102" spans="1:9">
       <c r="A102">
         <v>89</v>
       </c>
-      <c r="B102" s="19">
+      <c r="B102" s="18">
+        <v>160</v>
+      </c>
+      <c r="C102" s="22">
+        <f>SUM($B$17:B102)</f>
+        <v>7700</v>
+      </c>
+      <c r="D102" s="18"/>
+      <c r="E102" s="18" t="s">
+        <v>98</v>
+      </c>
+      <c r="F102" s="18">
         <v>120</v>
       </c>
-      <c r="C102">
-        <v>5540</v>
-      </c>
-      <c r="D102" s="19"/>
-      <c r="E102" s="19" t="s">
-        <v>101</v>
-      </c>
-      <c r="F102" s="19">
-        <v>120</v>
-      </c>
-      <c r="G102">
+      <c r="G102" s="22">
+        <f>SUM($F$16:F102)</f>
         <v>18250</v>
       </c>
-      <c r="I102">
-        <v>205.51801853181311</v>
+      <c r="I102" s="22">
+        <f t="shared" si="1"/>
+        <v>205.51801853181308</v>
       </c>
     </row>
     <row r="103" spans="1:9">
       <c r="A103">
         <v>90</v>
       </c>
-      <c r="B103" s="19">
-        <v>120</v>
-      </c>
-      <c r="C103">
-        <v>5660</v>
-      </c>
-      <c r="D103" s="19"/>
-      <c r="E103" s="19" t="s">
-        <v>129</v>
-      </c>
-      <c r="F103" s="19">
+      <c r="B103" s="18">
+        <v>160</v>
+      </c>
+      <c r="C103" s="22">
+        <f>SUM($B$17:B103)</f>
+        <v>7860</v>
+      </c>
+      <c r="D103" s="18"/>
+      <c r="E103" s="18" t="s">
+        <v>125</v>
+      </c>
+      <c r="F103" s="18">
         <v>250</v>
       </c>
-      <c r="G103">
+      <c r="G103" s="22">
+        <f>SUM($F$16:F103)</f>
         <v>18500</v>
       </c>
-      <c r="I103">
-        <v>208.33333385416671</v>
+      <c r="I103" s="22">
+        <f t="shared" si="1"/>
+        <v>208.33333385416668</v>
       </c>
     </row>
     <row r="104" spans="1:9">
       <c r="A104">
         <v>91</v>
       </c>
-      <c r="B104" s="19">
-        <v>120</v>
-      </c>
-      <c r="C104">
-        <v>5780</v>
-      </c>
-      <c r="D104" s="19"/>
-      <c r="E104" s="19" t="s">
-        <v>130</v>
-      </c>
-      <c r="F104" s="19">
+      <c r="B104" s="18">
+        <v>160</v>
+      </c>
+      <c r="C104" s="22">
+        <f>SUM($B$17:B104)</f>
+        <v>8020</v>
+      </c>
+      <c r="D104" s="18"/>
+      <c r="E104" s="18" t="s">
+        <v>126</v>
+      </c>
+      <c r="F104" s="18">
         <v>100</v>
       </c>
-      <c r="G104">
+      <c r="G104" s="22">
+        <f>SUM($F$16:F104)</f>
         <v>18600</v>
       </c>
-      <c r="I104">
+      <c r="I104" s="22">
+        <f t="shared" si="1"/>
         <v>209.4594599831081</v>
       </c>
     </row>
@@ -4772,23 +5313,26 @@
       <c r="A105">
         <v>92</v>
       </c>
-      <c r="B105" s="19">
-        <v>120</v>
-      </c>
-      <c r="C105">
-        <v>5900</v>
-      </c>
-      <c r="D105" s="19"/>
-      <c r="E105" s="19" t="s">
-        <v>112</v>
-      </c>
-      <c r="F105" s="19">
+      <c r="B105" s="18">
+        <v>160</v>
+      </c>
+      <c r="C105" s="22">
+        <f>SUM($B$17:B105)</f>
+        <v>8180</v>
+      </c>
+      <c r="D105" s="18"/>
+      <c r="E105" s="18" t="s">
+        <v>109</v>
+      </c>
+      <c r="F105" s="18">
         <v>90</v>
       </c>
-      <c r="G105">
+      <c r="G105" s="22">
+        <f>SUM($F$16:F105)</f>
         <v>18690</v>
       </c>
-      <c r="I105">
+      <c r="I105" s="22">
+        <f t="shared" si="1"/>
         <v>210.47297349915539</v>
       </c>
     </row>
@@ -4796,119 +5340,134 @@
       <c r="A106">
         <v>93</v>
       </c>
-      <c r="B106" s="19">
+      <c r="B106" s="18">
+        <v>160</v>
+      </c>
+      <c r="C106" s="22">
+        <f>SUM($B$17:B106)</f>
+        <v>8340</v>
+      </c>
+      <c r="D106" s="18"/>
+      <c r="E106" s="18" t="s">
+        <v>98</v>
+      </c>
+      <c r="F106" s="18">
         <v>120</v>
       </c>
-      <c r="C106">
-        <v>6020</v>
-      </c>
-      <c r="D106" s="19"/>
-      <c r="E106" s="19" t="s">
-        <v>101</v>
-      </c>
-      <c r="F106" s="19">
-        <v>120</v>
-      </c>
-      <c r="G106">
+      <c r="G106" s="22">
+        <f>SUM($F$16:F106)</f>
         <v>18810</v>
       </c>
-      <c r="I106">
-        <v>211.82432485388509</v>
+      <c r="I106" s="22">
+        <f t="shared" si="1"/>
+        <v>211.82432485388514</v>
       </c>
     </row>
     <row r="107" spans="1:9">
       <c r="A107">
         <v>94</v>
       </c>
-      <c r="B107" s="19">
-        <v>120</v>
-      </c>
-      <c r="C107">
-        <v>6140</v>
-      </c>
-      <c r="D107" s="19"/>
-      <c r="E107" s="19" t="s">
-        <v>129</v>
-      </c>
-      <c r="F107" s="19">
+      <c r="B107" s="18">
+        <v>160</v>
+      </c>
+      <c r="C107" s="22">
+        <f>SUM($B$17:B107)</f>
+        <v>8500</v>
+      </c>
+      <c r="D107" s="18"/>
+      <c r="E107" s="18" t="s">
+        <v>125</v>
+      </c>
+      <c r="F107" s="18">
         <v>250</v>
       </c>
-      <c r="G107">
+      <c r="G107" s="22">
+        <f>SUM($F$16:F107)</f>
         <v>19060</v>
       </c>
-      <c r="I107">
-        <v>214.63964017623869</v>
+      <c r="I107" s="22">
+        <f t="shared" si="1"/>
+        <v>214.63964017623874</v>
       </c>
     </row>
     <row r="108" spans="1:9">
       <c r="A108">
         <v>95</v>
       </c>
-      <c r="B108" s="19">
-        <v>120</v>
-      </c>
-      <c r="C108">
-        <v>6260</v>
-      </c>
-      <c r="D108" s="19"/>
-      <c r="E108" s="19" t="s">
-        <v>130</v>
-      </c>
-      <c r="F108" s="19">
+      <c r="B108" s="18">
+        <v>160</v>
+      </c>
+      <c r="C108" s="22">
+        <f>SUM($B$17:B108)</f>
+        <v>8660</v>
+      </c>
+      <c r="D108" s="18"/>
+      <c r="E108" s="18" t="s">
+        <v>126</v>
+      </c>
+      <c r="F108" s="18">
         <v>100</v>
       </c>
-      <c r="G108">
+      <c r="G108" s="22">
+        <f>SUM($F$16:F108)</f>
         <v>19160</v>
       </c>
-      <c r="I108">
-        <v>215.76576630518019</v>
+      <c r="I108" s="22">
+        <f t="shared" si="1"/>
+        <v>215.76576630518016</v>
       </c>
     </row>
     <row r="109" spans="1:9">
       <c r="A109">
         <v>96</v>
       </c>
-      <c r="B109" s="19">
-        <v>120</v>
-      </c>
-      <c r="C109">
-        <v>6380</v>
-      </c>
-      <c r="D109" s="19"/>
-      <c r="E109" s="19" t="s">
-        <v>112</v>
-      </c>
-      <c r="F109" s="19">
+      <c r="B109" s="18">
+        <v>160</v>
+      </c>
+      <c r="C109" s="22">
+        <f>SUM($B$17:B109)</f>
+        <v>8820</v>
+      </c>
+      <c r="D109" s="18"/>
+      <c r="E109" s="18" t="s">
+        <v>109</v>
+      </c>
+      <c r="F109" s="18">
         <v>90</v>
       </c>
-      <c r="G109">
+      <c r="G109" s="22">
+        <f>SUM($F$16:F109)</f>
         <v>19250</v>
       </c>
-      <c r="I109">
-        <v>216.7792798212275</v>
+      <c r="I109" s="22">
+        <f t="shared" si="1"/>
+        <v>216.77927982122748</v>
       </c>
     </row>
     <row r="110" spans="1:9">
       <c r="A110">
         <v>97</v>
       </c>
-      <c r="B110" s="19">
+      <c r="B110" s="18">
+        <v>160</v>
+      </c>
+      <c r="C110" s="22">
+        <f>SUM($B$17:B110)</f>
+        <v>8980</v>
+      </c>
+      <c r="D110" s="18"/>
+      <c r="E110" s="18" t="s">
+        <v>98</v>
+      </c>
+      <c r="F110" s="18">
         <v>120</v>
       </c>
-      <c r="C110">
-        <v>6500</v>
-      </c>
-      <c r="D110" s="19"/>
-      <c r="E110" s="19" t="s">
-        <v>101</v>
-      </c>
-      <c r="F110" s="19">
-        <v>120</v>
-      </c>
-      <c r="G110">
+      <c r="G110" s="22">
+        <f>SUM($F$16:F110)</f>
         <v>19370</v>
       </c>
-      <c r="I110">
+      <c r="I110" s="22">
+        <f t="shared" si="1"/>
         <v>218.13063117595721</v>
       </c>
     </row>
@@ -4916,119 +5475,134 @@
       <c r="A111">
         <v>98</v>
       </c>
-      <c r="B111" s="19">
-        <v>120</v>
-      </c>
-      <c r="C111">
-        <v>6620</v>
-      </c>
-      <c r="D111" s="19"/>
-      <c r="E111" s="19" t="s">
-        <v>129</v>
-      </c>
-      <c r="F111" s="19">
+      <c r="B111" s="18">
+        <v>160</v>
+      </c>
+      <c r="C111" s="22">
+        <f>SUM($B$17:B111)</f>
+        <v>9140</v>
+      </c>
+      <c r="D111" s="18"/>
+      <c r="E111" s="18" t="s">
+        <v>125</v>
+      </c>
+      <c r="F111" s="18">
         <v>250</v>
       </c>
-      <c r="G111">
+      <c r="G111" s="22">
+        <f>SUM($F$16:F111)</f>
         <v>19620</v>
       </c>
-      <c r="I111">
-        <v>220.9459464983108</v>
+      <c r="I111" s="22">
+        <f t="shared" si="1"/>
+        <v>220.94594649831083</v>
       </c>
     </row>
     <row r="112" spans="1:9">
       <c r="A112">
         <v>99</v>
       </c>
-      <c r="B112" s="19">
-        <v>120</v>
-      </c>
-      <c r="C112">
-        <v>6740</v>
-      </c>
-      <c r="D112" s="19"/>
-      <c r="E112" s="19" t="s">
-        <v>130</v>
-      </c>
-      <c r="F112" s="19">
+      <c r="B112" s="18">
+        <v>160</v>
+      </c>
+      <c r="C112" s="22">
+        <f>SUM($B$17:B112)</f>
+        <v>9300</v>
+      </c>
+      <c r="D112" s="18"/>
+      <c r="E112" s="18" t="s">
+        <v>126</v>
+      </c>
+      <c r="F112" s="18">
         <v>100</v>
       </c>
-      <c r="G112">
+      <c r="G112" s="22">
+        <f>SUM($F$16:F112)</f>
         <v>19720</v>
       </c>
-      <c r="I112">
-        <v>222.07207262725231</v>
+      <c r="I112" s="22">
+        <f t="shared" si="1"/>
+        <v>222.07207262725225</v>
       </c>
     </row>
     <row r="113" spans="1:9">
       <c r="A113">
         <v>100</v>
       </c>
-      <c r="B113" s="19">
-        <v>120</v>
-      </c>
-      <c r="C113">
-        <v>6860</v>
-      </c>
-      <c r="D113" s="19"/>
-      <c r="E113" s="19" t="s">
-        <v>112</v>
-      </c>
-      <c r="F113" s="19">
+      <c r="B113" s="18">
+        <v>160</v>
+      </c>
+      <c r="C113" s="22">
+        <f>SUM($B$17:B113)</f>
+        <v>9460</v>
+      </c>
+      <c r="D113" s="18"/>
+      <c r="E113" s="18" t="s">
+        <v>109</v>
+      </c>
+      <c r="F113" s="18">
         <v>90</v>
       </c>
-      <c r="G113">
+      <c r="G113" s="22">
+        <f>SUM($F$16:F113)</f>
         <v>19810</v>
       </c>
-      <c r="I113">
-        <v>223.08558614329951</v>
+      <c r="I113" s="22">
+        <f t="shared" si="1"/>
+        <v>223.08558614329954</v>
       </c>
     </row>
     <row r="114" spans="1:9">
       <c r="A114">
         <v>101</v>
       </c>
-      <c r="B114" s="19">
+      <c r="B114" s="18">
+        <v>160</v>
+      </c>
+      <c r="C114" s="22">
+        <f>SUM($B$17:B114)</f>
+        <v>9620</v>
+      </c>
+      <c r="D114" s="18"/>
+      <c r="E114" s="18" t="s">
+        <v>98</v>
+      </c>
+      <c r="F114" s="18">
         <v>120</v>
       </c>
-      <c r="C114">
-        <v>6980</v>
-      </c>
-      <c r="D114" s="19"/>
-      <c r="E114" s="19" t="s">
-        <v>101</v>
-      </c>
-      <c r="F114" s="19">
-        <v>120</v>
-      </c>
-      <c r="G114">
+      <c r="G114" s="22">
+        <f>SUM($F$16:F114)</f>
         <v>19930</v>
       </c>
-      <c r="I114">
-        <v>224.43693749802929</v>
+      <c r="I114" s="22">
+        <f t="shared" si="1"/>
+        <v>224.43693749802927</v>
       </c>
     </row>
     <row r="115" spans="1:9">
       <c r="A115">
         <v>102</v>
       </c>
-      <c r="B115" s="19">
-        <v>120</v>
-      </c>
-      <c r="C115">
-        <v>7100</v>
-      </c>
-      <c r="D115" s="19"/>
-      <c r="E115" s="19" t="s">
-        <v>129</v>
-      </c>
-      <c r="F115" s="19">
+      <c r="B115" s="18">
+        <v>160</v>
+      </c>
+      <c r="C115" s="22">
+        <f>SUM($B$17:B115)</f>
+        <v>9780</v>
+      </c>
+      <c r="D115" s="18"/>
+      <c r="E115" s="18" t="s">
+        <v>125</v>
+      </c>
+      <c r="F115" s="18">
         <v>250</v>
       </c>
-      <c r="G115">
+      <c r="G115" s="22">
+        <f>SUM($F$16:F115)</f>
         <v>20180</v>
       </c>
-      <c r="I115">
+      <c r="I115" s="22">
+        <f t="shared" si="1"/>
         <v>227.25225282038289</v>
       </c>
     </row>
@@ -5036,119 +5610,134 @@
       <c r="A116">
         <v>103</v>
       </c>
-      <c r="B116" s="19">
-        <v>120</v>
-      </c>
-      <c r="C116">
-        <v>7220</v>
-      </c>
-      <c r="D116" s="19"/>
-      <c r="E116" s="19" t="s">
-        <v>130</v>
-      </c>
-      <c r="F116" s="19">
+      <c r="B116" s="18">
+        <v>160</v>
+      </c>
+      <c r="C116" s="22">
+        <f>SUM($B$17:B116)</f>
+        <v>9940</v>
+      </c>
+      <c r="D116" s="18"/>
+      <c r="E116" s="18" t="s">
+        <v>126</v>
+      </c>
+      <c r="F116" s="18">
         <v>100</v>
       </c>
-      <c r="G116">
+      <c r="G116" s="22">
+        <f>SUM($F$16:F116)</f>
         <v>20280</v>
       </c>
-      <c r="I116">
-        <v>228.37837894932429</v>
+      <c r="I116" s="22">
+        <f t="shared" si="1"/>
+        <v>228.37837894932431</v>
       </c>
     </row>
     <row r="117" spans="1:9">
       <c r="A117">
         <v>104</v>
       </c>
-      <c r="B117" s="19">
-        <v>120</v>
-      </c>
-      <c r="C117">
-        <v>7340</v>
-      </c>
-      <c r="D117" s="19"/>
-      <c r="E117" s="19" t="s">
-        <v>112</v>
-      </c>
-      <c r="F117" s="19">
+      <c r="B117" s="18">
+        <v>160</v>
+      </c>
+      <c r="C117" s="22">
+        <f>SUM($B$17:B117)</f>
+        <v>10100</v>
+      </c>
+      <c r="D117" s="18"/>
+      <c r="E117" s="18" t="s">
+        <v>109</v>
+      </c>
+      <c r="F117" s="18">
         <v>90</v>
       </c>
-      <c r="G117">
+      <c r="G117" s="22">
+        <f>SUM($F$16:F117)</f>
         <v>20370</v>
       </c>
-      <c r="I117">
-        <v>229.3918924653716</v>
+      <c r="I117" s="22">
+        <f t="shared" si="1"/>
+        <v>229.39189246537163</v>
       </c>
     </row>
     <row r="118" spans="1:9">
       <c r="A118">
         <v>105</v>
       </c>
-      <c r="B118" s="19">
+      <c r="B118" s="18">
+        <v>160</v>
+      </c>
+      <c r="C118" s="22">
+        <f>SUM($B$17:B118)</f>
+        <v>10260</v>
+      </c>
+      <c r="D118" s="18"/>
+      <c r="E118" s="18" t="s">
+        <v>98</v>
+      </c>
+      <c r="F118" s="18">
         <v>120</v>
       </c>
-      <c r="C118">
-        <v>7460</v>
-      </c>
-      <c r="D118" s="19"/>
-      <c r="E118" s="19" t="s">
-        <v>101</v>
-      </c>
-      <c r="F118" s="19">
-        <v>120</v>
-      </c>
-      <c r="G118">
+      <c r="G118" s="22">
+        <f>SUM($F$16:F118)</f>
         <v>20490</v>
       </c>
-      <c r="I118">
-        <v>230.74324382010141</v>
+      <c r="I118" s="22">
+        <f t="shared" si="1"/>
+        <v>230.74324382010136</v>
       </c>
     </row>
     <row r="119" spans="1:9">
       <c r="A119">
         <v>106</v>
       </c>
-      <c r="B119" s="19">
-        <v>120</v>
-      </c>
-      <c r="C119">
-        <v>7580</v>
-      </c>
-      <c r="D119" s="19"/>
-      <c r="E119" s="19" t="s">
-        <v>129</v>
-      </c>
-      <c r="F119" s="19">
+      <c r="B119" s="18">
+        <v>160</v>
+      </c>
+      <c r="C119" s="22">
+        <f>SUM($B$17:B119)</f>
+        <v>10420</v>
+      </c>
+      <c r="D119" s="18"/>
+      <c r="E119" s="18" t="s">
+        <v>125</v>
+      </c>
+      <c r="F119" s="18">
         <v>250</v>
       </c>
-      <c r="G119">
+      <c r="G119" s="22">
+        <f>SUM($F$16:F119)</f>
         <v>20740</v>
       </c>
-      <c r="I119">
-        <v>233.55855914245501</v>
+      <c r="I119" s="22">
+        <f t="shared" si="1"/>
+        <v>233.55855914245498</v>
       </c>
     </row>
     <row r="120" spans="1:9">
       <c r="A120">
         <v>107</v>
       </c>
-      <c r="B120" s="19">
-        <v>120</v>
-      </c>
-      <c r="C120">
-        <v>7700</v>
-      </c>
-      <c r="D120" s="19"/>
-      <c r="E120" s="19" t="s">
-        <v>130</v>
-      </c>
-      <c r="F120" s="19">
+      <c r="B120" s="18">
+        <v>160</v>
+      </c>
+      <c r="C120" s="22">
+        <f>SUM($B$17:B120)</f>
+        <v>10580</v>
+      </c>
+      <c r="D120" s="18"/>
+      <c r="E120" s="18" t="s">
+        <v>126</v>
+      </c>
+      <c r="F120" s="18">
         <v>100</v>
       </c>
-      <c r="G120">
+      <c r="G120" s="22">
+        <f>SUM($F$16:F120)</f>
         <v>20840</v>
       </c>
-      <c r="I120">
+      <c r="I120" s="22">
+        <f t="shared" si="1"/>
         <v>234.6846852713964</v>
       </c>
     </row>
@@ -5156,23 +5745,26 @@
       <c r="A121">
         <v>108</v>
       </c>
-      <c r="B121" s="19">
-        <v>120</v>
-      </c>
-      <c r="C121">
-        <v>7820</v>
-      </c>
-      <c r="D121" s="19"/>
-      <c r="E121" s="19" t="s">
-        <v>112</v>
-      </c>
-      <c r="F121" s="19">
+      <c r="B121" s="18">
+        <v>160</v>
+      </c>
+      <c r="C121" s="22">
+        <f>SUM($B$17:B121)</f>
+        <v>10740</v>
+      </c>
+      <c r="D121" s="18"/>
+      <c r="E121" s="18" t="s">
+        <v>109</v>
+      </c>
+      <c r="F121" s="18">
         <v>90</v>
       </c>
-      <c r="G121">
+      <c r="G121" s="22">
+        <f>SUM($F$16:F121)</f>
         <v>20930</v>
       </c>
-      <c r="I121">
+      <c r="I121" s="22">
+        <f t="shared" si="1"/>
         <v>235.69819878744369</v>
       </c>
     </row>
@@ -5180,119 +5772,134 @@
       <c r="A122">
         <v>109</v>
       </c>
-      <c r="B122" s="19">
+      <c r="B122" s="18">
+        <v>160</v>
+      </c>
+      <c r="C122" s="22">
+        <f>SUM($B$17:B122)</f>
+        <v>10900</v>
+      </c>
+      <c r="D122" s="18"/>
+      <c r="E122" s="18" t="s">
+        <v>98</v>
+      </c>
+      <c r="F122" s="18">
         <v>120</v>
       </c>
-      <c r="C122">
-        <v>7940</v>
-      </c>
-      <c r="D122" s="19"/>
-      <c r="E122" s="19" t="s">
-        <v>101</v>
-      </c>
-      <c r="F122" s="19">
-        <v>120</v>
-      </c>
-      <c r="G122">
+      <c r="G122" s="22">
+        <f>SUM($F$16:F122)</f>
         <v>21050</v>
       </c>
-      <c r="I122">
-        <v>237.04955014217339</v>
+      <c r="I122" s="22">
+        <f t="shared" si="1"/>
+        <v>237.04955014217342</v>
       </c>
     </row>
     <row r="123" spans="1:9">
       <c r="A123">
         <v>110</v>
       </c>
-      <c r="B123" s="19">
-        <v>120</v>
-      </c>
-      <c r="C123">
-        <v>8060</v>
-      </c>
-      <c r="D123" s="19"/>
-      <c r="E123" s="19" t="s">
-        <v>129</v>
-      </c>
-      <c r="F123" s="19">
+      <c r="B123" s="18">
+        <v>160</v>
+      </c>
+      <c r="C123" s="22">
+        <f>SUM($B$17:B123)</f>
+        <v>11060</v>
+      </c>
+      <c r="D123" s="18"/>
+      <c r="E123" s="18" t="s">
+        <v>125</v>
+      </c>
+      <c r="F123" s="18">
         <v>250</v>
       </c>
-      <c r="G123">
+      <c r="G123" s="22">
+        <f>SUM($F$16:F123)</f>
         <v>21300</v>
       </c>
-      <c r="I123">
-        <v>239.86486546452701</v>
+      <c r="I123" s="22">
+        <f t="shared" si="1"/>
+        <v>239.86486546452704</v>
       </c>
     </row>
     <row r="124" spans="1:9">
       <c r="A124">
         <v>111</v>
       </c>
-      <c r="B124" s="19">
-        <v>120</v>
-      </c>
-      <c r="C124">
-        <v>8180</v>
-      </c>
-      <c r="D124" s="19"/>
-      <c r="E124" s="19" t="s">
-        <v>130</v>
-      </c>
-      <c r="F124" s="19">
+      <c r="B124" s="18">
+        <v>160</v>
+      </c>
+      <c r="C124" s="22">
+        <f>SUM($B$17:B124)</f>
+        <v>11220</v>
+      </c>
+      <c r="D124" s="18"/>
+      <c r="E124" s="18" t="s">
+        <v>126</v>
+      </c>
+      <c r="F124" s="18">
         <v>100</v>
       </c>
-      <c r="G124">
+      <c r="G124" s="22">
+        <f>SUM($F$16:F124)</f>
         <v>21400</v>
       </c>
-      <c r="I124">
-        <v>240.99099159346849</v>
+      <c r="I124" s="22">
+        <f t="shared" si="1"/>
+        <v>240.99099159346846</v>
       </c>
     </row>
     <row r="125" spans="1:9">
       <c r="A125">
         <v>112</v>
       </c>
-      <c r="B125" s="19">
-        <v>120</v>
-      </c>
-      <c r="C125">
-        <v>8300</v>
-      </c>
-      <c r="D125" s="19"/>
-      <c r="E125" s="19" t="s">
-        <v>112</v>
-      </c>
-      <c r="F125" s="19">
+      <c r="B125" s="18">
+        <v>160</v>
+      </c>
+      <c r="C125" s="22">
+        <f>SUM($B$17:B125)</f>
+        <v>11380</v>
+      </c>
+      <c r="D125" s="18"/>
+      <c r="E125" s="18" t="s">
+        <v>109</v>
+      </c>
+      <c r="F125" s="18">
         <v>90</v>
       </c>
-      <c r="G125">
+      <c r="G125" s="22">
+        <f>SUM($F$16:F125)</f>
         <v>21490</v>
       </c>
-      <c r="I125">
-        <v>242.0045051095158</v>
+      <c r="I125" s="22">
+        <f t="shared" si="1"/>
+        <v>242.00450510951578</v>
       </c>
     </row>
     <row r="126" spans="1:9">
       <c r="A126">
         <v>113</v>
       </c>
-      <c r="B126" s="19">
+      <c r="B126" s="18">
+        <v>160</v>
+      </c>
+      <c r="C126" s="22">
+        <f>SUM($B$17:B126)</f>
+        <v>11540</v>
+      </c>
+      <c r="D126" s="18"/>
+      <c r="E126" s="18" t="s">
+        <v>98</v>
+      </c>
+      <c r="F126" s="18">
         <v>120</v>
       </c>
-      <c r="C126">
-        <v>8420</v>
-      </c>
-      <c r="D126" s="19"/>
-      <c r="E126" s="19" t="s">
-        <v>101</v>
-      </c>
-      <c r="F126" s="19">
-        <v>120</v>
-      </c>
-      <c r="G126">
+      <c r="G126" s="22">
+        <f>SUM($F$16:F126)</f>
         <v>21610</v>
       </c>
-      <c r="I126">
+      <c r="I126" s="22">
+        <f t="shared" si="1"/>
         <v>243.35585646424551</v>
       </c>
     </row>
@@ -5300,239 +5907,269 @@
       <c r="A127">
         <v>114</v>
       </c>
-      <c r="B127" s="19">
-        <v>120</v>
-      </c>
-      <c r="C127">
-        <v>8540</v>
-      </c>
-      <c r="D127" s="19"/>
-      <c r="E127" s="19" t="s">
-        <v>129</v>
-      </c>
-      <c r="F127" s="19">
+      <c r="B127" s="18">
+        <v>160</v>
+      </c>
+      <c r="C127" s="22">
+        <f>SUM($B$17:B127)</f>
+        <v>11700</v>
+      </c>
+      <c r="D127" s="18"/>
+      <c r="E127" s="18" t="s">
+        <v>125</v>
+      </c>
+      <c r="F127" s="18">
         <v>250</v>
       </c>
-      <c r="G127">
+      <c r="G127" s="22">
+        <f>SUM($F$16:F127)</f>
         <v>21860</v>
       </c>
-      <c r="I127">
-        <v>246.1711717865991</v>
+      <c r="I127" s="22">
+        <f t="shared" si="1"/>
+        <v>246.17117178659907</v>
       </c>
     </row>
     <row r="128" spans="1:9">
       <c r="A128">
         <v>115</v>
       </c>
-      <c r="B128" s="19">
-        <v>120</v>
-      </c>
-      <c r="C128">
-        <v>8660</v>
-      </c>
-      <c r="D128" s="19"/>
-      <c r="E128" s="19" t="s">
-        <v>130</v>
-      </c>
-      <c r="F128" s="19">
+      <c r="B128" s="18">
+        <v>160</v>
+      </c>
+      <c r="C128" s="22">
+        <f>SUM($B$17:B128)</f>
+        <v>11860</v>
+      </c>
+      <c r="D128" s="18"/>
+      <c r="E128" s="18" t="s">
+        <v>126</v>
+      </c>
+      <c r="F128" s="18">
         <v>100</v>
       </c>
-      <c r="G128">
+      <c r="G128" s="22">
+        <f>SUM($F$16:F128)</f>
         <v>21960</v>
       </c>
-      <c r="I128">
-        <v>247.29729791554061</v>
+      <c r="I128" s="22">
+        <f t="shared" si="1"/>
+        <v>247.29729791554055</v>
       </c>
     </row>
     <row r="129" spans="1:9">
       <c r="A129">
         <v>116</v>
       </c>
-      <c r="B129" s="19">
-        <v>120</v>
-      </c>
-      <c r="C129">
-        <v>8780</v>
-      </c>
-      <c r="D129" s="19"/>
-      <c r="E129" s="19" t="s">
-        <v>112</v>
-      </c>
-      <c r="F129" s="19">
+      <c r="B129" s="18">
+        <v>160</v>
+      </c>
+      <c r="C129" s="22">
+        <f>SUM($B$17:B129)</f>
+        <v>12020</v>
+      </c>
+      <c r="D129" s="18"/>
+      <c r="E129" s="18" t="s">
+        <v>109</v>
+      </c>
+      <c r="F129" s="18">
         <v>90</v>
       </c>
-      <c r="G129">
+      <c r="G129" s="22">
+        <f>SUM($F$16:F129)</f>
         <v>22050</v>
       </c>
-      <c r="I129">
-        <v>248.31081143158781</v>
+      <c r="I129" s="22">
+        <f t="shared" si="1"/>
+        <v>248.31081143158784</v>
       </c>
     </row>
     <row r="130" spans="1:9">
       <c r="A130">
         <v>117</v>
       </c>
-      <c r="B130" s="19">
+      <c r="B130" s="18">
+        <v>160</v>
+      </c>
+      <c r="C130" s="22">
+        <f>SUM($B$17:B130)</f>
+        <v>12180</v>
+      </c>
+      <c r="D130" s="18"/>
+      <c r="E130" s="18" t="s">
+        <v>98</v>
+      </c>
+      <c r="F130" s="18">
         <v>120</v>
       </c>
-      <c r="C130">
-        <v>8900</v>
-      </c>
-      <c r="D130" s="19"/>
-      <c r="E130" s="19" t="s">
-        <v>101</v>
-      </c>
-      <c r="F130" s="19">
-        <v>120</v>
-      </c>
-      <c r="G130">
+      <c r="G130" s="22">
+        <f>SUM($F$16:F130)</f>
         <v>22170</v>
       </c>
-      <c r="I130">
-        <v>249.66216278631759</v>
+      <c r="I130" s="22">
+        <f t="shared" si="1"/>
+        <v>249.66216278631757</v>
       </c>
     </row>
     <row r="131" spans="1:9">
       <c r="A131">
         <v>118</v>
       </c>
-      <c r="B131" s="19">
-        <v>120</v>
-      </c>
-      <c r="C131">
-        <v>9020</v>
-      </c>
-      <c r="D131" s="19"/>
-      <c r="E131" s="19" t="s">
-        <v>129</v>
-      </c>
-      <c r="F131" s="19">
+      <c r="B131" s="18">
+        <v>160</v>
+      </c>
+      <c r="C131" s="22">
+        <f>SUM($B$17:B131)</f>
+        <v>12340</v>
+      </c>
+      <c r="D131" s="18"/>
+      <c r="E131" s="18" t="s">
+        <v>125</v>
+      </c>
+      <c r="F131" s="18">
         <v>250</v>
       </c>
-      <c r="G131">
+      <c r="G131" s="22">
+        <f>SUM($F$16:F131)</f>
         <v>22420</v>
       </c>
-      <c r="I131">
-        <v>252.47747810867119</v>
+      <c r="I131" s="22">
+        <f t="shared" si="1"/>
+        <v>252.47747810867116</v>
       </c>
     </row>
     <row r="132" spans="1:9">
       <c r="A132">
         <v>119</v>
       </c>
-      <c r="B132" s="19">
-        <v>120</v>
-      </c>
-      <c r="C132">
-        <v>9140</v>
-      </c>
-      <c r="D132" s="19"/>
-      <c r="E132" s="19" t="s">
-        <v>130</v>
-      </c>
-      <c r="F132" s="19">
+      <c r="B132" s="18">
+        <v>160</v>
+      </c>
+      <c r="C132" s="22">
+        <f>SUM($B$17:B132)</f>
+        <v>12500</v>
+      </c>
+      <c r="D132" s="18"/>
+      <c r="E132" s="18" t="s">
+        <v>126</v>
+      </c>
+      <c r="F132" s="18">
         <v>100</v>
       </c>
-      <c r="G132">
+      <c r="G132" s="22">
+        <f>SUM($F$16:F132)</f>
         <v>22520</v>
       </c>
-      <c r="I132">
-        <v>253.60360423761259</v>
+      <c r="I132" s="22">
+        <f t="shared" si="1"/>
+        <v>253.60360423761261</v>
       </c>
     </row>
     <row r="133" spans="1:9">
       <c r="A133">
         <v>120</v>
       </c>
-      <c r="B133" s="19">
-        <v>120</v>
-      </c>
-      <c r="C133">
-        <v>9260</v>
-      </c>
-      <c r="D133" s="19"/>
-      <c r="E133" s="19" t="s">
-        <v>112</v>
-      </c>
-      <c r="F133" s="19">
+      <c r="B133" s="18">
+        <v>160</v>
+      </c>
+      <c r="C133" s="22">
+        <f>SUM($B$17:B133)</f>
+        <v>12660</v>
+      </c>
+      <c r="D133" s="18"/>
+      <c r="E133" s="18" t="s">
+        <v>109</v>
+      </c>
+      <c r="F133" s="18">
         <v>90</v>
       </c>
-      <c r="G133">
+      <c r="G133" s="22">
+        <f>SUM($F$16:F133)</f>
         <v>22610</v>
       </c>
-      <c r="I133">
-        <v>254.6171177536599</v>
+      <c r="I133" s="22">
+        <f t="shared" si="1"/>
+        <v>254.61711775365993</v>
       </c>
     </row>
     <row r="134" spans="1:9">
       <c r="A134">
         <v>121</v>
       </c>
-      <c r="B134" s="19">
+      <c r="B134" s="18">
+        <v>160</v>
+      </c>
+      <c r="C134" s="22">
+        <f>SUM($B$17:B134)</f>
+        <v>12820</v>
+      </c>
+      <c r="D134" s="18"/>
+      <c r="E134" s="18" t="s">
+        <v>98</v>
+      </c>
+      <c r="F134" s="18">
         <v>120</v>
       </c>
-      <c r="C134">
-        <v>9380</v>
-      </c>
-      <c r="D134" s="19"/>
-      <c r="E134" s="19" t="s">
-        <v>101</v>
-      </c>
-      <c r="F134" s="19">
-        <v>120</v>
-      </c>
-      <c r="G134">
+      <c r="G134" s="22">
+        <f>SUM($F$16:F134)</f>
         <v>22730</v>
       </c>
-      <c r="I134">
-        <v>255.96846910838971</v>
+      <c r="I134" s="22">
+        <f t="shared" si="1"/>
+        <v>255.96846910838966</v>
       </c>
     </row>
     <row r="135" spans="1:9">
       <c r="A135">
         <v>122</v>
       </c>
-      <c r="B135" s="19">
-        <v>120</v>
-      </c>
-      <c r="C135">
-        <v>9500</v>
-      </c>
-      <c r="D135" s="19"/>
-      <c r="E135" s="19" t="s">
-        <v>129</v>
-      </c>
-      <c r="F135" s="19">
+      <c r="B135" s="18">
+        <v>160</v>
+      </c>
+      <c r="C135" s="22">
+        <f>SUM($B$17:B135)</f>
+        <v>12980</v>
+      </c>
+      <c r="D135" s="18"/>
+      <c r="E135" s="18" t="s">
+        <v>125</v>
+      </c>
+      <c r="F135" s="18">
         <v>250</v>
       </c>
-      <c r="G135">
+      <c r="G135" s="22">
+        <f>SUM($F$16:F135)</f>
         <v>22980</v>
       </c>
-      <c r="I135">
-        <v>258.78378443074331</v>
+      <c r="I135" s="22">
+        <f t="shared" si="1"/>
+        <v>258.78378443074325</v>
       </c>
     </row>
     <row r="136" spans="1:9">
       <c r="A136">
         <v>123</v>
       </c>
-      <c r="B136" s="19">
-        <v>120</v>
-      </c>
-      <c r="C136">
-        <v>9620</v>
-      </c>
-      <c r="D136" s="19"/>
-      <c r="E136" s="19" t="s">
-        <v>130</v>
-      </c>
-      <c r="F136" s="19">
+      <c r="B136" s="18">
+        <v>160</v>
+      </c>
+      <c r="C136" s="22">
+        <f>SUM($B$17:B136)</f>
+        <v>13140</v>
+      </c>
+      <c r="D136" s="18"/>
+      <c r="E136" s="18" t="s">
+        <v>126</v>
+      </c>
+      <c r="F136" s="18">
         <v>100</v>
       </c>
-      <c r="G136">
+      <c r="G136" s="22">
+        <f>SUM($F$16:F136)</f>
         <v>23080</v>
       </c>
-      <c r="I136">
+      <c r="I136" s="22">
+        <f t="shared" si="1"/>
         <v>259.9099105596847</v>
       </c>
     </row>
@@ -5540,23 +6177,26 @@
       <c r="A137">
         <v>124</v>
       </c>
-      <c r="B137" s="19">
-        <v>120</v>
-      </c>
-      <c r="C137">
-        <v>9740</v>
-      </c>
-      <c r="D137" s="19"/>
-      <c r="E137" s="19" t="s">
-        <v>112</v>
-      </c>
-      <c r="F137" s="19">
+      <c r="B137" s="18">
+        <v>160</v>
+      </c>
+      <c r="C137" s="22">
+        <f>SUM($B$17:B137)</f>
+        <v>13300</v>
+      </c>
+      <c r="D137" s="18"/>
+      <c r="E137" s="18" t="s">
+        <v>109</v>
+      </c>
+      <c r="F137" s="18">
         <v>90</v>
       </c>
-      <c r="G137">
+      <c r="G137" s="22">
+        <f>SUM($F$16:F137)</f>
         <v>23170</v>
       </c>
-      <c r="I137">
+      <c r="I137" s="22">
+        <f t="shared" si="1"/>
         <v>260.92342407573199</v>
       </c>
     </row>
@@ -5564,28 +6204,1662 @@
       <c r="A138">
         <v>125</v>
       </c>
-      <c r="B138" s="19">
+      <c r="B138" s="18">
+        <v>160</v>
+      </c>
+      <c r="C138" s="22">
+        <f>SUM($B$17:B138)</f>
+        <v>13460</v>
+      </c>
+      <c r="D138" s="18"/>
+      <c r="E138" s="18" t="s">
+        <v>98</v>
+      </c>
+      <c r="F138" s="18">
         <v>120</v>
       </c>
-      <c r="C138">
-        <v>9860</v>
-      </c>
-      <c r="D138" s="19"/>
-      <c r="E138" s="19" t="s">
-        <v>101</v>
-      </c>
-      <c r="F138" s="19">
+      <c r="G138" s="22">
+        <f>SUM($F$16:F138)</f>
+        <v>23290</v>
+      </c>
+      <c r="I138" s="22">
+        <f t="shared" si="1"/>
+        <v>262.27477543046172</v>
+      </c>
+    </row>
+    <row r="139" spans="1:9">
+      <c r="A139" s="22">
+        <v>126</v>
+      </c>
+      <c r="B139" s="18">
+        <v>160</v>
+      </c>
+      <c r="C139" s="22">
+        <f>SUM($B$17:B139)</f>
+        <v>13620</v>
+      </c>
+      <c r="D139" s="18"/>
+      <c r="E139" s="18" t="s">
+        <v>125</v>
+      </c>
+      <c r="F139" s="18">
+        <v>250</v>
+      </c>
+      <c r="G139" s="22">
+        <f>SUM($F$16:F139)</f>
+        <v>23540</v>
+      </c>
+      <c r="I139" s="22">
+        <f>G139/$Z$2/6.66</f>
+        <v>265.09009075281534</v>
+      </c>
+    </row>
+    <row r="140" spans="1:9">
+      <c r="A140" s="22">
+        <v>127</v>
+      </c>
+      <c r="B140" s="18">
+        <v>160</v>
+      </c>
+      <c r="C140" s="22">
+        <f>SUM($B$17:B140)</f>
+        <v>13780</v>
+      </c>
+      <c r="D140" s="18"/>
+      <c r="E140" s="18" t="s">
+        <v>126</v>
+      </c>
+      <c r="F140" s="18">
+        <v>100</v>
+      </c>
+      <c r="G140" s="22">
+        <f>SUM($F$16:F140)</f>
+        <v>23640</v>
+      </c>
+      <c r="I140" s="22">
+        <f t="shared" ref="I140:I154" si="2">G140/$Z$2/6.66</f>
+        <v>266.21621688175674</v>
+      </c>
+    </row>
+    <row r="141" spans="1:9">
+      <c r="A141" s="22">
+        <v>128</v>
+      </c>
+      <c r="B141" s="18">
+        <v>160</v>
+      </c>
+      <c r="C141" s="22">
+        <f>SUM($B$17:B141)</f>
+        <v>13940</v>
+      </c>
+      <c r="D141" s="18"/>
+      <c r="E141" s="18" t="s">
+        <v>109</v>
+      </c>
+      <c r="F141" s="18">
+        <v>90</v>
+      </c>
+      <c r="G141" s="22">
+        <f>SUM($F$16:F141)</f>
+        <v>23730</v>
+      </c>
+      <c r="I141" s="22">
+        <f t="shared" si="2"/>
+        <v>267.22973039780402</v>
+      </c>
+    </row>
+    <row r="142" spans="1:9">
+      <c r="A142" s="22">
+        <v>129</v>
+      </c>
+      <c r="B142" s="18">
+        <v>160</v>
+      </c>
+      <c r="C142" s="22">
+        <f>SUM($B$17:B142)</f>
+        <v>14100</v>
+      </c>
+      <c r="D142" s="18"/>
+      <c r="E142" s="18" t="s">
+        <v>98</v>
+      </c>
+      <c r="F142" s="18">
         <v>120</v>
       </c>
-      <c r="G138">
-        <v>23290</v>
-      </c>
-      <c r="I138">
-        <v>262.27477543046172</v>
-      </c>
+      <c r="G142" s="22">
+        <f>SUM($F$16:F142)</f>
+        <v>23850</v>
+      </c>
+      <c r="I142" s="22">
+        <f t="shared" si="2"/>
+        <v>268.58108175253381</v>
+      </c>
+    </row>
+    <row r="143" spans="1:9">
+      <c r="A143" s="22">
+        <v>130</v>
+      </c>
+      <c r="B143" s="18">
+        <v>160</v>
+      </c>
+      <c r="C143" s="22">
+        <f>SUM($B$17:B143)</f>
+        <v>14260</v>
+      </c>
+      <c r="D143" s="18"/>
+      <c r="E143" s="18" t="s">
+        <v>125</v>
+      </c>
+      <c r="F143" s="18">
+        <v>250</v>
+      </c>
+      <c r="G143" s="22">
+        <f>SUM($F$16:F143)</f>
+        <v>24100</v>
+      </c>
+      <c r="I143" s="22">
+        <f t="shared" si="2"/>
+        <v>271.39639707488737</v>
+      </c>
+    </row>
+    <row r="144" spans="1:9">
+      <c r="A144" s="22">
+        <v>131</v>
+      </c>
+      <c r="B144" s="18">
+        <v>160</v>
+      </c>
+      <c r="C144" s="22">
+        <f>SUM($B$17:B144)</f>
+        <v>14420</v>
+      </c>
+      <c r="D144" s="18"/>
+      <c r="E144" s="18" t="s">
+        <v>126</v>
+      </c>
+      <c r="F144" s="18">
+        <v>100</v>
+      </c>
+      <c r="G144" s="22">
+        <f>SUM($F$16:F144)</f>
+        <v>24200</v>
+      </c>
+      <c r="I144" s="22">
+        <f t="shared" si="2"/>
+        <v>272.52252320382883</v>
+      </c>
+    </row>
+    <row r="145" spans="1:9">
+      <c r="A145" s="22">
+        <v>132</v>
+      </c>
+      <c r="B145" s="18">
+        <v>160</v>
+      </c>
+      <c r="C145" s="22">
+        <f>SUM($B$17:B145)</f>
+        <v>14580</v>
+      </c>
+      <c r="D145" s="18"/>
+      <c r="E145" s="18" t="s">
+        <v>109</v>
+      </c>
+      <c r="F145" s="18">
+        <v>90</v>
+      </c>
+      <c r="G145" s="22">
+        <f>SUM($F$16:F145)</f>
+        <v>24290</v>
+      </c>
+      <c r="I145" s="22">
+        <f t="shared" si="2"/>
+        <v>273.53603671987611</v>
+      </c>
+    </row>
+    <row r="146" spans="1:9">
+      <c r="A146" s="22">
+        <v>133</v>
+      </c>
+      <c r="B146" s="18">
+        <v>160</v>
+      </c>
+      <c r="C146" s="22">
+        <f>SUM($B$17:B146)</f>
+        <v>14740</v>
+      </c>
+      <c r="D146" s="18"/>
+      <c r="E146" s="18" t="s">
+        <v>98</v>
+      </c>
+      <c r="F146" s="18">
+        <v>120</v>
+      </c>
+      <c r="G146" s="22">
+        <f>SUM($F$16:F146)</f>
+        <v>24410</v>
+      </c>
+      <c r="I146" s="22">
+        <f t="shared" si="2"/>
+        <v>274.88738807460584</v>
+      </c>
+    </row>
+    <row r="147" spans="1:9">
+      <c r="A147" s="22">
+        <v>134</v>
+      </c>
+      <c r="B147" s="18">
+        <v>160</v>
+      </c>
+      <c r="C147" s="22">
+        <f>SUM($B$17:B147)</f>
+        <v>14900</v>
+      </c>
+      <c r="D147" s="18"/>
+      <c r="E147" s="18" t="s">
+        <v>125</v>
+      </c>
+      <c r="F147" s="18">
+        <v>250</v>
+      </c>
+      <c r="G147" s="22">
+        <f>SUM($F$16:F147)</f>
+        <v>24660</v>
+      </c>
+      <c r="I147" s="22">
+        <f t="shared" si="2"/>
+        <v>277.70270339695946</v>
+      </c>
+    </row>
+    <row r="148" spans="1:9">
+      <c r="A148" s="22">
+        <v>135</v>
+      </c>
+      <c r="B148" s="18">
+        <v>160</v>
+      </c>
+      <c r="C148" s="22">
+        <f>SUM($B$17:B148)</f>
+        <v>15060</v>
+      </c>
+      <c r="D148" s="18"/>
+      <c r="E148" s="18" t="s">
+        <v>126</v>
+      </c>
+      <c r="F148" s="18">
+        <v>100</v>
+      </c>
+      <c r="G148" s="22">
+        <f>SUM($F$16:F148)</f>
+        <v>24760</v>
+      </c>
+      <c r="I148" s="22">
+        <f t="shared" si="2"/>
+        <v>278.82882952590091</v>
+      </c>
+    </row>
+    <row r="149" spans="1:9">
+      <c r="A149" s="22">
+        <v>136</v>
+      </c>
+      <c r="B149" s="18">
+        <v>160</v>
+      </c>
+      <c r="C149" s="22">
+        <f>SUM($B$17:B149)</f>
+        <v>15220</v>
+      </c>
+      <c r="D149" s="18"/>
+      <c r="E149" s="18" t="s">
+        <v>109</v>
+      </c>
+      <c r="F149" s="18">
+        <v>90</v>
+      </c>
+      <c r="G149" s="22">
+        <f>SUM($F$16:F149)</f>
+        <v>24850</v>
+      </c>
+      <c r="I149" s="22">
+        <f t="shared" si="2"/>
+        <v>279.8423430419482</v>
+      </c>
+    </row>
+    <row r="150" spans="1:9">
+      <c r="A150" s="22">
+        <v>137</v>
+      </c>
+      <c r="B150" s="18">
+        <v>160</v>
+      </c>
+      <c r="C150" s="22">
+        <f>SUM($B$17:B150)</f>
+        <v>15380</v>
+      </c>
+      <c r="D150" s="18"/>
+      <c r="E150" s="18" t="s">
+        <v>98</v>
+      </c>
+      <c r="F150" s="18">
+        <v>120</v>
+      </c>
+      <c r="G150" s="22">
+        <f>SUM($F$16:F150)</f>
+        <v>24970</v>
+      </c>
+      <c r="I150" s="22">
+        <f t="shared" si="2"/>
+        <v>281.19369439667793</v>
+      </c>
+    </row>
+    <row r="151" spans="1:9">
+      <c r="A151" s="22">
+        <v>138</v>
+      </c>
+      <c r="B151" s="18">
+        <v>160</v>
+      </c>
+      <c r="C151" s="22">
+        <f>SUM($B$17:B151)</f>
+        <v>15540</v>
+      </c>
+      <c r="D151" s="18"/>
+      <c r="E151" s="18" t="s">
+        <v>125</v>
+      </c>
+      <c r="F151" s="18">
+        <v>250</v>
+      </c>
+      <c r="G151" s="22">
+        <f>SUM($F$16:F151)</f>
+        <v>25220</v>
+      </c>
+      <c r="I151" s="22">
+        <f t="shared" si="2"/>
+        <v>284.00900971903155</v>
+      </c>
+    </row>
+    <row r="152" spans="1:9">
+      <c r="A152" s="22">
+        <v>139</v>
+      </c>
+      <c r="B152" s="18">
+        <v>160</v>
+      </c>
+      <c r="C152" s="22">
+        <f>SUM($B$17:B152)</f>
+        <v>15700</v>
+      </c>
+      <c r="D152" s="18"/>
+      <c r="E152" s="18" t="s">
+        <v>126</v>
+      </c>
+      <c r="F152" s="18">
+        <v>100</v>
+      </c>
+      <c r="G152" s="22">
+        <f>SUM($F$16:F152)</f>
+        <v>25320</v>
+      </c>
+      <c r="I152" s="22">
+        <f t="shared" si="2"/>
+        <v>285.13513584797295</v>
+      </c>
+    </row>
+    <row r="153" spans="1:9">
+      <c r="A153" s="22">
+        <v>140</v>
+      </c>
+      <c r="B153" s="18">
+        <v>160</v>
+      </c>
+      <c r="C153" s="22">
+        <f>SUM($B$17:B153)</f>
+        <v>15860</v>
+      </c>
+      <c r="D153" s="18"/>
+      <c r="E153" s="18" t="s">
+        <v>125</v>
+      </c>
+      <c r="F153" s="18">
+        <v>90</v>
+      </c>
+      <c r="G153" s="22">
+        <f>SUM($F$16:F153)</f>
+        <v>25410</v>
+      </c>
+      <c r="I153" s="22">
+        <f t="shared" si="2"/>
+        <v>286.14864936402029</v>
+      </c>
+    </row>
+    <row r="154" spans="1:9">
+      <c r="A154" s="22"/>
+      <c r="F154" s="22"/>
+      <c r="G154" s="22"/>
+      <c r="H154" s="22"/>
+      <c r="I154" s="22"/>
+    </row>
+    <row r="155" spans="1:9">
+      <c r="A155" s="22"/>
+      <c r="F155" s="22"/>
+      <c r="G155" s="22"/>
+      <c r="H155" s="22"/>
+      <c r="I155" s="22"/>
+    </row>
+    <row r="156" spans="1:9">
+      <c r="A156" s="22"/>
+    </row>
+    <row r="157" spans="1:9">
+      <c r="A157" s="22"/>
+    </row>
+    <row r="158" spans="1:9">
+      <c r="A158" s="22"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1C223675-6655-A142-83EC-B0D1E1195EFE}">
+  <dimension ref="A1:L40"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="K11" sqref="K11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="19"/>
+  <sheetData>
+    <row r="1" spans="1:12">
+      <c r="A1" s="27" t="s">
+        <v>132</v>
+      </c>
+      <c r="B1" s="27" t="s">
+        <v>133</v>
+      </c>
+      <c r="C1" s="27" t="s">
+        <v>134</v>
+      </c>
+      <c r="D1" s="27" t="s">
+        <v>135</v>
+      </c>
+      <c r="E1" s="27" t="s">
+        <v>136</v>
+      </c>
+      <c r="F1" s="27" t="s">
+        <v>137</v>
+      </c>
+      <c r="G1" s="27" t="s">
+        <v>138</v>
+      </c>
+      <c r="H1" s="27" t="s">
+        <v>139</v>
+      </c>
+      <c r="I1" s="27" t="s">
+        <v>140</v>
+      </c>
+      <c r="K1" s="27"/>
+    </row>
+    <row r="2" spans="1:12">
+      <c r="A2" s="28">
+        <v>70001</v>
+      </c>
+      <c r="B2" s="28">
+        <v>10000</v>
+      </c>
+      <c r="C2" s="28">
+        <v>5</v>
+      </c>
+      <c r="D2" s="28">
+        <v>7</v>
+      </c>
+      <c r="E2" s="28">
+        <v>2</v>
+      </c>
+      <c r="F2" s="28">
+        <v>9</v>
+      </c>
+      <c r="G2" s="28">
+        <v>11</v>
+      </c>
+      <c r="H2" s="28">
+        <v>4.88</v>
+      </c>
+      <c r="I2" s="29">
+        <v>0.44350000000000001</v>
+      </c>
+      <c r="K2" t="s">
+        <v>134</v>
+      </c>
+      <c r="L2" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12">
+      <c r="A3" s="28">
+        <v>70001</v>
+      </c>
+      <c r="B3" s="28">
+        <v>16900</v>
+      </c>
+      <c r="C3" s="28">
+        <v>5</v>
+      </c>
+      <c r="D3" s="28">
+        <v>5</v>
+      </c>
+      <c r="E3" s="28">
+        <v>2</v>
+      </c>
+      <c r="F3" s="28">
+        <v>7</v>
+      </c>
+      <c r="G3" s="28">
+        <v>9</v>
+      </c>
+      <c r="H3" s="28">
+        <v>4.43</v>
+      </c>
+      <c r="I3" s="29">
+        <v>0.49209999999999998</v>
+      </c>
+      <c r="K3" s="28">
+        <v>3</v>
+      </c>
+      <c r="L3">
+        <f>AVERAGEIF(C:C,K3,I:I)</f>
+        <v>0.61241666666666672</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12">
+      <c r="A4" s="28">
+        <v>70001</v>
+      </c>
+      <c r="B4" s="28">
+        <v>101900</v>
+      </c>
+      <c r="C4" s="28">
+        <v>4</v>
+      </c>
+      <c r="D4" s="28">
+        <v>5</v>
+      </c>
+      <c r="E4" s="28">
+        <v>2</v>
+      </c>
+      <c r="F4" s="28">
+        <v>7</v>
+      </c>
+      <c r="G4" s="28">
+        <v>9</v>
+      </c>
+      <c r="H4" s="28">
+        <v>4.13</v>
+      </c>
+      <c r="I4" s="29">
+        <v>0.45910000000000001</v>
+      </c>
+      <c r="K4" s="28">
+        <v>4</v>
+      </c>
+      <c r="L4" s="22">
+        <f t="shared" ref="L4:L5" si="0">AVERAGEIF(C:C,K4,I:I)</f>
+        <v>0.60563333333333336</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12">
+      <c r="A5" s="28">
+        <v>70001</v>
+      </c>
+      <c r="B5" s="28">
+        <v>102400</v>
+      </c>
+      <c r="C5" s="28">
+        <v>3</v>
+      </c>
+      <c r="D5" s="28">
+        <v>3</v>
+      </c>
+      <c r="E5" s="28">
+        <v>1</v>
+      </c>
+      <c r="F5" s="28">
+        <v>4</v>
+      </c>
+      <c r="G5" s="28">
+        <v>5</v>
+      </c>
+      <c r="H5" s="28">
+        <v>2.61</v>
+      </c>
+      <c r="I5" s="29">
+        <v>0.52190000000000003</v>
+      </c>
+      <c r="K5" s="28">
+        <v>5</v>
+      </c>
+      <c r="L5" s="22">
+        <f t="shared" si="0"/>
+        <v>0.50909333333333329</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12">
+      <c r="A6" s="28">
+        <v>70001</v>
+      </c>
+      <c r="B6" s="28">
+        <v>102800</v>
+      </c>
+      <c r="C6" s="28">
+        <v>3</v>
+      </c>
+      <c r="D6" s="28">
+        <v>4</v>
+      </c>
+      <c r="E6" s="28">
+        <v>1</v>
+      </c>
+      <c r="F6" s="28">
+        <v>5</v>
+      </c>
+      <c r="G6" s="28">
+        <v>6</v>
+      </c>
+      <c r="H6" s="28">
+        <v>1.77</v>
+      </c>
+      <c r="I6" s="29">
+        <v>0.29480000000000001</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12">
+      <c r="A7" s="28">
+        <v>70001</v>
+      </c>
+      <c r="B7" s="28">
+        <v>104600</v>
+      </c>
+      <c r="C7" s="28">
+        <v>4</v>
+      </c>
+      <c r="D7" s="28">
+        <v>7</v>
+      </c>
+      <c r="E7" s="28">
+        <v>2</v>
+      </c>
+      <c r="F7" s="28">
+        <v>9</v>
+      </c>
+      <c r="G7" s="28">
+        <v>11</v>
+      </c>
+      <c r="H7" s="28">
+        <v>2.97</v>
+      </c>
+      <c r="I7" s="29">
+        <v>0.26979999999999998</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12">
+      <c r="A8" s="28">
+        <v>70002</v>
+      </c>
+      <c r="B8" s="28">
+        <v>1001</v>
+      </c>
+      <c r="C8" s="28">
+        <v>3</v>
+      </c>
+      <c r="D8" s="28">
+        <v>3</v>
+      </c>
+      <c r="E8" s="28">
+        <v>1</v>
+      </c>
+      <c r="F8" s="28">
+        <v>4</v>
+      </c>
+      <c r="G8" s="28">
+        <v>8</v>
+      </c>
+      <c r="H8" s="28">
+        <v>5.47</v>
+      </c>
+      <c r="I8" s="29">
+        <v>0.68340000000000001</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12">
+      <c r="A9" s="28">
+        <v>70002</v>
+      </c>
+      <c r="B9" s="28">
+        <v>2200</v>
+      </c>
+      <c r="C9" s="28">
+        <v>5</v>
+      </c>
+      <c r="D9" s="28">
+        <v>7</v>
+      </c>
+      <c r="E9" s="28">
+        <v>2</v>
+      </c>
+      <c r="F9" s="28">
+        <v>9</v>
+      </c>
+      <c r="G9" s="28">
+        <v>18</v>
+      </c>
+      <c r="H9" s="28">
+        <v>12.91</v>
+      </c>
+      <c r="I9" s="29">
+        <v>0.71699999999999997</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12">
+      <c r="A10" s="28">
+        <v>70002</v>
+      </c>
+      <c r="B10" s="28">
+        <v>5500</v>
+      </c>
+      <c r="C10" s="28">
+        <v>4</v>
+      </c>
+      <c r="D10" s="28">
+        <v>5</v>
+      </c>
+      <c r="E10" s="28">
+        <v>2</v>
+      </c>
+      <c r="F10" s="28">
+        <v>7</v>
+      </c>
+      <c r="G10" s="28">
+        <v>14</v>
+      </c>
+      <c r="H10" s="28">
+        <v>7.68</v>
+      </c>
+      <c r="I10" s="29">
+        <v>0.54890000000000005</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12">
+      <c r="A11" s="28">
+        <v>70002</v>
+      </c>
+      <c r="B11" s="28">
+        <v>5900</v>
+      </c>
+      <c r="C11" s="28">
+        <v>5</v>
+      </c>
+      <c r="D11" s="28">
+        <v>7</v>
+      </c>
+      <c r="E11" s="28">
+        <v>2</v>
+      </c>
+      <c r="F11" s="28">
+        <v>9</v>
+      </c>
+      <c r="G11" s="28">
+        <v>18</v>
+      </c>
+      <c r="H11" s="28">
+        <v>11.11</v>
+      </c>
+      <c r="I11" s="29">
+        <v>0.61729999999999996</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12">
+      <c r="A12" s="28">
+        <v>70002</v>
+      </c>
+      <c r="B12" s="28">
+        <v>105400</v>
+      </c>
+      <c r="C12" s="28">
+        <v>4</v>
+      </c>
+      <c r="D12" s="28">
+        <v>5</v>
+      </c>
+      <c r="E12" s="28">
+        <v>2</v>
+      </c>
+      <c r="F12" s="28">
+        <v>7</v>
+      </c>
+      <c r="G12" s="28">
+        <v>14</v>
+      </c>
+      <c r="H12" s="28">
+        <v>8.42</v>
+      </c>
+      <c r="I12" s="29">
+        <v>0.60119999999999996</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12">
+      <c r="A13" s="28">
+        <v>70002</v>
+      </c>
+      <c r="B13" s="28">
+        <v>107400</v>
+      </c>
+      <c r="C13" s="28">
+        <v>4</v>
+      </c>
+      <c r="D13" s="28">
+        <v>5</v>
+      </c>
+      <c r="E13" s="28">
+        <v>2</v>
+      </c>
+      <c r="F13" s="28">
+        <v>7</v>
+      </c>
+      <c r="G13" s="28">
+        <v>14</v>
+      </c>
+      <c r="H13" s="28">
+        <v>14.56</v>
+      </c>
+      <c r="I13" s="29">
+        <v>1.0402</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12">
+      <c r="A14" s="28">
+        <v>70002</v>
+      </c>
+      <c r="B14" s="28">
+        <v>107900</v>
+      </c>
+      <c r="C14" s="28">
+        <v>5</v>
+      </c>
+      <c r="D14" s="28">
+        <v>7</v>
+      </c>
+      <c r="E14" s="28">
+        <v>2</v>
+      </c>
+      <c r="F14" s="28">
+        <v>9</v>
+      </c>
+      <c r="G14" s="28">
+        <v>18</v>
+      </c>
+      <c r="H14" s="28">
+        <v>13.04</v>
+      </c>
+      <c r="I14" s="29">
+        <v>0.72450000000000003</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12">
+      <c r="A15" s="28">
+        <v>70002</v>
+      </c>
+      <c r="B15" s="28">
+        <v>108100</v>
+      </c>
+      <c r="C15" s="28">
+        <v>3</v>
+      </c>
+      <c r="D15" s="28">
+        <v>3</v>
+      </c>
+      <c r="E15" s="28">
+        <v>1</v>
+      </c>
+      <c r="F15" s="28">
+        <v>4</v>
+      </c>
+      <c r="G15" s="28">
+        <v>8</v>
+      </c>
+      <c r="H15" s="28">
+        <v>4.91</v>
+      </c>
+      <c r="I15" s="29">
+        <v>0.61350000000000005</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12">
+      <c r="A16" s="28">
+        <v>70003</v>
+      </c>
+      <c r="B16" s="28">
+        <v>15400</v>
+      </c>
+      <c r="C16" s="28">
+        <v>4</v>
+      </c>
+      <c r="D16" s="28">
+        <v>5</v>
+      </c>
+      <c r="E16" s="28">
+        <v>2</v>
+      </c>
+      <c r="F16" s="28">
+        <v>7</v>
+      </c>
+      <c r="G16" s="28">
+        <v>35</v>
+      </c>
+      <c r="H16" s="28">
+        <v>24.63</v>
+      </c>
+      <c r="I16" s="29">
+        <v>0.70369999999999999</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9">
+      <c r="A17" s="28">
+        <v>70003</v>
+      </c>
+      <c r="B17" s="28">
+        <v>18700</v>
+      </c>
+      <c r="C17" s="28">
+        <v>5</v>
+      </c>
+      <c r="D17" s="28">
+        <v>7</v>
+      </c>
+      <c r="E17" s="28">
+        <v>2</v>
+      </c>
+      <c r="F17" s="28">
+        <v>9</v>
+      </c>
+      <c r="G17" s="28">
+        <v>45</v>
+      </c>
+      <c r="H17" s="28">
+        <v>29.15</v>
+      </c>
+      <c r="I17" s="29">
+        <v>0.64780000000000004</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9">
+      <c r="A18" s="28">
+        <v>70003</v>
+      </c>
+      <c r="B18" s="28">
+        <v>18800</v>
+      </c>
+      <c r="C18" s="28">
+        <v>5</v>
+      </c>
+      <c r="D18" s="28">
+        <v>7</v>
+      </c>
+      <c r="E18" s="28">
+        <v>2</v>
+      </c>
+      <c r="F18" s="28">
+        <v>9</v>
+      </c>
+      <c r="G18" s="28">
+        <v>45</v>
+      </c>
+      <c r="H18" s="28">
+        <v>33.35</v>
+      </c>
+      <c r="I18" s="29">
+        <v>0.74099999999999999</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9">
+      <c r="A19" s="28">
+        <v>70003</v>
+      </c>
+      <c r="B19" s="28">
+        <v>19400</v>
+      </c>
+      <c r="C19" s="28">
+        <v>3</v>
+      </c>
+      <c r="D19" s="28">
+        <v>3</v>
+      </c>
+      <c r="E19" s="28">
+        <v>1</v>
+      </c>
+      <c r="F19" s="28">
+        <v>4</v>
+      </c>
+      <c r="G19" s="28">
+        <v>20</v>
+      </c>
+      <c r="H19" s="28">
+        <v>14.58</v>
+      </c>
+      <c r="I19" s="29">
+        <v>0.72919999999999996</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9">
+      <c r="A20" s="28">
+        <v>70003</v>
+      </c>
+      <c r="B20" s="28">
+        <v>19500</v>
+      </c>
+      <c r="C20" s="28">
+        <v>4</v>
+      </c>
+      <c r="D20" s="28">
+        <v>5</v>
+      </c>
+      <c r="E20" s="28">
+        <v>2</v>
+      </c>
+      <c r="F20" s="28">
+        <v>7</v>
+      </c>
+      <c r="G20" s="28">
+        <v>35</v>
+      </c>
+      <c r="H20" s="28">
+        <v>21.4</v>
+      </c>
+      <c r="I20" s="29">
+        <v>0.61140000000000005</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9">
+      <c r="A21" s="28">
+        <v>70003</v>
+      </c>
+      <c r="B21" s="28">
+        <v>19700</v>
+      </c>
+      <c r="C21" s="28">
+        <v>3</v>
+      </c>
+      <c r="D21" s="28">
+        <v>3</v>
+      </c>
+      <c r="E21" s="28">
+        <v>1</v>
+      </c>
+      <c r="F21" s="28">
+        <v>4</v>
+      </c>
+      <c r="G21" s="28">
+        <v>20</v>
+      </c>
+      <c r="H21" s="28">
+        <v>17.32</v>
+      </c>
+      <c r="I21" s="29">
+        <v>0.86599999999999999</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9">
+      <c r="A22" s="28">
+        <v>70003</v>
+      </c>
+      <c r="B22" s="28">
+        <v>20100</v>
+      </c>
+      <c r="C22" s="28">
+        <v>3</v>
+      </c>
+      <c r="D22" s="28">
+        <v>3</v>
+      </c>
+      <c r="E22" s="28">
+        <v>1</v>
+      </c>
+      <c r="F22" s="28">
+        <v>4</v>
+      </c>
+      <c r="G22" s="28">
+        <v>20</v>
+      </c>
+      <c r="H22" s="28">
+        <v>8.9</v>
+      </c>
+      <c r="I22" s="29">
+        <v>0.4451</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9">
+      <c r="A23" s="28">
+        <v>70003</v>
+      </c>
+      <c r="B23" s="28">
+        <v>20300</v>
+      </c>
+      <c r="C23" s="28">
+        <v>3</v>
+      </c>
+      <c r="D23" s="28">
+        <v>3</v>
+      </c>
+      <c r="E23" s="28">
+        <v>1</v>
+      </c>
+      <c r="F23" s="28">
+        <v>4</v>
+      </c>
+      <c r="G23" s="28">
+        <v>20</v>
+      </c>
+      <c r="H23" s="28">
+        <v>13.01</v>
+      </c>
+      <c r="I23" s="29">
+        <v>0.65059999999999996</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9">
+      <c r="A24" s="28">
+        <v>70003</v>
+      </c>
+      <c r="B24" s="28">
+        <v>20500</v>
+      </c>
+      <c r="C24" s="28">
+        <v>4</v>
+      </c>
+      <c r="D24" s="28">
+        <v>5</v>
+      </c>
+      <c r="E24" s="28">
+        <v>2</v>
+      </c>
+      <c r="F24" s="28">
+        <v>7</v>
+      </c>
+      <c r="G24" s="28">
+        <v>35</v>
+      </c>
+      <c r="H24" s="28">
+        <v>27.18</v>
+      </c>
+      <c r="I24" s="29">
+        <v>0.77669999999999995</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9">
+      <c r="A25" s="28">
+        <v>70003</v>
+      </c>
+      <c r="B25" s="28">
+        <v>20700</v>
+      </c>
+      <c r="C25" s="28">
+        <v>5</v>
+      </c>
+      <c r="D25" s="28">
+        <v>8</v>
+      </c>
+      <c r="E25" s="28">
+        <v>2</v>
+      </c>
+      <c r="F25" s="28">
+        <v>10</v>
+      </c>
+      <c r="G25" s="28">
+        <v>50</v>
+      </c>
+      <c r="H25" s="28">
+        <v>26.11</v>
+      </c>
+      <c r="I25" s="29">
+        <v>0.52229999999999999</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9">
+      <c r="A26" s="28">
+        <v>70003</v>
+      </c>
+      <c r="B26" s="28">
+        <v>20900</v>
+      </c>
+      <c r="C26" s="28">
+        <v>5</v>
+      </c>
+      <c r="D26" s="28">
+        <v>7</v>
+      </c>
+      <c r="E26" s="28">
+        <v>2</v>
+      </c>
+      <c r="F26" s="28">
+        <v>9</v>
+      </c>
+      <c r="G26" s="28">
+        <v>45</v>
+      </c>
+      <c r="H26" s="28">
+        <v>32.21</v>
+      </c>
+      <c r="I26" s="29">
+        <v>0.71589999999999998</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9">
+      <c r="A27" s="28">
+        <v>70003</v>
+      </c>
+      <c r="B27" s="28">
+        <v>21000</v>
+      </c>
+      <c r="C27" s="28">
+        <v>4</v>
+      </c>
+      <c r="D27" s="28">
+        <v>5</v>
+      </c>
+      <c r="E27" s="28">
+        <v>2</v>
+      </c>
+      <c r="F27" s="28">
+        <v>7</v>
+      </c>
+      <c r="G27" s="28">
+        <v>35</v>
+      </c>
+      <c r="H27" s="28">
+        <v>28.92</v>
+      </c>
+      <c r="I27" s="29">
+        <v>0.82630000000000003</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9">
+      <c r="A28" s="28">
+        <v>70004</v>
+      </c>
+      <c r="B28" s="28">
+        <v>14600</v>
+      </c>
+      <c r="C28" s="28">
+        <v>4</v>
+      </c>
+      <c r="D28" s="28">
+        <v>6</v>
+      </c>
+      <c r="E28" s="28">
+        <v>2</v>
+      </c>
+      <c r="F28" s="28">
+        <v>8</v>
+      </c>
+      <c r="G28" s="28">
+        <v>64</v>
+      </c>
+      <c r="H28" s="28">
+        <v>15.12</v>
+      </c>
+      <c r="I28" s="29">
+        <v>0.23630000000000001</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9">
+      <c r="A29" s="28">
+        <v>70004</v>
+      </c>
+      <c r="B29" s="28">
+        <v>15800</v>
+      </c>
+      <c r="C29" s="28">
+        <v>4</v>
+      </c>
+      <c r="D29" s="28">
+        <v>6</v>
+      </c>
+      <c r="E29" s="28">
+        <v>2</v>
+      </c>
+      <c r="F29" s="28">
+        <v>8</v>
+      </c>
+      <c r="G29" s="28">
+        <v>64</v>
+      </c>
+      <c r="H29" s="28">
+        <v>35.69</v>
+      </c>
+      <c r="I29" s="29">
+        <v>0.55769999999999997</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9">
+      <c r="A30" s="28">
+        <v>70004</v>
+      </c>
+      <c r="B30" s="28">
+        <v>16400</v>
+      </c>
+      <c r="C30" s="28">
+        <v>4</v>
+      </c>
+      <c r="D30" s="28">
+        <v>5</v>
+      </c>
+      <c r="E30" s="28">
+        <v>2</v>
+      </c>
+      <c r="F30" s="28">
+        <v>7</v>
+      </c>
+      <c r="G30" s="28">
+        <v>56</v>
+      </c>
+      <c r="H30" s="28">
+        <v>35.630000000000003</v>
+      </c>
+      <c r="I30" s="29">
+        <v>0.63629999999999998</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9">
+      <c r="A31" s="28">
+        <v>70004</v>
+      </c>
+      <c r="B31" s="28">
+        <v>16500</v>
+      </c>
+      <c r="C31" s="28">
+        <v>3</v>
+      </c>
+      <c r="D31" s="28">
+        <v>5</v>
+      </c>
+      <c r="E31" s="28">
+        <v>1</v>
+      </c>
+      <c r="F31" s="28">
+        <v>6</v>
+      </c>
+      <c r="G31" s="28">
+        <v>48</v>
+      </c>
+      <c r="H31" s="28">
+        <v>20.21</v>
+      </c>
+      <c r="I31" s="29">
+        <v>0.42109999999999997</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9">
+      <c r="A32" s="28">
+        <v>70004</v>
+      </c>
+      <c r="B32" s="28">
+        <v>16800</v>
+      </c>
+      <c r="C32" s="28">
+        <v>3</v>
+      </c>
+      <c r="D32" s="28">
+        <v>3</v>
+      </c>
+      <c r="E32" s="28">
+        <v>1</v>
+      </c>
+      <c r="F32" s="28">
+        <v>4</v>
+      </c>
+      <c r="G32" s="28">
+        <v>32</v>
+      </c>
+      <c r="H32" s="28">
+        <v>25.71</v>
+      </c>
+      <c r="I32" s="29">
+        <v>0.8034</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9">
+      <c r="A33" s="28">
+        <v>70004</v>
+      </c>
+      <c r="B33" s="28">
+        <v>17300</v>
+      </c>
+      <c r="C33" s="28">
+        <v>5</v>
+      </c>
+      <c r="D33" s="28">
+        <v>7</v>
+      </c>
+      <c r="E33" s="28">
+        <v>2</v>
+      </c>
+      <c r="F33" s="28">
+        <v>9</v>
+      </c>
+      <c r="G33" s="28">
+        <v>72</v>
+      </c>
+      <c r="H33" s="28">
+        <v>16.87</v>
+      </c>
+      <c r="I33" s="29">
+        <v>0.23430000000000001</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9">
+      <c r="A34" s="28">
+        <v>70004</v>
+      </c>
+      <c r="B34" s="28">
+        <v>17500</v>
+      </c>
+      <c r="C34" s="28">
+        <v>5</v>
+      </c>
+      <c r="D34" s="28">
+        <v>7</v>
+      </c>
+      <c r="E34" s="28">
+        <v>2</v>
+      </c>
+      <c r="F34" s="28">
+        <v>9</v>
+      </c>
+      <c r="G34" s="28">
+        <v>72</v>
+      </c>
+      <c r="H34" s="28">
+        <v>12.57</v>
+      </c>
+      <c r="I34" s="29">
+        <v>0.17460000000000001</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9">
+      <c r="A35" s="28">
+        <v>70004</v>
+      </c>
+      <c r="B35" s="28">
+        <v>17600</v>
+      </c>
+      <c r="C35" s="28">
+        <v>5</v>
+      </c>
+      <c r="D35" s="28">
+        <v>8</v>
+      </c>
+      <c r="E35" s="28">
+        <v>2</v>
+      </c>
+      <c r="F35" s="28">
+        <v>10</v>
+      </c>
+      <c r="G35" s="28">
+        <v>80</v>
+      </c>
+      <c r="H35" s="28">
+        <v>24.97</v>
+      </c>
+      <c r="I35" s="29">
+        <v>0.31209999999999999</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9">
+      <c r="A36" s="28">
+        <v>70004</v>
+      </c>
+      <c r="B36" s="28">
+        <v>17900</v>
+      </c>
+      <c r="C36" s="28">
+        <v>5</v>
+      </c>
+      <c r="D36" s="28">
+        <v>7</v>
+      </c>
+      <c r="E36" s="28">
+        <v>2</v>
+      </c>
+      <c r="F36" s="28">
+        <v>9</v>
+      </c>
+      <c r="G36" s="28">
+        <v>72</v>
+      </c>
+      <c r="H36" s="28">
+        <v>36.06</v>
+      </c>
+      <c r="I36" s="29">
+        <v>0.50080000000000002</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9">
+      <c r="A37" s="28">
+        <v>70004</v>
+      </c>
+      <c r="B37" s="28">
+        <v>18100</v>
+      </c>
+      <c r="C37" s="28">
+        <v>3</v>
+      </c>
+      <c r="D37" s="28">
+        <v>3</v>
+      </c>
+      <c r="E37" s="28">
+        <v>1</v>
+      </c>
+      <c r="F37" s="28">
+        <v>4</v>
+      </c>
+      <c r="G37" s="28">
+        <v>32</v>
+      </c>
+      <c r="H37" s="28">
+        <v>22.07</v>
+      </c>
+      <c r="I37" s="29">
+        <v>0.68969999999999998</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9">
+      <c r="A38" s="28">
+        <v>70004</v>
+      </c>
+      <c r="B38" s="28">
+        <v>18200</v>
+      </c>
+      <c r="C38" s="28">
+        <v>5</v>
+      </c>
+      <c r="D38" s="28">
+        <v>7</v>
+      </c>
+      <c r="E38" s="28">
+        <v>2</v>
+      </c>
+      <c r="F38" s="28">
+        <v>9</v>
+      </c>
+      <c r="G38" s="28">
+        <v>72</v>
+      </c>
+      <c r="H38" s="28">
+        <v>27.3</v>
+      </c>
+      <c r="I38" s="29">
+        <v>0.37909999999999999</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9">
+      <c r="A39" s="28">
+        <v>70004</v>
+      </c>
+      <c r="B39" s="28">
+        <v>18500</v>
+      </c>
+      <c r="C39" s="28">
+        <v>5</v>
+      </c>
+      <c r="D39" s="28">
+        <v>7</v>
+      </c>
+      <c r="E39" s="28">
+        <v>2</v>
+      </c>
+      <c r="F39" s="28">
+        <v>9</v>
+      </c>
+      <c r="G39" s="28">
+        <v>72</v>
+      </c>
+      <c r="H39" s="28">
+        <v>29.81</v>
+      </c>
+      <c r="I39" s="29">
+        <v>0.41410000000000002</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9">
+      <c r="A40" s="28">
+        <v>70004</v>
+      </c>
+      <c r="B40" s="28">
+        <v>18600</v>
+      </c>
+      <c r="C40" s="28">
+        <v>3</v>
+      </c>
+      <c r="D40" s="28">
+        <v>3</v>
+      </c>
+      <c r="E40" s="28">
+        <v>1</v>
+      </c>
+      <c r="F40" s="28">
+        <v>4</v>
+      </c>
+      <c r="G40" s="28">
+        <v>32</v>
+      </c>
+      <c r="H40" s="28">
+        <v>20.170000000000002</v>
+      </c>
+      <c r="I40" s="29">
+        <v>0.63029999999999997</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/New_StarChallenge/NewStarChallenge.xlsx
+++ b/New_StarChallenge/NewStarChallenge.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/fotoable/Gamedev_Tools/New_StarChallenge/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2D56E88A-68AF-584F-8221-1B880D552DE9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6328E670-1E2B-754E-9343-D368AD44F025}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="33600" windowHeight="18780" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="33600" windowHeight="18780" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="303" uniqueCount="143">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="337" uniqueCount="148">
   <si>
     <t>Easy</t>
   </si>
@@ -410,6 +410,9 @@
     <t>ticket*5</t>
   </si>
   <si>
+    <t>传奇卡宝箱</t>
+  </si>
+  <si>
     <t>紫金宝箱</t>
   </si>
   <si>
@@ -462,13 +465,25 @@
   </si>
   <si>
     <t>一般玩家正常升级点数与进度</t>
+  </si>
+  <si>
+    <t>是否是 item or ticket</t>
+  </si>
+  <si>
+    <t>资产价值</t>
+  </si>
+  <si>
+    <t>总资产价值</t>
+  </si>
+  <si>
+    <t>资产货币价值</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="10">
+  <fonts count="12">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -517,6 +532,18 @@
     </font>
     <font>
       <sz val="12"/>
+      <color rgb="FF9C5700"/>
+      <name val="苹方-简"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="0"/>
+      <name val="苹方-简"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
       <color theme="1"/>
       <name val="苹方-简"/>
       <family val="2"/>
@@ -536,7 +563,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="10">
+  <fills count="12">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -587,7 +614,18 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -662,10 +700,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="30">
+  <cellXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
@@ -690,14 +729,16 @@
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="10" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="10" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Neutral" xfId="1" builtinId="28"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -1013,8 +1054,8 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:T68"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A45" zoomScale="107" workbookViewId="0">
-      <selection activeCell="L69" sqref="L69"/>
+    <sheetView zoomScale="107" workbookViewId="0">
+      <selection activeCell="K23" sqref="K23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="19"/>
@@ -1315,7 +1356,7 @@
     </row>
     <row r="14" spans="1:13">
       <c r="A14" s="9" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="B14" s="9">
         <f>(B5*(B6)*数据!$L$3+B7*(B8)*数据!$L$4+B9*(B10)*数据!$L$5)/(B5+B7+B9)*B3</f>
@@ -1516,7 +1557,7 @@
         <v>1</v>
       </c>
       <c r="K25" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
     </row>
     <row r="26" spans="1:11">
@@ -1543,7 +1584,7 @@
         <v>2</v>
       </c>
       <c r="K26" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
     </row>
     <row r="27" spans="1:11">
@@ -1570,7 +1611,7 @@
         <v>3</v>
       </c>
       <c r="K27" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
     </row>
     <row r="28" spans="1:11">
@@ -2188,18 +2229,18 @@
       <c r="J58" s="4"/>
     </row>
     <row r="60" spans="1:10">
-      <c r="A60" s="26"/>
-      <c r="B60" s="26"/>
-      <c r="C60" s="26"/>
-      <c r="D60" s="26" t="s">
-        <v>142</v>
-      </c>
-      <c r="E60" s="26"/>
-      <c r="F60" s="26"/>
-      <c r="G60" s="26"/>
-      <c r="H60" s="26"/>
-      <c r="I60" s="26"/>
-      <c r="J60" s="26"/>
+      <c r="A60" s="25"/>
+      <c r="B60" s="25"/>
+      <c r="C60" s="25"/>
+      <c r="D60" s="25" t="s">
+        <v>143</v>
+      </c>
+      <c r="E60" s="25"/>
+      <c r="F60" s="25"/>
+      <c r="G60" s="25"/>
+      <c r="H60" s="25"/>
+      <c r="I60" s="25"/>
+      <c r="J60" s="25"/>
     </row>
     <row r="61" spans="1:10">
       <c r="A61" s="1" t="s">
@@ -2391,10 +2432,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:Z158"/>
+  <dimension ref="A1:Z183"/>
   <sheetViews>
-    <sheetView topLeftCell="A30" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="M51" sqref="M51"/>
+    <sheetView tabSelected="1" topLeftCell="A30" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="K25" sqref="K25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="19"/>
@@ -2805,6 +2846,18 @@
       <c r="I15" t="s">
         <v>81</v>
       </c>
+      <c r="J15" t="s">
+        <v>144</v>
+      </c>
+      <c r="K15" t="s">
+        <v>145</v>
+      </c>
+      <c r="L15" t="s">
+        <v>146</v>
+      </c>
+      <c r="M15" t="s">
+        <v>147</v>
+      </c>
       <c r="X15" s="12"/>
       <c r="Y15" s="12" t="s">
         <v>82</v>
@@ -2831,6 +2884,21 @@
         <f>G16/$Z$2/6.66</f>
         <v>0.45045045157657659</v>
       </c>
+      <c r="J16">
+        <v>1</v>
+      </c>
+      <c r="K16">
+        <f>IF(J16&lt;&gt;1,F16,0)</f>
+        <v>0</v>
+      </c>
+      <c r="L16">
+        <f>SUM($K$16:K16)</f>
+        <v>0</v>
+      </c>
+      <c r="M16">
+        <f>L16/$Z$2/6.66</f>
+        <v>0</v>
+      </c>
       <c r="X16" s="12"/>
       <c r="Y16" s="12"/>
       <c r="Z16" s="12"/>
@@ -2846,19 +2914,31 @@
         <f>SUM($B$17:B17)</f>
         <v>5</v>
       </c>
-      <c r="E17" s="26" t="s">
-        <v>127</v>
+      <c r="E17" s="29" t="s">
+        <v>125</v>
       </c>
       <c r="F17">
-        <v>720</v>
+        <v>1200</v>
       </c>
       <c r="G17" s="22">
         <f>SUM($F$16:F17)</f>
-        <v>760</v>
+        <v>1240</v>
       </c>
       <c r="I17" s="22">
         <f t="shared" ref="I17:I80" si="0">G17/$Z$2/6.66</f>
-        <v>8.5585585799549548</v>
+        <v>13.963963998873874</v>
+      </c>
+      <c r="K17" s="22">
+        <f t="shared" ref="K17:K80" si="1">IF(J17&lt;&gt;1,F17,0)</f>
+        <v>1200</v>
+      </c>
+      <c r="L17" s="22">
+        <f>SUM($K$16:K17)</f>
+        <v>1200</v>
+      </c>
+      <c r="M17" s="22">
+        <f t="shared" ref="M17:M80" si="2">L17/$Z$2/6.66</f>
+        <v>13.513513547297299</v>
       </c>
       <c r="X17" s="12"/>
       <c r="Y17" s="12" t="s">
@@ -2887,11 +2967,23 @@
       </c>
       <c r="G18" s="22">
         <f>SUM($F$16:F18)</f>
-        <v>810</v>
+        <v>1290</v>
       </c>
       <c r="I18" s="22">
         <f t="shared" si="0"/>
-        <v>9.1216216444256748</v>
+        <v>14.527027063344594</v>
+      </c>
+      <c r="K18" s="22">
+        <f t="shared" si="1"/>
+        <v>50</v>
+      </c>
+      <c r="L18" s="22">
+        <f>SUM($K$16:K18)</f>
+        <v>1250</v>
+      </c>
+      <c r="M18" s="22">
+        <f t="shared" si="2"/>
+        <v>14.076576611768019</v>
       </c>
       <c r="X18" s="12"/>
       <c r="Y18" s="12" t="s">
@@ -2920,11 +3012,26 @@
       </c>
       <c r="G19" s="22">
         <f>SUM($F$16:F19)</f>
-        <v>850</v>
+        <v>1330</v>
       </c>
       <c r="I19" s="22">
         <f t="shared" si="0"/>
-        <v>9.5720720960022536</v>
+        <v>14.977477514921171</v>
+      </c>
+      <c r="J19">
+        <v>1</v>
+      </c>
+      <c r="K19" s="22">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="L19" s="22">
+        <f>SUM($K$16:K19)</f>
+        <v>1250</v>
+      </c>
+      <c r="M19" s="22">
+        <f t="shared" si="2"/>
+        <v>14.076576611768019</v>
       </c>
       <c r="X19" s="12"/>
       <c r="Y19" s="12"/>
@@ -2949,11 +3056,23 @@
       </c>
       <c r="G20" s="22">
         <f>SUM($F$16:F20)</f>
-        <v>880</v>
+        <v>1360</v>
       </c>
       <c r="I20" s="22">
         <f t="shared" si="0"/>
-        <v>9.9099099346846842</v>
+        <v>15.315315353603603</v>
+      </c>
+      <c r="K20" s="22">
+        <f t="shared" si="1"/>
+        <v>30</v>
+      </c>
+      <c r="L20" s="22">
+        <f>SUM($K$16:K20)</f>
+        <v>1280</v>
+      </c>
+      <c r="M20" s="22">
+        <f t="shared" si="2"/>
+        <v>14.414414450450451</v>
       </c>
       <c r="X20" s="12" t="s">
         <v>89</v>
@@ -2980,11 +3099,26 @@
       </c>
       <c r="G21" s="22">
         <f>SUM($F$16:F21)</f>
-        <v>940</v>
+        <v>1420</v>
       </c>
       <c r="I21" s="22">
         <f t="shared" si="0"/>
-        <v>10.585585612049549</v>
+        <v>15.990991030968468</v>
+      </c>
+      <c r="J21">
+        <v>1</v>
+      </c>
+      <c r="K21" s="22">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="L21" s="22">
+        <f>SUM($K$16:K21)</f>
+        <v>1280</v>
+      </c>
+      <c r="M21" s="22">
+        <f t="shared" si="2"/>
+        <v>14.414414450450451</v>
       </c>
       <c r="X21" s="12" t="s">
         <v>91</v>
@@ -3015,11 +3149,23 @@
       </c>
       <c r="G22" s="22">
         <f>SUM($F$16:F22)</f>
-        <v>990</v>
+        <v>1470</v>
       </c>
       <c r="I22" s="22">
         <f t="shared" si="0"/>
-        <v>11.148648676520271</v>
+        <v>16.554054095439188</v>
+      </c>
+      <c r="K22" s="22">
+        <f t="shared" si="1"/>
+        <v>50</v>
+      </c>
+      <c r="L22" s="22">
+        <f>SUM($K$16:K22)</f>
+        <v>1330</v>
+      </c>
+      <c r="M22" s="22">
+        <f t="shared" si="2"/>
+        <v>14.977477514921171</v>
       </c>
       <c r="X22" s="12"/>
       <c r="Y22" s="12"/>
@@ -3044,11 +3190,26 @@
       </c>
       <c r="G23" s="22">
         <f>SUM($F$16:F23)</f>
-        <v>1030</v>
+        <v>1510</v>
       </c>
       <c r="I23" s="22">
         <f t="shared" si="0"/>
-        <v>11.599099128096848</v>
+        <v>17.004504547015767</v>
+      </c>
+      <c r="J23">
+        <v>1</v>
+      </c>
+      <c r="K23" s="22">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="L23" s="22">
+        <f>SUM($K$16:K23)</f>
+        <v>1330</v>
+      </c>
+      <c r="M23" s="22">
+        <f t="shared" si="2"/>
+        <v>14.977477514921171</v>
       </c>
       <c r="X23" s="12"/>
       <c r="Y23" s="12"/>
@@ -3073,11 +3234,23 @@
       </c>
       <c r="G24" s="22">
         <f>SUM($F$16:F24)</f>
-        <v>1060</v>
+        <v>1540</v>
       </c>
       <c r="I24" s="22">
         <f t="shared" si="0"/>
-        <v>11.93693696677928</v>
+        <v>17.342342385698199</v>
+      </c>
+      <c r="K24" s="22">
+        <f t="shared" si="1"/>
+        <v>30</v>
+      </c>
+      <c r="L24" s="22">
+        <f>SUM($K$16:K24)</f>
+        <v>1360</v>
+      </c>
+      <c r="M24" s="22">
+        <f t="shared" si="2"/>
+        <v>15.315315353603603</v>
       </c>
       <c r="X24" s="12"/>
       <c r="Y24" s="12"/>
@@ -3102,11 +3275,26 @@
       </c>
       <c r="G25" s="22">
         <f>SUM($F$16:F25)</f>
-        <v>1120</v>
+        <v>1600</v>
       </c>
       <c r="I25" s="22">
         <f t="shared" si="0"/>
-        <v>12.612612644144143</v>
+        <v>18.018018063063064</v>
+      </c>
+      <c r="J25">
+        <v>1</v>
+      </c>
+      <c r="K25" s="22">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="L25" s="22">
+        <f>SUM($K$16:K25)</f>
+        <v>1360</v>
+      </c>
+      <c r="M25" s="22">
+        <f t="shared" si="2"/>
+        <v>15.315315353603603</v>
       </c>
       <c r="X25" s="12"/>
       <c r="Y25" s="12"/>
@@ -3134,11 +3322,23 @@
       </c>
       <c r="G26" s="22">
         <f>SUM($F$16:F26)</f>
-        <v>1870</v>
+        <v>2350</v>
       </c>
       <c r="I26" s="22">
         <f t="shared" si="0"/>
-        <v>21.058558611204958</v>
+        <v>26.463964030123872</v>
+      </c>
+      <c r="K26" s="22">
+        <f t="shared" si="1"/>
+        <v>750</v>
+      </c>
+      <c r="L26" s="22">
+        <f>SUM($K$16:K26)</f>
+        <v>2110</v>
+      </c>
+      <c r="M26" s="22">
+        <f t="shared" si="2"/>
+        <v>23.761261320664413</v>
       </c>
       <c r="X26" s="12"/>
       <c r="Y26" s="12"/>
@@ -3163,11 +3363,23 @@
       </c>
       <c r="G27" s="22">
         <f>SUM($F$16:F27)</f>
-        <v>1970</v>
+        <v>2450</v>
       </c>
       <c r="I27" s="22">
         <f t="shared" si="0"/>
-        <v>22.184684740146398</v>
+        <v>27.590090159065316</v>
+      </c>
+      <c r="K27" s="22">
+        <f t="shared" si="1"/>
+        <v>100</v>
+      </c>
+      <c r="L27" s="22">
+        <f>SUM($K$16:K27)</f>
+        <v>2210</v>
+      </c>
+      <c r="M27" s="22">
+        <f t="shared" si="2"/>
+        <v>24.887387449605853</v>
       </c>
       <c r="X27" s="12"/>
       <c r="Y27" s="12"/>
@@ -3192,11 +3404,26 @@
       </c>
       <c r="G28" s="22">
         <f>SUM($F$16:F28)</f>
-        <v>2050</v>
+        <v>2530</v>
       </c>
       <c r="I28" s="22">
         <f t="shared" si="0"/>
-        <v>23.085585643299549</v>
+        <v>28.49099106221847</v>
+      </c>
+      <c r="J28">
+        <v>1</v>
+      </c>
+      <c r="K28" s="22">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="L28" s="22">
+        <f>SUM($K$16:K28)</f>
+        <v>2210</v>
+      </c>
+      <c r="M28" s="22">
+        <f t="shared" si="2"/>
+        <v>24.887387449605853</v>
       </c>
       <c r="X28" s="12"/>
       <c r="Y28" s="12"/>
@@ -3221,11 +3448,23 @@
       </c>
       <c r="G29" s="22">
         <f>SUM($F$16:F29)</f>
-        <v>2110</v>
+        <v>2590</v>
       </c>
       <c r="I29" s="22">
         <f t="shared" si="0"/>
-        <v>23.761261320664413</v>
+        <v>29.166666739583334</v>
+      </c>
+      <c r="K29" s="22">
+        <f t="shared" si="1"/>
+        <v>60</v>
+      </c>
+      <c r="L29" s="22">
+        <f>SUM($K$16:K29)</f>
+        <v>2270</v>
+      </c>
+      <c r="M29" s="22">
+        <f t="shared" si="2"/>
+        <v>25.563063126970722</v>
       </c>
       <c r="X29" s="12"/>
       <c r="Y29" s="12"/>
@@ -3250,11 +3489,23 @@
       </c>
       <c r="G30" s="22">
         <f>SUM($F$16:F30)</f>
-        <v>2230</v>
+        <v>2710</v>
       </c>
       <c r="I30" s="22">
         <f t="shared" si="0"/>
-        <v>25.112612675394146</v>
+        <v>30.518018094313064</v>
+      </c>
+      <c r="K30" s="22">
+        <f t="shared" si="1"/>
+        <v>120</v>
+      </c>
+      <c r="L30" s="22">
+        <f>SUM($K$16:K30)</f>
+        <v>2390</v>
+      </c>
+      <c r="M30" s="22">
+        <f t="shared" si="2"/>
+        <v>26.914414481700451</v>
       </c>
       <c r="X30" s="12"/>
       <c r="Y30" s="12"/>
@@ -3279,11 +3530,26 @@
       </c>
       <c r="G31" s="22">
         <f>SUM($F$16:F31)</f>
-        <v>2350</v>
+        <v>2830</v>
       </c>
       <c r="I31" s="22">
         <f t="shared" si="0"/>
-        <v>26.463964030123872</v>
+        <v>31.869369449042793</v>
+      </c>
+      <c r="J31">
+        <v>1</v>
+      </c>
+      <c r="K31" s="22">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="L31" s="22">
+        <f>SUM($K$16:K31)</f>
+        <v>2390</v>
+      </c>
+      <c r="M31" s="22">
+        <f t="shared" si="2"/>
+        <v>26.914414481700451</v>
       </c>
       <c r="X31" s="12"/>
       <c r="Y31" s="12"/>
@@ -3308,11 +3574,23 @@
       </c>
       <c r="G32" s="22">
         <f>SUM($F$16:F32)</f>
-        <v>2450</v>
+        <v>2930</v>
       </c>
       <c r="I32" s="22">
         <f t="shared" si="0"/>
-        <v>27.590090159065316</v>
+        <v>32.995495577984236</v>
+      </c>
+      <c r="K32" s="22">
+        <f t="shared" si="1"/>
+        <v>100</v>
+      </c>
+      <c r="L32" s="22">
+        <f>SUM($K$16:K32)</f>
+        <v>2490</v>
+      </c>
+      <c r="M32" s="22">
+        <f t="shared" si="2"/>
+        <v>28.040540610641891</v>
       </c>
       <c r="X32" s="12" t="s">
         <v>100</v>
@@ -3343,11 +3621,26 @@
       </c>
       <c r="G33" s="22">
         <f>SUM($F$16:F33)</f>
-        <v>2530</v>
+        <v>3010</v>
       </c>
       <c r="I33" s="22">
         <f t="shared" si="0"/>
-        <v>28.49099106221847</v>
+        <v>33.896396481137387</v>
+      </c>
+      <c r="J33">
+        <v>1</v>
+      </c>
+      <c r="K33" s="22">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="L33" s="22">
+        <f>SUM($K$16:K33)</f>
+        <v>2490</v>
+      </c>
+      <c r="M33" s="22">
+        <f t="shared" si="2"/>
+        <v>28.040540610641891</v>
       </c>
       <c r="X33" s="12" t="s">
         <v>101</v>
@@ -3378,11 +3671,23 @@
       </c>
       <c r="G34" s="22">
         <f>SUM($F$16:F34)</f>
-        <v>2650</v>
+        <v>3130</v>
       </c>
       <c r="I34" s="22">
         <f t="shared" si="0"/>
-        <v>29.842342416948199</v>
+        <v>35.247747835867116</v>
+      </c>
+      <c r="K34" s="22">
+        <f t="shared" si="1"/>
+        <v>120</v>
+      </c>
+      <c r="L34" s="22">
+        <f>SUM($K$16:K34)</f>
+        <v>2610</v>
+      </c>
+      <c r="M34" s="22">
+        <f t="shared" si="2"/>
+        <v>29.39189196537162</v>
       </c>
       <c r="X34" s="12" t="s">
         <v>102</v>
@@ -3413,11 +3718,26 @@
       </c>
       <c r="G35" s="22">
         <f>SUM($F$16:F35)</f>
-        <v>2770</v>
+        <v>3250</v>
       </c>
       <c r="I35" s="22">
         <f t="shared" si="0"/>
-        <v>31.193693771677932</v>
+        <v>36.599099190596846</v>
+      </c>
+      <c r="J35">
+        <v>1</v>
+      </c>
+      <c r="K35" s="22">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="L35" s="22">
+        <f>SUM($K$16:K35)</f>
+        <v>2610</v>
+      </c>
+      <c r="M35" s="22">
+        <f t="shared" si="2"/>
+        <v>29.39189196537162</v>
       </c>
       <c r="X35" s="12" t="s">
         <v>103</v>
@@ -3451,11 +3771,23 @@
       </c>
       <c r="G36" s="22">
         <f>SUM($F$16:F36)</f>
-        <v>3490</v>
+        <v>3970</v>
       </c>
       <c r="I36" s="22">
         <f t="shared" si="0"/>
-        <v>39.301801900056304</v>
+        <v>44.707207318975229</v>
+      </c>
+      <c r="K36" s="22">
+        <f t="shared" si="1"/>
+        <v>720</v>
+      </c>
+      <c r="L36" s="22">
+        <f>SUM($K$16:K36)</f>
+        <v>3330</v>
+      </c>
+      <c r="M36" s="22">
+        <f t="shared" si="2"/>
+        <v>37.500000093750003</v>
       </c>
       <c r="X36" s="12" t="s">
         <v>106</v>
@@ -3486,11 +3818,23 @@
       </c>
       <c r="G37" s="22">
         <f>SUM($F$16:F37)</f>
-        <v>3640</v>
+        <v>4120</v>
       </c>
       <c r="I37" s="22">
         <f t="shared" si="0"/>
-        <v>40.990991093468466</v>
+        <v>46.39639651238739</v>
+      </c>
+      <c r="K37" s="22">
+        <f t="shared" si="1"/>
+        <v>150</v>
+      </c>
+      <c r="L37" s="22">
+        <f>SUM($K$16:K37)</f>
+        <v>3480</v>
+      </c>
+      <c r="M37" s="22">
+        <f t="shared" si="2"/>
+        <v>39.189189287162165</v>
       </c>
       <c r="X37" s="12"/>
       <c r="Y37" s="12"/>
@@ -3515,11 +3859,26 @@
       </c>
       <c r="G38" s="22">
         <f>SUM($F$16:F38)</f>
-        <v>3760</v>
+        <v>4240</v>
       </c>
       <c r="I38" s="22">
         <f t="shared" si="0"/>
-        <v>42.342342448198195</v>
+        <v>47.74774786711712</v>
+      </c>
+      <c r="J38">
+        <v>1</v>
+      </c>
+      <c r="K38" s="22">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="L38" s="22">
+        <f>SUM($K$16:K38)</f>
+        <v>3480</v>
+      </c>
+      <c r="M38" s="22">
+        <f t="shared" si="2"/>
+        <v>39.189189287162165</v>
       </c>
       <c r="X38" s="12"/>
       <c r="Y38" s="12"/>
@@ -3544,11 +3903,23 @@
       </c>
       <c r="G39" s="22">
         <f>SUM($F$16:F39)</f>
-        <v>3850</v>
+        <v>4330</v>
       </c>
       <c r="I39" s="22">
         <f t="shared" si="0"/>
-        <v>43.355855964245492</v>
+        <v>48.76126138316441</v>
+      </c>
+      <c r="K39" s="22">
+        <f t="shared" si="1"/>
+        <v>90</v>
+      </c>
+      <c r="L39" s="22">
+        <f>SUM($K$16:K39)</f>
+        <v>3570</v>
+      </c>
+      <c r="M39" s="22">
+        <f t="shared" si="2"/>
+        <v>40.202702803209462</v>
       </c>
       <c r="X39" s="12"/>
       <c r="Y39" s="12"/>
@@ -3573,11 +3944,23 @@
       </c>
       <c r="G40" s="22">
         <f>SUM($F$16:F40)</f>
-        <v>4090</v>
+        <v>4570</v>
       </c>
       <c r="I40" s="22">
         <f t="shared" si="0"/>
-        <v>46.058558673704958</v>
+        <v>51.463964092623876</v>
+      </c>
+      <c r="K40" s="22">
+        <f t="shared" si="1"/>
+        <v>240</v>
+      </c>
+      <c r="L40" s="22">
+        <f>SUM($K$16:K40)</f>
+        <v>3810</v>
+      </c>
+      <c r="M40" s="22">
+        <f t="shared" si="2"/>
+        <v>42.905405512668921</v>
       </c>
       <c r="X40" s="12"/>
       <c r="Y40" s="12"/>
@@ -3602,11 +3985,26 @@
       </c>
       <c r="G41" s="22">
         <f>SUM($F$16:F41)</f>
-        <v>4270</v>
+        <v>4750</v>
       </c>
       <c r="I41" s="22">
         <f t="shared" si="0"/>
-        <v>48.085585705799552</v>
+        <v>53.49099112471847</v>
+      </c>
+      <c r="J41">
+        <v>1</v>
+      </c>
+      <c r="K41" s="22">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="L41" s="22">
+        <f>SUM($K$16:K41)</f>
+        <v>3810</v>
+      </c>
+      <c r="M41" s="22">
+        <f t="shared" si="2"/>
+        <v>42.905405512668921</v>
       </c>
       <c r="X41" s="12"/>
       <c r="Y41" s="12"/>
@@ -3631,11 +4029,23 @@
       </c>
       <c r="G42" s="22">
         <f>SUM($F$16:F42)</f>
-        <v>4420</v>
+        <v>4900</v>
       </c>
       <c r="I42" s="22">
         <f t="shared" si="0"/>
-        <v>49.774774899211707</v>
+        <v>55.180180318130631</v>
+      </c>
+      <c r="K42" s="22">
+        <f t="shared" si="1"/>
+        <v>150</v>
+      </c>
+      <c r="L42" s="22">
+        <f>SUM($K$16:K42)</f>
+        <v>3960</v>
+      </c>
+      <c r="M42" s="22">
+        <f t="shared" si="2"/>
+        <v>44.594594706081082</v>
       </c>
       <c r="X42" s="12" t="s">
         <v>112</v>
@@ -3666,11 +4076,26 @@
       </c>
       <c r="G43" s="22">
         <f>SUM($F$16:F43)</f>
-        <v>4540</v>
+        <v>5020</v>
       </c>
       <c r="I43" s="22">
         <f t="shared" si="0"/>
-        <v>51.126126253941443</v>
+        <v>56.531531672860361</v>
+      </c>
+      <c r="J43">
+        <v>1</v>
+      </c>
+      <c r="K43" s="22">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="L43" s="22">
+        <f>SUM($K$16:K43)</f>
+        <v>3960</v>
+      </c>
+      <c r="M43" s="22">
+        <f t="shared" si="2"/>
+        <v>44.594594706081082</v>
       </c>
       <c r="X43" s="12" t="s">
         <v>113</v>
@@ -3701,11 +4126,23 @@
       </c>
       <c r="G44" s="22">
         <f>SUM($F$16:F44)</f>
-        <v>4780</v>
+        <v>5260</v>
       </c>
       <c r="I44" s="22">
         <f t="shared" si="0"/>
-        <v>53.828828963400902</v>
+        <v>59.234234382319826</v>
+      </c>
+      <c r="K44" s="22">
+        <f t="shared" si="1"/>
+        <v>240</v>
+      </c>
+      <c r="L44" s="22">
+        <f>SUM($K$16:K44)</f>
+        <v>4200</v>
+      </c>
+      <c r="M44" s="22">
+        <f t="shared" si="2"/>
+        <v>47.297297415540541</v>
       </c>
     </row>
     <row r="45" spans="1:26">
@@ -3727,11 +4164,26 @@
       </c>
       <c r="G45" s="22">
         <f>SUM($F$16:F45)</f>
-        <v>4960</v>
+        <v>5440</v>
       </c>
       <c r="I45" s="22">
         <f t="shared" si="0"/>
-        <v>55.855855995495496</v>
+        <v>61.261261414414413</v>
+      </c>
+      <c r="J45">
+        <v>1</v>
+      </c>
+      <c r="K45" s="22">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="L45" s="22">
+        <f>SUM($K$16:K45)</f>
+        <v>4200</v>
+      </c>
+      <c r="M45" s="22">
+        <f t="shared" si="2"/>
+        <v>47.297297415540541</v>
       </c>
     </row>
     <row r="46" spans="1:26">
@@ -3756,11 +4208,23 @@
       </c>
       <c r="G46" s="22">
         <f>SUM($F$16:F46)</f>
-        <v>5960</v>
+        <v>6440</v>
       </c>
       <c r="I46" s="22">
         <f t="shared" si="0"/>
-        <v>67.117117284909909</v>
+        <v>72.522522703828827</v>
+      </c>
+      <c r="K46" s="22">
+        <f t="shared" si="1"/>
+        <v>1000</v>
+      </c>
+      <c r="L46" s="22">
+        <f>SUM($K$16:K46)</f>
+        <v>5200</v>
+      </c>
+      <c r="M46" s="22">
+        <f t="shared" si="2"/>
+        <v>58.558558704954962</v>
       </c>
     </row>
     <row r="47" spans="1:26">
@@ -3782,11 +4246,23 @@
       </c>
       <c r="G47" s="22">
         <f>SUM($F$16:F47)</f>
-        <v>6160</v>
+        <v>6640</v>
       </c>
       <c r="I47" s="22">
         <f t="shared" si="0"/>
-        <v>69.369369542792796</v>
+        <v>74.774774961711714</v>
+      </c>
+      <c r="K47" s="22">
+        <f t="shared" si="1"/>
+        <v>200</v>
+      </c>
+      <c r="L47" s="22">
+        <f>SUM($K$16:K47)</f>
+        <v>5400</v>
+      </c>
+      <c r="M47" s="22">
+        <f t="shared" si="2"/>
+        <v>60.810810962837841</v>
       </c>
     </row>
     <row r="48" spans="1:26">
@@ -3808,14 +4284,29 @@
       </c>
       <c r="G48" s="22">
         <f>SUM($F$16:F48)</f>
-        <v>6320</v>
+        <v>6800</v>
       </c>
       <c r="I48" s="22">
         <f t="shared" si="0"/>
-        <v>71.171171349099097</v>
-      </c>
-    </row>
-    <row r="49" spans="1:9">
+        <v>76.576576768018029</v>
+      </c>
+      <c r="J48">
+        <v>1</v>
+      </c>
+      <c r="K48" s="22">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="L48" s="22">
+        <f>SUM($K$16:K48)</f>
+        <v>5400</v>
+      </c>
+      <c r="M48" s="22">
+        <f t="shared" si="2"/>
+        <v>60.810810962837841</v>
+      </c>
+    </row>
+    <row r="49" spans="1:13">
       <c r="A49">
         <v>33</v>
       </c>
@@ -3834,14 +4325,26 @@
       </c>
       <c r="G49" s="22">
         <f>SUM($F$16:F49)</f>
-        <v>6440</v>
+        <v>6920</v>
       </c>
       <c r="I49" s="22">
         <f t="shared" si="0"/>
-        <v>72.522522703828827</v>
-      </c>
-    </row>
-    <row r="50" spans="1:9">
+        <v>77.927928122747758</v>
+      </c>
+      <c r="K49" s="22">
+        <f t="shared" si="1"/>
+        <v>120</v>
+      </c>
+      <c r="L49" s="22">
+        <f>SUM($K$16:K49)</f>
+        <v>5520</v>
+      </c>
+      <c r="M49" s="22">
+        <f t="shared" si="2"/>
+        <v>62.162162317567571</v>
+      </c>
+    </row>
+    <row r="50" spans="1:13">
       <c r="A50">
         <v>34</v>
       </c>
@@ -3860,14 +4363,26 @@
       </c>
       <c r="G50" s="22">
         <f>SUM($F$16:F50)</f>
-        <v>6800</v>
+        <v>7280</v>
       </c>
       <c r="I50" s="22">
         <f t="shared" si="0"/>
-        <v>76.576576768018029</v>
-      </c>
-    </row>
-    <row r="51" spans="1:9">
+        <v>81.981982186936932</v>
+      </c>
+      <c r="K50" s="22">
+        <f t="shared" si="1"/>
+        <v>360</v>
+      </c>
+      <c r="L50" s="22">
+        <f>SUM($K$16:K50)</f>
+        <v>5880</v>
+      </c>
+      <c r="M50" s="22">
+        <f t="shared" si="2"/>
+        <v>66.216216381756752</v>
+      </c>
+    </row>
+    <row r="51" spans="1:13">
       <c r="A51">
         <v>35</v>
       </c>
@@ -3886,14 +4401,29 @@
       </c>
       <c r="G51" s="22">
         <f>SUM($F$16:F51)</f>
-        <v>7040</v>
+        <v>7520</v>
       </c>
       <c r="I51" s="22">
         <f t="shared" si="0"/>
-        <v>79.279279477477473</v>
-      </c>
-    </row>
-    <row r="52" spans="1:9">
+        <v>84.684684896396391</v>
+      </c>
+      <c r="J51">
+        <v>1</v>
+      </c>
+      <c r="K51" s="22">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="L51" s="22">
+        <f>SUM($K$16:K51)</f>
+        <v>5880</v>
+      </c>
+      <c r="M51" s="22">
+        <f t="shared" si="2"/>
+        <v>66.216216381756752</v>
+      </c>
+    </row>
+    <row r="52" spans="1:13">
       <c r="A52">
         <v>36</v>
       </c>
@@ -3912,14 +4442,26 @@
       </c>
       <c r="G52" s="22">
         <f>SUM($F$16:F52)</f>
-        <v>7240</v>
+        <v>7720</v>
       </c>
       <c r="I52" s="22">
         <f t="shared" si="0"/>
-        <v>81.53153173536036</v>
-      </c>
-    </row>
-    <row r="53" spans="1:9">
+        <v>86.936937154279278</v>
+      </c>
+      <c r="K52" s="22">
+        <f t="shared" si="1"/>
+        <v>200</v>
+      </c>
+      <c r="L52" s="22">
+        <f>SUM($K$16:K52)</f>
+        <v>6080</v>
+      </c>
+      <c r="M52" s="22">
+        <f t="shared" si="2"/>
+        <v>68.468468639639639</v>
+      </c>
+    </row>
+    <row r="53" spans="1:13">
       <c r="A53">
         <v>37</v>
       </c>
@@ -3938,14 +4480,29 @@
       </c>
       <c r="G53" s="22">
         <f>SUM($F$16:F53)</f>
-        <v>7400</v>
+        <v>7880</v>
       </c>
       <c r="I53" s="22">
         <f t="shared" si="0"/>
-        <v>83.333333541666661</v>
-      </c>
-    </row>
-    <row r="54" spans="1:9">
+        <v>88.738738960585593</v>
+      </c>
+      <c r="J53">
+        <v>1</v>
+      </c>
+      <c r="K53" s="22">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="L53" s="22">
+        <f>SUM($K$16:K53)</f>
+        <v>6080</v>
+      </c>
+      <c r="M53" s="22">
+        <f t="shared" si="2"/>
+        <v>68.468468639639639</v>
+      </c>
+    </row>
+    <row r="54" spans="1:13">
       <c r="A54">
         <v>38</v>
       </c>
@@ -3964,14 +4521,26 @@
       </c>
       <c r="G54" s="22">
         <f>SUM($F$16:F54)</f>
-        <v>7760</v>
+        <v>8240</v>
       </c>
       <c r="I54" s="22">
         <f t="shared" si="0"/>
-        <v>87.387387605855864</v>
-      </c>
-    </row>
-    <row r="55" spans="1:9">
+        <v>92.792793024774781</v>
+      </c>
+      <c r="K54" s="22">
+        <f t="shared" si="1"/>
+        <v>360</v>
+      </c>
+      <c r="L54" s="22">
+        <f>SUM($K$16:K54)</f>
+        <v>6440</v>
+      </c>
+      <c r="M54" s="22">
+        <f t="shared" si="2"/>
+        <v>72.522522703828827</v>
+      </c>
+    </row>
+    <row r="55" spans="1:13">
       <c r="A55">
         <v>39</v>
       </c>
@@ -3990,14 +4559,29 @@
       </c>
       <c r="G55" s="22">
         <f>SUM($F$16:F55)</f>
-        <v>8000</v>
+        <v>8480</v>
       </c>
       <c r="I55" s="22">
         <f t="shared" si="0"/>
-        <v>90.090090315315322</v>
-      </c>
-    </row>
-    <row r="56" spans="1:9">
+        <v>95.49549573423424</v>
+      </c>
+      <c r="J55">
+        <v>1</v>
+      </c>
+      <c r="K55" s="22">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="L55" s="22">
+        <f>SUM($K$16:K55)</f>
+        <v>6440</v>
+      </c>
+      <c r="M55" s="22">
+        <f t="shared" si="2"/>
+        <v>72.522522703828827</v>
+      </c>
+    </row>
+    <row r="56" spans="1:13">
       <c r="A56">
         <v>40</v>
       </c>
@@ -4008,22 +4592,34 @@
         <f>SUM($B$17:B56)</f>
         <v>1050</v>
       </c>
-      <c r="E56" s="15" t="s">
-        <v>113</v>
+      <c r="E56" s="30" t="s">
+        <v>125</v>
       </c>
       <c r="F56">
-        <v>1000</v>
+        <v>1200</v>
       </c>
       <c r="G56" s="22">
         <f>SUM($F$16:F56)</f>
-        <v>9000</v>
+        <v>9680</v>
       </c>
       <c r="I56" s="22">
         <f t="shared" si="0"/>
-        <v>101.35135160472973</v>
-      </c>
-    </row>
-    <row r="57" spans="1:9">
+        <v>109.00900928153153</v>
+      </c>
+      <c r="K56" s="22">
+        <f t="shared" si="1"/>
+        <v>1200</v>
+      </c>
+      <c r="L56" s="22">
+        <f>SUM($K$16:K56)</f>
+        <v>7640</v>
+      </c>
+      <c r="M56" s="22">
+        <f t="shared" si="2"/>
+        <v>86.03603625112612</v>
+      </c>
+    </row>
+    <row r="57" spans="1:13">
       <c r="A57">
         <v>41</v>
       </c>
@@ -4042,14 +4638,26 @@
       </c>
       <c r="G57" s="22">
         <f>SUM($F$16:F57)</f>
-        <v>9250</v>
+        <v>9930</v>
       </c>
       <c r="I57" s="22">
         <f t="shared" si="0"/>
-        <v>104.16666692708334</v>
-      </c>
-    </row>
-    <row r="58" spans="1:9">
+        <v>111.82432460388513</v>
+      </c>
+      <c r="K57" s="22">
+        <f t="shared" si="1"/>
+        <v>250</v>
+      </c>
+      <c r="L57" s="22">
+        <f>SUM($K$16:K57)</f>
+        <v>7890</v>
+      </c>
+      <c r="M57" s="22">
+        <f t="shared" si="2"/>
+        <v>88.851351573479732</v>
+      </c>
+    </row>
+    <row r="58" spans="1:13">
       <c r="A58">
         <v>42</v>
       </c>
@@ -4068,14 +4676,29 @@
       </c>
       <c r="G58" s="22">
         <f>SUM($F$16:F58)</f>
-        <v>9450</v>
+        <v>10130</v>
       </c>
       <c r="I58" s="22">
         <f t="shared" si="0"/>
-        <v>106.41891918496623</v>
-      </c>
-    </row>
-    <row r="59" spans="1:9">
+        <v>114.07657686176802</v>
+      </c>
+      <c r="J58">
+        <v>1</v>
+      </c>
+      <c r="K58" s="22">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="L58" s="22">
+        <f>SUM($K$16:K58)</f>
+        <v>7890</v>
+      </c>
+      <c r="M58" s="22">
+        <f t="shared" si="2"/>
+        <v>88.851351573479732</v>
+      </c>
+    </row>
+    <row r="59" spans="1:13">
       <c r="A59">
         <v>43</v>
       </c>
@@ -4094,14 +4717,26 @@
       </c>
       <c r="G59" s="22">
         <f>SUM($F$16:F59)</f>
-        <v>9600</v>
+        <v>10280</v>
       </c>
       <c r="I59" s="22">
         <f t="shared" si="0"/>
-        <v>108.10810837837839</v>
-      </c>
-    </row>
-    <row r="60" spans="1:9">
+        <v>115.76576605518019</v>
+      </c>
+      <c r="K59" s="22">
+        <f t="shared" si="1"/>
+        <v>150</v>
+      </c>
+      <c r="L59" s="22">
+        <f>SUM($K$16:K59)</f>
+        <v>8040</v>
+      </c>
+      <c r="M59" s="22">
+        <f t="shared" si="2"/>
+        <v>90.54054076689188</v>
+      </c>
+    </row>
+    <row r="60" spans="1:13">
       <c r="A60">
         <v>44</v>
       </c>
@@ -4120,14 +4755,26 @@
       </c>
       <c r="G60" s="22">
         <f>SUM($F$16:F60)</f>
-        <v>10080</v>
+        <v>10760</v>
       </c>
       <c r="I60" s="22">
         <f t="shared" si="0"/>
-        <v>113.51351379729729</v>
-      </c>
-    </row>
-    <row r="61" spans="1:9">
+        <v>121.1711714740991</v>
+      </c>
+      <c r="K60" s="22">
+        <f t="shared" si="1"/>
+        <v>480</v>
+      </c>
+      <c r="L60" s="22">
+        <f>SUM($K$16:K60)</f>
+        <v>8520</v>
+      </c>
+      <c r="M60" s="22">
+        <f t="shared" si="2"/>
+        <v>95.945946185810811</v>
+      </c>
+    </row>
+    <row r="61" spans="1:13">
       <c r="A61">
         <v>45</v>
       </c>
@@ -4146,14 +4793,29 @@
       </c>
       <c r="G61" s="22">
         <f>SUM($F$16:F61)</f>
-        <v>10380</v>
+        <v>11060</v>
       </c>
       <c r="I61" s="22">
         <f t="shared" si="0"/>
-        <v>116.89189218412162</v>
-      </c>
-    </row>
-    <row r="62" spans="1:9">
+        <v>124.54954986092342</v>
+      </c>
+      <c r="J61">
+        <v>1</v>
+      </c>
+      <c r="K61" s="22">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="L61" s="22">
+        <f>SUM($K$16:K61)</f>
+        <v>8520</v>
+      </c>
+      <c r="M61" s="22">
+        <f t="shared" si="2"/>
+        <v>95.945946185810811</v>
+      </c>
+    </row>
+    <row r="62" spans="1:13">
       <c r="A62">
         <v>46</v>
       </c>
@@ -4172,14 +4834,26 @@
       </c>
       <c r="G62" s="22">
         <f>SUM($F$16:F62)</f>
-        <v>10630</v>
+        <v>11310</v>
       </c>
       <c r="I62" s="22">
         <f t="shared" si="0"/>
-        <v>119.70720750647523</v>
-      </c>
-    </row>
-    <row r="63" spans="1:9">
+        <v>127.36486518327703</v>
+      </c>
+      <c r="K62" s="22">
+        <f t="shared" si="1"/>
+        <v>250</v>
+      </c>
+      <c r="L62" s="22">
+        <f>SUM($K$16:K62)</f>
+        <v>8770</v>
+      </c>
+      <c r="M62" s="22">
+        <f t="shared" si="2"/>
+        <v>98.761261508164424</v>
+      </c>
+    </row>
+    <row r="63" spans="1:13">
       <c r="A63">
         <v>47</v>
       </c>
@@ -4198,14 +4872,29 @@
       </c>
       <c r="G63" s="22">
         <f>SUM($F$16:F63)</f>
-        <v>10830</v>
+        <v>11510</v>
       </c>
       <c r="I63" s="22">
         <f t="shared" si="0"/>
-        <v>121.95945976435812</v>
-      </c>
-    </row>
-    <row r="64" spans="1:9">
+        <v>129.61711744115993</v>
+      </c>
+      <c r="J63">
+        <v>1</v>
+      </c>
+      <c r="K63" s="22">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="L63" s="22">
+        <f>SUM($K$16:K63)</f>
+        <v>8770</v>
+      </c>
+      <c r="M63" s="22">
+        <f t="shared" si="2"/>
+        <v>98.761261508164424</v>
+      </c>
+    </row>
+    <row r="64" spans="1:13">
       <c r="A64">
         <v>48</v>
       </c>
@@ -4224,14 +4913,26 @@
       </c>
       <c r="G64" s="22">
         <f>SUM($F$16:F64)</f>
-        <v>11310</v>
+        <v>11990</v>
       </c>
       <c r="I64" s="22">
         <f t="shared" si="0"/>
-        <v>127.36486518327703</v>
-      </c>
-    </row>
-    <row r="65" spans="1:9">
+        <v>135.02252286007882</v>
+      </c>
+      <c r="K64" s="22">
+        <f t="shared" si="1"/>
+        <v>480</v>
+      </c>
+      <c r="L64" s="22">
+        <f>SUM($K$16:K64)</f>
+        <v>9250</v>
+      </c>
+      <c r="M64" s="22">
+        <f t="shared" si="2"/>
+        <v>104.16666692708334</v>
+      </c>
+    </row>
+    <row r="65" spans="1:13">
       <c r="A65">
         <v>49</v>
       </c>
@@ -4250,14 +4951,29 @@
       </c>
       <c r="G65" s="22">
         <f>SUM($F$16:F65)</f>
-        <v>11610</v>
+        <v>12290</v>
       </c>
       <c r="I65" s="22">
         <f t="shared" si="0"/>
-        <v>130.74324357010136</v>
-      </c>
-    </row>
-    <row r="66" spans="1:9">
+        <v>138.40090124690315</v>
+      </c>
+      <c r="J65">
+        <v>1</v>
+      </c>
+      <c r="K65" s="22">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="L65" s="22">
+        <f>SUM($K$16:K65)</f>
+        <v>9250</v>
+      </c>
+      <c r="M65" s="22">
+        <f t="shared" si="2"/>
+        <v>104.16666692708334</v>
+      </c>
+    </row>
+    <row r="66" spans="1:13">
       <c r="A66">
         <v>50</v>
       </c>
@@ -4268,22 +4984,34 @@
         <f>SUM($B$17:B66)</f>
         <v>1940</v>
       </c>
-      <c r="E66" s="25" t="s">
-        <v>127</v>
+      <c r="E66" s="30" t="s">
+        <v>128</v>
       </c>
       <c r="F66">
-        <v>1600</v>
+        <v>2500</v>
       </c>
       <c r="G66" s="22">
         <f>SUM($F$16:F66)</f>
-        <v>13210</v>
+        <v>14790</v>
       </c>
       <c r="I66" s="22">
         <f t="shared" si="0"/>
-        <v>148.76126163316442</v>
-      </c>
-    </row>
-    <row r="67" spans="1:9">
+        <v>166.55405447043918</v>
+      </c>
+      <c r="K66" s="22">
+        <f t="shared" si="1"/>
+        <v>2500</v>
+      </c>
+      <c r="L66" s="22">
+        <f>SUM($K$16:K66)</f>
+        <v>11750</v>
+      </c>
+      <c r="M66" s="22">
+        <f t="shared" si="2"/>
+        <v>132.31982015061936</v>
+      </c>
+    </row>
+    <row r="67" spans="1:13">
       <c r="A67">
         <v>54</v>
       </c>
@@ -4296,21 +5024,33 @@
       </c>
       <c r="D67" s="18"/>
       <c r="E67" s="18" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="F67" s="18">
         <v>250</v>
       </c>
       <c r="G67" s="22">
         <f>SUM($F$16:F67)</f>
-        <v>13460</v>
+        <v>15040</v>
       </c>
       <c r="I67" s="22">
         <f t="shared" si="0"/>
-        <v>151.57657695551802</v>
-      </c>
-    </row>
-    <row r="68" spans="1:9">
+        <v>169.36936979279278</v>
+      </c>
+      <c r="K67" s="22">
+        <f t="shared" si="1"/>
+        <v>250</v>
+      </c>
+      <c r="L67" s="22">
+        <f>SUM($K$16:K67)</f>
+        <v>12000</v>
+      </c>
+      <c r="M67" s="22">
+        <f t="shared" si="2"/>
+        <v>135.13513547297299</v>
+      </c>
+    </row>
+    <row r="68" spans="1:13">
       <c r="A68">
         <v>55</v>
       </c>
@@ -4323,21 +5063,33 @@
       </c>
       <c r="D68" s="18"/>
       <c r="E68" s="18" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="F68" s="18">
         <v>100</v>
       </c>
       <c r="G68" s="22">
         <f>SUM($F$16:F68)</f>
-        <v>13560</v>
+        <v>15140</v>
       </c>
       <c r="I68" s="22">
         <f t="shared" si="0"/>
-        <v>152.70270308445947</v>
-      </c>
-    </row>
-    <row r="69" spans="1:9">
+        <v>170.49549592173426</v>
+      </c>
+      <c r="K68" s="22">
+        <f t="shared" si="1"/>
+        <v>100</v>
+      </c>
+      <c r="L68" s="22">
+        <f>SUM($K$16:K68)</f>
+        <v>12100</v>
+      </c>
+      <c r="M68" s="22">
+        <f t="shared" si="2"/>
+        <v>136.26126160191441</v>
+      </c>
+    </row>
+    <row r="69" spans="1:13">
       <c r="A69">
         <v>56</v>
       </c>
@@ -4357,14 +5109,26 @@
       </c>
       <c r="G69" s="22">
         <f>SUM($F$16:F69)</f>
-        <v>13650</v>
+        <v>15230</v>
       </c>
       <c r="I69" s="22">
         <f t="shared" si="0"/>
-        <v>153.71621660050675</v>
-      </c>
-    </row>
-    <row r="70" spans="1:9">
+        <v>171.50900943778154</v>
+      </c>
+      <c r="K69" s="22">
+        <f t="shared" si="1"/>
+        <v>90</v>
+      </c>
+      <c r="L69" s="22">
+        <f>SUM($K$16:K69)</f>
+        <v>12190</v>
+      </c>
+      <c r="M69" s="22">
+        <f t="shared" si="2"/>
+        <v>137.2747751179617</v>
+      </c>
+    </row>
+    <row r="70" spans="1:13">
       <c r="A70">
         <v>57</v>
       </c>
@@ -4384,14 +5148,26 @@
       </c>
       <c r="G70" s="22">
         <f>SUM($F$16:F70)</f>
-        <v>13770</v>
+        <v>15350</v>
       </c>
       <c r="I70" s="22">
         <f t="shared" si="0"/>
-        <v>155.06756795523648</v>
-      </c>
-    </row>
-    <row r="71" spans="1:9">
+        <v>172.86036079251127</v>
+      </c>
+      <c r="K70" s="22">
+        <f t="shared" si="1"/>
+        <v>120</v>
+      </c>
+      <c r="L70" s="22">
+        <f>SUM($K$16:K70)</f>
+        <v>12310</v>
+      </c>
+      <c r="M70" s="22">
+        <f t="shared" si="2"/>
+        <v>138.62612647269142</v>
+      </c>
+    </row>
+    <row r="71" spans="1:13">
       <c r="A71">
         <v>58</v>
       </c>
@@ -4404,21 +5180,33 @@
       </c>
       <c r="D71" s="18"/>
       <c r="E71" s="18" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="F71" s="18">
         <v>250</v>
       </c>
       <c r="G71" s="22">
         <f>SUM($F$16:F71)</f>
-        <v>14020</v>
+        <v>15600</v>
       </c>
       <c r="I71" s="22">
         <f t="shared" si="0"/>
-        <v>157.88288327759008</v>
-      </c>
-    </row>
-    <row r="72" spans="1:9">
+        <v>175.67567611486487</v>
+      </c>
+      <c r="K71" s="22">
+        <f t="shared" si="1"/>
+        <v>250</v>
+      </c>
+      <c r="L71" s="22">
+        <f>SUM($K$16:K71)</f>
+        <v>12560</v>
+      </c>
+      <c r="M71" s="22">
+        <f t="shared" si="2"/>
+        <v>141.44144179504505</v>
+      </c>
+    </row>
+    <row r="72" spans="1:13">
       <c r="A72">
         <v>59</v>
       </c>
@@ -4431,21 +5219,33 @@
       </c>
       <c r="D72" s="18"/>
       <c r="E72" s="18" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="F72" s="18">
         <v>100</v>
       </c>
       <c r="G72" s="22">
         <f>SUM($F$16:F72)</f>
-        <v>14120</v>
+        <v>15700</v>
       </c>
       <c r="I72" s="22">
         <f t="shared" si="0"/>
-        <v>159.00900940653153</v>
-      </c>
-    </row>
-    <row r="73" spans="1:9">
+        <v>176.80180224380632</v>
+      </c>
+      <c r="K72" s="22">
+        <f t="shared" si="1"/>
+        <v>100</v>
+      </c>
+      <c r="L72" s="22">
+        <f>SUM($K$16:K72)</f>
+        <v>12660</v>
+      </c>
+      <c r="M72" s="22">
+        <f t="shared" si="2"/>
+        <v>142.56756792398647</v>
+      </c>
+    </row>
+    <row r="73" spans="1:13">
       <c r="A73">
         <v>60</v>
       </c>
@@ -4465,14 +5265,26 @@
       </c>
       <c r="G73" s="22">
         <f>SUM($F$16:F73)</f>
-        <v>14210</v>
+        <v>15790</v>
       </c>
       <c r="I73" s="22">
         <f t="shared" si="0"/>
-        <v>160.02252292257882</v>
-      </c>
-    </row>
-    <row r="74" spans="1:9">
+        <v>177.81531575985363</v>
+      </c>
+      <c r="K73" s="22">
+        <f t="shared" si="1"/>
+        <v>90</v>
+      </c>
+      <c r="L73" s="22">
+        <f>SUM($K$16:K73)</f>
+        <v>12750</v>
+      </c>
+      <c r="M73" s="22">
+        <f t="shared" si="2"/>
+        <v>143.58108144003378</v>
+      </c>
+    </row>
+    <row r="74" spans="1:13">
       <c r="A74">
         <v>61</v>
       </c>
@@ -4492,14 +5304,26 @@
       </c>
       <c r="G74" s="22">
         <f>SUM($F$16:F74)</f>
-        <v>14330</v>
+        <v>15910</v>
       </c>
       <c r="I74" s="22">
         <f t="shared" si="0"/>
-        <v>161.37387427730854</v>
-      </c>
-    </row>
-    <row r="75" spans="1:9">
+        <v>179.16666711458333</v>
+      </c>
+      <c r="K74" s="22">
+        <f t="shared" si="1"/>
+        <v>120</v>
+      </c>
+      <c r="L74" s="22">
+        <f>SUM($K$16:K74)</f>
+        <v>12870</v>
+      </c>
+      <c r="M74" s="22">
+        <f t="shared" si="2"/>
+        <v>144.93243279476351</v>
+      </c>
+    </row>
+    <row r="75" spans="1:13">
       <c r="A75">
         <v>62</v>
       </c>
@@ -4512,21 +5336,33 @@
       </c>
       <c r="D75" s="18"/>
       <c r="E75" s="18" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="F75" s="18">
         <v>250</v>
       </c>
       <c r="G75" s="22">
         <f>SUM($F$16:F75)</f>
-        <v>14580</v>
+        <v>16160</v>
       </c>
       <c r="I75" s="22">
         <f t="shared" si="0"/>
-        <v>164.18918959966217</v>
-      </c>
-    </row>
-    <row r="76" spans="1:9">
+        <v>181.98198243693693</v>
+      </c>
+      <c r="K75" s="22">
+        <f t="shared" si="1"/>
+        <v>250</v>
+      </c>
+      <c r="L75" s="22">
+        <f>SUM($K$16:K75)</f>
+        <v>13120</v>
+      </c>
+      <c r="M75" s="22">
+        <f t="shared" si="2"/>
+        <v>147.74774811711711</v>
+      </c>
+    </row>
+    <row r="76" spans="1:13">
       <c r="A76">
         <v>63</v>
       </c>
@@ -4539,21 +5375,33 @@
       </c>
       <c r="D76" s="18"/>
       <c r="E76" s="18" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="F76" s="18">
         <v>100</v>
       </c>
       <c r="G76" s="22">
         <f>SUM($F$16:F76)</f>
-        <v>14680</v>
+        <v>16260</v>
       </c>
       <c r="I76" s="22">
         <f t="shared" si="0"/>
-        <v>165.31531572860359</v>
-      </c>
-    </row>
-    <row r="77" spans="1:9">
+        <v>183.10810856587835</v>
+      </c>
+      <c r="K76" s="22">
+        <f t="shared" si="1"/>
+        <v>100</v>
+      </c>
+      <c r="L76" s="22">
+        <f>SUM($K$16:K76)</f>
+        <v>13220</v>
+      </c>
+      <c r="M76" s="22">
+        <f t="shared" si="2"/>
+        <v>148.87387424605856</v>
+      </c>
+    </row>
+    <row r="77" spans="1:13">
       <c r="A77">
         <v>64</v>
       </c>
@@ -4573,14 +5421,26 @@
       </c>
       <c r="G77" s="22">
         <f>SUM($F$16:F77)</f>
-        <v>14770</v>
+        <v>16350</v>
       </c>
       <c r="I77" s="22">
         <f t="shared" si="0"/>
-        <v>166.3288292446509</v>
-      </c>
-    </row>
-    <row r="78" spans="1:9">
+        <v>184.12162208192569</v>
+      </c>
+      <c r="K77" s="22">
+        <f t="shared" si="1"/>
+        <v>90</v>
+      </c>
+      <c r="L77" s="22">
+        <f>SUM($K$16:K77)</f>
+        <v>13310</v>
+      </c>
+      <c r="M77" s="22">
+        <f t="shared" si="2"/>
+        <v>149.88738776210585</v>
+      </c>
+    </row>
+    <row r="78" spans="1:13">
       <c r="A78">
         <v>65</v>
       </c>
@@ -4600,14 +5460,26 @@
       </c>
       <c r="G78" s="22">
         <f>SUM($F$16:F78)</f>
-        <v>14890</v>
+        <v>16470</v>
       </c>
       <c r="I78" s="22">
         <f t="shared" si="0"/>
-        <v>167.68018059938063</v>
-      </c>
-    </row>
-    <row r="79" spans="1:9">
+        <v>185.47297343665542</v>
+      </c>
+      <c r="K78" s="22">
+        <f t="shared" si="1"/>
+        <v>120</v>
+      </c>
+      <c r="L78" s="22">
+        <f>SUM($K$16:K78)</f>
+        <v>13430</v>
+      </c>
+      <c r="M78" s="22">
+        <f t="shared" si="2"/>
+        <v>151.23873911683557</v>
+      </c>
+    </row>
+    <row r="79" spans="1:13">
       <c r="A79">
         <v>66</v>
       </c>
@@ -4620,21 +5492,33 @@
       </c>
       <c r="D79" s="18"/>
       <c r="E79" s="18" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="F79" s="18">
         <v>250</v>
       </c>
       <c r="G79" s="22">
         <f>SUM($F$16:F79)</f>
-        <v>15140</v>
+        <v>16720</v>
       </c>
       <c r="I79" s="22">
         <f t="shared" si="0"/>
-        <v>170.49549592173426</v>
-      </c>
-    </row>
-    <row r="80" spans="1:9">
+        <v>188.28828875900902</v>
+      </c>
+      <c r="K79" s="22">
+        <f t="shared" si="1"/>
+        <v>250</v>
+      </c>
+      <c r="L79" s="22">
+        <f>SUM($K$16:K79)</f>
+        <v>13680</v>
+      </c>
+      <c r="M79" s="22">
+        <f t="shared" si="2"/>
+        <v>154.05405443918917</v>
+      </c>
+    </row>
+    <row r="80" spans="1:13">
       <c r="A80">
         <v>67</v>
       </c>
@@ -4647,21 +5531,33 @@
       </c>
       <c r="D80" s="18"/>
       <c r="E80" s="18" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="F80" s="18">
         <v>100</v>
       </c>
       <c r="G80" s="22">
         <f>SUM($F$16:F80)</f>
-        <v>15240</v>
+        <v>16820</v>
       </c>
       <c r="I80" s="22">
         <f t="shared" si="0"/>
-        <v>171.62162205067568</v>
-      </c>
-    </row>
-    <row r="81" spans="1:9">
+        <v>189.41441488795044</v>
+      </c>
+      <c r="K80" s="22">
+        <f t="shared" si="1"/>
+        <v>100</v>
+      </c>
+      <c r="L80" s="22">
+        <f>SUM($K$16:K80)</f>
+        <v>13780</v>
+      </c>
+      <c r="M80" s="22">
+        <f t="shared" si="2"/>
+        <v>155.18018056813065</v>
+      </c>
+    </row>
+    <row r="81" spans="1:13">
       <c r="A81">
         <v>68</v>
       </c>
@@ -4681,14 +5577,26 @@
       </c>
       <c r="G81" s="22">
         <f>SUM($F$16:F81)</f>
-        <v>15330</v>
+        <v>16910</v>
       </c>
       <c r="I81" s="22">
-        <f t="shared" ref="I81:I138" si="1">G81/$Z$2/6.66</f>
-        <v>172.63513556672297</v>
-      </c>
-    </row>
-    <row r="82" spans="1:9">
+        <f t="shared" ref="I81:I138" si="3">G81/$Z$2/6.66</f>
+        <v>190.42792840399773</v>
+      </c>
+      <c r="K81" s="22">
+        <f t="shared" ref="K81:K144" si="4">IF(J81&lt;&gt;1,F81,0)</f>
+        <v>90</v>
+      </c>
+      <c r="L81" s="22">
+        <f>SUM($K$16:K81)</f>
+        <v>13870</v>
+      </c>
+      <c r="M81" s="22">
+        <f t="shared" ref="M81:M144" si="5">L81/$Z$2/6.66</f>
+        <v>156.19369408417793</v>
+      </c>
+    </row>
+    <row r="82" spans="1:13">
       <c r="A82">
         <v>69</v>
       </c>
@@ -4708,14 +5616,26 @@
       </c>
       <c r="G82" s="22">
         <f>SUM($F$16:F82)</f>
-        <v>15450</v>
+        <v>17030</v>
       </c>
       <c r="I82" s="22">
-        <f t="shared" si="1"/>
-        <v>173.98648692145269</v>
-      </c>
-    </row>
-    <row r="83" spans="1:9">
+        <f t="shared" si="3"/>
+        <v>191.77927975872745</v>
+      </c>
+      <c r="K82" s="22">
+        <f t="shared" si="4"/>
+        <v>120</v>
+      </c>
+      <c r="L82" s="22">
+        <f>SUM($K$16:K82)</f>
+        <v>13990</v>
+      </c>
+      <c r="M82" s="22">
+        <f t="shared" si="5"/>
+        <v>157.54504543890766</v>
+      </c>
+    </row>
+    <row r="83" spans="1:13">
       <c r="A83">
         <v>70</v>
       </c>
@@ -4728,21 +5648,33 @@
       </c>
       <c r="D83" s="18"/>
       <c r="E83" s="18" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="F83" s="18">
         <v>250</v>
       </c>
       <c r="G83" s="22">
         <f>SUM($F$16:F83)</f>
-        <v>15700</v>
+        <v>17280</v>
       </c>
       <c r="I83" s="22">
-        <f t="shared" si="1"/>
-        <v>176.80180224380632</v>
-      </c>
-    </row>
-    <row r="84" spans="1:9">
+        <f t="shared" si="3"/>
+        <v>194.59459508108108</v>
+      </c>
+      <c r="K83" s="22">
+        <f t="shared" si="4"/>
+        <v>250</v>
+      </c>
+      <c r="L83" s="22">
+        <f>SUM($K$16:K83)</f>
+        <v>14240</v>
+      </c>
+      <c r="M83" s="22">
+        <f t="shared" si="5"/>
+        <v>160.36036076126126</v>
+      </c>
+    </row>
+    <row r="84" spans="1:13">
       <c r="A84">
         <v>71</v>
       </c>
@@ -4755,21 +5687,33 @@
       </c>
       <c r="D84" s="18"/>
       <c r="E84" s="18" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="F84" s="18">
         <v>100</v>
       </c>
       <c r="G84" s="22">
         <f>SUM($F$16:F84)</f>
-        <v>15800</v>
+        <v>17380</v>
       </c>
       <c r="I84" s="22">
-        <f t="shared" si="1"/>
-        <v>177.92792837274774</v>
-      </c>
-    </row>
-    <row r="85" spans="1:9">
+        <f t="shared" si="3"/>
+        <v>195.7207212100225</v>
+      </c>
+      <c r="K84" s="22">
+        <f t="shared" si="4"/>
+        <v>100</v>
+      </c>
+      <c r="L84" s="22">
+        <f>SUM($K$16:K84)</f>
+        <v>14340</v>
+      </c>
+      <c r="M84" s="22">
+        <f t="shared" si="5"/>
+        <v>161.48648689020271</v>
+      </c>
+    </row>
+    <row r="85" spans="1:13">
       <c r="A85">
         <v>72</v>
       </c>
@@ -4789,14 +5733,26 @@
       </c>
       <c r="G85" s="22">
         <f>SUM($F$16:F85)</f>
-        <v>15890</v>
+        <v>17470</v>
       </c>
       <c r="I85" s="22">
-        <f t="shared" si="1"/>
-        <v>178.94144188879505</v>
-      </c>
-    </row>
-    <row r="86" spans="1:9">
+        <f t="shared" si="3"/>
+        <v>196.73423472606981</v>
+      </c>
+      <c r="K85" s="22">
+        <f t="shared" si="4"/>
+        <v>90</v>
+      </c>
+      <c r="L85" s="22">
+        <f>SUM($K$16:K85)</f>
+        <v>14430</v>
+      </c>
+      <c r="M85" s="22">
+        <f t="shared" si="5"/>
+        <v>162.50000040625002</v>
+      </c>
+    </row>
+    <row r="86" spans="1:13">
       <c r="A86">
         <v>73</v>
       </c>
@@ -4816,14 +5772,26 @@
       </c>
       <c r="G86" s="22">
         <f>SUM($F$16:F86)</f>
-        <v>16010</v>
+        <v>17590</v>
       </c>
       <c r="I86" s="22">
-        <f t="shared" si="1"/>
-        <v>180.29279324352478</v>
-      </c>
-    </row>
-    <row r="87" spans="1:9">
+        <f t="shared" si="3"/>
+        <v>198.08558608079954</v>
+      </c>
+      <c r="K86" s="22">
+        <f t="shared" si="4"/>
+        <v>120</v>
+      </c>
+      <c r="L86" s="22">
+        <f>SUM($K$16:K86)</f>
+        <v>14550</v>
+      </c>
+      <c r="M86" s="22">
+        <f t="shared" si="5"/>
+        <v>163.85135176097972</v>
+      </c>
+    </row>
+    <row r="87" spans="1:13">
       <c r="A87">
         <v>74</v>
       </c>
@@ -4836,21 +5804,33 @@
       </c>
       <c r="D87" s="18"/>
       <c r="E87" s="18" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="F87" s="18">
         <v>250</v>
       </c>
       <c r="G87" s="22">
         <f>SUM($F$16:F87)</f>
-        <v>16260</v>
+        <v>17840</v>
       </c>
       <c r="I87" s="22">
-        <f t="shared" si="1"/>
-        <v>183.10810856587835</v>
-      </c>
-    </row>
-    <row r="88" spans="1:9">
+        <f t="shared" si="3"/>
+        <v>200.90090140315317</v>
+      </c>
+      <c r="K87" s="22">
+        <f t="shared" si="4"/>
+        <v>250</v>
+      </c>
+      <c r="L87" s="22">
+        <f>SUM($K$16:K87)</f>
+        <v>14800</v>
+      </c>
+      <c r="M87" s="22">
+        <f t="shared" si="5"/>
+        <v>166.66666708333332</v>
+      </c>
+    </row>
+    <row r="88" spans="1:13">
       <c r="A88">
         <v>75</v>
       </c>
@@ -4863,21 +5843,33 @@
       </c>
       <c r="D88" s="18"/>
       <c r="E88" s="18" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="F88" s="18">
         <v>100</v>
       </c>
       <c r="G88" s="22">
         <f>SUM($F$16:F88)</f>
-        <v>16360</v>
+        <v>17940</v>
       </c>
       <c r="I88" s="22">
-        <f t="shared" si="1"/>
-        <v>184.23423469481983</v>
-      </c>
-    </row>
-    <row r="89" spans="1:9">
+        <f t="shared" si="3"/>
+        <v>202.02702753209459</v>
+      </c>
+      <c r="K88" s="22">
+        <f t="shared" si="4"/>
+        <v>100</v>
+      </c>
+      <c r="L88" s="22">
+        <f>SUM($K$16:K88)</f>
+        <v>14900</v>
+      </c>
+      <c r="M88" s="22">
+        <f t="shared" si="5"/>
+        <v>167.7927932122748</v>
+      </c>
+    </row>
+    <row r="89" spans="1:13">
       <c r="A89">
         <v>76</v>
       </c>
@@ -4897,14 +5889,26 @@
       </c>
       <c r="G89" s="22">
         <f>SUM($F$16:F89)</f>
-        <v>16450</v>
+        <v>18030</v>
       </c>
       <c r="I89" s="22">
-        <f t="shared" si="1"/>
-        <v>185.24774821086712</v>
-      </c>
-    </row>
-    <row r="90" spans="1:9">
+        <f t="shared" si="3"/>
+        <v>203.04054104814188</v>
+      </c>
+      <c r="K89" s="22">
+        <f t="shared" si="4"/>
+        <v>90</v>
+      </c>
+      <c r="L89" s="22">
+        <f>SUM($K$16:K89)</f>
+        <v>14990</v>
+      </c>
+      <c r="M89" s="22">
+        <f t="shared" si="5"/>
+        <v>168.80630672832208</v>
+      </c>
+    </row>
+    <row r="90" spans="1:13">
       <c r="A90">
         <v>77</v>
       </c>
@@ -4924,14 +5928,26 @@
       </c>
       <c r="G90" s="22">
         <f>SUM($F$16:F90)</f>
-        <v>16570</v>
+        <v>18150</v>
       </c>
       <c r="I90" s="22">
-        <f t="shared" si="1"/>
-        <v>186.59909956559684</v>
-      </c>
-    </row>
-    <row r="91" spans="1:9">
+        <f t="shared" si="3"/>
+        <v>204.3918924028716</v>
+      </c>
+      <c r="K90" s="22">
+        <f t="shared" si="4"/>
+        <v>120</v>
+      </c>
+      <c r="L90" s="22">
+        <f>SUM($K$16:K90)</f>
+        <v>15110</v>
+      </c>
+      <c r="M90" s="22">
+        <f t="shared" si="5"/>
+        <v>170.15765808305181</v>
+      </c>
+    </row>
+    <row r="91" spans="1:13">
       <c r="A91">
         <v>78</v>
       </c>
@@ -4944,21 +5960,33 @@
       </c>
       <c r="D91" s="18"/>
       <c r="E91" s="18" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="F91" s="18">
         <v>250</v>
       </c>
       <c r="G91" s="22">
         <f>SUM($F$16:F91)</f>
-        <v>16820</v>
+        <v>18400</v>
       </c>
       <c r="I91" s="22">
-        <f t="shared" si="1"/>
-        <v>189.41441488795044</v>
-      </c>
-    </row>
-    <row r="92" spans="1:9">
+        <f t="shared" si="3"/>
+        <v>207.20720772522523</v>
+      </c>
+      <c r="K91" s="22">
+        <f t="shared" si="4"/>
+        <v>250</v>
+      </c>
+      <c r="L91" s="22">
+        <f>SUM($K$16:K91)</f>
+        <v>15360</v>
+      </c>
+      <c r="M91" s="22">
+        <f t="shared" si="5"/>
+        <v>172.97297340540541</v>
+      </c>
+    </row>
+    <row r="92" spans="1:13">
       <c r="A92">
         <v>79</v>
       </c>
@@ -4971,21 +5999,33 @@
       </c>
       <c r="D92" s="18"/>
       <c r="E92" s="18" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="F92" s="18">
         <v>100</v>
       </c>
       <c r="G92" s="22">
         <f>SUM($F$16:F92)</f>
-        <v>16920</v>
+        <v>18500</v>
       </c>
       <c r="I92" s="22">
-        <f t="shared" si="1"/>
-        <v>190.54054101689189</v>
-      </c>
-    </row>
-    <row r="93" spans="1:9">
+        <f t="shared" si="3"/>
+        <v>208.33333385416668</v>
+      </c>
+      <c r="K92" s="22">
+        <f t="shared" si="4"/>
+        <v>100</v>
+      </c>
+      <c r="L92" s="22">
+        <f>SUM($K$16:K92)</f>
+        <v>15460</v>
+      </c>
+      <c r="M92" s="22">
+        <f t="shared" si="5"/>
+        <v>174.09909953434686</v>
+      </c>
+    </row>
+    <row r="93" spans="1:13">
       <c r="A93">
         <v>80</v>
       </c>
@@ -5005,14 +6045,26 @@
       </c>
       <c r="G93" s="22">
         <f>SUM($F$16:F93)</f>
-        <v>17010</v>
+        <v>18590</v>
       </c>
       <c r="I93" s="22">
-        <f t="shared" si="1"/>
-        <v>191.5540545329392</v>
-      </c>
-    </row>
-    <row r="94" spans="1:9">
+        <f t="shared" si="3"/>
+        <v>209.34684737021396</v>
+      </c>
+      <c r="K93" s="22">
+        <f t="shared" si="4"/>
+        <v>90</v>
+      </c>
+      <c r="L93" s="22">
+        <f>SUM($K$16:K93)</f>
+        <v>15550</v>
+      </c>
+      <c r="M93" s="22">
+        <f t="shared" si="5"/>
+        <v>175.11261305039417</v>
+      </c>
+    </row>
+    <row r="94" spans="1:13">
       <c r="A94">
         <v>81</v>
       </c>
@@ -5032,14 +6084,26 @@
       </c>
       <c r="G94" s="22">
         <f>SUM($F$16:F94)</f>
-        <v>17130</v>
+        <v>18710</v>
       </c>
       <c r="I94" s="22">
-        <f t="shared" si="1"/>
-        <v>192.90540588766893</v>
-      </c>
-    </row>
-    <row r="95" spans="1:9">
+        <f t="shared" si="3"/>
+        <v>210.69819872494369</v>
+      </c>
+      <c r="K94" s="22">
+        <f t="shared" si="4"/>
+        <v>120</v>
+      </c>
+      <c r="L94" s="22">
+        <f>SUM($K$16:K94)</f>
+        <v>15670</v>
+      </c>
+      <c r="M94" s="22">
+        <f t="shared" si="5"/>
+        <v>176.4639644051239</v>
+      </c>
+    </row>
+    <row r="95" spans="1:13">
       <c r="A95">
         <v>82</v>
       </c>
@@ -5052,21 +6116,33 @@
       </c>
       <c r="D95" s="18"/>
       <c r="E95" s="18" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="F95" s="18">
         <v>250</v>
       </c>
       <c r="G95" s="22">
         <f>SUM($F$16:F95)</f>
-        <v>17380</v>
+        <v>18960</v>
       </c>
       <c r="I95" s="22">
-        <f t="shared" si="1"/>
-        <v>195.7207212100225</v>
-      </c>
-    </row>
-    <row r="96" spans="1:9">
+        <f t="shared" si="3"/>
+        <v>213.51351404729732</v>
+      </c>
+      <c r="K95" s="22">
+        <f t="shared" si="4"/>
+        <v>250</v>
+      </c>
+      <c r="L95" s="22">
+        <f>SUM($K$16:K95)</f>
+        <v>15920</v>
+      </c>
+      <c r="M95" s="22">
+        <f t="shared" si="5"/>
+        <v>179.27927972747747</v>
+      </c>
+    </row>
+    <row r="96" spans="1:13">
       <c r="A96">
         <v>83</v>
       </c>
@@ -5079,21 +6155,33 @@
       </c>
       <c r="D96" s="18"/>
       <c r="E96" s="18" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="F96" s="18">
         <v>100</v>
       </c>
       <c r="G96" s="22">
         <f>SUM($F$16:F96)</f>
-        <v>17480</v>
+        <v>19060</v>
       </c>
       <c r="I96" s="22">
-        <f t="shared" si="1"/>
-        <v>196.84684733896398</v>
-      </c>
-    </row>
-    <row r="97" spans="1:9">
+        <f t="shared" si="3"/>
+        <v>214.63964017623874</v>
+      </c>
+      <c r="K96" s="22">
+        <f t="shared" si="4"/>
+        <v>100</v>
+      </c>
+      <c r="L96" s="22">
+        <f>SUM($K$16:K96)</f>
+        <v>16020</v>
+      </c>
+      <c r="M96" s="22">
+        <f t="shared" si="5"/>
+        <v>180.40540585641889</v>
+      </c>
+    </row>
+    <row r="97" spans="1:13">
       <c r="A97">
         <v>84</v>
       </c>
@@ -5113,14 +6201,26 @@
       </c>
       <c r="G97" s="22">
         <f>SUM($F$16:F97)</f>
-        <v>17570</v>
+        <v>19150</v>
       </c>
       <c r="I97" s="22">
-        <f t="shared" si="1"/>
-        <v>197.86036085501127</v>
-      </c>
-    </row>
-    <row r="98" spans="1:9">
+        <f t="shared" si="3"/>
+        <v>215.65315369228605</v>
+      </c>
+      <c r="K97" s="22">
+        <f t="shared" si="4"/>
+        <v>90</v>
+      </c>
+      <c r="L97" s="22">
+        <f>SUM($K$16:K97)</f>
+        <v>16110</v>
+      </c>
+      <c r="M97" s="22">
+        <f t="shared" si="5"/>
+        <v>181.41891937246621</v>
+      </c>
+    </row>
+    <row r="98" spans="1:13">
       <c r="A98">
         <v>85</v>
       </c>
@@ -5140,14 +6240,26 @@
       </c>
       <c r="G98" s="22">
         <f>SUM($F$16:F98)</f>
-        <v>17690</v>
+        <v>19270</v>
       </c>
       <c r="I98" s="22">
-        <f t="shared" si="1"/>
-        <v>199.21171220974099</v>
-      </c>
-    </row>
-    <row r="99" spans="1:9">
+        <f t="shared" si="3"/>
+        <v>217.00450504701575</v>
+      </c>
+      <c r="K98" s="22">
+        <f t="shared" si="4"/>
+        <v>120</v>
+      </c>
+      <c r="L98" s="22">
+        <f>SUM($K$16:K98)</f>
+        <v>16230</v>
+      </c>
+      <c r="M98" s="22">
+        <f t="shared" si="5"/>
+        <v>182.77027072719594</v>
+      </c>
+    </row>
+    <row r="99" spans="1:13">
       <c r="A99">
         <v>86</v>
       </c>
@@ -5160,21 +6272,33 @@
       </c>
       <c r="D99" s="18"/>
       <c r="E99" s="18" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="F99" s="18">
         <v>250</v>
       </c>
       <c r="G99" s="22">
         <f>SUM($F$16:F99)</f>
-        <v>17940</v>
+        <v>19520</v>
       </c>
       <c r="I99" s="22">
-        <f t="shared" si="1"/>
-        <v>202.02702753209459</v>
-      </c>
-    </row>
-    <row r="100" spans="1:9">
+        <f t="shared" si="3"/>
+        <v>219.81982036936935</v>
+      </c>
+      <c r="K99" s="22">
+        <f t="shared" si="4"/>
+        <v>250</v>
+      </c>
+      <c r="L99" s="22">
+        <f>SUM($K$16:K99)</f>
+        <v>16480</v>
+      </c>
+      <c r="M99" s="22">
+        <f t="shared" si="5"/>
+        <v>185.58558604954956</v>
+      </c>
+    </row>
+    <row r="100" spans="1:13">
       <c r="A100">
         <v>87</v>
       </c>
@@ -5187,21 +6311,33 @@
       </c>
       <c r="D100" s="18"/>
       <c r="E100" s="18" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="F100" s="18">
         <v>100</v>
       </c>
       <c r="G100" s="22">
         <f>SUM($F$16:F100)</f>
-        <v>18040</v>
+        <v>19620</v>
       </c>
       <c r="I100" s="22">
-        <f t="shared" si="1"/>
-        <v>203.15315366103604</v>
-      </c>
-    </row>
-    <row r="101" spans="1:9">
+        <f t="shared" si="3"/>
+        <v>220.94594649831083</v>
+      </c>
+      <c r="K100" s="22">
+        <f t="shared" si="4"/>
+        <v>100</v>
+      </c>
+      <c r="L100" s="22">
+        <f>SUM($K$16:K100)</f>
+        <v>16580</v>
+      </c>
+      <c r="M100" s="22">
+        <f t="shared" si="5"/>
+        <v>186.71171217849098</v>
+      </c>
+    </row>
+    <row r="101" spans="1:13">
       <c r="A101">
         <v>88</v>
       </c>
@@ -5221,14 +6357,26 @@
       </c>
       <c r="G101" s="22">
         <f>SUM($F$16:F101)</f>
-        <v>18130</v>
+        <v>19710</v>
       </c>
       <c r="I101" s="22">
-        <f t="shared" si="1"/>
-        <v>204.16666717708335</v>
-      </c>
-    </row>
-    <row r="102" spans="1:9">
+        <f t="shared" si="3"/>
+        <v>221.95946001435811</v>
+      </c>
+      <c r="K101" s="22">
+        <f t="shared" si="4"/>
+        <v>90</v>
+      </c>
+      <c r="L101" s="22">
+        <f>SUM($K$16:K101)</f>
+        <v>16670</v>
+      </c>
+      <c r="M101" s="22">
+        <f t="shared" si="5"/>
+        <v>187.72522569453827</v>
+      </c>
+    </row>
+    <row r="102" spans="1:13">
       <c r="A102">
         <v>89</v>
       </c>
@@ -5248,14 +6396,26 @@
       </c>
       <c r="G102" s="22">
         <f>SUM($F$16:F102)</f>
-        <v>18250</v>
+        <v>19830</v>
       </c>
       <c r="I102" s="22">
-        <f t="shared" si="1"/>
-        <v>205.51801853181308</v>
-      </c>
-    </row>
-    <row r="103" spans="1:9">
+        <f t="shared" si="3"/>
+        <v>223.31081136908784</v>
+      </c>
+      <c r="K102" s="22">
+        <f t="shared" si="4"/>
+        <v>120</v>
+      </c>
+      <c r="L102" s="22">
+        <f>SUM($K$16:K102)</f>
+        <v>16790</v>
+      </c>
+      <c r="M102" s="22">
+        <f t="shared" si="5"/>
+        <v>189.076577049268</v>
+      </c>
+    </row>
+    <row r="103" spans="1:13">
       <c r="A103">
         <v>90</v>
       </c>
@@ -5268,21 +6428,33 @@
       </c>
       <c r="D103" s="18"/>
       <c r="E103" s="18" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="F103" s="18">
         <v>250</v>
       </c>
       <c r="G103" s="22">
         <f>SUM($F$16:F103)</f>
-        <v>18500</v>
+        <v>20080</v>
       </c>
       <c r="I103" s="22">
-        <f t="shared" si="1"/>
-        <v>208.33333385416668</v>
-      </c>
-    </row>
-    <row r="104" spans="1:9">
+        <f t="shared" si="3"/>
+        <v>226.12612669144144</v>
+      </c>
+      <c r="K103" s="22">
+        <f t="shared" si="4"/>
+        <v>250</v>
+      </c>
+      <c r="L103" s="22">
+        <f>SUM($K$16:K103)</f>
+        <v>17040</v>
+      </c>
+      <c r="M103" s="22">
+        <f t="shared" si="5"/>
+        <v>191.89189237162162</v>
+      </c>
+    </row>
+    <row r="104" spans="1:13">
       <c r="A104">
         <v>91</v>
       </c>
@@ -5295,21 +6467,33 @@
       </c>
       <c r="D104" s="18"/>
       <c r="E104" s="18" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="F104" s="18">
         <v>100</v>
       </c>
       <c r="G104" s="22">
         <f>SUM($F$16:F104)</f>
-        <v>18600</v>
+        <v>20180</v>
       </c>
       <c r="I104" s="22">
-        <f t="shared" si="1"/>
-        <v>209.4594599831081</v>
-      </c>
-    </row>
-    <row r="105" spans="1:9">
+        <f t="shared" si="3"/>
+        <v>227.25225282038289</v>
+      </c>
+      <c r="K104" s="22">
+        <f t="shared" si="4"/>
+        <v>100</v>
+      </c>
+      <c r="L104" s="22">
+        <f>SUM($K$16:K104)</f>
+        <v>17140</v>
+      </c>
+      <c r="M104" s="22">
+        <f t="shared" si="5"/>
+        <v>193.01801850056307</v>
+      </c>
+    </row>
+    <row r="105" spans="1:13">
       <c r="A105">
         <v>92</v>
       </c>
@@ -5329,14 +6513,26 @@
       </c>
       <c r="G105" s="22">
         <f>SUM($F$16:F105)</f>
-        <v>18690</v>
+        <v>20270</v>
       </c>
       <c r="I105" s="22">
-        <f t="shared" si="1"/>
-        <v>210.47297349915539</v>
-      </c>
-    </row>
-    <row r="106" spans="1:9">
+        <f t="shared" si="3"/>
+        <v>228.2657663364302</v>
+      </c>
+      <c r="K105" s="22">
+        <f t="shared" si="4"/>
+        <v>90</v>
+      </c>
+      <c r="L105" s="22">
+        <f>SUM($K$16:K105)</f>
+        <v>17230</v>
+      </c>
+      <c r="M105" s="22">
+        <f t="shared" si="5"/>
+        <v>194.03153201661036</v>
+      </c>
+    </row>
+    <row r="106" spans="1:13">
       <c r="A106">
         <v>93</v>
       </c>
@@ -5356,14 +6552,26 @@
       </c>
       <c r="G106" s="22">
         <f>SUM($F$16:F106)</f>
-        <v>18810</v>
+        <v>20390</v>
       </c>
       <c r="I106" s="22">
-        <f t="shared" si="1"/>
-        <v>211.82432485388514</v>
-      </c>
-    </row>
-    <row r="107" spans="1:9">
+        <f t="shared" si="3"/>
+        <v>229.61711769115993</v>
+      </c>
+      <c r="K106" s="22">
+        <f t="shared" si="4"/>
+        <v>120</v>
+      </c>
+      <c r="L106" s="22">
+        <f>SUM($K$16:K106)</f>
+        <v>17350</v>
+      </c>
+      <c r="M106" s="22">
+        <f t="shared" si="5"/>
+        <v>195.38288337134009</v>
+      </c>
+    </row>
+    <row r="107" spans="1:13">
       <c r="A107">
         <v>94</v>
       </c>
@@ -5376,21 +6584,33 @@
       </c>
       <c r="D107" s="18"/>
       <c r="E107" s="18" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="F107" s="18">
         <v>250</v>
       </c>
       <c r="G107" s="22">
         <f>SUM($F$16:F107)</f>
-        <v>19060</v>
+        <v>20640</v>
       </c>
       <c r="I107" s="22">
-        <f t="shared" si="1"/>
-        <v>214.63964017623874</v>
-      </c>
-    </row>
-    <row r="108" spans="1:9">
+        <f t="shared" si="3"/>
+        <v>232.4324330135135</v>
+      </c>
+      <c r="K107" s="22">
+        <f t="shared" si="4"/>
+        <v>250</v>
+      </c>
+      <c r="L107" s="22">
+        <f>SUM($K$16:K107)</f>
+        <v>17600</v>
+      </c>
+      <c r="M107" s="22">
+        <f t="shared" si="5"/>
+        <v>198.19819869369371</v>
+      </c>
+    </row>
+    <row r="108" spans="1:13">
       <c r="A108">
         <v>95</v>
       </c>
@@ -5403,21 +6623,33 @@
       </c>
       <c r="D108" s="18"/>
       <c r="E108" s="18" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="F108" s="18">
         <v>100</v>
       </c>
       <c r="G108" s="22">
         <f>SUM($F$16:F108)</f>
-        <v>19160</v>
+        <v>20740</v>
       </c>
       <c r="I108" s="22">
-        <f t="shared" si="1"/>
-        <v>215.76576630518016</v>
-      </c>
-    </row>
-    <row r="109" spans="1:9">
+        <f t="shared" si="3"/>
+        <v>233.55855914245498</v>
+      </c>
+      <c r="K108" s="22">
+        <f t="shared" si="4"/>
+        <v>100</v>
+      </c>
+      <c r="L108" s="22">
+        <f>SUM($K$16:K108)</f>
+        <v>17700</v>
+      </c>
+      <c r="M108" s="22">
+        <f t="shared" si="5"/>
+        <v>199.32432482263513</v>
+      </c>
+    </row>
+    <row r="109" spans="1:13">
       <c r="A109">
         <v>96</v>
       </c>
@@ -5437,14 +6669,26 @@
       </c>
       <c r="G109" s="22">
         <f>SUM($F$16:F109)</f>
-        <v>19250</v>
+        <v>20830</v>
       </c>
       <c r="I109" s="22">
-        <f t="shared" si="1"/>
-        <v>216.77927982122748</v>
-      </c>
-    </row>
-    <row r="110" spans="1:9">
+        <f t="shared" si="3"/>
+        <v>234.57207265850226</v>
+      </c>
+      <c r="K109" s="22">
+        <f t="shared" si="4"/>
+        <v>90</v>
+      </c>
+      <c r="L109" s="22">
+        <f>SUM($K$16:K109)</f>
+        <v>17790</v>
+      </c>
+      <c r="M109" s="22">
+        <f t="shared" si="5"/>
+        <v>200.33783833868245</v>
+      </c>
+    </row>
+    <row r="110" spans="1:13">
       <c r="A110">
         <v>97</v>
       </c>
@@ -5464,14 +6708,26 @@
       </c>
       <c r="G110" s="22">
         <f>SUM($F$16:F110)</f>
-        <v>19370</v>
+        <v>20950</v>
       </c>
       <c r="I110" s="22">
-        <f t="shared" si="1"/>
-        <v>218.13063117595721</v>
-      </c>
-    </row>
-    <row r="111" spans="1:9">
+        <f t="shared" si="3"/>
+        <v>235.92342401323199</v>
+      </c>
+      <c r="K110" s="22">
+        <f t="shared" si="4"/>
+        <v>120</v>
+      </c>
+      <c r="L110" s="22">
+        <f>SUM($K$16:K110)</f>
+        <v>17910</v>
+      </c>
+      <c r="M110" s="22">
+        <f t="shared" si="5"/>
+        <v>201.68918969341215</v>
+      </c>
+    </row>
+    <row r="111" spans="1:13">
       <c r="A111">
         <v>98</v>
       </c>
@@ -5484,21 +6740,33 @@
       </c>
       <c r="D111" s="18"/>
       <c r="E111" s="18" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="F111" s="18">
         <v>250</v>
       </c>
       <c r="G111" s="22">
         <f>SUM($F$16:F111)</f>
-        <v>19620</v>
+        <v>21200</v>
       </c>
       <c r="I111" s="22">
-        <f t="shared" si="1"/>
-        <v>220.94594649831083</v>
-      </c>
-    </row>
-    <row r="112" spans="1:9">
+        <f t="shared" si="3"/>
+        <v>238.73873933558559</v>
+      </c>
+      <c r="K111" s="22">
+        <f t="shared" si="4"/>
+        <v>250</v>
+      </c>
+      <c r="L111" s="22">
+        <f>SUM($K$16:K111)</f>
+        <v>18160</v>
+      </c>
+      <c r="M111" s="22">
+        <f t="shared" si="5"/>
+        <v>204.50450501576577</v>
+      </c>
+    </row>
+    <row r="112" spans="1:13">
       <c r="A112">
         <v>99</v>
       </c>
@@ -5511,21 +6779,33 @@
       </c>
       <c r="D112" s="18"/>
       <c r="E112" s="18" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="F112" s="18">
         <v>100</v>
       </c>
       <c r="G112" s="22">
         <f>SUM($F$16:F112)</f>
-        <v>19720</v>
+        <v>21300</v>
       </c>
       <c r="I112" s="22">
-        <f t="shared" si="1"/>
-        <v>222.07207262725225</v>
-      </c>
-    </row>
-    <row r="113" spans="1:9">
+        <f t="shared" si="3"/>
+        <v>239.86486546452704</v>
+      </c>
+      <c r="K112" s="22">
+        <f t="shared" si="4"/>
+        <v>100</v>
+      </c>
+      <c r="L112" s="22">
+        <f>SUM($K$16:K112)</f>
+        <v>18260</v>
+      </c>
+      <c r="M112" s="22">
+        <f t="shared" si="5"/>
+        <v>205.63063114470722</v>
+      </c>
+    </row>
+    <row r="113" spans="1:13">
       <c r="A113">
         <v>100</v>
       </c>
@@ -5545,14 +6825,26 @@
       </c>
       <c r="G113" s="22">
         <f>SUM($F$16:F113)</f>
-        <v>19810</v>
+        <v>21390</v>
       </c>
       <c r="I113" s="22">
-        <f t="shared" si="1"/>
-        <v>223.08558614329954</v>
-      </c>
-    </row>
-    <row r="114" spans="1:9">
+        <f t="shared" si="3"/>
+        <v>240.87837898057435</v>
+      </c>
+      <c r="K113" s="22">
+        <f t="shared" si="4"/>
+        <v>90</v>
+      </c>
+      <c r="L113" s="22">
+        <f>SUM($K$16:K113)</f>
+        <v>18350</v>
+      </c>
+      <c r="M113" s="22">
+        <f t="shared" si="5"/>
+        <v>206.64414466075451</v>
+      </c>
+    </row>
+    <row r="114" spans="1:13">
       <c r="A114">
         <v>101</v>
       </c>
@@ -5572,14 +6864,26 @@
       </c>
       <c r="G114" s="22">
         <f>SUM($F$16:F114)</f>
-        <v>19930</v>
+        <v>21510</v>
       </c>
       <c r="I114" s="22">
-        <f t="shared" si="1"/>
-        <v>224.43693749802927</v>
-      </c>
-    </row>
-    <row r="115" spans="1:9">
+        <f t="shared" si="3"/>
+        <v>242.22973033530408</v>
+      </c>
+      <c r="K114" s="22">
+        <f t="shared" si="4"/>
+        <v>120</v>
+      </c>
+      <c r="L114" s="22">
+        <f>SUM($K$16:K114)</f>
+        <v>18470</v>
+      </c>
+      <c r="M114" s="22">
+        <f t="shared" si="5"/>
+        <v>207.99549601548424</v>
+      </c>
+    </row>
+    <row r="115" spans="1:13">
       <c r="A115">
         <v>102</v>
       </c>
@@ -5592,21 +6896,33 @@
       </c>
       <c r="D115" s="18"/>
       <c r="E115" s="18" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="F115" s="18">
         <v>250</v>
       </c>
       <c r="G115" s="22">
         <f>SUM($F$16:F115)</f>
-        <v>20180</v>
+        <v>21760</v>
       </c>
       <c r="I115" s="22">
-        <f t="shared" si="1"/>
-        <v>227.25225282038289</v>
-      </c>
-    </row>
-    <row r="116" spans="1:9">
+        <f t="shared" si="3"/>
+        <v>245.04504565765765</v>
+      </c>
+      <c r="K115" s="22">
+        <f t="shared" si="4"/>
+        <v>250</v>
+      </c>
+      <c r="L115" s="22">
+        <f>SUM($K$16:K115)</f>
+        <v>18720</v>
+      </c>
+      <c r="M115" s="22">
+        <f t="shared" si="5"/>
+        <v>210.81081133783783</v>
+      </c>
+    </row>
+    <row r="116" spans="1:13">
       <c r="A116">
         <v>103</v>
       </c>
@@ -5619,21 +6935,33 @@
       </c>
       <c r="D116" s="18"/>
       <c r="E116" s="18" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="F116" s="18">
         <v>100</v>
       </c>
       <c r="G116" s="22">
         <f>SUM($F$16:F116)</f>
-        <v>20280</v>
+        <v>21860</v>
       </c>
       <c r="I116" s="22">
-        <f t="shared" si="1"/>
-        <v>228.37837894932431</v>
-      </c>
-    </row>
-    <row r="117" spans="1:9">
+        <f t="shared" si="3"/>
+        <v>246.17117178659907</v>
+      </c>
+      <c r="K116" s="22">
+        <f t="shared" si="4"/>
+        <v>100</v>
+      </c>
+      <c r="L116" s="22">
+        <f>SUM($K$16:K116)</f>
+        <v>18820</v>
+      </c>
+      <c r="M116" s="22">
+        <f t="shared" si="5"/>
+        <v>211.93693746677928</v>
+      </c>
+    </row>
+    <row r="117" spans="1:13">
       <c r="A117">
         <v>104</v>
       </c>
@@ -5653,14 +6981,26 @@
       </c>
       <c r="G117" s="22">
         <f>SUM($F$16:F117)</f>
-        <v>20370</v>
+        <v>21950</v>
       </c>
       <c r="I117" s="22">
-        <f t="shared" si="1"/>
-        <v>229.39189246537163</v>
-      </c>
-    </row>
-    <row r="118" spans="1:9">
+        <f t="shared" si="3"/>
+        <v>247.18468530264639</v>
+      </c>
+      <c r="K117" s="22">
+        <f t="shared" si="4"/>
+        <v>90</v>
+      </c>
+      <c r="L117" s="22">
+        <f>SUM($K$16:K117)</f>
+        <v>18910</v>
+      </c>
+      <c r="M117" s="22">
+        <f t="shared" si="5"/>
+        <v>212.9504509828266</v>
+      </c>
+    </row>
+    <row r="118" spans="1:13">
       <c r="A118">
         <v>105</v>
       </c>
@@ -5680,14 +7020,26 @@
       </c>
       <c r="G118" s="22">
         <f>SUM($F$16:F118)</f>
-        <v>20490</v>
+        <v>22070</v>
       </c>
       <c r="I118" s="22">
-        <f t="shared" si="1"/>
-        <v>230.74324382010136</v>
-      </c>
-    </row>
-    <row r="119" spans="1:9">
+        <f t="shared" si="3"/>
+        <v>248.53603665737612</v>
+      </c>
+      <c r="K118" s="22">
+        <f t="shared" si="4"/>
+        <v>120</v>
+      </c>
+      <c r="L118" s="22">
+        <f>SUM($K$16:K118)</f>
+        <v>19030</v>
+      </c>
+      <c r="M118" s="22">
+        <f t="shared" si="5"/>
+        <v>214.30180233755632</v>
+      </c>
+    </row>
+    <row r="119" spans="1:13">
       <c r="A119">
         <v>106</v>
       </c>
@@ -5700,21 +7052,33 @@
       </c>
       <c r="D119" s="18"/>
       <c r="E119" s="18" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="F119" s="18">
         <v>250</v>
       </c>
       <c r="G119" s="22">
         <f>SUM($F$16:F119)</f>
-        <v>20740</v>
+        <v>22320</v>
       </c>
       <c r="I119" s="22">
-        <f t="shared" si="1"/>
-        <v>233.55855914245498</v>
-      </c>
-    </row>
-    <row r="120" spans="1:9">
+        <f t="shared" si="3"/>
+        <v>251.35135197972974</v>
+      </c>
+      <c r="K119" s="22">
+        <f t="shared" si="4"/>
+        <v>250</v>
+      </c>
+      <c r="L119" s="22">
+        <f>SUM($K$16:K119)</f>
+        <v>19280</v>
+      </c>
+      <c r="M119" s="22">
+        <f t="shared" si="5"/>
+        <v>217.11711765990989</v>
+      </c>
+    </row>
+    <row r="120" spans="1:13">
       <c r="A120">
         <v>107</v>
       </c>
@@ -5727,21 +7091,33 @@
       </c>
       <c r="D120" s="18"/>
       <c r="E120" s="18" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="F120" s="18">
         <v>100</v>
       </c>
       <c r="G120" s="22">
         <f>SUM($F$16:F120)</f>
-        <v>20840</v>
+        <v>22420</v>
       </c>
       <c r="I120" s="22">
-        <f t="shared" si="1"/>
-        <v>234.6846852713964</v>
-      </c>
-    </row>
-    <row r="121" spans="1:9">
+        <f t="shared" si="3"/>
+        <v>252.47747810867116</v>
+      </c>
+      <c r="K120" s="22">
+        <f t="shared" si="4"/>
+        <v>100</v>
+      </c>
+      <c r="L120" s="22">
+        <f>SUM($K$16:K120)</f>
+        <v>19380</v>
+      </c>
+      <c r="M120" s="22">
+        <f t="shared" si="5"/>
+        <v>218.24324378885137</v>
+      </c>
+    </row>
+    <row r="121" spans="1:13">
       <c r="A121">
         <v>108</v>
       </c>
@@ -5761,14 +7137,26 @@
       </c>
       <c r="G121" s="22">
         <f>SUM($F$16:F121)</f>
-        <v>20930</v>
+        <v>22510</v>
       </c>
       <c r="I121" s="22">
-        <f t="shared" si="1"/>
-        <v>235.69819878744369</v>
-      </c>
-    </row>
-    <row r="122" spans="1:9">
+        <f t="shared" si="3"/>
+        <v>253.49099162471848</v>
+      </c>
+      <c r="K121" s="22">
+        <f t="shared" si="4"/>
+        <v>90</v>
+      </c>
+      <c r="L121" s="22">
+        <f>SUM($K$16:K121)</f>
+        <v>19470</v>
+      </c>
+      <c r="M121" s="22">
+        <f t="shared" si="5"/>
+        <v>219.25675730489866</v>
+      </c>
+    </row>
+    <row r="122" spans="1:13">
       <c r="A122">
         <v>109</v>
       </c>
@@ -5788,14 +7176,26 @@
       </c>
       <c r="G122" s="22">
         <f>SUM($F$16:F122)</f>
-        <v>21050</v>
+        <v>22630</v>
       </c>
       <c r="I122" s="22">
-        <f t="shared" si="1"/>
-        <v>237.04955014217342</v>
-      </c>
-    </row>
-    <row r="123" spans="1:9">
+        <f t="shared" si="3"/>
+        <v>254.84234297944818</v>
+      </c>
+      <c r="K122" s="22">
+        <f t="shared" si="4"/>
+        <v>120</v>
+      </c>
+      <c r="L122" s="22">
+        <f>SUM($K$16:K122)</f>
+        <v>19590</v>
+      </c>
+      <c r="M122" s="22">
+        <f t="shared" si="5"/>
+        <v>220.60810865962839</v>
+      </c>
+    </row>
+    <row r="123" spans="1:13">
       <c r="A123">
         <v>110</v>
       </c>
@@ -5808,21 +7208,33 @@
       </c>
       <c r="D123" s="18"/>
       <c r="E123" s="18" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="F123" s="18">
         <v>250</v>
       </c>
       <c r="G123" s="22">
         <f>SUM($F$16:F123)</f>
-        <v>21300</v>
+        <v>22880</v>
       </c>
       <c r="I123" s="22">
-        <f t="shared" si="1"/>
-        <v>239.86486546452704</v>
-      </c>
-    </row>
-    <row r="124" spans="1:9">
+        <f t="shared" si="3"/>
+        <v>257.6576583018018</v>
+      </c>
+      <c r="K123" s="22">
+        <f t="shared" si="4"/>
+        <v>250</v>
+      </c>
+      <c r="L123" s="22">
+        <f>SUM($K$16:K123)</f>
+        <v>19840</v>
+      </c>
+      <c r="M123" s="22">
+        <f t="shared" si="5"/>
+        <v>223.42342398198198</v>
+      </c>
+    </row>
+    <row r="124" spans="1:13">
       <c r="A124">
         <v>111</v>
       </c>
@@ -5835,21 +7247,33 @@
       </c>
       <c r="D124" s="18"/>
       <c r="E124" s="18" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="F124" s="18">
         <v>100</v>
       </c>
       <c r="G124" s="22">
         <f>SUM($F$16:F124)</f>
-        <v>21400</v>
+        <v>22980</v>
       </c>
       <c r="I124" s="22">
-        <f t="shared" si="1"/>
-        <v>240.99099159346846</v>
-      </c>
-    </row>
-    <row r="125" spans="1:9">
+        <f t="shared" si="3"/>
+        <v>258.78378443074325</v>
+      </c>
+      <c r="K124" s="22">
+        <f t="shared" si="4"/>
+        <v>100</v>
+      </c>
+      <c r="L124" s="22">
+        <f>SUM($K$16:K124)</f>
+        <v>19940</v>
+      </c>
+      <c r="M124" s="22">
+        <f t="shared" si="5"/>
+        <v>224.54955011092343</v>
+      </c>
+    </row>
+    <row r="125" spans="1:13">
       <c r="A125">
         <v>112</v>
       </c>
@@ -5869,14 +7293,26 @@
       </c>
       <c r="G125" s="22">
         <f>SUM($F$16:F125)</f>
-        <v>21490</v>
+        <v>23070</v>
       </c>
       <c r="I125" s="22">
-        <f t="shared" si="1"/>
-        <v>242.00450510951578</v>
-      </c>
-    </row>
-    <row r="126" spans="1:9">
+        <f t="shared" si="3"/>
+        <v>259.79729794679054</v>
+      </c>
+      <c r="K125" s="22">
+        <f t="shared" si="4"/>
+        <v>90</v>
+      </c>
+      <c r="L125" s="22">
+        <f>SUM($K$16:K125)</f>
+        <v>20030</v>
+      </c>
+      <c r="M125" s="22">
+        <f t="shared" si="5"/>
+        <v>225.56306362697075</v>
+      </c>
+    </row>
+    <row r="126" spans="1:13">
       <c r="A126">
         <v>113</v>
       </c>
@@ -5896,14 +7332,26 @@
       </c>
       <c r="G126" s="22">
         <f>SUM($F$16:F126)</f>
-        <v>21610</v>
+        <v>23190</v>
       </c>
       <c r="I126" s="22">
-        <f t="shared" si="1"/>
-        <v>243.35585646424551</v>
-      </c>
-    </row>
-    <row r="127" spans="1:9">
+        <f t="shared" si="3"/>
+        <v>261.14864930152027</v>
+      </c>
+      <c r="K126" s="22">
+        <f t="shared" si="4"/>
+        <v>120</v>
+      </c>
+      <c r="L126" s="22">
+        <f>SUM($K$16:K126)</f>
+        <v>20150</v>
+      </c>
+      <c r="M126" s="22">
+        <f t="shared" si="5"/>
+        <v>226.91441498170047</v>
+      </c>
+    </row>
+    <row r="127" spans="1:13">
       <c r="A127">
         <v>114</v>
       </c>
@@ -5916,21 +7364,33 @@
       </c>
       <c r="D127" s="18"/>
       <c r="E127" s="18" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="F127" s="18">
         <v>250</v>
       </c>
       <c r="G127" s="22">
         <f>SUM($F$16:F127)</f>
-        <v>21860</v>
+        <v>23440</v>
       </c>
       <c r="I127" s="22">
-        <f t="shared" si="1"/>
-        <v>246.17117178659907</v>
-      </c>
-    </row>
-    <row r="128" spans="1:9">
+        <f t="shared" si="3"/>
+        <v>263.96396462387389</v>
+      </c>
+      <c r="K127" s="22">
+        <f t="shared" si="4"/>
+        <v>250</v>
+      </c>
+      <c r="L127" s="22">
+        <f>SUM($K$16:K127)</f>
+        <v>20400</v>
+      </c>
+      <c r="M127" s="22">
+        <f t="shared" si="5"/>
+        <v>229.72973030405404</v>
+      </c>
+    </row>
+    <row r="128" spans="1:13">
       <c r="A128">
         <v>115</v>
       </c>
@@ -5943,21 +7403,33 @@
       </c>
       <c r="D128" s="18"/>
       <c r="E128" s="18" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="F128" s="18">
         <v>100</v>
       </c>
       <c r="G128" s="22">
         <f>SUM($F$16:F128)</f>
-        <v>21960</v>
+        <v>23540</v>
       </c>
       <c r="I128" s="22">
-        <f t="shared" si="1"/>
-        <v>247.29729791554055</v>
-      </c>
-    </row>
-    <row r="129" spans="1:9">
+        <f t="shared" si="3"/>
+        <v>265.09009075281534</v>
+      </c>
+      <c r="K128" s="22">
+        <f t="shared" si="4"/>
+        <v>100</v>
+      </c>
+      <c r="L128" s="22">
+        <f>SUM($K$16:K128)</f>
+        <v>20500</v>
+      </c>
+      <c r="M128" s="22">
+        <f t="shared" si="5"/>
+        <v>230.85585643299552</v>
+      </c>
+    </row>
+    <row r="129" spans="1:13">
       <c r="A129">
         <v>116</v>
       </c>
@@ -5977,14 +7449,26 @@
       </c>
       <c r="G129" s="22">
         <f>SUM($F$16:F129)</f>
-        <v>22050</v>
+        <v>23630</v>
       </c>
       <c r="I129" s="22">
-        <f t="shared" si="1"/>
-        <v>248.31081143158784</v>
-      </c>
-    </row>
-    <row r="130" spans="1:9">
+        <f t="shared" si="3"/>
+        <v>266.10360426886263</v>
+      </c>
+      <c r="K129" s="22">
+        <f t="shared" si="4"/>
+        <v>90</v>
+      </c>
+      <c r="L129" s="22">
+        <f>SUM($K$16:K129)</f>
+        <v>20590</v>
+      </c>
+      <c r="M129" s="22">
+        <f t="shared" si="5"/>
+        <v>231.86936994904281</v>
+      </c>
+    </row>
+    <row r="130" spans="1:13">
       <c r="A130">
         <v>117</v>
       </c>
@@ -6004,14 +7488,26 @@
       </c>
       <c r="G130" s="22">
         <f>SUM($F$16:F130)</f>
-        <v>22170</v>
+        <v>23750</v>
       </c>
       <c r="I130" s="22">
-        <f t="shared" si="1"/>
-        <v>249.66216278631757</v>
-      </c>
-    </row>
-    <row r="131" spans="1:9">
+        <f t="shared" si="3"/>
+        <v>267.45495562359235</v>
+      </c>
+      <c r="K130" s="22">
+        <f t="shared" si="4"/>
+        <v>120</v>
+      </c>
+      <c r="L130" s="22">
+        <f>SUM($K$16:K130)</f>
+        <v>20710</v>
+      </c>
+      <c r="M130" s="22">
+        <f t="shared" si="5"/>
+        <v>233.22072130377254</v>
+      </c>
+    </row>
+    <row r="131" spans="1:13">
       <c r="A131">
         <v>118</v>
       </c>
@@ -6024,21 +7520,33 @@
       </c>
       <c r="D131" s="18"/>
       <c r="E131" s="18" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="F131" s="18">
         <v>250</v>
       </c>
       <c r="G131" s="22">
         <f>SUM($F$16:F131)</f>
-        <v>22420</v>
+        <v>24000</v>
       </c>
       <c r="I131" s="22">
-        <f t="shared" si="1"/>
-        <v>252.47747810867116</v>
-      </c>
-    </row>
-    <row r="132" spans="1:9">
+        <f t="shared" si="3"/>
+        <v>270.27027094594598</v>
+      </c>
+      <c r="K131" s="22">
+        <f t="shared" si="4"/>
+        <v>250</v>
+      </c>
+      <c r="L131" s="22">
+        <f>SUM($K$16:K131)</f>
+        <v>20960</v>
+      </c>
+      <c r="M131" s="22">
+        <f t="shared" si="5"/>
+        <v>236.03603662612613</v>
+      </c>
+    </row>
+    <row r="132" spans="1:13">
       <c r="A132">
         <v>119</v>
       </c>
@@ -6051,21 +7559,33 @@
       </c>
       <c r="D132" s="18"/>
       <c r="E132" s="18" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="F132" s="18">
         <v>100</v>
       </c>
       <c r="G132" s="22">
         <f>SUM($F$16:F132)</f>
-        <v>22520</v>
+        <v>24100</v>
       </c>
       <c r="I132" s="22">
-        <f t="shared" si="1"/>
-        <v>253.60360423761261</v>
-      </c>
-    </row>
-    <row r="133" spans="1:9">
+        <f t="shared" si="3"/>
+        <v>271.39639707488737</v>
+      </c>
+      <c r="K132" s="22">
+        <f t="shared" si="4"/>
+        <v>100</v>
+      </c>
+      <c r="L132" s="22">
+        <f>SUM($K$16:K132)</f>
+        <v>21060</v>
+      </c>
+      <c r="M132" s="22">
+        <f t="shared" si="5"/>
+        <v>237.16216275506756</v>
+      </c>
+    </row>
+    <row r="133" spans="1:13">
       <c r="A133">
         <v>120</v>
       </c>
@@ -6085,14 +7605,26 @@
       </c>
       <c r="G133" s="22">
         <f>SUM($F$16:F133)</f>
-        <v>22610</v>
+        <v>24190</v>
       </c>
       <c r="I133" s="22">
-        <f t="shared" si="1"/>
-        <v>254.61711775365993</v>
-      </c>
-    </row>
-    <row r="134" spans="1:9">
+        <f t="shared" si="3"/>
+        <v>272.40991059093471</v>
+      </c>
+      <c r="K133" s="22">
+        <f t="shared" si="4"/>
+        <v>90</v>
+      </c>
+      <c r="L133" s="22">
+        <f>SUM($K$16:K133)</f>
+        <v>21150</v>
+      </c>
+      <c r="M133" s="22">
+        <f t="shared" si="5"/>
+        <v>238.17567627111487</v>
+      </c>
+    </row>
+    <row r="134" spans="1:13">
       <c r="A134">
         <v>121</v>
       </c>
@@ -6112,14 +7644,26 @@
       </c>
       <c r="G134" s="22">
         <f>SUM($F$16:F134)</f>
-        <v>22730</v>
+        <v>24310</v>
       </c>
       <c r="I134" s="22">
-        <f t="shared" si="1"/>
-        <v>255.96846910838966</v>
-      </c>
-    </row>
-    <row r="135" spans="1:9">
+        <f t="shared" si="3"/>
+        <v>273.76126194566444</v>
+      </c>
+      <c r="K134" s="22">
+        <f t="shared" si="4"/>
+        <v>120</v>
+      </c>
+      <c r="L134" s="22">
+        <f>SUM($K$16:K134)</f>
+        <v>21270</v>
+      </c>
+      <c r="M134" s="22">
+        <f t="shared" si="5"/>
+        <v>239.52702762584457</v>
+      </c>
+    </row>
+    <row r="135" spans="1:13">
       <c r="A135">
         <v>122</v>
       </c>
@@ -6132,21 +7676,33 @@
       </c>
       <c r="D135" s="18"/>
       <c r="E135" s="18" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="F135" s="18">
         <v>250</v>
       </c>
       <c r="G135" s="22">
         <f>SUM($F$16:F135)</f>
-        <v>22980</v>
+        <v>24560</v>
       </c>
       <c r="I135" s="22">
-        <f t="shared" si="1"/>
-        <v>258.78378443074325</v>
-      </c>
-    </row>
-    <row r="136" spans="1:9">
+        <f t="shared" si="3"/>
+        <v>276.57657726801801</v>
+      </c>
+      <c r="K135" s="22">
+        <f t="shared" si="4"/>
+        <v>250</v>
+      </c>
+      <c r="L135" s="22">
+        <f>SUM($K$16:K135)</f>
+        <v>21520</v>
+      </c>
+      <c r="M135" s="22">
+        <f t="shared" si="5"/>
+        <v>242.34234294819819</v>
+      </c>
+    </row>
+    <row r="136" spans="1:13">
       <c r="A136">
         <v>123</v>
       </c>
@@ -6159,21 +7715,33 @@
       </c>
       <c r="D136" s="18"/>
       <c r="E136" s="18" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="F136" s="18">
         <v>100</v>
       </c>
       <c r="G136" s="22">
         <f>SUM($F$16:F136)</f>
-        <v>23080</v>
+        <v>24660</v>
       </c>
       <c r="I136" s="22">
-        <f t="shared" si="1"/>
-        <v>259.9099105596847</v>
-      </c>
-    </row>
-    <row r="137" spans="1:9">
+        <f t="shared" si="3"/>
+        <v>277.70270339695946</v>
+      </c>
+      <c r="K136" s="22">
+        <f t="shared" si="4"/>
+        <v>100</v>
+      </c>
+      <c r="L136" s="22">
+        <f>SUM($K$16:K136)</f>
+        <v>21620</v>
+      </c>
+      <c r="M136" s="22">
+        <f t="shared" si="5"/>
+        <v>243.46846907713964</v>
+      </c>
+    </row>
+    <row r="137" spans="1:13">
       <c r="A137">
         <v>124</v>
       </c>
@@ -6193,14 +7761,26 @@
       </c>
       <c r="G137" s="22">
         <f>SUM($F$16:F137)</f>
-        <v>23170</v>
+        <v>24750</v>
       </c>
       <c r="I137" s="22">
-        <f t="shared" si="1"/>
-        <v>260.92342407573199</v>
-      </c>
-    </row>
-    <row r="138" spans="1:9">
+        <f t="shared" si="3"/>
+        <v>278.71621691300675</v>
+      </c>
+      <c r="K137" s="22">
+        <f t="shared" si="4"/>
+        <v>90</v>
+      </c>
+      <c r="L137" s="22">
+        <f>SUM($K$16:K137)</f>
+        <v>21710</v>
+      </c>
+      <c r="M137" s="22">
+        <f t="shared" si="5"/>
+        <v>244.48198259318693</v>
+      </c>
+    </row>
+    <row r="138" spans="1:13">
       <c r="A138">
         <v>125</v>
       </c>
@@ -6220,14 +7800,26 @@
       </c>
       <c r="G138" s="22">
         <f>SUM($F$16:F138)</f>
-        <v>23290</v>
+        <v>24870</v>
       </c>
       <c r="I138" s="22">
-        <f t="shared" si="1"/>
-        <v>262.27477543046172</v>
-      </c>
-    </row>
-    <row r="139" spans="1:9">
+        <f t="shared" si="3"/>
+        <v>280.06756826773648</v>
+      </c>
+      <c r="K138" s="22">
+        <f t="shared" si="4"/>
+        <v>120</v>
+      </c>
+      <c r="L138" s="22">
+        <f>SUM($K$16:K138)</f>
+        <v>21830</v>
+      </c>
+      <c r="M138" s="22">
+        <f t="shared" si="5"/>
+        <v>245.83333394791666</v>
+      </c>
+    </row>
+    <row r="139" spans="1:13">
       <c r="A139" s="22">
         <v>126</v>
       </c>
@@ -6240,21 +7832,33 @@
       </c>
       <c r="D139" s="18"/>
       <c r="E139" s="18" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="F139" s="18">
         <v>250</v>
       </c>
       <c r="G139" s="22">
         <f>SUM($F$16:F139)</f>
-        <v>23540</v>
+        <v>25120</v>
       </c>
       <c r="I139" s="22">
         <f>G139/$Z$2/6.66</f>
-        <v>265.09009075281534</v>
-      </c>
-    </row>
-    <row r="140" spans="1:9">
+        <v>282.8828835900901</v>
+      </c>
+      <c r="K139" s="22">
+        <f t="shared" si="4"/>
+        <v>250</v>
+      </c>
+      <c r="L139" s="22">
+        <f>SUM($K$16:K139)</f>
+        <v>22080</v>
+      </c>
+      <c r="M139" s="22">
+        <f t="shared" si="5"/>
+        <v>248.64864927027028</v>
+      </c>
+    </row>
+    <row r="140" spans="1:13">
       <c r="A140" s="22">
         <v>127</v>
       </c>
@@ -6267,21 +7871,33 @@
       </c>
       <c r="D140" s="18"/>
       <c r="E140" s="18" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="F140" s="18">
         <v>100</v>
       </c>
       <c r="G140" s="22">
         <f>SUM($F$16:F140)</f>
-        <v>23640</v>
+        <v>25220</v>
       </c>
       <c r="I140" s="22">
-        <f t="shared" ref="I140:I154" si="2">G140/$Z$2/6.66</f>
-        <v>266.21621688175674</v>
-      </c>
-    </row>
-    <row r="141" spans="1:9">
+        <f t="shared" ref="I140:I154" si="6">G140/$Z$2/6.66</f>
+        <v>284.00900971903155</v>
+      </c>
+      <c r="K140" s="22">
+        <f t="shared" si="4"/>
+        <v>100</v>
+      </c>
+      <c r="L140" s="22">
+        <f>SUM($K$16:K140)</f>
+        <v>22180</v>
+      </c>
+      <c r="M140" s="22">
+        <f t="shared" si="5"/>
+        <v>249.77477539921171</v>
+      </c>
+    </row>
+    <row r="141" spans="1:13">
       <c r="A141" s="22">
         <v>128</v>
       </c>
@@ -6301,14 +7917,26 @@
       </c>
       <c r="G141" s="22">
         <f>SUM($F$16:F141)</f>
-        <v>23730</v>
+        <v>25310</v>
       </c>
       <c r="I141" s="22">
-        <f t="shared" si="2"/>
-        <v>267.22973039780402</v>
-      </c>
-    </row>
-    <row r="142" spans="1:9">
+        <f t="shared" si="6"/>
+        <v>285.02252323507884</v>
+      </c>
+      <c r="K141" s="22">
+        <f t="shared" si="4"/>
+        <v>90</v>
+      </c>
+      <c r="L141" s="22">
+        <f>SUM($K$16:K141)</f>
+        <v>22270</v>
+      </c>
+      <c r="M141" s="22">
+        <f t="shared" si="5"/>
+        <v>250.78828891525902</v>
+      </c>
+    </row>
+    <row r="142" spans="1:13">
       <c r="A142" s="22">
         <v>129</v>
       </c>
@@ -6328,14 +7956,26 @@
       </c>
       <c r="G142" s="22">
         <f>SUM($F$16:F142)</f>
-        <v>23850</v>
+        <v>25430</v>
       </c>
       <c r="I142" s="22">
-        <f t="shared" si="2"/>
-        <v>268.58108175253381</v>
-      </c>
-    </row>
-    <row r="143" spans="1:9">
+        <f t="shared" si="6"/>
+        <v>286.37387458980857</v>
+      </c>
+      <c r="K142" s="22">
+        <f t="shared" si="4"/>
+        <v>120</v>
+      </c>
+      <c r="L142" s="22">
+        <f>SUM($K$16:K142)</f>
+        <v>22390</v>
+      </c>
+      <c r="M142" s="22">
+        <f t="shared" si="5"/>
+        <v>252.13964026998875</v>
+      </c>
+    </row>
+    <row r="143" spans="1:13">
       <c r="A143" s="22">
         <v>130</v>
       </c>
@@ -6348,21 +7988,33 @@
       </c>
       <c r="D143" s="18"/>
       <c r="E143" s="18" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="F143" s="18">
         <v>250</v>
       </c>
       <c r="G143" s="22">
         <f>SUM($F$16:F143)</f>
-        <v>24100</v>
+        <v>25680</v>
       </c>
       <c r="I143" s="22">
-        <f t="shared" si="2"/>
-        <v>271.39639707488737</v>
-      </c>
-    </row>
-    <row r="144" spans="1:9">
+        <f t="shared" si="6"/>
+        <v>289.18918991216213</v>
+      </c>
+      <c r="K143" s="22">
+        <f t="shared" si="4"/>
+        <v>250</v>
+      </c>
+      <c r="L143" s="22">
+        <f>SUM($K$16:K143)</f>
+        <v>22640</v>
+      </c>
+      <c r="M143" s="22">
+        <f t="shared" si="5"/>
+        <v>254.95495559234234</v>
+      </c>
+    </row>
+    <row r="144" spans="1:13">
       <c r="A144" s="22">
         <v>131</v>
       </c>
@@ -6375,21 +8027,33 @@
       </c>
       <c r="D144" s="18"/>
       <c r="E144" s="18" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="F144" s="18">
         <v>100</v>
       </c>
       <c r="G144" s="22">
         <f>SUM($F$16:F144)</f>
-        <v>24200</v>
+        <v>25780</v>
       </c>
       <c r="I144" s="22">
-        <f t="shared" si="2"/>
-        <v>272.52252320382883</v>
-      </c>
-    </row>
-    <row r="145" spans="1:9">
+        <f t="shared" si="6"/>
+        <v>290.31531604110364</v>
+      </c>
+      <c r="K144" s="22">
+        <f t="shared" si="4"/>
+        <v>100</v>
+      </c>
+      <c r="L144" s="22">
+        <f>SUM($K$16:K144)</f>
+        <v>22740</v>
+      </c>
+      <c r="M144" s="22">
+        <f t="shared" si="5"/>
+        <v>256.08108172128379</v>
+      </c>
+    </row>
+    <row r="145" spans="1:13">
       <c r="A145" s="22">
         <v>132</v>
       </c>
@@ -6409,14 +8073,26 @@
       </c>
       <c r="G145" s="22">
         <f>SUM($F$16:F145)</f>
-        <v>24290</v>
+        <v>25870</v>
       </c>
       <c r="I145" s="22">
-        <f t="shared" si="2"/>
-        <v>273.53603671987611</v>
-      </c>
-    </row>
-    <row r="146" spans="1:9">
+        <f t="shared" si="6"/>
+        <v>291.32882955715093</v>
+      </c>
+      <c r="K145" s="22">
+        <f t="shared" ref="K145:K153" si="7">IF(J145&lt;&gt;1,F145,0)</f>
+        <v>90</v>
+      </c>
+      <c r="L145" s="22">
+        <f>SUM($K$16:K145)</f>
+        <v>22830</v>
+      </c>
+      <c r="M145" s="22">
+        <f t="shared" ref="M145:M183" si="8">L145/$Z$2/6.66</f>
+        <v>257.09459523733108</v>
+      </c>
+    </row>
+    <row r="146" spans="1:13">
       <c r="A146" s="22">
         <v>133</v>
       </c>
@@ -6436,14 +8112,26 @@
       </c>
       <c r="G146" s="22">
         <f>SUM($F$16:F146)</f>
-        <v>24410</v>
+        <v>25990</v>
       </c>
       <c r="I146" s="22">
-        <f t="shared" si="2"/>
-        <v>274.88738807460584</v>
-      </c>
-    </row>
-    <row r="147" spans="1:9">
+        <f t="shared" si="6"/>
+        <v>292.68018091188065</v>
+      </c>
+      <c r="K146" s="22">
+        <f t="shared" si="7"/>
+        <v>120</v>
+      </c>
+      <c r="L146" s="22">
+        <f>SUM($K$16:K146)</f>
+        <v>22950</v>
+      </c>
+      <c r="M146" s="22">
+        <f t="shared" si="8"/>
+        <v>258.44594659206081</v>
+      </c>
+    </row>
+    <row r="147" spans="1:13">
       <c r="A147" s="22">
         <v>134</v>
       </c>
@@ -6456,21 +8144,33 @@
       </c>
       <c r="D147" s="18"/>
       <c r="E147" s="18" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="F147" s="18">
         <v>250</v>
       </c>
       <c r="G147" s="22">
         <f>SUM($F$16:F147)</f>
-        <v>24660</v>
+        <v>26240</v>
       </c>
       <c r="I147" s="22">
-        <f t="shared" si="2"/>
-        <v>277.70270339695946</v>
-      </c>
-    </row>
-    <row r="148" spans="1:9">
+        <f t="shared" si="6"/>
+        <v>295.49549623423422</v>
+      </c>
+      <c r="K147" s="22">
+        <f t="shared" si="7"/>
+        <v>250</v>
+      </c>
+      <c r="L147" s="22">
+        <f>SUM($K$16:K147)</f>
+        <v>23200</v>
+      </c>
+      <c r="M147" s="22">
+        <f t="shared" si="8"/>
+        <v>261.26126191441443</v>
+      </c>
+    </row>
+    <row r="148" spans="1:13">
       <c r="A148" s="22">
         <v>135</v>
       </c>
@@ -6483,21 +8183,33 @@
       </c>
       <c r="D148" s="18"/>
       <c r="E148" s="18" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="F148" s="18">
         <v>100</v>
       </c>
       <c r="G148" s="22">
         <f>SUM($F$16:F148)</f>
-        <v>24760</v>
+        <v>26340</v>
       </c>
       <c r="I148" s="22">
-        <f t="shared" si="2"/>
-        <v>278.82882952590091</v>
-      </c>
-    </row>
-    <row r="149" spans="1:9">
+        <f t="shared" si="6"/>
+        <v>296.62162236317567</v>
+      </c>
+      <c r="K148" s="22">
+        <f t="shared" si="7"/>
+        <v>100</v>
+      </c>
+      <c r="L148" s="22">
+        <f>SUM($K$16:K148)</f>
+        <v>23300</v>
+      </c>
+      <c r="M148" s="22">
+        <f t="shared" si="8"/>
+        <v>262.38738804335588</v>
+      </c>
+    </row>
+    <row r="149" spans="1:13">
       <c r="A149" s="22">
         <v>136</v>
       </c>
@@ -6517,14 +8229,26 @@
       </c>
       <c r="G149" s="22">
         <f>SUM($F$16:F149)</f>
-        <v>24850</v>
+        <v>26430</v>
       </c>
       <c r="I149" s="22">
-        <f t="shared" si="2"/>
-        <v>279.8423430419482</v>
-      </c>
-    </row>
-    <row r="150" spans="1:9">
+        <f t="shared" si="6"/>
+        <v>297.63513587922301</v>
+      </c>
+      <c r="K149" s="22">
+        <f t="shared" si="7"/>
+        <v>90</v>
+      </c>
+      <c r="L149" s="22">
+        <f>SUM($K$16:K149)</f>
+        <v>23390</v>
+      </c>
+      <c r="M149" s="22">
+        <f t="shared" si="8"/>
+        <v>263.40090155940317</v>
+      </c>
+    </row>
+    <row r="150" spans="1:13">
       <c r="A150" s="22">
         <v>137</v>
       </c>
@@ -6544,14 +8268,26 @@
       </c>
       <c r="G150" s="22">
         <f>SUM($F$16:F150)</f>
-        <v>24970</v>
+        <v>26550</v>
       </c>
       <c r="I150" s="22">
-        <f t="shared" si="2"/>
-        <v>281.19369439667793</v>
-      </c>
-    </row>
-    <row r="151" spans="1:9">
+        <f t="shared" si="6"/>
+        <v>298.98648723395274</v>
+      </c>
+      <c r="K150" s="22">
+        <f t="shared" si="7"/>
+        <v>120</v>
+      </c>
+      <c r="L150" s="22">
+        <f>SUM($K$16:K150)</f>
+        <v>23510</v>
+      </c>
+      <c r="M150" s="22">
+        <f t="shared" si="8"/>
+        <v>264.7522529141329</v>
+      </c>
+    </row>
+    <row r="151" spans="1:13">
       <c r="A151" s="22">
         <v>138</v>
       </c>
@@ -6564,21 +8300,33 @@
       </c>
       <c r="D151" s="18"/>
       <c r="E151" s="18" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="F151" s="18">
         <v>250</v>
       </c>
       <c r="G151" s="22">
         <f>SUM($F$16:F151)</f>
-        <v>25220</v>
+        <v>26800</v>
       </c>
       <c r="I151" s="22">
-        <f t="shared" si="2"/>
-        <v>284.00900971903155</v>
-      </c>
-    </row>
-    <row r="152" spans="1:9">
+        <f t="shared" si="6"/>
+        <v>301.80180255630631</v>
+      </c>
+      <c r="K151" s="22">
+        <f t="shared" si="7"/>
+        <v>250</v>
+      </c>
+      <c r="L151" s="22">
+        <f>SUM($K$16:K151)</f>
+        <v>23760</v>
+      </c>
+      <c r="M151" s="22">
+        <f t="shared" si="8"/>
+        <v>267.56756823648647</v>
+      </c>
+    </row>
+    <row r="152" spans="1:13">
       <c r="A152" s="22">
         <v>139</v>
       </c>
@@ -6591,21 +8339,33 @@
       </c>
       <c r="D152" s="18"/>
       <c r="E152" s="18" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="F152" s="18">
         <v>100</v>
       </c>
       <c r="G152" s="22">
         <f>SUM($F$16:F152)</f>
-        <v>25320</v>
+        <v>26900</v>
       </c>
       <c r="I152" s="22">
-        <f t="shared" si="2"/>
-        <v>285.13513584797295</v>
-      </c>
-    </row>
-    <row r="153" spans="1:9">
+        <f t="shared" si="6"/>
+        <v>302.92792868524776</v>
+      </c>
+      <c r="K152" s="22">
+        <f t="shared" si="7"/>
+        <v>100</v>
+      </c>
+      <c r="L152" s="22">
+        <f>SUM($K$16:K152)</f>
+        <v>23860</v>
+      </c>
+      <c r="M152" s="22">
+        <f t="shared" si="8"/>
+        <v>268.69369436542792</v>
+      </c>
+    </row>
+    <row r="153" spans="1:13">
       <c r="A153" s="22">
         <v>140</v>
       </c>
@@ -6618,42 +8378,1261 @@
       </c>
       <c r="D153" s="18"/>
       <c r="E153" s="18" t="s">
-        <v>125</v>
+        <v>109</v>
       </c>
       <c r="F153" s="18">
         <v>90</v>
       </c>
       <c r="G153" s="22">
         <f>SUM($F$16:F153)</f>
-        <v>25410</v>
+        <v>26990</v>
       </c>
       <c r="I153" s="22">
-        <f t="shared" si="2"/>
-        <v>286.14864936402029</v>
-      </c>
-    </row>
-    <row r="154" spans="1:9">
-      <c r="A154" s="22"/>
-      <c r="F154" s="22"/>
-      <c r="G154" s="22"/>
+        <f t="shared" si="6"/>
+        <v>303.94144220129505</v>
+      </c>
+      <c r="K153" s="22">
+        <f t="shared" si="7"/>
+        <v>90</v>
+      </c>
+      <c r="L153" s="22">
+        <f>SUM($K$16:K153)</f>
+        <v>23950</v>
+      </c>
+      <c r="M153" s="22">
+        <f t="shared" si="8"/>
+        <v>269.70720788147526</v>
+      </c>
+    </row>
+    <row r="154" spans="1:13">
+      <c r="A154" s="22">
+        <v>141</v>
+      </c>
+      <c r="B154" s="18">
+        <v>160</v>
+      </c>
+      <c r="C154" s="22">
+        <f>SUM($B$17:B154)</f>
+        <v>16020</v>
+      </c>
+      <c r="D154" s="18"/>
+      <c r="E154" s="18" t="s">
+        <v>98</v>
+      </c>
+      <c r="F154" s="18">
+        <v>120</v>
+      </c>
+      <c r="G154" s="22">
+        <f>SUM($F$16:F154)</f>
+        <v>27110</v>
+      </c>
       <c r="H154" s="22"/>
-      <c r="I154" s="22"/>
-    </row>
-    <row r="155" spans="1:9">
-      <c r="A155" s="22"/>
-      <c r="F155" s="22"/>
-      <c r="G155" s="22"/>
+      <c r="I154" s="22">
+        <f t="shared" ref="I154:I176" si="9">G154/$Z$2/6.66</f>
+        <v>305.29279355602478</v>
+      </c>
+      <c r="J154" s="22"/>
+      <c r="K154" s="22">
+        <f t="shared" ref="K154:K176" si="10">IF(J154&lt;&gt;1,F154,0)</f>
+        <v>120</v>
+      </c>
+      <c r="L154" s="22">
+        <f>SUM($K$16:K154)</f>
+        <v>24070</v>
+      </c>
+      <c r="M154" s="22">
+        <f t="shared" si="8"/>
+        <v>271.05855923620499</v>
+      </c>
+    </row>
+    <row r="155" spans="1:13">
+      <c r="A155" s="22">
+        <v>142</v>
+      </c>
+      <c r="B155" s="18">
+        <v>160</v>
+      </c>
+      <c r="C155" s="22">
+        <f>SUM($B$17:B155)</f>
+        <v>16180</v>
+      </c>
+      <c r="D155" s="18"/>
+      <c r="E155" s="18" t="s">
+        <v>126</v>
+      </c>
+      <c r="F155" s="18">
+        <v>250</v>
+      </c>
+      <c r="G155" s="22">
+        <f>SUM($F$16:F155)</f>
+        <v>27360</v>
+      </c>
       <c r="H155" s="22"/>
-      <c r="I155" s="22"/>
-    </row>
-    <row r="156" spans="1:9">
-      <c r="A156" s="22"/>
-    </row>
-    <row r="157" spans="1:9">
-      <c r="A157" s="22"/>
-    </row>
-    <row r="158" spans="1:9">
-      <c r="A158" s="22"/>
+      <c r="I155" s="22">
+        <f t="shared" si="9"/>
+        <v>308.10810887837835</v>
+      </c>
+      <c r="J155" s="22"/>
+      <c r="K155" s="22">
+        <f t="shared" si="10"/>
+        <v>250</v>
+      </c>
+      <c r="L155" s="22">
+        <f>SUM($K$16:K155)</f>
+        <v>24320</v>
+      </c>
+      <c r="M155" s="22">
+        <f t="shared" si="8"/>
+        <v>273.87387455855855</v>
+      </c>
+    </row>
+    <row r="156" spans="1:13">
+      <c r="A156" s="22">
+        <v>143</v>
+      </c>
+      <c r="B156" s="18">
+        <v>160</v>
+      </c>
+      <c r="C156" s="22">
+        <f>SUM($B$17:B156)</f>
+        <v>16340</v>
+      </c>
+      <c r="D156" s="18"/>
+      <c r="E156" s="18" t="s">
+        <v>127</v>
+      </c>
+      <c r="F156" s="18">
+        <v>100</v>
+      </c>
+      <c r="G156" s="22">
+        <f>SUM($F$16:F156)</f>
+        <v>27460</v>
+      </c>
+      <c r="H156" s="22"/>
+      <c r="I156" s="22">
+        <f t="shared" si="9"/>
+        <v>309.2342350073198</v>
+      </c>
+      <c r="J156" s="22"/>
+      <c r="K156" s="22">
+        <f t="shared" si="10"/>
+        <v>100</v>
+      </c>
+      <c r="L156" s="22">
+        <f>SUM($K$16:K156)</f>
+        <v>24420</v>
+      </c>
+      <c r="M156" s="22">
+        <f t="shared" si="8"/>
+        <v>275.00000068750001</v>
+      </c>
+    </row>
+    <row r="157" spans="1:13">
+      <c r="A157" s="22">
+        <v>144</v>
+      </c>
+      <c r="B157" s="18">
+        <v>160</v>
+      </c>
+      <c r="C157" s="22">
+        <f>SUM($B$17:B157)</f>
+        <v>16500</v>
+      </c>
+      <c r="D157" s="18"/>
+      <c r="E157" s="18" t="s">
+        <v>109</v>
+      </c>
+      <c r="F157" s="18">
+        <v>90</v>
+      </c>
+      <c r="G157" s="22">
+        <f>SUM($F$16:F157)</f>
+        <v>27550</v>
+      </c>
+      <c r="H157" s="22"/>
+      <c r="I157" s="22">
+        <f t="shared" si="9"/>
+        <v>310.24774852336714</v>
+      </c>
+      <c r="J157" s="22"/>
+      <c r="K157" s="22">
+        <f t="shared" si="10"/>
+        <v>90</v>
+      </c>
+      <c r="L157" s="22">
+        <f>SUM($K$16:K157)</f>
+        <v>24510</v>
+      </c>
+      <c r="M157" s="22">
+        <f t="shared" si="8"/>
+        <v>276.01351420354729</v>
+      </c>
+    </row>
+    <row r="158" spans="1:13">
+      <c r="A158" s="22">
+        <v>145</v>
+      </c>
+      <c r="B158" s="18">
+        <v>160</v>
+      </c>
+      <c r="C158" s="22">
+        <f>SUM($B$17:B158)</f>
+        <v>16660</v>
+      </c>
+      <c r="D158" s="18"/>
+      <c r="E158" s="18" t="s">
+        <v>98</v>
+      </c>
+      <c r="F158" s="18">
+        <v>120</v>
+      </c>
+      <c r="G158" s="22">
+        <f>SUM($F$16:F158)</f>
+        <v>27670</v>
+      </c>
+      <c r="H158" s="22"/>
+      <c r="I158" s="22">
+        <f t="shared" si="9"/>
+        <v>311.59909987809687</v>
+      </c>
+      <c r="J158" s="22"/>
+      <c r="K158" s="22">
+        <f t="shared" si="10"/>
+        <v>120</v>
+      </c>
+      <c r="L158" s="22">
+        <f>SUM($K$16:K158)</f>
+        <v>24630</v>
+      </c>
+      <c r="M158" s="22">
+        <f t="shared" si="8"/>
+        <v>277.36486555827702</v>
+      </c>
+    </row>
+    <row r="159" spans="1:13">
+      <c r="A159" s="22">
+        <v>146</v>
+      </c>
+      <c r="B159" s="18">
+        <v>160</v>
+      </c>
+      <c r="C159" s="22">
+        <f>SUM($B$17:B159)</f>
+        <v>16820</v>
+      </c>
+      <c r="D159" s="18"/>
+      <c r="E159" s="18" t="s">
+        <v>126</v>
+      </c>
+      <c r="F159" s="18">
+        <v>250</v>
+      </c>
+      <c r="G159" s="22">
+        <f>SUM($F$16:F159)</f>
+        <v>27920</v>
+      </c>
+      <c r="H159" s="22"/>
+      <c r="I159" s="22">
+        <f t="shared" si="9"/>
+        <v>314.41441520045043</v>
+      </c>
+      <c r="J159" s="22"/>
+      <c r="K159" s="22">
+        <f t="shared" si="10"/>
+        <v>250</v>
+      </c>
+      <c r="L159" s="22">
+        <f>SUM($K$16:K159)</f>
+        <v>24880</v>
+      </c>
+      <c r="M159" s="22">
+        <f t="shared" si="8"/>
+        <v>280.18018088063064</v>
+      </c>
+    </row>
+    <row r="160" spans="1:13">
+      <c r="A160" s="22">
+        <v>147</v>
+      </c>
+      <c r="B160" s="18">
+        <v>160</v>
+      </c>
+      <c r="C160" s="22">
+        <f>SUM($B$17:B160)</f>
+        <v>16980</v>
+      </c>
+      <c r="D160" s="18"/>
+      <c r="E160" s="18" t="s">
+        <v>127</v>
+      </c>
+      <c r="F160" s="18">
+        <v>100</v>
+      </c>
+      <c r="G160" s="22">
+        <f>SUM($F$16:F160)</f>
+        <v>28020</v>
+      </c>
+      <c r="H160" s="22"/>
+      <c r="I160" s="22">
+        <f t="shared" si="9"/>
+        <v>315.54054132939194</v>
+      </c>
+      <c r="J160" s="22"/>
+      <c r="K160" s="22">
+        <f t="shared" si="10"/>
+        <v>100</v>
+      </c>
+      <c r="L160" s="22">
+        <f>SUM($K$16:K160)</f>
+        <v>24980</v>
+      </c>
+      <c r="M160" s="22">
+        <f t="shared" si="8"/>
+        <v>281.30630700957209</v>
+      </c>
+    </row>
+    <row r="161" spans="1:13">
+      <c r="A161" s="22">
+        <v>148</v>
+      </c>
+      <c r="B161" s="18">
+        <v>160</v>
+      </c>
+      <c r="C161" s="22">
+        <f>SUM($B$17:B161)</f>
+        <v>17140</v>
+      </c>
+      <c r="D161" s="18"/>
+      <c r="E161" s="18" t="s">
+        <v>109</v>
+      </c>
+      <c r="F161" s="18">
+        <v>90</v>
+      </c>
+      <c r="G161" s="22">
+        <f>SUM($F$16:F161)</f>
+        <v>28110</v>
+      </c>
+      <c r="H161" s="22"/>
+      <c r="I161" s="22">
+        <f t="shared" si="9"/>
+        <v>316.55405484543917</v>
+      </c>
+      <c r="J161" s="22"/>
+      <c r="K161" s="22">
+        <f t="shared" si="10"/>
+        <v>90</v>
+      </c>
+      <c r="L161" s="22">
+        <f>SUM($K$16:K161)</f>
+        <v>25070</v>
+      </c>
+      <c r="M161" s="22">
+        <f t="shared" si="8"/>
+        <v>282.31982052561938</v>
+      </c>
+    </row>
+    <row r="162" spans="1:13">
+      <c r="A162" s="22">
+        <v>149</v>
+      </c>
+      <c r="B162" s="18">
+        <v>160</v>
+      </c>
+      <c r="C162" s="22">
+        <f>SUM($B$17:B162)</f>
+        <v>17300</v>
+      </c>
+      <c r="D162" s="18"/>
+      <c r="E162" s="18" t="s">
+        <v>98</v>
+      </c>
+      <c r="F162" s="18">
+        <v>120</v>
+      </c>
+      <c r="G162" s="22">
+        <f>SUM($F$16:F162)</f>
+        <v>28230</v>
+      </c>
+      <c r="H162" s="22"/>
+      <c r="I162" s="22">
+        <f t="shared" si="9"/>
+        <v>317.9054062001689</v>
+      </c>
+      <c r="J162" s="22"/>
+      <c r="K162" s="22">
+        <f t="shared" si="10"/>
+        <v>120</v>
+      </c>
+      <c r="L162" s="22">
+        <f>SUM($K$16:K162)</f>
+        <v>25190</v>
+      </c>
+      <c r="M162" s="22">
+        <f t="shared" si="8"/>
+        <v>283.67117188034911</v>
+      </c>
+    </row>
+    <row r="163" spans="1:13">
+      <c r="A163" s="22">
+        <v>150</v>
+      </c>
+      <c r="B163" s="18">
+        <v>160</v>
+      </c>
+      <c r="C163" s="22">
+        <f>SUM($B$17:B163)</f>
+        <v>17460</v>
+      </c>
+      <c r="D163" s="18"/>
+      <c r="E163" s="18" t="s">
+        <v>126</v>
+      </c>
+      <c r="F163" s="18">
+        <v>250</v>
+      </c>
+      <c r="G163" s="22">
+        <f>SUM($F$16:F163)</f>
+        <v>28480</v>
+      </c>
+      <c r="H163" s="22"/>
+      <c r="I163" s="22">
+        <f t="shared" si="9"/>
+        <v>320.72072152252252</v>
+      </c>
+      <c r="J163" s="22"/>
+      <c r="K163" s="22">
+        <f t="shared" si="10"/>
+        <v>250</v>
+      </c>
+      <c r="L163" s="22">
+        <f>SUM($K$16:K163)</f>
+        <v>25440</v>
+      </c>
+      <c r="M163" s="22">
+        <f t="shared" si="8"/>
+        <v>286.48648720270268</v>
+      </c>
+    </row>
+    <row r="164" spans="1:13">
+      <c r="A164" s="22">
+        <v>151</v>
+      </c>
+      <c r="B164" s="18">
+        <v>160</v>
+      </c>
+      <c r="C164" s="22">
+        <f>SUM($B$17:B164)</f>
+        <v>17620</v>
+      </c>
+      <c r="D164" s="18"/>
+      <c r="E164" s="18" t="s">
+        <v>127</v>
+      </c>
+      <c r="F164" s="18">
+        <v>100</v>
+      </c>
+      <c r="G164" s="22">
+        <f>SUM($F$16:F164)</f>
+        <v>28580</v>
+      </c>
+      <c r="H164" s="22"/>
+      <c r="I164" s="22">
+        <f t="shared" si="9"/>
+        <v>321.84684765146397</v>
+      </c>
+      <c r="J164" s="22"/>
+      <c r="K164" s="22">
+        <f t="shared" si="10"/>
+        <v>100</v>
+      </c>
+      <c r="L164" s="22">
+        <f>SUM($K$16:K164)</f>
+        <v>25540</v>
+      </c>
+      <c r="M164" s="22">
+        <f t="shared" si="8"/>
+        <v>287.61261333164418</v>
+      </c>
+    </row>
+    <row r="165" spans="1:13">
+      <c r="A165" s="22">
+        <v>152</v>
+      </c>
+      <c r="B165" s="18">
+        <v>160</v>
+      </c>
+      <c r="C165" s="22">
+        <f>SUM($B$17:B165)</f>
+        <v>17780</v>
+      </c>
+      <c r="D165" s="18"/>
+      <c r="E165" s="18" t="s">
+        <v>109</v>
+      </c>
+      <c r="F165" s="18">
+        <v>90</v>
+      </c>
+      <c r="G165" s="22">
+        <f>SUM($F$16:F165)</f>
+        <v>28670</v>
+      </c>
+      <c r="H165" s="22"/>
+      <c r="I165" s="22">
+        <f t="shared" si="9"/>
+        <v>322.86036116751131</v>
+      </c>
+      <c r="J165" s="22"/>
+      <c r="K165" s="22">
+        <f t="shared" si="10"/>
+        <v>90</v>
+      </c>
+      <c r="L165" s="22">
+        <f>SUM($K$16:K165)</f>
+        <v>25630</v>
+      </c>
+      <c r="M165" s="22">
+        <f t="shared" si="8"/>
+        <v>288.62612684769147</v>
+      </c>
+    </row>
+    <row r="166" spans="1:13">
+      <c r="A166" s="22">
+        <v>153</v>
+      </c>
+      <c r="B166" s="18">
+        <v>160</v>
+      </c>
+      <c r="C166" s="22">
+        <f>SUM($B$17:B166)</f>
+        <v>17940</v>
+      </c>
+      <c r="D166" s="18"/>
+      <c r="E166" s="18" t="s">
+        <v>98</v>
+      </c>
+      <c r="F166" s="18">
+        <v>120</v>
+      </c>
+      <c r="G166" s="22">
+        <f>SUM($F$16:F166)</f>
+        <v>28790</v>
+      </c>
+      <c r="H166" s="22"/>
+      <c r="I166" s="22">
+        <f t="shared" si="9"/>
+        <v>324.21171252224104</v>
+      </c>
+      <c r="J166" s="22"/>
+      <c r="K166" s="22">
+        <f t="shared" si="10"/>
+        <v>120</v>
+      </c>
+      <c r="L166" s="22">
+        <f>SUM($K$16:K166)</f>
+        <v>25750</v>
+      </c>
+      <c r="M166" s="22">
+        <f t="shared" si="8"/>
+        <v>289.9774782024212</v>
+      </c>
+    </row>
+    <row r="167" spans="1:13">
+      <c r="A167" s="22">
+        <v>154</v>
+      </c>
+      <c r="B167" s="18">
+        <v>160</v>
+      </c>
+      <c r="C167" s="22">
+        <f>SUM($B$17:B167)</f>
+        <v>18100</v>
+      </c>
+      <c r="D167" s="18"/>
+      <c r="E167" s="18" t="s">
+        <v>126</v>
+      </c>
+      <c r="F167" s="18">
+        <v>250</v>
+      </c>
+      <c r="G167" s="22">
+        <f>SUM($F$16:F167)</f>
+        <v>29040</v>
+      </c>
+      <c r="H167" s="22"/>
+      <c r="I167" s="22">
+        <f t="shared" si="9"/>
+        <v>327.02702784459461</v>
+      </c>
+      <c r="J167" s="22"/>
+      <c r="K167" s="22">
+        <f t="shared" si="10"/>
+        <v>250</v>
+      </c>
+      <c r="L167" s="22">
+        <f>SUM($K$16:K167)</f>
+        <v>26000</v>
+      </c>
+      <c r="M167" s="22">
+        <f t="shared" si="8"/>
+        <v>292.79279352477477</v>
+      </c>
+    </row>
+    <row r="168" spans="1:13">
+      <c r="A168" s="22">
+        <v>155</v>
+      </c>
+      <c r="B168" s="18">
+        <v>160</v>
+      </c>
+      <c r="C168" s="22">
+        <f>SUM($B$17:B168)</f>
+        <v>18260</v>
+      </c>
+      <c r="D168" s="18"/>
+      <c r="E168" s="18" t="s">
+        <v>127</v>
+      </c>
+      <c r="F168" s="18">
+        <v>100</v>
+      </c>
+      <c r="G168" s="22">
+        <f>SUM($F$16:F168)</f>
+        <v>29140</v>
+      </c>
+      <c r="H168" s="22"/>
+      <c r="I168" s="22">
+        <f t="shared" si="9"/>
+        <v>328.15315397353601</v>
+      </c>
+      <c r="J168" s="22"/>
+      <c r="K168" s="22">
+        <f t="shared" si="10"/>
+        <v>100</v>
+      </c>
+      <c r="L168" s="22">
+        <f>SUM($K$16:K168)</f>
+        <v>26100</v>
+      </c>
+      <c r="M168" s="22">
+        <f t="shared" si="8"/>
+        <v>293.91891965371622</v>
+      </c>
+    </row>
+    <row r="169" spans="1:13">
+      <c r="A169" s="22">
+        <v>156</v>
+      </c>
+      <c r="B169" s="18">
+        <v>160</v>
+      </c>
+      <c r="C169" s="22">
+        <f>SUM($B$17:B169)</f>
+        <v>18420</v>
+      </c>
+      <c r="D169" s="18"/>
+      <c r="E169" s="18" t="s">
+        <v>109</v>
+      </c>
+      <c r="F169" s="18">
+        <v>90</v>
+      </c>
+      <c r="G169" s="22">
+        <f>SUM($F$16:F169)</f>
+        <v>29230</v>
+      </c>
+      <c r="H169" s="22"/>
+      <c r="I169" s="22">
+        <f t="shared" si="9"/>
+        <v>329.16666748958335</v>
+      </c>
+      <c r="J169" s="22"/>
+      <c r="K169" s="22">
+        <f t="shared" si="10"/>
+        <v>90</v>
+      </c>
+      <c r="L169" s="22">
+        <f>SUM($K$16:K169)</f>
+        <v>26190</v>
+      </c>
+      <c r="M169" s="22">
+        <f t="shared" si="8"/>
+        <v>294.9324331697635</v>
+      </c>
+    </row>
+    <row r="170" spans="1:13">
+      <c r="A170" s="22">
+        <v>157</v>
+      </c>
+      <c r="B170" s="18">
+        <v>160</v>
+      </c>
+      <c r="C170" s="22">
+        <f>SUM($B$17:B170)</f>
+        <v>18580</v>
+      </c>
+      <c r="D170" s="18"/>
+      <c r="E170" s="18" t="s">
+        <v>98</v>
+      </c>
+      <c r="F170" s="18">
+        <v>120</v>
+      </c>
+      <c r="G170" s="22">
+        <f>SUM($F$16:F170)</f>
+        <v>29350</v>
+      </c>
+      <c r="H170" s="22"/>
+      <c r="I170" s="22">
+        <f t="shared" si="9"/>
+        <v>330.51801884431308</v>
+      </c>
+      <c r="J170" s="22"/>
+      <c r="K170" s="22">
+        <f t="shared" si="10"/>
+        <v>120</v>
+      </c>
+      <c r="L170" s="22">
+        <f>SUM($K$16:K170)</f>
+        <v>26310</v>
+      </c>
+      <c r="M170" s="22">
+        <f t="shared" si="8"/>
+        <v>296.28378452449329</v>
+      </c>
+    </row>
+    <row r="171" spans="1:13">
+      <c r="A171" s="22">
+        <v>158</v>
+      </c>
+      <c r="B171" s="18">
+        <v>160</v>
+      </c>
+      <c r="C171" s="22">
+        <f>SUM($B$17:B171)</f>
+        <v>18740</v>
+      </c>
+      <c r="D171" s="18"/>
+      <c r="E171" s="18" t="s">
+        <v>126</v>
+      </c>
+      <c r="F171" s="18">
+        <v>250</v>
+      </c>
+      <c r="G171" s="22">
+        <f>SUM($F$16:F171)</f>
+        <v>29600</v>
+      </c>
+      <c r="H171" s="22"/>
+      <c r="I171" s="22">
+        <f t="shared" si="9"/>
+        <v>333.33333416666665</v>
+      </c>
+      <c r="J171" s="22"/>
+      <c r="K171" s="22">
+        <f t="shared" si="10"/>
+        <v>250</v>
+      </c>
+      <c r="L171" s="22">
+        <f>SUM($K$16:K171)</f>
+        <v>26560</v>
+      </c>
+      <c r="M171" s="22">
+        <f t="shared" si="8"/>
+        <v>299.09909984684685</v>
+      </c>
+    </row>
+    <row r="172" spans="1:13">
+      <c r="A172" s="22">
+        <v>159</v>
+      </c>
+      <c r="B172" s="18">
+        <v>160</v>
+      </c>
+      <c r="C172" s="22">
+        <f>SUM($B$17:B172)</f>
+        <v>18900</v>
+      </c>
+      <c r="D172" s="18"/>
+      <c r="E172" s="18" t="s">
+        <v>127</v>
+      </c>
+      <c r="F172" s="18">
+        <v>100</v>
+      </c>
+      <c r="G172" s="22">
+        <f>SUM($F$16:F172)</f>
+        <v>29700</v>
+      </c>
+      <c r="H172" s="22"/>
+      <c r="I172" s="22">
+        <f t="shared" si="9"/>
+        <v>334.4594602956081</v>
+      </c>
+      <c r="J172" s="22"/>
+      <c r="K172" s="22">
+        <f t="shared" si="10"/>
+        <v>100</v>
+      </c>
+      <c r="L172" s="22">
+        <f>SUM($K$16:K172)</f>
+        <v>26660</v>
+      </c>
+      <c r="M172" s="22">
+        <f t="shared" si="8"/>
+        <v>300.22522597578831</v>
+      </c>
+    </row>
+    <row r="173" spans="1:13">
+      <c r="A173" s="22">
+        <v>160</v>
+      </c>
+      <c r="B173" s="18">
+        <v>160</v>
+      </c>
+      <c r="C173" s="22">
+        <f>SUM($B$17:B173)</f>
+        <v>19060</v>
+      </c>
+      <c r="D173" s="18"/>
+      <c r="E173" s="18" t="s">
+        <v>109</v>
+      </c>
+      <c r="F173" s="18">
+        <v>90</v>
+      </c>
+      <c r="G173" s="22">
+        <f>SUM($F$16:F173)</f>
+        <v>29790</v>
+      </c>
+      <c r="H173" s="22"/>
+      <c r="I173" s="22">
+        <f t="shared" si="9"/>
+        <v>335.47297381165538</v>
+      </c>
+      <c r="J173" s="22"/>
+      <c r="K173" s="22">
+        <f t="shared" si="10"/>
+        <v>90</v>
+      </c>
+      <c r="L173" s="22">
+        <f>SUM($K$16:K173)</f>
+        <v>26750</v>
+      </c>
+      <c r="M173" s="22">
+        <f t="shared" si="8"/>
+        <v>301.23873949183559</v>
+      </c>
+    </row>
+    <row r="174" spans="1:13">
+      <c r="A174" s="22">
+        <v>161</v>
+      </c>
+      <c r="B174" s="18">
+        <v>160</v>
+      </c>
+      <c r="C174" s="22">
+        <f>SUM($B$17:B174)</f>
+        <v>19220</v>
+      </c>
+      <c r="D174" s="18"/>
+      <c r="E174" s="18" t="s">
+        <v>98</v>
+      </c>
+      <c r="F174" s="18">
+        <v>120</v>
+      </c>
+      <c r="G174" s="22">
+        <f>SUM($F$16:F174)</f>
+        <v>29910</v>
+      </c>
+      <c r="H174" s="22"/>
+      <c r="I174" s="22">
+        <f t="shared" si="9"/>
+        <v>336.82432516638511</v>
+      </c>
+      <c r="J174" s="22"/>
+      <c r="K174" s="22">
+        <f t="shared" si="10"/>
+        <v>120</v>
+      </c>
+      <c r="L174" s="22">
+        <f>SUM($K$16:K174)</f>
+        <v>26870</v>
+      </c>
+      <c r="M174" s="22">
+        <f t="shared" si="8"/>
+        <v>302.59009084656532</v>
+      </c>
+    </row>
+    <row r="175" spans="1:13">
+      <c r="A175" s="22">
+        <v>162</v>
+      </c>
+      <c r="B175" s="18">
+        <v>160</v>
+      </c>
+      <c r="C175" s="22">
+        <f>SUM($B$17:B175)</f>
+        <v>19380</v>
+      </c>
+      <c r="D175" s="18"/>
+      <c r="E175" s="18" t="s">
+        <v>126</v>
+      </c>
+      <c r="F175" s="18">
+        <v>250</v>
+      </c>
+      <c r="G175" s="22">
+        <f>SUM($F$16:F175)</f>
+        <v>30160</v>
+      </c>
+      <c r="H175" s="22"/>
+      <c r="I175" s="22">
+        <f t="shared" si="9"/>
+        <v>339.63964048873879</v>
+      </c>
+      <c r="J175" s="22"/>
+      <c r="K175" s="22">
+        <f t="shared" si="10"/>
+        <v>250</v>
+      </c>
+      <c r="L175" s="22">
+        <f>SUM($K$16:K175)</f>
+        <v>27120</v>
+      </c>
+      <c r="M175" s="22">
+        <f t="shared" si="8"/>
+        <v>305.40540616891894</v>
+      </c>
+    </row>
+    <row r="176" spans="1:13">
+      <c r="A176" s="22">
+        <v>163</v>
+      </c>
+      <c r="B176" s="18">
+        <v>160</v>
+      </c>
+      <c r="C176" s="22">
+        <f>SUM($B$17:B176)</f>
+        <v>19540</v>
+      </c>
+      <c r="D176" s="18"/>
+      <c r="E176" s="18" t="s">
+        <v>127</v>
+      </c>
+      <c r="F176" s="18">
+        <v>100</v>
+      </c>
+      <c r="G176" s="22">
+        <f>SUM($F$16:F176)</f>
+        <v>30260</v>
+      </c>
+      <c r="H176" s="22"/>
+      <c r="I176" s="22">
+        <f t="shared" si="9"/>
+        <v>340.76576661768019</v>
+      </c>
+      <c r="J176" s="22"/>
+      <c r="K176" s="22">
+        <f t="shared" si="10"/>
+        <v>100</v>
+      </c>
+      <c r="L176" s="22">
+        <f>SUM($K$16:K176)</f>
+        <v>27220</v>
+      </c>
+      <c r="M176" s="22">
+        <f t="shared" si="8"/>
+        <v>306.53153229786034</v>
+      </c>
+    </row>
+    <row r="177" spans="1:13">
+      <c r="A177" s="22">
+        <v>164</v>
+      </c>
+      <c r="B177" s="18">
+        <v>160</v>
+      </c>
+      <c r="C177" s="22">
+        <f>SUM($B$17:B177)</f>
+        <v>19700</v>
+      </c>
+      <c r="D177" s="18"/>
+      <c r="E177" s="18" t="s">
+        <v>109</v>
+      </c>
+      <c r="F177" s="18">
+        <v>90</v>
+      </c>
+      <c r="G177" s="22">
+        <f>SUM($F$16:F177)</f>
+        <v>30350</v>
+      </c>
+      <c r="H177" s="22"/>
+      <c r="I177" s="22">
+        <f t="shared" ref="I177:I183" si="11">G177/$Z$2/6.66</f>
+        <v>341.77928013372747</v>
+      </c>
+      <c r="J177" s="22"/>
+      <c r="K177" s="22">
+        <f t="shared" ref="K177:K183" si="12">IF(J177&lt;&gt;1,F177,0)</f>
+        <v>90</v>
+      </c>
+      <c r="L177" s="22">
+        <f>SUM($K$16:K177)</f>
+        <v>27310</v>
+      </c>
+      <c r="M177" s="22">
+        <f t="shared" si="8"/>
+        <v>307.54504581390768</v>
+      </c>
+    </row>
+    <row r="178" spans="1:13">
+      <c r="A178" s="22">
+        <v>165</v>
+      </c>
+      <c r="B178" s="18">
+        <v>160</v>
+      </c>
+      <c r="C178" s="22">
+        <f>SUM($B$17:B178)</f>
+        <v>19860</v>
+      </c>
+      <c r="D178" s="18"/>
+      <c r="E178" s="18" t="s">
+        <v>98</v>
+      </c>
+      <c r="F178" s="18">
+        <v>120</v>
+      </c>
+      <c r="G178" s="22">
+        <f>SUM($F$16:F178)</f>
+        <v>30470</v>
+      </c>
+      <c r="H178" s="22"/>
+      <c r="I178" s="22">
+        <f t="shared" si="11"/>
+        <v>343.1306314884572</v>
+      </c>
+      <c r="J178" s="22"/>
+      <c r="K178" s="22">
+        <f t="shared" si="12"/>
+        <v>120</v>
+      </c>
+      <c r="L178" s="22">
+        <f>SUM($K$16:K178)</f>
+        <v>27430</v>
+      </c>
+      <c r="M178" s="22">
+        <f t="shared" si="8"/>
+        <v>308.89639716863741</v>
+      </c>
+    </row>
+    <row r="179" spans="1:13">
+      <c r="A179" s="22">
+        <v>166</v>
+      </c>
+      <c r="B179" s="18">
+        <v>160</v>
+      </c>
+      <c r="C179" s="22">
+        <f>SUM($B$17:B179)</f>
+        <v>20020</v>
+      </c>
+      <c r="D179" s="18"/>
+      <c r="E179" s="18" t="s">
+        <v>126</v>
+      </c>
+      <c r="F179" s="18">
+        <v>250</v>
+      </c>
+      <c r="G179" s="22">
+        <f>SUM($F$16:F179)</f>
+        <v>30720</v>
+      </c>
+      <c r="H179" s="22"/>
+      <c r="I179" s="22">
+        <f t="shared" si="11"/>
+        <v>345.94594681081082</v>
+      </c>
+      <c r="J179" s="22"/>
+      <c r="K179" s="22">
+        <f t="shared" si="12"/>
+        <v>250</v>
+      </c>
+      <c r="L179" s="22">
+        <f>SUM($K$16:K179)</f>
+        <v>27680</v>
+      </c>
+      <c r="M179" s="22">
+        <f t="shared" si="8"/>
+        <v>311.71171249099103</v>
+      </c>
+    </row>
+    <row r="180" spans="1:13">
+      <c r="A180" s="22">
+        <v>167</v>
+      </c>
+      <c r="B180" s="18">
+        <v>160</v>
+      </c>
+      <c r="C180" s="22">
+        <f>SUM($B$17:B180)</f>
+        <v>20180</v>
+      </c>
+      <c r="D180" s="18"/>
+      <c r="E180" s="18" t="s">
+        <v>127</v>
+      </c>
+      <c r="F180" s="18">
+        <v>100</v>
+      </c>
+      <c r="G180" s="22">
+        <f>SUM($F$16:F180)</f>
+        <v>30820</v>
+      </c>
+      <c r="H180" s="22"/>
+      <c r="I180" s="22">
+        <f t="shared" si="11"/>
+        <v>347.07207293975227</v>
+      </c>
+      <c r="J180" s="22"/>
+      <c r="K180" s="22">
+        <f t="shared" si="12"/>
+        <v>100</v>
+      </c>
+      <c r="L180" s="22">
+        <f>SUM($K$16:K180)</f>
+        <v>27780</v>
+      </c>
+      <c r="M180" s="22">
+        <f t="shared" si="8"/>
+        <v>312.83783861993248</v>
+      </c>
+    </row>
+    <row r="181" spans="1:13">
+      <c r="A181" s="22">
+        <v>168</v>
+      </c>
+      <c r="B181" s="18">
+        <v>160</v>
+      </c>
+      <c r="C181" s="22">
+        <f>SUM($B$17:B181)</f>
+        <v>20340</v>
+      </c>
+      <c r="D181" s="18"/>
+      <c r="E181" s="18" t="s">
+        <v>109</v>
+      </c>
+      <c r="F181" s="18">
+        <v>90</v>
+      </c>
+      <c r="G181" s="22">
+        <f>SUM($F$16:F181)</f>
+        <v>30910</v>
+      </c>
+      <c r="H181" s="22"/>
+      <c r="I181" s="22">
+        <f t="shared" si="11"/>
+        <v>348.08558645579956</v>
+      </c>
+      <c r="J181" s="22"/>
+      <c r="K181" s="22">
+        <f t="shared" si="12"/>
+        <v>90</v>
+      </c>
+      <c r="L181" s="22">
+        <f>SUM($K$16:K181)</f>
+        <v>27870</v>
+      </c>
+      <c r="M181" s="22">
+        <f t="shared" si="8"/>
+        <v>313.85135213597971</v>
+      </c>
+    </row>
+    <row r="182" spans="1:13">
+      <c r="A182" s="22">
+        <v>169</v>
+      </c>
+      <c r="B182" s="18">
+        <v>160</v>
+      </c>
+      <c r="C182" s="22">
+        <f>SUM($B$17:B182)</f>
+        <v>20500</v>
+      </c>
+      <c r="D182" s="18"/>
+      <c r="E182" s="18" t="s">
+        <v>98</v>
+      </c>
+      <c r="F182" s="18">
+        <v>120</v>
+      </c>
+      <c r="G182" s="22">
+        <f>SUM($F$16:F182)</f>
+        <v>31030</v>
+      </c>
+      <c r="H182" s="22"/>
+      <c r="I182" s="22">
+        <f t="shared" si="11"/>
+        <v>349.43693781052929</v>
+      </c>
+      <c r="J182" s="22"/>
+      <c r="K182" s="22">
+        <f t="shared" si="12"/>
+        <v>120</v>
+      </c>
+      <c r="L182" s="22">
+        <f>SUM($K$16:K182)</f>
+        <v>27990</v>
+      </c>
+      <c r="M182" s="22">
+        <f t="shared" si="8"/>
+        <v>315.20270349070944</v>
+      </c>
+    </row>
+    <row r="183" spans="1:13">
+      <c r="A183" s="22">
+        <v>170</v>
+      </c>
+      <c r="B183" s="18">
+        <v>160</v>
+      </c>
+      <c r="C183" s="22">
+        <f>SUM($B$17:B183)</f>
+        <v>20660</v>
+      </c>
+      <c r="D183" s="18"/>
+      <c r="E183" s="18" t="s">
+        <v>126</v>
+      </c>
+      <c r="F183" s="18">
+        <v>250</v>
+      </c>
+      <c r="G183" s="22">
+        <f>SUM($F$16:F183)</f>
+        <v>31280</v>
+      </c>
+      <c r="H183" s="22"/>
+      <c r="I183" s="22">
+        <f t="shared" si="11"/>
+        <v>352.25225313288291</v>
+      </c>
+      <c r="J183" s="22"/>
+      <c r="K183" s="22">
+        <f t="shared" si="12"/>
+        <v>250</v>
+      </c>
+      <c r="L183" s="22">
+        <f>SUM($K$16:K183)</f>
+        <v>28240</v>
+      </c>
+      <c r="M183" s="22">
+        <f t="shared" si="8"/>
+        <v>318.01801881306307</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -6665,106 +9644,106 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1C223675-6655-A142-83EC-B0D1E1195EFE}">
   <dimension ref="A1:L40"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A16" workbookViewId="0">
       <selection activeCell="K11" sqref="K11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="19"/>
   <sheetData>
     <row r="1" spans="1:12">
-      <c r="A1" s="27" t="s">
-        <v>132</v>
-      </c>
-      <c r="B1" s="27" t="s">
+      <c r="A1" s="26" t="s">
         <v>133</v>
       </c>
-      <c r="C1" s="27" t="s">
+      <c r="B1" s="26" t="s">
         <v>134</v>
       </c>
-      <c r="D1" s="27" t="s">
+      <c r="C1" s="26" t="s">
         <v>135</v>
       </c>
-      <c r="E1" s="27" t="s">
+      <c r="D1" s="26" t="s">
         <v>136</v>
       </c>
-      <c r="F1" s="27" t="s">
+      <c r="E1" s="26" t="s">
         <v>137</v>
       </c>
-      <c r="G1" s="27" t="s">
+      <c r="F1" s="26" t="s">
         <v>138</v>
       </c>
-      <c r="H1" s="27" t="s">
+      <c r="G1" s="26" t="s">
         <v>139</v>
       </c>
-      <c r="I1" s="27" t="s">
+      <c r="H1" s="26" t="s">
         <v>140</v>
       </c>
-      <c r="K1" s="27"/>
+      <c r="I1" s="26" t="s">
+        <v>141</v>
+      </c>
+      <c r="K1" s="26"/>
     </row>
     <row r="2" spans="1:12">
-      <c r="A2" s="28">
+      <c r="A2" s="27">
         <v>70001</v>
       </c>
-      <c r="B2" s="28">
+      <c r="B2" s="27">
         <v>10000</v>
       </c>
-      <c r="C2" s="28">
+      <c r="C2" s="27">
         <v>5</v>
       </c>
-      <c r="D2" s="28">
+      <c r="D2" s="27">
         <v>7</v>
       </c>
-      <c r="E2" s="28">
+      <c r="E2" s="27">
         <v>2</v>
       </c>
-      <c r="F2" s="28">
+      <c r="F2" s="27">
         <v>9</v>
       </c>
-      <c r="G2" s="28">
+      <c r="G2" s="27">
         <v>11</v>
       </c>
-      <c r="H2" s="28">
+      <c r="H2" s="27">
         <v>4.88</v>
       </c>
-      <c r="I2" s="29">
+      <c r="I2" s="28">
         <v>0.44350000000000001</v>
       </c>
       <c r="K2" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="L2" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
     </row>
     <row r="3" spans="1:12">
-      <c r="A3" s="28">
+      <c r="A3" s="27">
         <v>70001</v>
       </c>
-      <c r="B3" s="28">
+      <c r="B3" s="27">
         <v>16900</v>
       </c>
-      <c r="C3" s="28">
+      <c r="C3" s="27">
         <v>5</v>
       </c>
-      <c r="D3" s="28">
+      <c r="D3" s="27">
         <v>5</v>
       </c>
-      <c r="E3" s="28">
+      <c r="E3" s="27">
         <v>2</v>
       </c>
-      <c r="F3" s="28">
+      <c r="F3" s="27">
         <v>7</v>
       </c>
-      <c r="G3" s="28">
+      <c r="G3" s="27">
         <v>9</v>
       </c>
-      <c r="H3" s="28">
+      <c r="H3" s="27">
         <v>4.43</v>
       </c>
-      <c r="I3" s="29">
+      <c r="I3" s="28">
         <v>0.49209999999999998</v>
       </c>
-      <c r="K3" s="28">
+      <c r="K3" s="27">
         <v>3</v>
       </c>
       <c r="L3">
@@ -6773,34 +9752,34 @@
       </c>
     </row>
     <row r="4" spans="1:12">
-      <c r="A4" s="28">
+      <c r="A4" s="27">
         <v>70001</v>
       </c>
-      <c r="B4" s="28">
+      <c r="B4" s="27">
         <v>101900</v>
       </c>
-      <c r="C4" s="28">
+      <c r="C4" s="27">
         <v>4</v>
       </c>
-      <c r="D4" s="28">
+      <c r="D4" s="27">
         <v>5</v>
       </c>
-      <c r="E4" s="28">
+      <c r="E4" s="27">
         <v>2</v>
       </c>
-      <c r="F4" s="28">
+      <c r="F4" s="27">
         <v>7</v>
       </c>
-      <c r="G4" s="28">
+      <c r="G4" s="27">
         <v>9</v>
       </c>
-      <c r="H4" s="28">
+      <c r="H4" s="27">
         <v>4.13</v>
       </c>
-      <c r="I4" s="29">
+      <c r="I4" s="28">
         <v>0.45910000000000001</v>
       </c>
-      <c r="K4" s="28">
+      <c r="K4" s="27">
         <v>4</v>
       </c>
       <c r="L4" s="22">
@@ -6809,34 +9788,34 @@
       </c>
     </row>
     <row r="5" spans="1:12">
-      <c r="A5" s="28">
+      <c r="A5" s="27">
         <v>70001</v>
       </c>
-      <c r="B5" s="28">
+      <c r="B5" s="27">
         <v>102400</v>
       </c>
-      <c r="C5" s="28">
+      <c r="C5" s="27">
         <v>3</v>
       </c>
-      <c r="D5" s="28">
+      <c r="D5" s="27">
         <v>3</v>
       </c>
-      <c r="E5" s="28">
+      <c r="E5" s="27">
         <v>1</v>
       </c>
-      <c r="F5" s="28">
+      <c r="F5" s="27">
         <v>4</v>
       </c>
-      <c r="G5" s="28">
+      <c r="G5" s="27">
         <v>5</v>
       </c>
-      <c r="H5" s="28">
+      <c r="H5" s="27">
         <v>2.61</v>
       </c>
-      <c r="I5" s="29">
+      <c r="I5" s="28">
         <v>0.52190000000000003</v>
       </c>
-      <c r="K5" s="28">
+      <c r="K5" s="27">
         <v>5</v>
       </c>
       <c r="L5" s="22">
@@ -6845,1017 +9824,1017 @@
       </c>
     </row>
     <row r="6" spans="1:12">
-      <c r="A6" s="28">
+      <c r="A6" s="27">
         <v>70001</v>
       </c>
-      <c r="B6" s="28">
+      <c r="B6" s="27">
         <v>102800</v>
       </c>
-      <c r="C6" s="28">
+      <c r="C6" s="27">
         <v>3</v>
       </c>
-      <c r="D6" s="28">
+      <c r="D6" s="27">
         <v>4</v>
       </c>
-      <c r="E6" s="28">
+      <c r="E6" s="27">
         <v>1</v>
       </c>
-      <c r="F6" s="28">
+      <c r="F6" s="27">
         <v>5</v>
       </c>
-      <c r="G6" s="28">
+      <c r="G6" s="27">
         <v>6</v>
       </c>
-      <c r="H6" s="28">
+      <c r="H6" s="27">
         <v>1.77</v>
       </c>
-      <c r="I6" s="29">
+      <c r="I6" s="28">
         <v>0.29480000000000001</v>
       </c>
     </row>
     <row r="7" spans="1:12">
-      <c r="A7" s="28">
+      <c r="A7" s="27">
         <v>70001</v>
       </c>
-      <c r="B7" s="28">
+      <c r="B7" s="27">
         <v>104600</v>
       </c>
-      <c r="C7" s="28">
+      <c r="C7" s="27">
         <v>4</v>
       </c>
-      <c r="D7" s="28">
+      <c r="D7" s="27">
         <v>7</v>
       </c>
-      <c r="E7" s="28">
+      <c r="E7" s="27">
         <v>2</v>
       </c>
-      <c r="F7" s="28">
+      <c r="F7" s="27">
         <v>9</v>
       </c>
-      <c r="G7" s="28">
+      <c r="G7" s="27">
         <v>11</v>
       </c>
-      <c r="H7" s="28">
+      <c r="H7" s="27">
         <v>2.97</v>
       </c>
-      <c r="I7" s="29">
+      <c r="I7" s="28">
         <v>0.26979999999999998</v>
       </c>
     </row>
     <row r="8" spans="1:12">
-      <c r="A8" s="28">
+      <c r="A8" s="27">
         <v>70002</v>
       </c>
-      <c r="B8" s="28">
+      <c r="B8" s="27">
         <v>1001</v>
       </c>
-      <c r="C8" s="28">
+      <c r="C8" s="27">
         <v>3</v>
       </c>
-      <c r="D8" s="28">
+      <c r="D8" s="27">
         <v>3</v>
       </c>
-      <c r="E8" s="28">
+      <c r="E8" s="27">
         <v>1</v>
       </c>
-      <c r="F8" s="28">
+      <c r="F8" s="27">
         <v>4</v>
       </c>
-      <c r="G8" s="28">
+      <c r="G8" s="27">
         <v>8</v>
       </c>
-      <c r="H8" s="28">
+      <c r="H8" s="27">
         <v>5.47</v>
       </c>
-      <c r="I8" s="29">
+      <c r="I8" s="28">
         <v>0.68340000000000001</v>
       </c>
     </row>
     <row r="9" spans="1:12">
-      <c r="A9" s="28">
+      <c r="A9" s="27">
         <v>70002</v>
       </c>
-      <c r="B9" s="28">
+      <c r="B9" s="27">
         <v>2200</v>
       </c>
-      <c r="C9" s="28">
+      <c r="C9" s="27">
         <v>5</v>
       </c>
-      <c r="D9" s="28">
+      <c r="D9" s="27">
         <v>7</v>
       </c>
-      <c r="E9" s="28">
+      <c r="E9" s="27">
         <v>2</v>
       </c>
-      <c r="F9" s="28">
+      <c r="F9" s="27">
         <v>9</v>
       </c>
-      <c r="G9" s="28">
+      <c r="G9" s="27">
         <v>18</v>
       </c>
-      <c r="H9" s="28">
+      <c r="H9" s="27">
         <v>12.91</v>
       </c>
-      <c r="I9" s="29">
+      <c r="I9" s="28">
         <v>0.71699999999999997</v>
       </c>
     </row>
     <row r="10" spans="1:12">
-      <c r="A10" s="28">
+      <c r="A10" s="27">
         <v>70002</v>
       </c>
-      <c r="B10" s="28">
+      <c r="B10" s="27">
         <v>5500</v>
       </c>
-      <c r="C10" s="28">
+      <c r="C10" s="27">
         <v>4</v>
       </c>
-      <c r="D10" s="28">
+      <c r="D10" s="27">
         <v>5</v>
       </c>
-      <c r="E10" s="28">
+      <c r="E10" s="27">
         <v>2</v>
       </c>
-      <c r="F10" s="28">
+      <c r="F10" s="27">
         <v>7</v>
       </c>
-      <c r="G10" s="28">
+      <c r="G10" s="27">
         <v>14</v>
       </c>
-      <c r="H10" s="28">
+      <c r="H10" s="27">
         <v>7.68</v>
       </c>
-      <c r="I10" s="29">
+      <c r="I10" s="28">
         <v>0.54890000000000005</v>
       </c>
     </row>
     <row r="11" spans="1:12">
-      <c r="A11" s="28">
+      <c r="A11" s="27">
         <v>70002</v>
       </c>
-      <c r="B11" s="28">
+      <c r="B11" s="27">
         <v>5900</v>
       </c>
-      <c r="C11" s="28">
+      <c r="C11" s="27">
         <v>5</v>
       </c>
-      <c r="D11" s="28">
+      <c r="D11" s="27">
         <v>7</v>
       </c>
-      <c r="E11" s="28">
+      <c r="E11" s="27">
         <v>2</v>
       </c>
-      <c r="F11" s="28">
+      <c r="F11" s="27">
         <v>9</v>
       </c>
-      <c r="G11" s="28">
+      <c r="G11" s="27">
         <v>18</v>
       </c>
-      <c r="H11" s="28">
+      <c r="H11" s="27">
         <v>11.11</v>
       </c>
-      <c r="I11" s="29">
+      <c r="I11" s="28">
         <v>0.61729999999999996</v>
       </c>
     </row>
     <row r="12" spans="1:12">
-      <c r="A12" s="28">
+      <c r="A12" s="27">
         <v>70002</v>
       </c>
-      <c r="B12" s="28">
+      <c r="B12" s="27">
         <v>105400</v>
       </c>
-      <c r="C12" s="28">
+      <c r="C12" s="27">
         <v>4</v>
       </c>
-      <c r="D12" s="28">
+      <c r="D12" s="27">
         <v>5</v>
       </c>
-      <c r="E12" s="28">
+      <c r="E12" s="27">
         <v>2</v>
       </c>
-      <c r="F12" s="28">
+      <c r="F12" s="27">
         <v>7</v>
       </c>
-      <c r="G12" s="28">
+      <c r="G12" s="27">
         <v>14</v>
       </c>
-      <c r="H12" s="28">
+      <c r="H12" s="27">
         <v>8.42</v>
       </c>
-      <c r="I12" s="29">
+      <c r="I12" s="28">
         <v>0.60119999999999996</v>
       </c>
     </row>
     <row r="13" spans="1:12">
-      <c r="A13" s="28">
+      <c r="A13" s="27">
         <v>70002</v>
       </c>
-      <c r="B13" s="28">
+      <c r="B13" s="27">
         <v>107400</v>
       </c>
-      <c r="C13" s="28">
+      <c r="C13" s="27">
         <v>4</v>
       </c>
-      <c r="D13" s="28">
+      <c r="D13" s="27">
         <v>5</v>
       </c>
-      <c r="E13" s="28">
+      <c r="E13" s="27">
         <v>2</v>
       </c>
-      <c r="F13" s="28">
+      <c r="F13" s="27">
         <v>7</v>
       </c>
-      <c r="G13" s="28">
+      <c r="G13" s="27">
         <v>14</v>
       </c>
-      <c r="H13" s="28">
+      <c r="H13" s="27">
         <v>14.56</v>
       </c>
-      <c r="I13" s="29">
+      <c r="I13" s="28">
         <v>1.0402</v>
       </c>
     </row>
     <row r="14" spans="1:12">
-      <c r="A14" s="28">
+      <c r="A14" s="27">
         <v>70002</v>
       </c>
-      <c r="B14" s="28">
+      <c r="B14" s="27">
         <v>107900</v>
       </c>
-      <c r="C14" s="28">
+      <c r="C14" s="27">
         <v>5</v>
       </c>
-      <c r="D14" s="28">
+      <c r="D14" s="27">
         <v>7</v>
       </c>
-      <c r="E14" s="28">
+      <c r="E14" s="27">
         <v>2</v>
       </c>
-      <c r="F14" s="28">
+      <c r="F14" s="27">
         <v>9</v>
       </c>
-      <c r="G14" s="28">
+      <c r="G14" s="27">
         <v>18</v>
       </c>
-      <c r="H14" s="28">
+      <c r="H14" s="27">
         <v>13.04</v>
       </c>
-      <c r="I14" s="29">
+      <c r="I14" s="28">
         <v>0.72450000000000003</v>
       </c>
     </row>
     <row r="15" spans="1:12">
-      <c r="A15" s="28">
+      <c r="A15" s="27">
         <v>70002</v>
       </c>
-      <c r="B15" s="28">
+      <c r="B15" s="27">
         <v>108100</v>
       </c>
-      <c r="C15" s="28">
+      <c r="C15" s="27">
         <v>3</v>
       </c>
-      <c r="D15" s="28">
+      <c r="D15" s="27">
         <v>3</v>
       </c>
-      <c r="E15" s="28">
+      <c r="E15" s="27">
         <v>1</v>
       </c>
-      <c r="F15" s="28">
+      <c r="F15" s="27">
         <v>4</v>
       </c>
-      <c r="G15" s="28">
+      <c r="G15" s="27">
         <v>8</v>
       </c>
-      <c r="H15" s="28">
+      <c r="H15" s="27">
         <v>4.91</v>
       </c>
-      <c r="I15" s="29">
+      <c r="I15" s="28">
         <v>0.61350000000000005</v>
       </c>
     </row>
     <row r="16" spans="1:12">
-      <c r="A16" s="28">
+      <c r="A16" s="27">
         <v>70003</v>
       </c>
-      <c r="B16" s="28">
+      <c r="B16" s="27">
         <v>15400</v>
       </c>
-      <c r="C16" s="28">
+      <c r="C16" s="27">
         <v>4</v>
       </c>
-      <c r="D16" s="28">
+      <c r="D16" s="27">
         <v>5</v>
       </c>
-      <c r="E16" s="28">
+      <c r="E16" s="27">
         <v>2</v>
       </c>
-      <c r="F16" s="28">
+      <c r="F16" s="27">
         <v>7</v>
       </c>
-      <c r="G16" s="28">
+      <c r="G16" s="27">
         <v>35</v>
       </c>
-      <c r="H16" s="28">
+      <c r="H16" s="27">
         <v>24.63</v>
       </c>
-      <c r="I16" s="29">
+      <c r="I16" s="28">
         <v>0.70369999999999999</v>
       </c>
     </row>
     <row r="17" spans="1:9">
-      <c r="A17" s="28">
+      <c r="A17" s="27">
         <v>70003</v>
       </c>
-      <c r="B17" s="28">
+      <c r="B17" s="27">
         <v>18700</v>
       </c>
-      <c r="C17" s="28">
+      <c r="C17" s="27">
         <v>5</v>
       </c>
-      <c r="D17" s="28">
+      <c r="D17" s="27">
         <v>7</v>
       </c>
-      <c r="E17" s="28">
+      <c r="E17" s="27">
         <v>2</v>
       </c>
-      <c r="F17" s="28">
+      <c r="F17" s="27">
         <v>9</v>
       </c>
-      <c r="G17" s="28">
+      <c r="G17" s="27">
         <v>45</v>
       </c>
-      <c r="H17" s="28">
+      <c r="H17" s="27">
         <v>29.15</v>
       </c>
-      <c r="I17" s="29">
+      <c r="I17" s="28">
         <v>0.64780000000000004</v>
       </c>
     </row>
     <row r="18" spans="1:9">
-      <c r="A18" s="28">
+      <c r="A18" s="27">
         <v>70003</v>
       </c>
-      <c r="B18" s="28">
+      <c r="B18" s="27">
         <v>18800</v>
       </c>
-      <c r="C18" s="28">
+      <c r="C18" s="27">
         <v>5</v>
       </c>
-      <c r="D18" s="28">
+      <c r="D18" s="27">
         <v>7</v>
       </c>
-      <c r="E18" s="28">
+      <c r="E18" s="27">
         <v>2</v>
       </c>
-      <c r="F18" s="28">
+      <c r="F18" s="27">
         <v>9</v>
       </c>
-      <c r="G18" s="28">
+      <c r="G18" s="27">
         <v>45</v>
       </c>
-      <c r="H18" s="28">
+      <c r="H18" s="27">
         <v>33.35</v>
       </c>
-      <c r="I18" s="29">
+      <c r="I18" s="28">
         <v>0.74099999999999999</v>
       </c>
     </row>
     <row r="19" spans="1:9">
-      <c r="A19" s="28">
+      <c r="A19" s="27">
         <v>70003</v>
       </c>
-      <c r="B19" s="28">
+      <c r="B19" s="27">
         <v>19400</v>
       </c>
-      <c r="C19" s="28">
+      <c r="C19" s="27">
         <v>3</v>
       </c>
-      <c r="D19" s="28">
+      <c r="D19" s="27">
         <v>3</v>
       </c>
-      <c r="E19" s="28">
+      <c r="E19" s="27">
         <v>1</v>
       </c>
-      <c r="F19" s="28">
+      <c r="F19" s="27">
         <v>4</v>
       </c>
-      <c r="G19" s="28">
+      <c r="G19" s="27">
         <v>20</v>
       </c>
-      <c r="H19" s="28">
+      <c r="H19" s="27">
         <v>14.58</v>
       </c>
-      <c r="I19" s="29">
+      <c r="I19" s="28">
         <v>0.72919999999999996</v>
       </c>
     </row>
     <row r="20" spans="1:9">
-      <c r="A20" s="28">
+      <c r="A20" s="27">
         <v>70003</v>
       </c>
-      <c r="B20" s="28">
+      <c r="B20" s="27">
         <v>19500</v>
       </c>
-      <c r="C20" s="28">
+      <c r="C20" s="27">
         <v>4</v>
       </c>
-      <c r="D20" s="28">
+      <c r="D20" s="27">
         <v>5</v>
       </c>
-      <c r="E20" s="28">
+      <c r="E20" s="27">
         <v>2</v>
       </c>
-      <c r="F20" s="28">
+      <c r="F20" s="27">
         <v>7</v>
       </c>
-      <c r="G20" s="28">
+      <c r="G20" s="27">
         <v>35</v>
       </c>
-      <c r="H20" s="28">
+      <c r="H20" s="27">
         <v>21.4</v>
       </c>
-      <c r="I20" s="29">
+      <c r="I20" s="28">
         <v>0.61140000000000005</v>
       </c>
     </row>
     <row r="21" spans="1:9">
-      <c r="A21" s="28">
+      <c r="A21" s="27">
         <v>70003</v>
       </c>
-      <c r="B21" s="28">
+      <c r="B21" s="27">
         <v>19700</v>
       </c>
-      <c r="C21" s="28">
+      <c r="C21" s="27">
         <v>3</v>
       </c>
-      <c r="D21" s="28">
+      <c r="D21" s="27">
         <v>3</v>
       </c>
-      <c r="E21" s="28">
+      <c r="E21" s="27">
         <v>1</v>
       </c>
-      <c r="F21" s="28">
+      <c r="F21" s="27">
         <v>4</v>
       </c>
-      <c r="G21" s="28">
+      <c r="G21" s="27">
         <v>20</v>
       </c>
-      <c r="H21" s="28">
+      <c r="H21" s="27">
         <v>17.32</v>
       </c>
-      <c r="I21" s="29">
+      <c r="I21" s="28">
         <v>0.86599999999999999</v>
       </c>
     </row>
     <row r="22" spans="1:9">
-      <c r="A22" s="28">
+      <c r="A22" s="27">
         <v>70003</v>
       </c>
-      <c r="B22" s="28">
+      <c r="B22" s="27">
         <v>20100</v>
       </c>
-      <c r="C22" s="28">
+      <c r="C22" s="27">
         <v>3</v>
       </c>
-      <c r="D22" s="28">
+      <c r="D22" s="27">
         <v>3</v>
       </c>
-      <c r="E22" s="28">
+      <c r="E22" s="27">
         <v>1</v>
       </c>
-      <c r="F22" s="28">
+      <c r="F22" s="27">
         <v>4</v>
       </c>
-      <c r="G22" s="28">
+      <c r="G22" s="27">
         <v>20</v>
       </c>
-      <c r="H22" s="28">
+      <c r="H22" s="27">
         <v>8.9</v>
       </c>
-      <c r="I22" s="29">
+      <c r="I22" s="28">
         <v>0.4451</v>
       </c>
     </row>
     <row r="23" spans="1:9">
-      <c r="A23" s="28">
+      <c r="A23" s="27">
         <v>70003</v>
       </c>
-      <c r="B23" s="28">
+      <c r="B23" s="27">
         <v>20300</v>
       </c>
-      <c r="C23" s="28">
+      <c r="C23" s="27">
         <v>3</v>
       </c>
-      <c r="D23" s="28">
+      <c r="D23" s="27">
         <v>3</v>
       </c>
-      <c r="E23" s="28">
+      <c r="E23" s="27">
         <v>1</v>
       </c>
-      <c r="F23" s="28">
+      <c r="F23" s="27">
         <v>4</v>
       </c>
-      <c r="G23" s="28">
+      <c r="G23" s="27">
         <v>20</v>
       </c>
-      <c r="H23" s="28">
+      <c r="H23" s="27">
         <v>13.01</v>
       </c>
-      <c r="I23" s="29">
+      <c r="I23" s="28">
         <v>0.65059999999999996</v>
       </c>
     </row>
     <row r="24" spans="1:9">
-      <c r="A24" s="28">
+      <c r="A24" s="27">
         <v>70003</v>
       </c>
-      <c r="B24" s="28">
+      <c r="B24" s="27">
         <v>20500</v>
       </c>
-      <c r="C24" s="28">
+      <c r="C24" s="27">
         <v>4</v>
       </c>
-      <c r="D24" s="28">
+      <c r="D24" s="27">
         <v>5</v>
       </c>
-      <c r="E24" s="28">
+      <c r="E24" s="27">
         <v>2</v>
       </c>
-      <c r="F24" s="28">
+      <c r="F24" s="27">
         <v>7</v>
       </c>
-      <c r="G24" s="28">
+      <c r="G24" s="27">
         <v>35</v>
       </c>
-      <c r="H24" s="28">
+      <c r="H24" s="27">
         <v>27.18</v>
       </c>
-      <c r="I24" s="29">
+      <c r="I24" s="28">
         <v>0.77669999999999995</v>
       </c>
     </row>
     <row r="25" spans="1:9">
-      <c r="A25" s="28">
+      <c r="A25" s="27">
         <v>70003</v>
       </c>
-      <c r="B25" s="28">
+      <c r="B25" s="27">
         <v>20700</v>
       </c>
-      <c r="C25" s="28">
+      <c r="C25" s="27">
         <v>5</v>
       </c>
-      <c r="D25" s="28">
+      <c r="D25" s="27">
         <v>8</v>
       </c>
-      <c r="E25" s="28">
+      <c r="E25" s="27">
         <v>2</v>
       </c>
-      <c r="F25" s="28">
+      <c r="F25" s="27">
         <v>10</v>
       </c>
-      <c r="G25" s="28">
+      <c r="G25" s="27">
         <v>50</v>
       </c>
-      <c r="H25" s="28">
+      <c r="H25" s="27">
         <v>26.11</v>
       </c>
-      <c r="I25" s="29">
+      <c r="I25" s="28">
         <v>0.52229999999999999</v>
       </c>
     </row>
     <row r="26" spans="1:9">
-      <c r="A26" s="28">
+      <c r="A26" s="27">
         <v>70003</v>
       </c>
-      <c r="B26" s="28">
+      <c r="B26" s="27">
         <v>20900</v>
       </c>
-      <c r="C26" s="28">
+      <c r="C26" s="27">
         <v>5</v>
       </c>
-      <c r="D26" s="28">
+      <c r="D26" s="27">
         <v>7</v>
       </c>
-      <c r="E26" s="28">
+      <c r="E26" s="27">
         <v>2</v>
       </c>
-      <c r="F26" s="28">
+      <c r="F26" s="27">
         <v>9</v>
       </c>
-      <c r="G26" s="28">
+      <c r="G26" s="27">
         <v>45</v>
       </c>
-      <c r="H26" s="28">
+      <c r="H26" s="27">
         <v>32.21</v>
       </c>
-      <c r="I26" s="29">
+      <c r="I26" s="28">
         <v>0.71589999999999998</v>
       </c>
     </row>
     <row r="27" spans="1:9">
-      <c r="A27" s="28">
+      <c r="A27" s="27">
         <v>70003</v>
       </c>
-      <c r="B27" s="28">
+      <c r="B27" s="27">
         <v>21000</v>
       </c>
-      <c r="C27" s="28">
+      <c r="C27" s="27">
         <v>4</v>
       </c>
-      <c r="D27" s="28">
+      <c r="D27" s="27">
         <v>5</v>
       </c>
-      <c r="E27" s="28">
+      <c r="E27" s="27">
         <v>2</v>
       </c>
-      <c r="F27" s="28">
+      <c r="F27" s="27">
         <v>7</v>
       </c>
-      <c r="G27" s="28">
+      <c r="G27" s="27">
         <v>35</v>
       </c>
-      <c r="H27" s="28">
+      <c r="H27" s="27">
         <v>28.92</v>
       </c>
-      <c r="I27" s="29">
+      <c r="I27" s="28">
         <v>0.82630000000000003</v>
       </c>
     </row>
     <row r="28" spans="1:9">
-      <c r="A28" s="28">
+      <c r="A28" s="27">
         <v>70004</v>
       </c>
-      <c r="B28" s="28">
+      <c r="B28" s="27">
         <v>14600</v>
       </c>
-      <c r="C28" s="28">
+      <c r="C28" s="27">
         <v>4</v>
       </c>
-      <c r="D28" s="28">
+      <c r="D28" s="27">
         <v>6</v>
       </c>
-      <c r="E28" s="28">
+      <c r="E28" s="27">
         <v>2</v>
       </c>
-      <c r="F28" s="28">
+      <c r="F28" s="27">
         <v>8</v>
       </c>
-      <c r="G28" s="28">
+      <c r="G28" s="27">
         <v>64</v>
       </c>
-      <c r="H28" s="28">
+      <c r="H28" s="27">
         <v>15.12</v>
       </c>
-      <c r="I28" s="29">
+      <c r="I28" s="28">
         <v>0.23630000000000001</v>
       </c>
     </row>
     <row r="29" spans="1:9">
-      <c r="A29" s="28">
+      <c r="A29" s="27">
         <v>70004</v>
       </c>
-      <c r="B29" s="28">
+      <c r="B29" s="27">
         <v>15800</v>
       </c>
-      <c r="C29" s="28">
+      <c r="C29" s="27">
         <v>4</v>
       </c>
-      <c r="D29" s="28">
+      <c r="D29" s="27">
         <v>6</v>
       </c>
-      <c r="E29" s="28">
+      <c r="E29" s="27">
         <v>2</v>
       </c>
-      <c r="F29" s="28">
+      <c r="F29" s="27">
         <v>8</v>
       </c>
-      <c r="G29" s="28">
+      <c r="G29" s="27">
         <v>64</v>
       </c>
-      <c r="H29" s="28">
+      <c r="H29" s="27">
         <v>35.69</v>
       </c>
-      <c r="I29" s="29">
+      <c r="I29" s="28">
         <v>0.55769999999999997</v>
       </c>
     </row>
     <row r="30" spans="1:9">
-      <c r="A30" s="28">
+      <c r="A30" s="27">
         <v>70004</v>
       </c>
-      <c r="B30" s="28">
+      <c r="B30" s="27">
         <v>16400</v>
       </c>
-      <c r="C30" s="28">
+      <c r="C30" s="27">
         <v>4</v>
       </c>
-      <c r="D30" s="28">
+      <c r="D30" s="27">
         <v>5</v>
       </c>
-      <c r="E30" s="28">
+      <c r="E30" s="27">
         <v>2</v>
       </c>
-      <c r="F30" s="28">
+      <c r="F30" s="27">
         <v>7</v>
       </c>
-      <c r="G30" s="28">
+      <c r="G30" s="27">
         <v>56</v>
       </c>
-      <c r="H30" s="28">
+      <c r="H30" s="27">
         <v>35.630000000000003</v>
       </c>
-      <c r="I30" s="29">
+      <c r="I30" s="28">
         <v>0.63629999999999998</v>
       </c>
     </row>
     <row r="31" spans="1:9">
-      <c r="A31" s="28">
+      <c r="A31" s="27">
         <v>70004</v>
       </c>
-      <c r="B31" s="28">
+      <c r="B31" s="27">
         <v>16500</v>
       </c>
-      <c r="C31" s="28">
+      <c r="C31" s="27">
         <v>3</v>
       </c>
-      <c r="D31" s="28">
+      <c r="D31" s="27">
         <v>5</v>
       </c>
-      <c r="E31" s="28">
+      <c r="E31" s="27">
         <v>1</v>
       </c>
-      <c r="F31" s="28">
+      <c r="F31" s="27">
         <v>6</v>
       </c>
-      <c r="G31" s="28">
+      <c r="G31" s="27">
         <v>48</v>
       </c>
-      <c r="H31" s="28">
+      <c r="H31" s="27">
         <v>20.21</v>
       </c>
-      <c r="I31" s="29">
+      <c r="I31" s="28">
         <v>0.42109999999999997</v>
       </c>
     </row>
     <row r="32" spans="1:9">
-      <c r="A32" s="28">
+      <c r="A32" s="27">
         <v>70004</v>
       </c>
-      <c r="B32" s="28">
+      <c r="B32" s="27">
         <v>16800</v>
       </c>
-      <c r="C32" s="28">
+      <c r="C32" s="27">
         <v>3</v>
       </c>
-      <c r="D32" s="28">
+      <c r="D32" s="27">
         <v>3</v>
       </c>
-      <c r="E32" s="28">
+      <c r="E32" s="27">
         <v>1</v>
       </c>
-      <c r="F32" s="28">
+      <c r="F32" s="27">
         <v>4</v>
       </c>
-      <c r="G32" s="28">
+      <c r="G32" s="27">
         <v>32</v>
       </c>
-      <c r="H32" s="28">
+      <c r="H32" s="27">
         <v>25.71</v>
       </c>
-      <c r="I32" s="29">
+      <c r="I32" s="28">
         <v>0.8034</v>
       </c>
     </row>
     <row r="33" spans="1:9">
-      <c r="A33" s="28">
+      <c r="A33" s="27">
         <v>70004</v>
       </c>
-      <c r="B33" s="28">
+      <c r="B33" s="27">
         <v>17300</v>
       </c>
-      <c r="C33" s="28">
+      <c r="C33" s="27">
         <v>5</v>
       </c>
-      <c r="D33" s="28">
+      <c r="D33" s="27">
         <v>7</v>
       </c>
-      <c r="E33" s="28">
+      <c r="E33" s="27">
         <v>2</v>
       </c>
-      <c r="F33" s="28">
+      <c r="F33" s="27">
         <v>9</v>
       </c>
-      <c r="G33" s="28">
+      <c r="G33" s="27">
         <v>72</v>
       </c>
-      <c r="H33" s="28">
+      <c r="H33" s="27">
         <v>16.87</v>
       </c>
-      <c r="I33" s="29">
+      <c r="I33" s="28">
         <v>0.23430000000000001</v>
       </c>
     </row>
     <row r="34" spans="1:9">
-      <c r="A34" s="28">
+      <c r="A34" s="27">
         <v>70004</v>
       </c>
-      <c r="B34" s="28">
+      <c r="B34" s="27">
         <v>17500</v>
       </c>
-      <c r="C34" s="28">
+      <c r="C34" s="27">
         <v>5</v>
       </c>
-      <c r="D34" s="28">
+      <c r="D34" s="27">
         <v>7</v>
       </c>
-      <c r="E34" s="28">
+      <c r="E34" s="27">
         <v>2</v>
       </c>
-      <c r="F34" s="28">
+      <c r="F34" s="27">
         <v>9</v>
       </c>
-      <c r="G34" s="28">
+      <c r="G34" s="27">
         <v>72</v>
       </c>
-      <c r="H34" s="28">
+      <c r="H34" s="27">
         <v>12.57</v>
       </c>
-      <c r="I34" s="29">
+      <c r="I34" s="28">
         <v>0.17460000000000001</v>
       </c>
     </row>
     <row r="35" spans="1:9">
-      <c r="A35" s="28">
+      <c r="A35" s="27">
         <v>70004</v>
       </c>
-      <c r="B35" s="28">
+      <c r="B35" s="27">
         <v>17600</v>
       </c>
-      <c r="C35" s="28">
+      <c r="C35" s="27">
         <v>5</v>
       </c>
-      <c r="D35" s="28">
+      <c r="D35" s="27">
         <v>8</v>
       </c>
-      <c r="E35" s="28">
+      <c r="E35" s="27">
         <v>2</v>
       </c>
-      <c r="F35" s="28">
+      <c r="F35" s="27">
         <v>10</v>
       </c>
-      <c r="G35" s="28">
+      <c r="G35" s="27">
         <v>80</v>
       </c>
-      <c r="H35" s="28">
+      <c r="H35" s="27">
         <v>24.97</v>
       </c>
-      <c r="I35" s="29">
+      <c r="I35" s="28">
         <v>0.31209999999999999</v>
       </c>
     </row>
     <row r="36" spans="1:9">
-      <c r="A36" s="28">
+      <c r="A36" s="27">
         <v>70004</v>
       </c>
-      <c r="B36" s="28">
+      <c r="B36" s="27">
         <v>17900</v>
       </c>
-      <c r="C36" s="28">
+      <c r="C36" s="27">
         <v>5</v>
       </c>
-      <c r="D36" s="28">
+      <c r="D36" s="27">
         <v>7</v>
       </c>
-      <c r="E36" s="28">
+      <c r="E36" s="27">
         <v>2</v>
       </c>
-      <c r="F36" s="28">
+      <c r="F36" s="27">
         <v>9</v>
       </c>
-      <c r="G36" s="28">
+      <c r="G36" s="27">
         <v>72</v>
       </c>
-      <c r="H36" s="28">
+      <c r="H36" s="27">
         <v>36.06</v>
       </c>
-      <c r="I36" s="29">
+      <c r="I36" s="28">
         <v>0.50080000000000002</v>
       </c>
     </row>
     <row r="37" spans="1:9">
-      <c r="A37" s="28">
+      <c r="A37" s="27">
         <v>70004</v>
       </c>
-      <c r="B37" s="28">
+      <c r="B37" s="27">
         <v>18100</v>
       </c>
-      <c r="C37" s="28">
+      <c r="C37" s="27">
         <v>3</v>
       </c>
-      <c r="D37" s="28">
+      <c r="D37" s="27">
         <v>3</v>
       </c>
-      <c r="E37" s="28">
+      <c r="E37" s="27">
         <v>1</v>
       </c>
-      <c r="F37" s="28">
+      <c r="F37" s="27">
         <v>4</v>
       </c>
-      <c r="G37" s="28">
+      <c r="G37" s="27">
         <v>32</v>
       </c>
-      <c r="H37" s="28">
+      <c r="H37" s="27">
         <v>22.07</v>
       </c>
-      <c r="I37" s="29">
+      <c r="I37" s="28">
         <v>0.68969999999999998</v>
       </c>
     </row>
     <row r="38" spans="1:9">
-      <c r="A38" s="28">
+      <c r="A38" s="27">
         <v>70004</v>
       </c>
-      <c r="B38" s="28">
+      <c r="B38" s="27">
         <v>18200</v>
       </c>
-      <c r="C38" s="28">
+      <c r="C38" s="27">
         <v>5</v>
       </c>
-      <c r="D38" s="28">
+      <c r="D38" s="27">
         <v>7</v>
       </c>
-      <c r="E38" s="28">
+      <c r="E38" s="27">
         <v>2</v>
       </c>
-      <c r="F38" s="28">
+      <c r="F38" s="27">
         <v>9</v>
       </c>
-      <c r="G38" s="28">
+      <c r="G38" s="27">
         <v>72</v>
       </c>
-      <c r="H38" s="28">
+      <c r="H38" s="27">
         <v>27.3</v>
       </c>
-      <c r="I38" s="29">
+      <c r="I38" s="28">
         <v>0.37909999999999999</v>
       </c>
     </row>
     <row r="39" spans="1:9">
-      <c r="A39" s="28">
+      <c r="A39" s="27">
         <v>70004</v>
       </c>
-      <c r="B39" s="28">
+      <c r="B39" s="27">
         <v>18500</v>
       </c>
-      <c r="C39" s="28">
+      <c r="C39" s="27">
         <v>5</v>
       </c>
-      <c r="D39" s="28">
+      <c r="D39" s="27">
         <v>7</v>
       </c>
-      <c r="E39" s="28">
+      <c r="E39" s="27">
         <v>2</v>
       </c>
-      <c r="F39" s="28">
+      <c r="F39" s="27">
         <v>9</v>
       </c>
-      <c r="G39" s="28">
+      <c r="G39" s="27">
         <v>72</v>
       </c>
-      <c r="H39" s="28">
+      <c r="H39" s="27">
         <v>29.81</v>
       </c>
-      <c r="I39" s="29">
+      <c r="I39" s="28">
         <v>0.41410000000000002</v>
       </c>
     </row>
     <row r="40" spans="1:9">
-      <c r="A40" s="28">
+      <c r="A40" s="27">
         <v>70004</v>
       </c>
-      <c r="B40" s="28">
+      <c r="B40" s="27">
         <v>18600</v>
       </c>
-      <c r="C40" s="28">
+      <c r="C40" s="27">
         <v>3</v>
       </c>
-      <c r="D40" s="28">
+      <c r="D40" s="27">
         <v>3</v>
       </c>
-      <c r="E40" s="28">
+      <c r="E40" s="27">
         <v>1</v>
       </c>
-      <c r="F40" s="28">
+      <c r="F40" s="27">
         <v>4</v>
       </c>
-      <c r="G40" s="28">
+      <c r="G40" s="27">
         <v>32</v>
       </c>
-      <c r="H40" s="28">
+      <c r="H40" s="27">
         <v>20.170000000000002</v>
       </c>
-      <c r="I40" s="29">
+      <c r="I40" s="28">
         <v>0.63029999999999997</v>
       </c>
     </row>
